--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,685 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -1396,7 +2074,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1460,11 +2138,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1522,6 +2228,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1544,35 +2278,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>255</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>253</v>
+        <v>479</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>248</v>
+        <v>474</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>249</v>
+        <v>475</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>250</v>
+        <v>476</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>251</v>
+        <v>477</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>252</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>227</v>
+        <v>453</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -1590,7 +2324,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>228</v>
+        <v>454</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -1608,7 +2342,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -1626,7 +2360,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>230</v>
+        <v>456</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -1644,7 +2378,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>231</v>
+        <v>457</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -1662,7 +2396,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>232</v>
+        <v>458</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -1680,7 +2414,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -1698,7 +2432,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>234</v>
+        <v>460</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -1716,7 +2450,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>235</v>
+        <v>461</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -1734,7 +2468,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -1752,7 +2486,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>237</v>
+        <v>463</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -1770,7 +2504,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>238</v>
+        <v>464</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -1786,7 +2520,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>239</v>
+        <v>465</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -1802,7 +2536,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>240</v>
+        <v>466</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -1820,7 +2554,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>241</v>
+        <v>467</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -1838,7 +2572,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>242</v>
+        <v>468</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -1856,7 +2590,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>243</v>
+        <v>469</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -1874,7 +2608,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>244</v>
+        <v>470</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -1892,7 +2626,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>245</v>
+        <v>471</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -1910,7 +2644,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>246</v>
+        <v>472</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -1928,7 +2662,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>247</v>
+        <v>473</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -1966,44 +2700,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>287</v>
+        <v>513</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>288</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>286</v>
+        <v>512</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>278</v>
+        <v>504</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>279</v>
+        <v>505</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>280</v>
+        <v>506</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>281</v>
+        <v>507</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>282</v>
+        <v>508</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>283</v>
+        <v>509</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>284</v>
+        <v>510</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>285</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>257</v>
+        <v>483</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -2024,7 +2758,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>258</v>
+        <v>484</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -2043,7 +2777,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>259</v>
+        <v>485</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -2062,7 +2796,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>260</v>
+        <v>486</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -2081,7 +2815,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>261</v>
+        <v>487</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -2102,7 +2836,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>262</v>
+        <v>488</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -2123,7 +2857,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -2142,7 +2876,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>264</v>
+        <v>490</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -2161,7 +2895,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>265</v>
+        <v>491</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -2182,7 +2916,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>266</v>
+        <v>492</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -2203,7 +2937,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>267</v>
+        <v>493</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -2222,7 +2956,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>268</v>
+        <v>494</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -2241,7 +2975,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>269</v>
+        <v>495</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -2260,7 +2994,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>270</v>
+        <v>496</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -2281,7 +3015,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>271</v>
+        <v>497</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -2300,7 +3034,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>272</v>
+        <v>498</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -2319,7 +3053,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>273</v>
+        <v>499</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -2338,7 +3072,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>274</v>
+        <v>500</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -2359,7 +3093,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>275</v>
+        <v>501</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -2380,7 +3114,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>276</v>
+        <v>502</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -2399,7 +3133,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>277</v>
+        <v>503</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -2438,44 +3172,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>320</v>
+        <v>546</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>321</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>319</v>
+        <v>545</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>311</v>
+        <v>537</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>312</v>
+        <v>538</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>313</v>
+        <v>539</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>314</v>
+        <v>540</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>315</v>
+        <v>541</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>316</v>
+        <v>542</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>317</v>
+        <v>543</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>318</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>290</v>
+        <v>516</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -2496,7 +3230,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>291</v>
+        <v>517</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -2515,7 +3249,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>292</v>
+        <v>518</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -2534,7 +3268,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>293</v>
+        <v>519</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -2553,7 +3287,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>294</v>
+        <v>520</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -2574,7 +3308,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -2595,7 +3329,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>296</v>
+        <v>522</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -2614,7 +3348,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>297</v>
+        <v>523</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -2633,7 +3367,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>298</v>
+        <v>524</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -2654,7 +3388,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>299</v>
+        <v>525</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -2675,7 +3409,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>300</v>
+        <v>526</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -2694,7 +3428,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>301</v>
+        <v>527</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -2713,7 +3447,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>302</v>
+        <v>528</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -2732,7 +3466,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>303</v>
+        <v>529</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -2753,7 +3487,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>304</v>
+        <v>530</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -2772,7 +3506,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>305</v>
+        <v>531</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -2791,7 +3525,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>306</v>
+        <v>532</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -2810,7 +3544,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -2831,7 +3565,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>308</v>
+        <v>534</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -2852,7 +3586,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>309</v>
+        <v>535</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -2871,7 +3605,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -2910,44 +3644,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>353</v>
+        <v>579</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>354</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>352</v>
+        <v>578</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>344</v>
+        <v>570</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>345</v>
+        <v>571</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>346</v>
+        <v>572</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>349</v>
+        <v>575</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>350</v>
+        <v>576</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>351</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>323</v>
+        <v>549</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -2968,7 +3702,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>324</v>
+        <v>550</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -2987,7 +3721,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>325</v>
+        <v>551</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -3006,7 +3740,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>326</v>
+        <v>552</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -3025,7 +3759,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>327</v>
+        <v>553</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3046,7 +3780,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>328</v>
+        <v>554</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3067,7 +3801,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>329</v>
+        <v>555</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -3086,7 +3820,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>330</v>
+        <v>556</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -3105,7 +3839,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>331</v>
+        <v>557</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -3126,7 +3860,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>332</v>
+        <v>558</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -3147,7 +3881,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>333</v>
+        <v>559</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -3166,7 +3900,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>334</v>
+        <v>560</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -3185,7 +3919,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>335</v>
+        <v>561</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -3204,7 +3938,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3225,7 +3959,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>337</v>
+        <v>563</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -3244,7 +3978,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>338</v>
+        <v>564</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -3263,7 +3997,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>339</v>
+        <v>565</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -3282,7 +4016,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>340</v>
+        <v>566</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -3303,7 +4037,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>341</v>
+        <v>567</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -3324,7 +4058,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>342</v>
+        <v>568</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -3343,7 +4077,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>343</v>
+        <v>569</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -3381,41 +4115,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>385</v>
+        <v>611</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>386</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>384</v>
+        <v>610</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>377</v>
+        <v>603</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>378</v>
+        <v>604</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>379</v>
+        <v>605</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>380</v>
+        <v>606</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>381</v>
+        <v>607</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>382</v>
+        <v>608</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>383</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>356</v>
+        <v>582</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -3433,7 +4167,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>357</v>
+        <v>583</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -3451,7 +4185,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>358</v>
+        <v>584</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -3469,7 +4203,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>359</v>
+        <v>585</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -3487,7 +4221,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>360</v>
+        <v>586</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3505,7 +4239,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>361</v>
+        <v>587</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3523,7 +4257,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>362</v>
+        <v>588</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -3541,7 +4275,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>363</v>
+        <v>589</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -3559,7 +4293,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>364</v>
+        <v>590</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -3579,7 +4313,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>365</v>
+        <v>591</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -3597,7 +4331,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>366</v>
+        <v>592</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -3615,7 +4349,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>367</v>
+        <v>593</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -3633,7 +4367,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>368</v>
+        <v>594</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -3651,7 +4385,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>369</v>
+        <v>595</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3669,7 +4403,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>370</v>
+        <v>596</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -3687,7 +4421,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>371</v>
+        <v>597</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -3705,7 +4439,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>372</v>
+        <v>598</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -3723,7 +4457,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>373</v>
+        <v>599</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -3741,7 +4475,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>374</v>
+        <v>600</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -3759,7 +4493,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>375</v>
+        <v>601</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -3777,7 +4511,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>376</v>
+        <v>602</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -3814,41 +4548,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>417</v>
+        <v>643</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>418</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>416</v>
+        <v>642</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>409</v>
+        <v>635</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>410</v>
+        <v>636</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>411</v>
+        <v>637</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>412</v>
+        <v>638</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>413</v>
+        <v>639</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>414</v>
+        <v>640</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>415</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>388</v>
+        <v>614</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -3866,7 +4600,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>389</v>
+        <v>615</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -3884,7 +4618,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>390</v>
+        <v>616</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -3902,7 +4636,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>391</v>
+        <v>617</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -3920,7 +4654,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>392</v>
+        <v>618</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3938,7 +4672,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>393</v>
+        <v>619</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3956,7 +4690,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>394</v>
+        <v>620</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -3974,7 +4708,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>395</v>
+        <v>621</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -3992,7 +4726,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>396</v>
+        <v>622</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -4012,7 +4746,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>397</v>
+        <v>623</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4030,7 +4764,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>398</v>
+        <v>624</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4048,7 +4782,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>399</v>
+        <v>625</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4066,7 +4800,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>400</v>
+        <v>626</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4084,7 +4818,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>401</v>
+        <v>627</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4102,7 +4836,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>402</v>
+        <v>628</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -4120,7 +4854,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>403</v>
+        <v>629</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -4138,7 +4872,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>404</v>
+        <v>630</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -4156,7 +4890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>405</v>
+        <v>631</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -4174,7 +4908,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>406</v>
+        <v>632</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -4192,7 +4926,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -4210,7 +4944,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>408</v>
+        <v>634</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -4248,44 +4982,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>450</v>
+        <v>676</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>451</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>449</v>
+        <v>675</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>441</v>
+        <v>667</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>442</v>
+        <v>668</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>443</v>
+        <v>669</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>444</v>
+        <v>670</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>445</v>
+        <v>671</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>447</v>
+        <v>673</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>448</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>420</v>
+        <v>646</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -4306,7 +5040,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>421</v>
+        <v>647</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -4327,7 +5061,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>422</v>
+        <v>648</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -4346,7 +5080,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>423</v>
+        <v>649</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -4365,7 +5099,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>424</v>
+        <v>650</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4386,7 +5120,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4407,7 +5141,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>426</v>
+        <v>652</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -4426,7 +5160,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>427</v>
+        <v>653</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -4445,7 +5179,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4466,7 +5200,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>429</v>
+        <v>655</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4487,7 +5221,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>430</v>
+        <v>656</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4506,7 +5240,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>431</v>
+        <v>657</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4525,7 +5259,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>432</v>
+        <v>658</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4544,7 +5278,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>433</v>
+        <v>659</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4565,7 +5299,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>434</v>
+        <v>660</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -4586,7 +5320,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>435</v>
+        <v>661</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -4605,7 +5339,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>436</v>
+        <v>662</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -4624,7 +5358,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>437</v>
+        <v>663</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -4645,7 +5379,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>438</v>
+        <v>664</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -4666,7 +5400,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>439</v>
+        <v>665</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -4685,7 +5419,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>440</v>
+        <v>666</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,685 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="904">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -2074,7 +2752,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="113">
     <border>
       <left/>
       <right/>
@@ -2166,11 +2844,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2256,6 +2962,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2278,35 +3012,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>480</v>
+        <v>706</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>481</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>479</v>
+        <v>705</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>474</v>
+        <v>700</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>476</v>
+        <v>702</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>477</v>
+        <v>703</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>478</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>453</v>
+        <v>679</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -2324,7 +3058,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>454</v>
+        <v>680</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -2342,7 +3076,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>455</v>
+        <v>681</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -2360,7 +3094,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>456</v>
+        <v>682</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -2378,7 +3112,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>457</v>
+        <v>683</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -2396,7 +3130,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>458</v>
+        <v>684</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -2414,7 +3148,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>459</v>
+        <v>685</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -2432,7 +3166,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>460</v>
+        <v>686</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -2450,7 +3184,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>461</v>
+        <v>687</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -2468,7 +3202,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>462</v>
+        <v>688</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -2486,7 +3220,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>463</v>
+        <v>689</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -2504,7 +3238,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>464</v>
+        <v>690</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -2520,7 +3254,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>465</v>
+        <v>691</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -2536,7 +3270,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>466</v>
+        <v>692</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -2554,7 +3288,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>467</v>
+        <v>693</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -2572,7 +3306,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>468</v>
+        <v>694</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -2590,7 +3324,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>469</v>
+        <v>695</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -2608,7 +3342,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>470</v>
+        <v>696</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -2626,7 +3360,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>471</v>
+        <v>697</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -2644,7 +3378,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>472</v>
+        <v>698</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -2662,7 +3396,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>473</v>
+        <v>699</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -2700,44 +3434,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>513</v>
+        <v>739</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>514</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>512</v>
+        <v>738</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>504</v>
+        <v>730</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>505</v>
+        <v>731</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>506</v>
+        <v>732</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>507</v>
+        <v>733</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>508</v>
+        <v>734</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>509</v>
+        <v>735</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>510</v>
+        <v>736</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>511</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>483</v>
+        <v>709</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -2758,7 +3492,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>484</v>
+        <v>710</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -2777,7 +3511,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>485</v>
+        <v>711</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -2796,7 +3530,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>486</v>
+        <v>712</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -2815,7 +3549,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>487</v>
+        <v>713</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -2836,7 +3570,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>488</v>
+        <v>714</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -2857,7 +3591,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>489</v>
+        <v>715</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -2876,7 +3610,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>490</v>
+        <v>716</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -2895,7 +3629,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>491</v>
+        <v>717</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -2916,7 +3650,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>492</v>
+        <v>718</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -2937,7 +3671,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>493</v>
+        <v>719</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -2956,7 +3690,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>494</v>
+        <v>720</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -2975,7 +3709,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>495</v>
+        <v>721</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -2994,7 +3728,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>496</v>
+        <v>722</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3015,7 +3749,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>497</v>
+        <v>723</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -3034,7 +3768,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>498</v>
+        <v>724</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -3053,7 +3787,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>499</v>
+        <v>725</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -3072,7 +3806,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>500</v>
+        <v>726</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -3093,7 +3827,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>501</v>
+        <v>727</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -3114,7 +3848,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>502</v>
+        <v>728</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -3133,7 +3867,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>503</v>
+        <v>729</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -3172,44 +3906,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>546</v>
+        <v>772</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>547</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>545</v>
+        <v>771</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>537</v>
+        <v>763</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>538</v>
+        <v>764</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>540</v>
+        <v>766</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>541</v>
+        <v>767</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>542</v>
+        <v>768</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>543</v>
+        <v>769</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>544</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>516</v>
+        <v>742</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -3230,7 +3964,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>517</v>
+        <v>743</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -3249,7 +3983,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>518</v>
+        <v>744</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -3268,7 +4002,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>519</v>
+        <v>745</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -3287,7 +4021,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>520</v>
+        <v>746</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3308,7 +4042,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>521</v>
+        <v>747</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3329,7 +4063,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>522</v>
+        <v>748</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -3348,7 +4082,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>523</v>
+        <v>749</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -3367,7 +4101,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>524</v>
+        <v>750</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -3388,7 +4122,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>525</v>
+        <v>751</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -3409,7 +4143,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>526</v>
+        <v>752</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -3428,7 +4162,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>527</v>
+        <v>753</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -3447,7 +4181,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>528</v>
+        <v>754</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -3466,7 +4200,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>529</v>
+        <v>755</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3487,7 +4221,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>530</v>
+        <v>756</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -3506,7 +4240,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>531</v>
+        <v>757</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -3525,7 +4259,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>532</v>
+        <v>758</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -3544,7 +4278,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>533</v>
+        <v>759</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -3565,7 +4299,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>534</v>
+        <v>760</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -3586,7 +4320,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>535</v>
+        <v>761</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -3605,7 +4339,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -3644,44 +4378,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>579</v>
+        <v>805</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>580</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>578</v>
+        <v>804</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>570</v>
+        <v>796</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>571</v>
+        <v>797</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>572</v>
+        <v>798</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>573</v>
+        <v>799</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>574</v>
+        <v>800</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>575</v>
+        <v>801</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>576</v>
+        <v>802</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>577</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>549</v>
+        <v>775</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -3702,7 +4436,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>550</v>
+        <v>776</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -3721,7 +4455,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>551</v>
+        <v>777</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -3740,7 +4474,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>552</v>
+        <v>778</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -3759,7 +4493,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>553</v>
+        <v>779</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3780,7 +4514,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>554</v>
+        <v>780</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3801,7 +4535,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>555</v>
+        <v>781</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -3820,7 +4554,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>556</v>
+        <v>782</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -3839,7 +4573,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>557</v>
+        <v>783</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -3860,7 +4594,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>558</v>
+        <v>784</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -3881,7 +4615,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>559</v>
+        <v>785</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -3900,7 +4634,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>560</v>
+        <v>786</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -3919,7 +4653,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>561</v>
+        <v>787</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -3938,7 +4672,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>562</v>
+        <v>788</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3959,7 +4693,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>563</v>
+        <v>789</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -3978,7 +4712,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>564</v>
+        <v>790</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -3997,7 +4731,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>565</v>
+        <v>791</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -4016,7 +4750,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>566</v>
+        <v>792</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -4037,7 +4771,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>567</v>
+        <v>793</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -4058,7 +4792,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>568</v>
+        <v>794</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -4077,7 +4811,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>569</v>
+        <v>795</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -4115,41 +4849,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>611</v>
+        <v>837</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>612</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>610</v>
+        <v>836</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>603</v>
+        <v>829</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>604</v>
+        <v>830</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>605</v>
+        <v>831</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>606</v>
+        <v>832</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>607</v>
+        <v>833</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>608</v>
+        <v>834</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>609</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>582</v>
+        <v>808</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -4167,7 +4901,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>583</v>
+        <v>809</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -4185,7 +4919,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>584</v>
+        <v>810</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -4203,7 +4937,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>585</v>
+        <v>811</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -4221,7 +4955,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>586</v>
+        <v>812</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4239,7 +4973,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>587</v>
+        <v>813</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4257,7 +4991,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>588</v>
+        <v>814</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -4275,7 +5009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>589</v>
+        <v>815</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -4293,7 +5027,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>590</v>
+        <v>816</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -4313,7 +5047,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>591</v>
+        <v>817</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4331,7 +5065,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>592</v>
+        <v>818</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4349,7 +5083,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>593</v>
+        <v>819</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4367,7 +5101,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>594</v>
+        <v>820</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4385,7 +5119,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>595</v>
+        <v>821</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4403,7 +5137,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>596</v>
+        <v>822</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -4421,7 +5155,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>597</v>
+        <v>823</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -4439,7 +5173,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>598</v>
+        <v>824</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -4457,7 +5191,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>599</v>
+        <v>825</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -4475,7 +5209,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>600</v>
+        <v>826</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -4493,7 +5227,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>601</v>
+        <v>827</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -4511,7 +5245,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>602</v>
+        <v>828</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -4548,41 +5282,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>643</v>
+        <v>869</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>644</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>642</v>
+        <v>868</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>635</v>
+        <v>861</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>636</v>
+        <v>862</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>637</v>
+        <v>863</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>638</v>
+        <v>864</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>639</v>
+        <v>865</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>640</v>
+        <v>866</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>641</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>614</v>
+        <v>840</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -4600,7 +5334,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>615</v>
+        <v>841</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -4618,7 +5352,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>616</v>
+        <v>842</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -4636,7 +5370,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>617</v>
+        <v>843</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -4654,7 +5388,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>618</v>
+        <v>844</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4672,7 +5406,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>619</v>
+        <v>845</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4690,7 +5424,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>620</v>
+        <v>846</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -4708,7 +5442,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>621</v>
+        <v>847</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -4726,7 +5460,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>622</v>
+        <v>848</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -4746,7 +5480,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>623</v>
+        <v>849</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4764,7 +5498,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>624</v>
+        <v>850</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4782,7 +5516,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>625</v>
+        <v>851</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4800,7 +5534,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>626</v>
+        <v>852</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4818,7 +5552,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>627</v>
+        <v>853</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4836,7 +5570,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>628</v>
+        <v>854</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -4854,7 +5588,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>629</v>
+        <v>855</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -4872,7 +5606,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>630</v>
+        <v>856</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -4890,7 +5624,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>631</v>
+        <v>857</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -4908,7 +5642,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>632</v>
+        <v>858</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -4926,7 +5660,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>633</v>
+        <v>859</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -4944,7 +5678,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>634</v>
+        <v>860</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -4982,44 +5716,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>676</v>
+        <v>902</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>677</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>675</v>
+        <v>901</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>667</v>
+        <v>893</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>668</v>
+        <v>894</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>669</v>
+        <v>895</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>670</v>
+        <v>896</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>671</v>
+        <v>897</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>672</v>
+        <v>898</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>673</v>
+        <v>899</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>674</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>646</v>
+        <v>872</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -5040,7 +5774,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>647</v>
+        <v>873</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -5061,7 +5795,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>648</v>
+        <v>874</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -5080,7 +5814,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>649</v>
+        <v>875</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -5099,7 +5833,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>650</v>
+        <v>876</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5120,7 +5854,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>651</v>
+        <v>877</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5141,7 +5875,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>652</v>
+        <v>878</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -5160,7 +5894,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>653</v>
+        <v>879</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -5179,7 +5913,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>654</v>
+        <v>880</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5200,7 +5934,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>655</v>
+        <v>881</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5221,7 +5955,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>656</v>
+        <v>882</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5240,7 +5974,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>657</v>
+        <v>883</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5259,7 +5993,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>658</v>
+        <v>884</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5278,7 +6012,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>659</v>
+        <v>885</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5299,7 +6033,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>660</v>
+        <v>886</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -5320,7 +6054,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>661</v>
+        <v>887</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -5339,7 +6073,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>662</v>
+        <v>888</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -5358,7 +6092,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>663</v>
+        <v>889</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -5379,7 +6113,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>664</v>
+        <v>890</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -5400,7 +6134,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>665</v>
+        <v>891</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -5419,7 +6153,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>666</v>
+        <v>892</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1143">
   <si>
     <t>Row</t>
   </si>
@@ -2723,6 +2723,723 @@
   </si>
   <si>
     <t>Apr-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
   </si>
   <si>
     <t>Forecast Dates</t>
@@ -2752,7 +3469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="113">
+  <borders count="141">
     <border>
       <left/>
       <right/>
@@ -2872,11 +3589,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2990,6 +3735,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2999,7 +3772,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -3012,35 +3785,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>706</v>
+        <v>933</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>707</v>
+        <v>934</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>705</v>
+        <v>932</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>700</v>
+        <v>927</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>701</v>
+        <v>928</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>702</v>
+        <v>929</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>703</v>
+        <v>930</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>704</v>
+        <v>931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>679</v>
+        <v>905</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -3058,7 +3831,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>680</v>
+        <v>906</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -3076,7 +3849,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>681</v>
+        <v>907</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -3094,7 +3867,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>682</v>
+        <v>908</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -3112,7 +3885,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>683</v>
+        <v>909</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -3130,7 +3903,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>684</v>
+        <v>910</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -3148,7 +3921,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>685</v>
+        <v>911</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -3166,7 +3939,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>686</v>
+        <v>912</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -3184,7 +3957,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>687</v>
+        <v>913</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -3202,7 +3975,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>688</v>
+        <v>914</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -3220,7 +3993,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>689</v>
+        <v>915</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -3238,7 +4011,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>690</v>
+        <v>916</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -3254,7 +4027,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>691</v>
+        <v>917</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -3270,7 +4043,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>692</v>
+        <v>918</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -3288,7 +4061,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>693</v>
+        <v>919</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -3306,7 +4079,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>694</v>
+        <v>920</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -3324,7 +4097,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>695</v>
+        <v>921</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -3342,7 +4115,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>696</v>
+        <v>922</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -3360,7 +4133,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>697</v>
+        <v>923</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -3378,7 +4151,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>698</v>
+        <v>924</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -3396,7 +4169,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>699</v>
+        <v>925</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -3410,6 +4183,24 @@
       </c>
       <c r="F23" s="0">
         <v>2.6549999999999998</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="E24" s="0">
+        <v>2.794</v>
+      </c>
+      <c r="F24" s="0">
+        <v>2.3540000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3418,7 +4209,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -3430,48 +4221,52 @@
     <col min="7" max="7" width="6.8125" customWidth="true"/>
     <col min="8" max="8" width="7.2109375" customWidth="true"/>
     <col min="9" max="9" width="6.8125" customWidth="true"/>
+    <col min="10" max="10" width="7.4140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>739</v>
+        <v>968</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>740</v>
+        <v>969</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>738</v>
+        <v>967</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>730</v>
+        <v>958</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>731</v>
+        <v>959</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>732</v>
+        <v>960</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>733</v>
+        <v>961</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>734</v>
+        <v>962</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>735</v>
+        <v>963</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>736</v>
+        <v>964</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>737</v>
+        <v>965</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>709</v>
+        <v>936</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -3489,10 +4284,11 @@
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>710</v>
+        <v>937</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -3508,10 +4304,11 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>711</v>
+        <v>938</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -3527,10 +4324,11 @@
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>712</v>
+        <v>939</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -3546,10 +4344,11 @@
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>713</v>
+        <v>940</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3567,10 +4366,11 @@
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>714</v>
+        <v>941</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3588,10 +4388,11 @@
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>715</v>
+        <v>942</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -3607,10 +4408,11 @@
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>716</v>
+        <v>943</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -3626,10 +4428,11 @@
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>717</v>
+        <v>944</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -3647,10 +4450,11 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>718</v>
+        <v>945</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -3668,10 +4472,11 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>719</v>
+        <v>946</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -3687,10 +4492,11 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>720</v>
+        <v>947</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -3706,10 +4512,11 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>721</v>
+        <v>948</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -3725,10 +4532,11 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>722</v>
+        <v>949</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3746,10 +4554,11 @@
         <v>2.6139999999999999</v>
       </c>
       <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>723</v>
+        <v>950</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -3765,10 +4574,11 @@
         <v>2.5459999999999998</v>
       </c>
       <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>724</v>
+        <v>951</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -3784,10 +4594,11 @@
         <v>2.5870000000000002</v>
       </c>
       <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>725</v>
+        <v>952</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -3803,10 +4614,11 @@
         <v>2.5009999999999999</v>
       </c>
       <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>726</v>
+        <v>953</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -3824,10 +4636,11 @@
       <c r="I20" s="0">
         <v>2.3650000000000002</v>
       </c>
+      <c r="J20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>727</v>
+        <v>954</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -3845,10 +4658,11 @@
       <c r="I21" s="0">
         <v>2.2040000000000002</v>
       </c>
+      <c r="J21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>728</v>
+        <v>955</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -3864,10 +4678,11 @@
       <c r="I22" s="0">
         <v>2.5670000000000002</v>
       </c>
+      <c r="J22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>729</v>
+        <v>956</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -3883,6 +4698,29 @@
       <c r="I23" s="0">
         <v>2.5659999999999998</v>
       </c>
+      <c r="J23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0">
+        <v>4.141</v>
+      </c>
+      <c r="H24" s="0">
+        <v>3.9100000000000001</v>
+      </c>
+      <c r="I24" s="0">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="J24" s="0">
+        <v>2.202</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -3890,7 +4728,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -3902,48 +4740,52 @@
     <col min="7" max="7" width="6.8125" customWidth="true"/>
     <col min="8" max="8" width="7.2109375" customWidth="true"/>
     <col min="9" max="9" width="6.8125" customWidth="true"/>
+    <col min="10" max="10" width="7.4140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>772</v>
+        <v>1003</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>773</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>771</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>763</v>
+        <v>993</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>764</v>
+        <v>994</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>765</v>
+        <v>995</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>766</v>
+        <v>996</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>767</v>
+        <v>997</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>768</v>
+        <v>998</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>769</v>
+        <v>999</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>770</v>
+        <v>1000</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>742</v>
+        <v>971</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -3961,10 +4803,11 @@
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>743</v>
+        <v>972</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -3980,10 +4823,11 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>744</v>
+        <v>973</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -3999,10 +4843,11 @@
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>745</v>
+        <v>974</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -4018,10 +4863,11 @@
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>746</v>
+        <v>975</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4039,10 +4885,11 @@
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>747</v>
+        <v>976</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4060,10 +4907,11 @@
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>748</v>
+        <v>977</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -4079,10 +4927,11 @@
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>749</v>
+        <v>978</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -4098,10 +4947,11 @@
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>750</v>
+        <v>979</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4119,10 +4969,11 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>751</v>
+        <v>980</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4140,10 +4991,11 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>752</v>
+        <v>981</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4159,10 +5011,11 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>753</v>
+        <v>982</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4178,10 +5031,11 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>754</v>
+        <v>983</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4197,10 +5051,11 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>755</v>
+        <v>984</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4218,10 +5073,11 @@
         <v>2.1379999999999999</v>
       </c>
       <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>756</v>
+        <v>985</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -4237,10 +5093,11 @@
         <v>2.3050000000000002</v>
       </c>
       <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>757</v>
+        <v>986</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -4256,10 +5113,11 @@
         <v>2.3170000000000002</v>
       </c>
       <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>758</v>
+        <v>987</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -4275,10 +5133,11 @@
         <v>2.3359999999999999</v>
       </c>
       <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>759</v>
+        <v>988</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -4296,10 +5155,11 @@
       <c r="I20" s="0">
         <v>2.9660000000000002</v>
       </c>
+      <c r="J20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>760</v>
+        <v>989</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -4317,10 +5177,11 @@
       <c r="I21" s="0">
         <v>2.7280000000000002</v>
       </c>
+      <c r="J21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>761</v>
+        <v>990</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -4336,10 +5197,11 @@
       <c r="I22" s="0">
         <v>2.8490000000000002</v>
       </c>
+      <c r="J22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>762</v>
+        <v>991</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -4355,6 +5217,29 @@
       <c r="I23" s="0">
         <v>2.8849999999999998</v>
       </c>
+      <c r="J23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0">
+        <v>3.153</v>
+      </c>
+      <c r="H24" s="0">
+        <v>3.2440000000000002</v>
+      </c>
+      <c r="I24" s="0">
+        <v>3.1659999999999999</v>
+      </c>
+      <c r="J24" s="0">
+        <v>3.0899999999999999</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -4362,7 +5247,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4374,48 +5259,52 @@
     <col min="7" max="7" width="6.8125" customWidth="true"/>
     <col min="8" max="8" width="7.2109375" customWidth="true"/>
     <col min="9" max="9" width="6.8125" customWidth="true"/>
+    <col min="10" max="10" width="7.4140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>805</v>
+        <v>1038</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>806</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>804</v>
+        <v>1037</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>796</v>
+        <v>1028</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>797</v>
+        <v>1029</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>798</v>
+        <v>1030</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>799</v>
+        <v>1031</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>801</v>
+        <v>1033</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>802</v>
+        <v>1034</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>803</v>
+        <v>1035</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>775</v>
+        <v>1006</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -4433,10 +5322,11 @@
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>776</v>
+        <v>1007</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -4452,10 +5342,11 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>777</v>
+        <v>1008</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -4471,10 +5362,11 @@
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>778</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -4490,10 +5382,11 @@
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>779</v>
+        <v>1010</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4511,10 +5404,11 @@
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>780</v>
+        <v>1011</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4532,10 +5426,11 @@
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>781</v>
+        <v>1012</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -4551,10 +5446,11 @@
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>782</v>
+        <v>1013</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -4570,10 +5466,11 @@
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>783</v>
+        <v>1014</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4591,10 +5488,11 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>784</v>
+        <v>1015</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4612,10 +5510,11 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>785</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4631,10 +5530,11 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>786</v>
+        <v>1017</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4650,10 +5550,11 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>787</v>
+        <v>1018</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4669,10 +5570,11 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>788</v>
+        <v>1019</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4690,10 +5592,11 @@
         <v>2.3849999999999998</v>
       </c>
       <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>789</v>
+        <v>1020</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -4709,10 +5612,11 @@
         <v>2.778</v>
       </c>
       <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>790</v>
+        <v>1021</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -4728,10 +5632,11 @@
         <v>2.8119999999999998</v>
       </c>
       <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>791</v>
+        <v>1022</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -4747,10 +5652,11 @@
         <v>2.8090000000000002</v>
       </c>
       <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>792</v>
+        <v>1023</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -4768,10 +5674,11 @@
       <c r="I20" s="0">
         <v>2.657</v>
       </c>
+      <c r="J20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>793</v>
+        <v>1024</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -4789,10 +5696,11 @@
       <c r="I21" s="0">
         <v>2.7890000000000001</v>
       </c>
+      <c r="J21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>794</v>
+        <v>1025</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -4808,10 +5716,11 @@
       <c r="I22" s="0">
         <v>3.387</v>
       </c>
+      <c r="J22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>795</v>
+        <v>1026</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -4827,6 +5736,29 @@
       <c r="I23" s="0">
         <v>3.391</v>
       </c>
+      <c r="J23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0">
+        <v>4.0759999999999996</v>
+      </c>
+      <c r="H24" s="0">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="I24" s="0">
+        <v>3.2709999999999999</v>
+      </c>
+      <c r="J24" s="0">
+        <v>3.226</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -4834,7 +5766,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4845,45 +5777,49 @@
     <col min="6" max="6" width="6.8125" customWidth="true"/>
     <col min="7" max="7" width="7.2109375" customWidth="true"/>
     <col min="8" max="8" width="6.8125" customWidth="true"/>
+    <col min="9" max="9" width="7.4140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>837</v>
+        <v>1072</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>838</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>836</v>
+        <v>1071</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>829</v>
+        <v>1063</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>830</v>
+        <v>1064</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>831</v>
+        <v>1065</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>832</v>
+        <v>1066</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>833</v>
+        <v>1067</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>834</v>
+        <v>1068</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>835</v>
+        <v>1069</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>808</v>
+        <v>1041</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -4898,10 +5834,11 @@
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>809</v>
+        <v>1042</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -4916,10 +5853,11 @@
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>810</v>
+        <v>1043</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -4934,10 +5872,11 @@
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>811</v>
+        <v>1044</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -4952,10 +5891,11 @@
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>812</v>
+        <v>1045</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4970,10 +5910,11 @@
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>813</v>
+        <v>1046</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4988,10 +5929,11 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>814</v>
+        <v>1047</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -5006,10 +5948,11 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>815</v>
+        <v>1048</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -5024,10 +5967,11 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>816</v>
+        <v>1049</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -5044,10 +5988,11 @@
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>817</v>
+        <v>1050</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5062,10 +6007,11 @@
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>818</v>
+        <v>1051</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5080,10 +6026,11 @@
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>819</v>
+        <v>1052</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5098,10 +6045,11 @@
       </c>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>820</v>
+        <v>1053</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5116,10 +6064,11 @@
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>821</v>
+        <v>1054</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5134,10 +6083,11 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>822</v>
+        <v>1055</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -5152,10 +6102,11 @@
         <v>0.025999999999999999</v>
       </c>
       <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>823</v>
+        <v>1056</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -5170,10 +6121,11 @@
         <v>0.027</v>
       </c>
       <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>824</v>
+        <v>1057</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -5188,10 +6140,11 @@
         <v>0.028000000000000001</v>
       </c>
       <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>825</v>
+        <v>1058</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -5206,10 +6159,11 @@
       <c r="H20" s="0">
         <v>0.02</v>
       </c>
+      <c r="I20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>826</v>
+        <v>1059</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -5224,10 +6178,11 @@
       <c r="H21" s="0">
         <v>0.023</v>
       </c>
+      <c r="I21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>827</v>
+        <v>1060</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -5242,10 +6197,11 @@
       <c r="H22" s="0">
         <v>0.024</v>
       </c>
+      <c r="I22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>828</v>
+        <v>1061</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -5260,6 +6216,28 @@
       <c r="H23" s="0">
         <v>0.025000000000000001</v>
       </c>
+      <c r="I23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0">
+        <v>-0.023</v>
+      </c>
+      <c r="G24" s="0">
+        <v>-0.029999999999999999</v>
+      </c>
+      <c r="H24" s="0">
+        <v>-0.223</v>
+      </c>
+      <c r="I24" s="0">
+        <v>0.016</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -5267,7 +6245,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5278,45 +6256,49 @@
     <col min="6" max="6" width="6.8125" customWidth="true"/>
     <col min="7" max="7" width="7.2109375" customWidth="true"/>
     <col min="8" max="8" width="6.8125" customWidth="true"/>
+    <col min="9" max="9" width="7.4140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>869</v>
+        <v>1106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>870</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>868</v>
+        <v>1105</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>861</v>
+        <v>1097</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>862</v>
+        <v>1098</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>863</v>
+        <v>1099</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>864</v>
+        <v>1100</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>865</v>
+        <v>1101</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>866</v>
+        <v>1102</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>867</v>
+        <v>1103</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>840</v>
+        <v>1075</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -5331,10 +6313,11 @@
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>841</v>
+        <v>1076</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -5349,10 +6332,11 @@
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>842</v>
+        <v>1077</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -5367,10 +6351,11 @@
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>843</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -5385,10 +6370,11 @@
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>844</v>
+        <v>1079</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5403,10 +6389,11 @@
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>845</v>
+        <v>1080</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5421,10 +6408,11 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>846</v>
+        <v>1081</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -5439,10 +6427,11 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>847</v>
+        <v>1082</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -5457,10 +6446,11 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>848</v>
+        <v>1083</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -5477,10 +6467,11 @@
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>849</v>
+        <v>1084</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5495,10 +6486,11 @@
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>850</v>
+        <v>1085</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5513,10 +6505,11 @@
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>851</v>
+        <v>1086</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5531,10 +6524,11 @@
       </c>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>852</v>
+        <v>1087</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5549,10 +6543,11 @@
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>853</v>
+        <v>1088</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5567,10 +6562,11 @@
         <v>0.042999999999999997</v>
       </c>
       <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>854</v>
+        <v>1089</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -5585,10 +6581,11 @@
         <v>0.049000000000000002</v>
       </c>
       <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>855</v>
+        <v>1090</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -5603,10 +6600,11 @@
         <v>0.050999999999999997</v>
       </c>
       <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>856</v>
+        <v>1091</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -5621,10 +6619,11 @@
         <v>0.050999999999999997</v>
       </c>
       <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>857</v>
+        <v>1092</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -5639,10 +6638,11 @@
       <c r="H20" s="0">
         <v>0.085999999999999993</v>
       </c>
+      <c r="I20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>858</v>
+        <v>1093</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -5657,10 +6657,11 @@
       <c r="H21" s="0">
         <v>0.073999999999999996</v>
       </c>
+      <c r="I21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>859</v>
+        <v>1094</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -5675,10 +6676,11 @@
       <c r="H22" s="0">
         <v>0.068000000000000005</v>
       </c>
+      <c r="I22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>860</v>
+        <v>1095</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -5693,6 +6695,28 @@
       <c r="H23" s="0">
         <v>0.068000000000000005</v>
       </c>
+      <c r="I23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.251</v>
+      </c>
+      <c r="I24" s="0">
+        <v>0.084000000000000005</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -5700,7 +6724,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5712,48 +6736,52 @@
     <col min="7" max="7" width="6.8125" customWidth="true"/>
     <col min="8" max="8" width="7.2109375" customWidth="true"/>
     <col min="9" max="9" width="6.8125" customWidth="true"/>
+    <col min="10" max="10" width="7.4140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>902</v>
+        <v>1141</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>903</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>901</v>
+        <v>1140</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>893</v>
+        <v>1131</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>894</v>
+        <v>1132</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>895</v>
+        <v>1133</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>896</v>
+        <v>1134</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>897</v>
+        <v>1135</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>898</v>
+        <v>1136</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>899</v>
+        <v>1137</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>900</v>
+        <v>1138</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>872</v>
+        <v>1109</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -5771,10 +6799,11 @@
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>873</v>
+        <v>1110</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -5792,10 +6821,11 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>874</v>
+        <v>1111</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -5811,10 +6841,11 @@
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>875</v>
+        <v>1112</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -5830,10 +6861,11 @@
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>876</v>
+        <v>1113</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5851,10 +6883,11 @@
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>877</v>
+        <v>1114</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5872,10 +6905,11 @@
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>878</v>
+        <v>1115</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -5891,10 +6925,11 @@
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>879</v>
+        <v>1116</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -5910,10 +6945,11 @@
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>880</v>
+        <v>1117</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5931,10 +6967,11 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>881</v>
+        <v>1118</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5952,10 +6989,11 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>882</v>
+        <v>1119</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5971,10 +7009,11 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>883</v>
+        <v>1120</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5990,10 +7029,11 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>884</v>
+        <v>1121</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6009,10 +7049,11 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>885</v>
+        <v>1122</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6030,10 +7071,11 @@
         <v>2.3340000000000001</v>
       </c>
       <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>886</v>
+        <v>1123</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6051,10 +7093,11 @@
         <v>2.323</v>
       </c>
       <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>887</v>
+        <v>1124</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6070,10 +7113,11 @@
         <v>2.3260000000000001</v>
       </c>
       <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>888</v>
+        <v>1125</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -6089,10 +7133,11 @@
         <v>2.3260000000000001</v>
       </c>
       <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>889</v>
+        <v>1126</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -6110,10 +7155,11 @@
       <c r="I20" s="0">
         <v>2.3220000000000001</v>
       </c>
+      <c r="J20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>890</v>
+        <v>1127</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6131,10 +7177,11 @@
       <c r="I21" s="0">
         <v>2.3220000000000001</v>
       </c>
+      <c r="J21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>891</v>
+        <v>1128</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6150,10 +7197,11 @@
       <c r="I22" s="0">
         <v>2.3239999999999998</v>
       </c>
+      <c r="J22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>892</v>
+        <v>1129</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6169,6 +7217,29 @@
       <c r="I23" s="0">
         <v>2.3239999999999998</v>
       </c>
+      <c r="J23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0">
+        <v>4.4790000000000001</v>
+      </c>
+      <c r="H24" s="0">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="I24" s="0">
+        <v>3.5489999999999999</v>
+      </c>
+      <c r="J24" s="0">
+        <v>2.319</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1389">
   <si>
     <t>Row</t>
   </si>
@@ -3413,6 +3413,744 @@
   </si>
   <si>
     <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -3469,7 +4207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="141">
+  <borders count="169">
     <border>
       <left/>
       <right/>
@@ -3617,11 +4355,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -3763,6 +4529,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3772,7 +4566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -3785,35 +4579,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>933</v>
+        <v>1173</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>934</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>932</v>
+        <v>1172</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>927</v>
+        <v>1167</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>928</v>
+        <v>1168</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>929</v>
+        <v>1169</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>930</v>
+        <v>1170</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>931</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>905</v>
+        <v>1144</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -3831,7 +4625,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>906</v>
+        <v>1145</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -3849,7 +4643,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>907</v>
+        <v>1146</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -3867,7 +4661,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>908</v>
+        <v>1147</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -3885,7 +4679,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>909</v>
+        <v>1148</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -3903,7 +4697,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>910</v>
+        <v>1149</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -3921,7 +4715,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>911</v>
+        <v>1150</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -3939,7 +4733,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>912</v>
+        <v>1151</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -3957,7 +4751,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>913</v>
+        <v>1152</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -3975,7 +4769,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>914</v>
+        <v>1153</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -3993,7 +4787,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>915</v>
+        <v>1154</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -4011,7 +4805,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>916</v>
+        <v>1155</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -4027,7 +4821,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>917</v>
+        <v>1156</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -4043,7 +4837,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>918</v>
+        <v>1157</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -4061,7 +4855,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>919</v>
+        <v>1158</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -4079,7 +4873,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>920</v>
+        <v>1159</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -4097,7 +4891,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>921</v>
+        <v>1160</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -4115,7 +4909,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>922</v>
+        <v>1161</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -4133,7 +4927,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>923</v>
+        <v>1162</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -4151,7 +4945,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>924</v>
+        <v>1163</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -4169,7 +4963,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>925</v>
+        <v>1164</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -4187,7 +4981,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>926</v>
+        <v>1165</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -4201,6 +4995,24 @@
       </c>
       <c r="F24" s="0">
         <v>2.3540000000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0">
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="D25" s="0">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="E25" s="0">
+        <v>2.8809999999999998</v>
+      </c>
+      <c r="F25" s="0">
+        <v>2.6549999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +5021,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4226,47 +5038,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>968</v>
+        <v>1209</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>969</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>967</v>
+        <v>1208</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>958</v>
+        <v>1199</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>959</v>
+        <v>1200</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>960</v>
+        <v>1201</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>961</v>
+        <v>1202</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>962</v>
+        <v>1203</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>963</v>
+        <v>1204</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>964</v>
+        <v>1205</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>965</v>
+        <v>1206</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>966</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>936</v>
+        <v>1176</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -4288,7 +5100,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>937</v>
+        <v>1177</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -4308,7 +5120,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>938</v>
+        <v>1178</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -4328,7 +5140,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>939</v>
+        <v>1179</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -4348,7 +5160,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>940</v>
+        <v>1180</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4370,7 +5182,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>941</v>
+        <v>1181</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4392,7 +5204,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>942</v>
+        <v>1182</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -4412,7 +5224,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>943</v>
+        <v>1183</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -4432,7 +5244,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>944</v>
+        <v>1184</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4454,7 +5266,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>945</v>
+        <v>1185</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4476,7 +5288,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>946</v>
+        <v>1186</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4496,7 +5308,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>947</v>
+        <v>1187</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4516,7 +5328,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>948</v>
+        <v>1188</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4536,7 +5348,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>949</v>
+        <v>1189</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4558,7 +5370,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>950</v>
+        <v>1190</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -4578,7 +5390,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>951</v>
+        <v>1191</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -4598,7 +5410,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>952</v>
+        <v>1192</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -4618,7 +5430,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>953</v>
+        <v>1193</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -4640,7 +5452,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>954</v>
+        <v>1194</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -4662,7 +5474,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>955</v>
+        <v>1195</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -4682,7 +5494,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>956</v>
+        <v>1196</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -4702,7 +5514,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>957</v>
+        <v>1197</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -4722,13 +5534,35 @@
         <v>2.202</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="H25" s="0">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="I25" s="0">
+        <v>3.093</v>
+      </c>
+      <c r="J25" s="0">
+        <v>2.1560000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4745,47 +5579,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1003</v>
+        <v>1245</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1004</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1002</v>
+        <v>1244</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>993</v>
+        <v>1235</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>994</v>
+        <v>1236</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>995</v>
+        <v>1237</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>996</v>
+        <v>1238</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>997</v>
+        <v>1239</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>998</v>
+        <v>1240</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>999</v>
+        <v>1241</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1000</v>
+        <v>1242</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1001</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>971</v>
+        <v>1212</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -4807,7 +5641,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>972</v>
+        <v>1213</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -4827,7 +5661,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>973</v>
+        <v>1214</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -4847,7 +5681,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>974</v>
+        <v>1215</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -4867,7 +5701,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>975</v>
+        <v>1216</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4889,7 +5723,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>976</v>
+        <v>1217</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4911,7 +5745,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>977</v>
+        <v>1218</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -4931,7 +5765,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>978</v>
+        <v>1219</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -4951,7 +5785,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>979</v>
+        <v>1220</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4973,7 +5807,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>980</v>
+        <v>1221</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4995,7 +5829,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>981</v>
+        <v>1222</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5015,7 +5849,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>982</v>
+        <v>1223</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5035,7 +5869,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>983</v>
+        <v>1224</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5055,7 +5889,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>984</v>
+        <v>1225</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5077,7 +5911,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>985</v>
+        <v>1226</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -5097,7 +5931,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>986</v>
+        <v>1227</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -5117,7 +5951,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>987</v>
+        <v>1228</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -5137,7 +5971,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>988</v>
+        <v>1229</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -5159,7 +5993,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>989</v>
+        <v>1230</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -5181,7 +6015,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>990</v>
+        <v>1231</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -5201,7 +6035,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>991</v>
+        <v>1232</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -5221,7 +6055,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>992</v>
+        <v>1233</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -5241,13 +6075,35 @@
         <v>3.0899999999999999</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="H25" s="0">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="I25" s="0">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="J25" s="0">
+        <v>2.9140000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5264,47 +6120,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1038</v>
+        <v>1281</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1039</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1037</v>
+        <v>1280</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1028</v>
+        <v>1271</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1029</v>
+        <v>1272</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1030</v>
+        <v>1273</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1031</v>
+        <v>1274</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1032</v>
+        <v>1275</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1033</v>
+        <v>1276</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1034</v>
+        <v>1277</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1035</v>
+        <v>1278</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1036</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1006</v>
+        <v>1248</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -5326,7 +6182,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1007</v>
+        <v>1249</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -5346,7 +6202,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1008</v>
+        <v>1250</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -5366,7 +6222,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1009</v>
+        <v>1251</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -5386,7 +6242,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1010</v>
+        <v>1252</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5408,7 +6264,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1011</v>
+        <v>1253</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5430,7 +6286,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1012</v>
+        <v>1254</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -5450,7 +6306,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1013</v>
+        <v>1255</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -5470,7 +6326,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1014</v>
+        <v>1256</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5492,7 +6348,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1015</v>
+        <v>1257</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5514,7 +6370,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1016</v>
+        <v>1258</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5534,7 +6390,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1017</v>
+        <v>1259</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5554,7 +6410,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1018</v>
+        <v>1260</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5574,7 +6430,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1019</v>
+        <v>1261</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5596,7 +6452,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1020</v>
+        <v>1262</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -5616,7 +6472,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1021</v>
+        <v>1263</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -5636,7 +6492,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1022</v>
+        <v>1264</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -5656,7 +6512,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1023</v>
+        <v>1265</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -5678,7 +6534,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1024</v>
+        <v>1266</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -5700,7 +6556,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1025</v>
+        <v>1267</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -5720,7 +6576,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1026</v>
+        <v>1268</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -5740,7 +6596,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1027</v>
+        <v>1269</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -5760,13 +6616,35 @@
         <v>3.226</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0">
+        <v>4.0469999999999997</v>
+      </c>
+      <c r="H25" s="0">
+        <v>3.214</v>
+      </c>
+      <c r="I25" s="0">
+        <v>3.2120000000000002</v>
+      </c>
+      <c r="J25" s="0">
+        <v>3.073</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5782,44 +6660,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1072</v>
+        <v>1316</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1073</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1071</v>
+        <v>1315</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1063</v>
+        <v>1307</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1064</v>
+        <v>1308</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1065</v>
+        <v>1309</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1066</v>
+        <v>1310</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1067</v>
+        <v>1311</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1068</v>
+        <v>1312</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1069</v>
+        <v>1313</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1070</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1041</v>
+        <v>1284</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -5838,7 +6716,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1042</v>
+        <v>1285</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -5857,7 +6735,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1043</v>
+        <v>1286</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -5876,7 +6754,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1044</v>
+        <v>1287</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -5895,7 +6773,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1045</v>
+        <v>1288</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5914,7 +6792,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1046</v>
+        <v>1289</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5933,7 +6811,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1047</v>
+        <v>1290</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -5952,7 +6830,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1048</v>
+        <v>1291</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -5971,7 +6849,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1049</v>
+        <v>1292</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -5992,7 +6870,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1050</v>
+        <v>1293</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6011,7 +6889,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1051</v>
+        <v>1294</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6030,7 +6908,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1052</v>
+        <v>1295</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6049,7 +6927,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1053</v>
+        <v>1296</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6068,7 +6946,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1054</v>
+        <v>1297</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6087,7 +6965,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1055</v>
+        <v>1298</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6106,7 +6984,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1056</v>
+        <v>1299</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6125,7 +7003,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1057</v>
+        <v>1300</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -6144,7 +7022,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1058</v>
+        <v>1301</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -6163,7 +7041,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1059</v>
+        <v>1302</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6182,7 +7060,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1060</v>
+        <v>1303</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6201,7 +7079,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1061</v>
+        <v>1304</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6220,7 +7098,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1062</v>
+        <v>1305</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -6239,13 +7117,32 @@
         <v>0.016</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0">
+        <v>-0.032000000000000001</v>
+      </c>
+      <c r="H25" s="0">
+        <v>-0.063</v>
+      </c>
+      <c r="I25" s="0">
+        <v>0.037999999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6261,44 +7158,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1106</v>
+        <v>1351</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1107</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1105</v>
+        <v>1350</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1097</v>
+        <v>1342</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1098</v>
+        <v>1343</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1099</v>
+        <v>1344</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1100</v>
+        <v>1345</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1101</v>
+        <v>1346</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1102</v>
+        <v>1347</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1103</v>
+        <v>1348</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1104</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1075</v>
+        <v>1319</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -6317,7 +7214,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1076</v>
+        <v>1320</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -6336,7 +7233,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1077</v>
+        <v>1321</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -6355,7 +7252,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1078</v>
+        <v>1322</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -6374,7 +7271,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1079</v>
+        <v>1323</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6393,7 +7290,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1080</v>
+        <v>1324</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6412,7 +7309,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1081</v>
+        <v>1325</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -6431,7 +7328,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1082</v>
+        <v>1326</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -6450,7 +7347,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1083</v>
+        <v>1327</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -6471,7 +7368,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1084</v>
+        <v>1328</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6490,7 +7387,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1085</v>
+        <v>1329</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6509,7 +7406,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1086</v>
+        <v>1330</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6528,7 +7425,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1087</v>
+        <v>1331</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6547,7 +7444,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1088</v>
+        <v>1332</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6566,7 +7463,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1089</v>
+        <v>1333</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6585,7 +7482,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1090</v>
+        <v>1334</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6604,7 +7501,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1091</v>
+        <v>1335</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -6623,7 +7520,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1092</v>
+        <v>1336</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -6642,7 +7539,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1093</v>
+        <v>1337</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6661,7 +7558,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1094</v>
+        <v>1338</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6680,7 +7577,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1095</v>
+        <v>1339</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6699,7 +7596,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1096</v>
+        <v>1340</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -6718,13 +7615,32 @@
         <v>0.084000000000000005</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I25" s="0">
+        <v>0.048000000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6741,47 +7657,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1141</v>
+        <v>1387</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1142</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1140</v>
+        <v>1386</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1131</v>
+        <v>1377</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1132</v>
+        <v>1378</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1133</v>
+        <v>1379</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1134</v>
+        <v>1380</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1135</v>
+        <v>1381</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1136</v>
+        <v>1382</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1137</v>
+        <v>1383</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1138</v>
+        <v>1384</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1139</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1109</v>
+        <v>1354</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -6803,7 +7719,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1110</v>
+        <v>1355</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -6825,7 +7741,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1111</v>
+        <v>1356</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6845,7 +7761,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1112</v>
+        <v>1357</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6865,7 +7781,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1113</v>
+        <v>1358</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6887,7 +7803,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1114</v>
+        <v>1359</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6909,7 +7825,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1115</v>
+        <v>1360</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6929,7 +7845,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1116</v>
+        <v>1361</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6949,7 +7865,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1117</v>
+        <v>1362</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6971,7 +7887,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1118</v>
+        <v>1363</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6993,7 +7909,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1119</v>
+        <v>1364</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7013,7 +7929,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1120</v>
+        <v>1365</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7033,7 +7949,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1121</v>
+        <v>1366</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7053,7 +7969,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1122</v>
+        <v>1367</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7075,7 +7991,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1123</v>
+        <v>1368</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -7097,7 +8013,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1124</v>
+        <v>1369</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -7117,7 +8033,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1125</v>
+        <v>1370</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -7137,7 +8053,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1126</v>
+        <v>1371</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -7159,7 +8075,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1127</v>
+        <v>1372</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -7181,7 +8097,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1128</v>
+        <v>1373</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7201,7 +8117,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1129</v>
+        <v>1374</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7221,7 +8137,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1130</v>
+        <v>1375</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -7241,6 +8157,28 @@
         <v>2.319</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0">
+        <v>11.279999999999999</v>
+      </c>
+      <c r="H25" s="0">
+        <v>8.0020000000000007</v>
+      </c>
+      <c r="I25" s="0">
+        <v>3.0830000000000002</v>
+      </c>
+      <c r="J25" s="0">
+        <v>2.319</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="1649">
   <si>
     <t>Row</t>
   </si>
@@ -4151,6 +4151,786 @@
   </si>
   <si>
     <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -4207,7 +4987,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="169">
+  <borders count="197">
     <border>
       <left/>
       <right/>
@@ -4383,11 +5163,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -4557,6 +5365,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4566,7 +5402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4579,35 +5415,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1173</v>
+        <v>1421</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1174</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1172</v>
+        <v>1420</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1167</v>
+        <v>1415</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1168</v>
+        <v>1416</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1169</v>
+        <v>1417</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1170</v>
+        <v>1418</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1171</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1144</v>
+        <v>1390</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -4625,7 +5461,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1145</v>
+        <v>1391</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -4643,7 +5479,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1146</v>
+        <v>1392</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -4661,7 +5497,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1147</v>
+        <v>1393</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -4679,7 +5515,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1148</v>
+        <v>1394</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -4697,7 +5533,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1149</v>
+        <v>1395</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -4715,7 +5551,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1150</v>
+        <v>1396</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -4733,7 +5569,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1151</v>
+        <v>1397</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -4751,7 +5587,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1152</v>
+        <v>1398</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -4769,7 +5605,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1153</v>
+        <v>1399</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -4787,7 +5623,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1154</v>
+        <v>1400</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -4805,7 +5641,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1155</v>
+        <v>1401</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -4821,7 +5657,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1156</v>
+        <v>1402</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -4837,7 +5673,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1157</v>
+        <v>1403</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -4855,7 +5691,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1158</v>
+        <v>1404</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -4873,7 +5709,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1159</v>
+        <v>1405</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -4891,7 +5727,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1160</v>
+        <v>1406</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -4909,7 +5745,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1161</v>
+        <v>1407</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -4927,7 +5763,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1162</v>
+        <v>1408</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -4945,7 +5781,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1163</v>
+        <v>1409</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -4963,7 +5799,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1164</v>
+        <v>1410</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -4981,7 +5817,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1165</v>
+        <v>1411</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -4999,7 +5835,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1166</v>
+        <v>1412</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -5012,6 +5848,42 @@
         <v>2.8809999999999998</v>
       </c>
       <c r="F25" s="0">
+        <v>2.6549999999999998</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0">
+        <v>2.3660000000000001</v>
+      </c>
+      <c r="D26" s="0">
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="E26" s="0">
+        <v>2.1190000000000002</v>
+      </c>
+      <c r="F26" s="0">
+        <v>2.6549999999999998</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0">
+        <v>2.363</v>
+      </c>
+      <c r="D27" s="0">
+        <v>2.4199999999999999</v>
+      </c>
+      <c r="E27" s="0">
+        <v>2.024</v>
+      </c>
+      <c r="F27" s="0">
         <v>2.6549999999999998</v>
       </c>
     </row>
@@ -5021,7 +5893,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5038,47 +5910,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1209</v>
+        <v>1459</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1210</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1208</v>
+        <v>1458</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1199</v>
+        <v>1449</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1201</v>
+        <v>1451</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1202</v>
+        <v>1452</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1203</v>
+        <v>1453</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1204</v>
+        <v>1454</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1205</v>
+        <v>1455</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1206</v>
+        <v>1456</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1207</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1176</v>
+        <v>1424</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -5100,7 +5972,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1177</v>
+        <v>1425</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -5120,7 +5992,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1178</v>
+        <v>1426</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -5140,7 +6012,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1179</v>
+        <v>1427</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -5160,7 +6032,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1180</v>
+        <v>1428</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5182,7 +6054,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1181</v>
+        <v>1429</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5204,7 +6076,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1182</v>
+        <v>1430</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -5224,7 +6096,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1183</v>
+        <v>1431</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -5244,7 +6116,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1184</v>
+        <v>1432</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5266,7 +6138,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1185</v>
+        <v>1433</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5288,7 +6160,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1186</v>
+        <v>1434</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5308,7 +6180,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1187</v>
+        <v>1435</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5328,7 +6200,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1188</v>
+        <v>1436</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5348,7 +6220,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1189</v>
+        <v>1437</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5370,7 +6242,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1190</v>
+        <v>1438</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -5390,7 +6262,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1191</v>
+        <v>1439</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -5410,7 +6282,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1192</v>
+        <v>1440</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -5430,7 +6302,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1193</v>
+        <v>1441</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -5452,7 +6324,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1194</v>
+        <v>1442</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -5474,7 +6346,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1195</v>
+        <v>1443</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -5494,7 +6366,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1196</v>
+        <v>1444</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -5514,7 +6386,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1197</v>
+        <v>1445</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -5536,7 +6408,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1198</v>
+        <v>1446</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -5556,13 +6428,53 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0">
+        <v>4.4530000000000003</v>
+      </c>
+      <c r="I26" s="0">
+        <v>3.6230000000000002</v>
+      </c>
+      <c r="J26" s="0">
+        <v>2.5339999999999998</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0">
+        <v>4.5629999999999997</v>
+      </c>
+      <c r="I27" s="0">
+        <v>3.706</v>
+      </c>
+      <c r="J27" s="0">
+        <v>2.5339999999999998</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5579,47 +6491,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1245</v>
+        <v>1497</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1246</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1244</v>
+        <v>1496</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1235</v>
+        <v>1487</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1236</v>
+        <v>1488</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1237</v>
+        <v>1489</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1238</v>
+        <v>1490</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1239</v>
+        <v>1491</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1240</v>
+        <v>1492</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1241</v>
+        <v>1493</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1242</v>
+        <v>1494</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1243</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1212</v>
+        <v>1462</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -5641,7 +6553,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1213</v>
+        <v>1463</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -5661,7 +6573,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1214</v>
+        <v>1464</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -5681,7 +6593,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1215</v>
+        <v>1465</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -5701,7 +6613,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1216</v>
+        <v>1466</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5723,7 +6635,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1217</v>
+        <v>1467</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5745,7 +6657,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1218</v>
+        <v>1468</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -5765,7 +6677,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1219</v>
+        <v>1469</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -5785,7 +6697,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1220</v>
+        <v>1470</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5807,7 +6719,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1221</v>
+        <v>1471</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5829,7 +6741,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1222</v>
+        <v>1472</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5849,7 +6761,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1223</v>
+        <v>1473</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5869,7 +6781,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1224</v>
+        <v>1474</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5889,7 +6801,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5911,7 +6823,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1226</v>
+        <v>1476</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -5931,7 +6843,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1227</v>
+        <v>1477</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -5951,7 +6863,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1228</v>
+        <v>1478</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -5971,7 +6883,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1229</v>
+        <v>1479</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -5993,7 +6905,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1230</v>
+        <v>1480</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6015,7 +6927,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1231</v>
+        <v>1481</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6035,7 +6947,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1232</v>
+        <v>1482</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6055,7 +6967,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1233</v>
+        <v>1483</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -6077,7 +6989,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1234</v>
+        <v>1484</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -6097,13 +7009,53 @@
         <v>2.9140000000000001</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0">
+        <v>3.3439999999999999</v>
+      </c>
+      <c r="I26" s="0">
+        <v>3.5219999999999998</v>
+      </c>
+      <c r="J26" s="0">
+        <v>3.3420000000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0">
+        <v>3.3599999999999999</v>
+      </c>
+      <c r="I27" s="0">
+        <v>3.5510000000000002</v>
+      </c>
+      <c r="J27" s="0">
+        <v>3.371</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6120,47 +7072,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1281</v>
+        <v>1535</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1282</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1280</v>
+        <v>1534</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1271</v>
+        <v>1525</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1272</v>
+        <v>1526</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1273</v>
+        <v>1527</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1274</v>
+        <v>1528</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1275</v>
+        <v>1529</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1276</v>
+        <v>1530</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1277</v>
+        <v>1531</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1278</v>
+        <v>1532</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1279</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1248</v>
+        <v>1500</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -6182,7 +7134,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1249</v>
+        <v>1501</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -6202,7 +7154,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1250</v>
+        <v>1502</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6222,7 +7174,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1251</v>
+        <v>1503</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6242,7 +7194,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1252</v>
+        <v>1504</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6264,7 +7216,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1253</v>
+        <v>1505</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6286,7 +7238,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1254</v>
+        <v>1506</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6306,7 +7258,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1255</v>
+        <v>1507</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6326,7 +7278,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1256</v>
+        <v>1508</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6348,7 +7300,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1257</v>
+        <v>1509</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6370,7 +7322,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1258</v>
+        <v>1510</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6390,7 +7342,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1259</v>
+        <v>1511</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6410,7 +7362,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1260</v>
+        <v>1512</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6430,7 +7382,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1261</v>
+        <v>1513</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6452,7 +7404,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1262</v>
+        <v>1514</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6472,7 +7424,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1263</v>
+        <v>1515</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6492,7 +7444,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1264</v>
+        <v>1516</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -6512,7 +7464,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1265</v>
+        <v>1517</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -6534,7 +7486,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1266</v>
+        <v>1518</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6556,7 +7508,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1267</v>
+        <v>1519</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6576,7 +7528,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1268</v>
+        <v>1520</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6596,7 +7548,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1269</v>
+        <v>1521</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -6618,7 +7570,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1270</v>
+        <v>1522</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -6638,13 +7590,53 @@
         <v>3.073</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0">
+        <v>3.7909999999999999</v>
+      </c>
+      <c r="I26" s="0">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="J26" s="0">
+        <v>3.6760000000000002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0">
+        <v>3.855</v>
+      </c>
+      <c r="I27" s="0">
+        <v>3.258</v>
+      </c>
+      <c r="J27" s="0">
+        <v>3.7389999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6660,44 +7652,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1316</v>
+        <v>1572</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1317</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1315</v>
+        <v>1571</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1307</v>
+        <v>1563</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1308</v>
+        <v>1564</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1309</v>
+        <v>1565</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1310</v>
+        <v>1566</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1311</v>
+        <v>1567</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1312</v>
+        <v>1568</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1313</v>
+        <v>1569</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1314</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1284</v>
+        <v>1538</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -6716,7 +7708,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1285</v>
+        <v>1539</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -6735,7 +7727,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1286</v>
+        <v>1540</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -6754,7 +7746,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1287</v>
+        <v>1541</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -6773,7 +7765,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1288</v>
+        <v>1542</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6792,7 +7784,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1289</v>
+        <v>1543</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6811,7 +7803,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1290</v>
+        <v>1544</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -6830,7 +7822,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1291</v>
+        <v>1545</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -6849,7 +7841,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1292</v>
+        <v>1546</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -6870,7 +7862,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1293</v>
+        <v>1547</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6889,7 +7881,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1294</v>
+        <v>1548</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6908,7 +7900,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1295</v>
+        <v>1549</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6927,7 +7919,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1296</v>
+        <v>1550</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6946,7 +7938,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1297</v>
+        <v>1551</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6965,7 +7957,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1298</v>
+        <v>1552</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6984,7 +7976,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1299</v>
+        <v>1553</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -7003,7 +7995,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1300</v>
+        <v>1554</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -7022,7 +8014,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1301</v>
+        <v>1555</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -7041,7 +8033,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1302</v>
+        <v>1556</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -7060,7 +8052,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1303</v>
+        <v>1557</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7079,7 +8071,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1304</v>
+        <v>1558</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7098,7 +8090,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1305</v>
+        <v>1559</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -7119,7 +8111,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1306</v>
+        <v>1560</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -7136,13 +8128,51 @@
         <v>0.037999999999999999</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0">
+        <v>-0.021999999999999999</v>
+      </c>
+      <c r="H26" s="0">
+        <v>-0.042000000000000003</v>
+      </c>
+      <c r="I26" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0">
+        <v>-0.023</v>
+      </c>
+      <c r="H27" s="0">
+        <v>-0.044999999999999998</v>
+      </c>
+      <c r="I27" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7158,44 +8188,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1351</v>
+        <v>1609</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1352</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1350</v>
+        <v>1608</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1342</v>
+        <v>1600</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1343</v>
+        <v>1601</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1344</v>
+        <v>1602</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1345</v>
+        <v>1603</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1346</v>
+        <v>1604</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1347</v>
+        <v>1605</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1348</v>
+        <v>1606</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1349</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1319</v>
+        <v>1575</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -7214,7 +8244,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1320</v>
+        <v>1576</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -7233,7 +8263,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1321</v>
+        <v>1577</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -7252,7 +8282,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1322</v>
+        <v>1578</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -7271,7 +8301,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1323</v>
+        <v>1579</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7290,7 +8320,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1324</v>
+        <v>1580</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7309,7 +8339,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1325</v>
+        <v>1581</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -7328,7 +8358,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1326</v>
+        <v>1582</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -7347,7 +8377,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1327</v>
+        <v>1583</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -7368,7 +8398,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1328</v>
+        <v>1584</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7387,7 +8417,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1329</v>
+        <v>1585</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7406,7 +8436,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1330</v>
+        <v>1586</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7425,7 +8455,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1331</v>
+        <v>1587</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7444,7 +8474,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1332</v>
+        <v>1588</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7463,7 +8493,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1333</v>
+        <v>1589</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -7482,7 +8512,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1334</v>
+        <v>1590</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -7501,7 +8531,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1335</v>
+        <v>1591</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -7520,7 +8550,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1336</v>
+        <v>1592</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -7539,7 +8569,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1337</v>
+        <v>1593</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -7558,7 +8588,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1338</v>
+        <v>1594</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7577,7 +8607,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1339</v>
+        <v>1595</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7596,7 +8626,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1340</v>
+        <v>1596</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -7617,7 +8647,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1341</v>
+        <v>1597</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -7634,13 +8664,51 @@
         <v>0.048000000000000001</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="I26" s="0">
+        <v>0.051999999999999998</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="I27" s="0">
+        <v>0.050999999999999997</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7657,47 +8725,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1387</v>
+        <v>1647</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1388</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1386</v>
+        <v>1646</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1377</v>
+        <v>1637</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1378</v>
+        <v>1638</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1379</v>
+        <v>1639</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1380</v>
+        <v>1640</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1381</v>
+        <v>1641</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1382</v>
+        <v>1642</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1383</v>
+        <v>1643</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1384</v>
+        <v>1644</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1385</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1354</v>
+        <v>1612</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -7719,7 +8787,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1355</v>
+        <v>1613</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -7741,7 +8809,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1356</v>
+        <v>1614</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7761,7 +8829,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1357</v>
+        <v>1615</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7781,7 +8849,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1358</v>
+        <v>1616</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7803,7 +8871,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1359</v>
+        <v>1617</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7825,7 +8893,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1360</v>
+        <v>1618</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -7845,7 +8913,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1361</v>
+        <v>1619</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -7865,7 +8933,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1362</v>
+        <v>1620</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -7887,7 +8955,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1363</v>
+        <v>1621</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7909,7 +8977,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1364</v>
+        <v>1622</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7929,7 +8997,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1365</v>
+        <v>1623</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7949,7 +9017,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1366</v>
+        <v>1624</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7969,7 +9037,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1367</v>
+        <v>1625</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7991,7 +9059,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1368</v>
+        <v>1626</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -8013,7 +9081,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1369</v>
+        <v>1627</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -8033,7 +9101,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1370</v>
+        <v>1628</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8053,7 +9121,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1371</v>
+        <v>1629</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8075,7 +9143,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1372</v>
+        <v>1630</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8097,7 +9165,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1373</v>
+        <v>1631</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -8117,7 +9185,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1374</v>
+        <v>1632</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8137,7 +9205,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1375</v>
+        <v>1633</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8159,7 +9227,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1376</v>
+        <v>1634</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -8179,6 +9247,46 @@
         <v>2.319</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="I26" s="0">
+        <v>3.1869999999999998</v>
+      </c>
+      <c r="J26" s="0">
+        <v>2.3090000000000002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0">
+        <v>4.9260000000000002</v>
+      </c>
+      <c r="I27" s="0">
+        <v>3.3100000000000001</v>
+      </c>
+      <c r="J27" s="0">
+        <v>2.3090000000000002</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="1649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1916">
   <si>
     <t>Row</t>
   </si>
@@ -4931,6 +4931,807 @@
   </si>
   <si>
     <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -4987,7 +5788,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="197">
+  <borders count="225">
     <border>
       <left/>
       <right/>
@@ -5191,11 +5992,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -5393,6 +6222,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5402,7 +6259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5415,35 +6272,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1421</v>
+        <v>1682</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1422</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1420</v>
+        <v>1681</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1415</v>
+        <v>1676</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1416</v>
+        <v>1677</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1417</v>
+        <v>1678</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1418</v>
+        <v>1679</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1419</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1390</v>
+        <v>1650</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -5461,7 +6318,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1391</v>
+        <v>1651</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -5479,7 +6336,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1392</v>
+        <v>1652</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -5497,7 +6354,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1393</v>
+        <v>1653</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -5515,7 +6372,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1394</v>
+        <v>1654</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -5533,7 +6390,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1395</v>
+        <v>1655</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -5551,7 +6408,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1396</v>
+        <v>1656</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -5569,7 +6426,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1397</v>
+        <v>1657</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -5587,7 +6444,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1398</v>
+        <v>1658</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -5605,7 +6462,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1399</v>
+        <v>1659</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -5623,7 +6480,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -5641,7 +6498,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1401</v>
+        <v>1661</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -5657,7 +6514,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1402</v>
+        <v>1662</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -5673,7 +6530,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1403</v>
+        <v>1663</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -5691,7 +6548,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1404</v>
+        <v>1664</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -5709,7 +6566,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1405</v>
+        <v>1665</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -5727,7 +6584,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1406</v>
+        <v>1666</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -5745,7 +6602,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1407</v>
+        <v>1667</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -5763,7 +6620,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1408</v>
+        <v>1668</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -5781,7 +6638,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1409</v>
+        <v>1669</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -5799,7 +6656,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1410</v>
+        <v>1670</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -5817,7 +6674,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1411</v>
+        <v>1671</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -5835,7 +6692,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1412</v>
+        <v>1672</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -5853,7 +6710,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1413</v>
+        <v>1673</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -5871,7 +6728,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1414</v>
+        <v>1674</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -5885,6 +6742,22 @@
       </c>
       <c r="F27" s="0">
         <v>2.6549999999999998</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="E28" s="0">
+        <v>4.859</v>
+      </c>
+      <c r="F28" s="0">
+        <v>2.649</v>
       </c>
     </row>
   </sheetData>
@@ -5893,7 +6766,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5910,47 +6783,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1459</v>
+        <v>1721</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1460</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1458</v>
+        <v>1720</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1449</v>
+        <v>1711</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1450</v>
+        <v>1712</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1451</v>
+        <v>1713</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1452</v>
+        <v>1714</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1453</v>
+        <v>1715</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1454</v>
+        <v>1716</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1455</v>
+        <v>1717</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1456</v>
+        <v>1718</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1457</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1424</v>
+        <v>1685</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -5972,7 +6845,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1425</v>
+        <v>1686</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -5992,7 +6865,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1426</v>
+        <v>1687</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6012,7 +6885,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1427</v>
+        <v>1688</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6032,7 +6905,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1428</v>
+        <v>1689</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6054,7 +6927,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1429</v>
+        <v>1690</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6076,7 +6949,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1430</v>
+        <v>1691</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6096,7 +6969,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1431</v>
+        <v>1692</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6116,7 +6989,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1432</v>
+        <v>1693</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6138,7 +7011,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1433</v>
+        <v>1694</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6160,7 +7033,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1434</v>
+        <v>1695</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6180,7 +7053,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1435</v>
+        <v>1696</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6200,7 +7073,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1436</v>
+        <v>1697</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6220,7 +7093,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1437</v>
+        <v>1698</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6242,7 +7115,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1438</v>
+        <v>1699</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6262,7 +7135,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1439</v>
+        <v>1700</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6282,7 +7155,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1440</v>
+        <v>1701</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -6302,7 +7175,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1441</v>
+        <v>1702</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -6324,7 +7197,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1442</v>
+        <v>1703</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6346,7 +7219,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1443</v>
+        <v>1704</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6366,7 +7239,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1444</v>
+        <v>1705</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6386,7 +7259,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1445</v>
+        <v>1706</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -6408,7 +7281,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1446</v>
+        <v>1707</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -6430,7 +7303,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1447</v>
+        <v>1708</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -6450,7 +7323,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1448</v>
+        <v>1709</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -6468,13 +7341,33 @@
         <v>2.5339999999999998</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I28" s="0">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="J28" s="0">
+        <v>2.532</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6491,47 +7384,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1497</v>
+        <v>1760</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1498</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1496</v>
+        <v>1759</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1487</v>
+        <v>1750</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1488</v>
+        <v>1751</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1489</v>
+        <v>1752</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1490</v>
+        <v>1753</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1491</v>
+        <v>1754</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1492</v>
+        <v>1755</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1493</v>
+        <v>1756</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1494</v>
+        <v>1757</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1495</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1462</v>
+        <v>1724</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -6553,7 +7446,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1463</v>
+        <v>1725</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -6573,7 +7466,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1464</v>
+        <v>1726</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6593,7 +7486,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1465</v>
+        <v>1727</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6613,7 +7506,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1466</v>
+        <v>1728</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6635,7 +7528,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1467</v>
+        <v>1729</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6657,7 +7550,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1468</v>
+        <v>1730</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6677,7 +7570,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1469</v>
+        <v>1731</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6697,7 +7590,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1470</v>
+        <v>1732</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6719,7 +7612,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1471</v>
+        <v>1733</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6741,7 +7634,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1472</v>
+        <v>1734</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6761,7 +7654,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1473</v>
+        <v>1735</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6781,7 +7674,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1474</v>
+        <v>1736</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6801,7 +7694,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1475</v>
+        <v>1737</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6823,7 +7716,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1476</v>
+        <v>1738</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6843,7 +7736,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1477</v>
+        <v>1739</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6863,7 +7756,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1478</v>
+        <v>1740</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -6883,7 +7776,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1479</v>
+        <v>1741</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -6905,7 +7798,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1480</v>
+        <v>1742</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6927,7 +7820,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1481</v>
+        <v>1743</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6947,7 +7840,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1482</v>
+        <v>1744</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6967,7 +7860,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1483</v>
+        <v>1745</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -6989,7 +7882,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1484</v>
+        <v>1746</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -7011,7 +7904,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1485</v>
+        <v>1747</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -7031,7 +7924,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1486</v>
+        <v>1748</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -7049,13 +7942,33 @@
         <v>3.371</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="I28" s="0">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="J28" s="0">
+        <v>3.3759999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7072,47 +7985,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1535</v>
+        <v>1799</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1536</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1534</v>
+        <v>1798</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1525</v>
+        <v>1789</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1526</v>
+        <v>1790</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1527</v>
+        <v>1791</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1528</v>
+        <v>1792</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1529</v>
+        <v>1793</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1530</v>
+        <v>1794</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1531</v>
+        <v>1795</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1532</v>
+        <v>1796</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1533</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1500</v>
+        <v>1763</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -7134,7 +8047,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1501</v>
+        <v>1764</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -7154,7 +8067,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1502</v>
+        <v>1765</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7174,7 +8087,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1503</v>
+        <v>1766</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7194,7 +8107,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1504</v>
+        <v>1767</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7216,7 +8129,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1505</v>
+        <v>1768</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7238,7 +8151,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1506</v>
+        <v>1769</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -7258,7 +8171,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1507</v>
+        <v>1770</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -7278,7 +8191,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1508</v>
+        <v>1771</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -7300,7 +8213,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1509</v>
+        <v>1772</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7322,7 +8235,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1510</v>
+        <v>1773</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7342,7 +8255,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1511</v>
+        <v>1774</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7362,7 +8275,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1512</v>
+        <v>1775</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7382,7 +8295,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1513</v>
+        <v>1776</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7404,7 +8317,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1514</v>
+        <v>1777</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -7424,7 +8337,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1515</v>
+        <v>1778</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -7444,7 +8357,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1516</v>
+        <v>1779</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -7464,7 +8377,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1517</v>
+        <v>1780</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -7486,7 +8399,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1518</v>
+        <v>1781</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -7508,7 +8421,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1519</v>
+        <v>1782</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7528,7 +8441,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1520</v>
+        <v>1783</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7548,7 +8461,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1521</v>
+        <v>1784</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -7570,7 +8483,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1522</v>
+        <v>1785</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -7592,7 +8505,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1523</v>
+        <v>1786</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -7612,7 +8525,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1524</v>
+        <v>1787</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -7630,13 +8543,33 @@
         <v>3.7389999999999999</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0">
+        <v>3.7240000000000002</v>
+      </c>
+      <c r="I28" s="0">
+        <v>3.278</v>
+      </c>
+      <c r="J28" s="0">
+        <v>3.7650000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7652,44 +8585,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1572</v>
+        <v>1837</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1573</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1571</v>
+        <v>1836</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1563</v>
+        <v>1828</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1564</v>
+        <v>1829</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1565</v>
+        <v>1830</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1566</v>
+        <v>1831</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1567</v>
+        <v>1832</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1568</v>
+        <v>1833</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1569</v>
+        <v>1834</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1570</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1538</v>
+        <v>1802</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -7708,7 +8641,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1539</v>
+        <v>1803</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -7727,7 +8660,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1540</v>
+        <v>1804</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -7746,7 +8679,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -7765,7 +8698,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1542</v>
+        <v>1806</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7784,7 +8717,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1543</v>
+        <v>1807</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7803,7 +8736,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1544</v>
+        <v>1808</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -7822,7 +8755,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1545</v>
+        <v>1809</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -7841,7 +8774,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1546</v>
+        <v>1810</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -7862,7 +8795,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1547</v>
+        <v>1811</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7881,7 +8814,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1548</v>
+        <v>1812</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7900,7 +8833,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1549</v>
+        <v>1813</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7919,7 +8852,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1550</v>
+        <v>1814</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7938,7 +8871,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1551</v>
+        <v>1815</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7957,7 +8890,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1552</v>
+        <v>1816</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -7976,7 +8909,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1553</v>
+        <v>1817</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -7995,7 +8928,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1554</v>
+        <v>1818</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8014,7 +8947,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1555</v>
+        <v>1819</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8033,7 +8966,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1556</v>
+        <v>1820</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8052,7 +8985,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1557</v>
+        <v>1821</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -8071,7 +9004,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1558</v>
+        <v>1822</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8090,7 +9023,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1559</v>
+        <v>1823</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8111,7 +9044,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1560</v>
+        <v>1824</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -8130,7 +9063,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1561</v>
+        <v>1825</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -8149,7 +9082,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1562</v>
+        <v>1826</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -8166,13 +9099,32 @@
         <v>0.039</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0">
+        <v>-0.024</v>
+      </c>
+      <c r="H28" s="0">
+        <v>-0.045999999999999999</v>
+      </c>
+      <c r="I28" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -8188,44 +9140,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1609</v>
+        <v>1875</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1610</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1608</v>
+        <v>1874</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1600</v>
+        <v>1866</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1601</v>
+        <v>1867</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1602</v>
+        <v>1868</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1603</v>
+        <v>1869</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1604</v>
+        <v>1870</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1605</v>
+        <v>1871</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1606</v>
+        <v>1872</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1607</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1575</v>
+        <v>1840</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -8244,7 +9196,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1576</v>
+        <v>1841</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -8263,7 +9215,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1577</v>
+        <v>1842</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -8282,7 +9234,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1578</v>
+        <v>1843</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -8301,7 +9253,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1579</v>
+        <v>1844</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8320,7 +9272,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1580</v>
+        <v>1845</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8339,7 +9291,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1581</v>
+        <v>1846</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -8358,7 +9310,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1582</v>
+        <v>1847</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -8377,7 +9329,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1583</v>
+        <v>1848</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -8398,7 +9350,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1584</v>
+        <v>1849</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -8417,7 +9369,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1585</v>
+        <v>1850</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8436,7 +9388,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1586</v>
+        <v>1851</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8455,7 +9407,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1587</v>
+        <v>1852</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8474,7 +9426,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1588</v>
+        <v>1853</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8493,7 +9445,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1589</v>
+        <v>1854</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -8512,7 +9464,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1590</v>
+        <v>1855</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -8531,7 +9483,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1591</v>
+        <v>1856</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8550,7 +9502,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1592</v>
+        <v>1857</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8569,7 +9521,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1593</v>
+        <v>1858</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8588,7 +9540,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1594</v>
+        <v>1859</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -8607,7 +9559,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1595</v>
+        <v>1860</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8626,7 +9578,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1596</v>
+        <v>1861</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8647,7 +9599,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1597</v>
+        <v>1862</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -8666,7 +9618,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1598</v>
+        <v>1863</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -8685,7 +9637,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1599</v>
+        <v>1864</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -8702,13 +9654,32 @@
         <v>0.050999999999999997</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I28" s="0">
+        <v>0.050999999999999997</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -8725,47 +9696,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1647</v>
+        <v>1914</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1648</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1646</v>
+        <v>1913</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1637</v>
+        <v>1904</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1638</v>
+        <v>1905</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1639</v>
+        <v>1906</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1640</v>
+        <v>1907</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1641</v>
+        <v>1908</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1642</v>
+        <v>1909</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1643</v>
+        <v>1910</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1644</v>
+        <v>1911</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1645</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1612</v>
+        <v>1878</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -8787,7 +9758,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1613</v>
+        <v>1879</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -8809,7 +9780,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1614</v>
+        <v>1880</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -8829,7 +9800,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1615</v>
+        <v>1881</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -8849,7 +9820,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1616</v>
+        <v>1882</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8871,7 +9842,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1617</v>
+        <v>1883</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8893,7 +9864,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1618</v>
+        <v>1884</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -8913,7 +9884,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1619</v>
+        <v>1885</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -8933,7 +9904,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1620</v>
+        <v>1886</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -8955,7 +9926,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1621</v>
+        <v>1887</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -8977,7 +9948,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1622</v>
+        <v>1888</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8997,7 +9968,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1623</v>
+        <v>1889</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -9017,7 +9988,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1624</v>
+        <v>1890</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -9037,7 +10008,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1625</v>
+        <v>1891</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9059,7 +10030,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1626</v>
+        <v>1892</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -9081,7 +10052,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1627</v>
+        <v>1893</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -9101,7 +10072,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1628</v>
+        <v>1894</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -9121,7 +10092,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1629</v>
+        <v>1895</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -9143,7 +10114,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1630</v>
+        <v>1896</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -9165,7 +10136,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1631</v>
+        <v>1897</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -9185,7 +10156,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1632</v>
+        <v>1898</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -9205,7 +10176,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1633</v>
+        <v>1899</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -9227,7 +10198,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1634</v>
+        <v>1900</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -9249,7 +10220,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1635</v>
+        <v>1901</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -9269,7 +10240,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1636</v>
+        <v>1902</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -9287,6 +10258,26 @@
         <v>2.3090000000000002</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0">
+        <v>4.7270000000000003</v>
+      </c>
+      <c r="I28" s="0">
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="J28" s="0">
+        <v>2.3090000000000002</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="2197">
   <si>
     <t>Row</t>
   </si>
@@ -5759,6 +5759,849 @@
   </si>
   <si>
     <t>May-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
   </si>
   <si>
     <t>Forecast Dates</t>
@@ -5788,7 +6631,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="225">
+  <borders count="253">
     <border>
       <left/>
       <right/>
@@ -6020,11 +6863,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -6250,6 +7121,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6259,7 +7158,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6268,39 +7167,43 @@
     <col min="4" max="4" width="7.51171875" customWidth="true"/>
     <col min="5" max="5" width="7.51171875" customWidth="true"/>
     <col min="6" max="6" width="7.51171875" customWidth="true"/>
+    <col min="7" max="7" width="7.51171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1682</v>
+        <v>1951</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1683</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1681</v>
+        <v>1950</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1676</v>
+        <v>1944</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1677</v>
+        <v>1945</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1678</v>
+        <v>1946</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1679</v>
+        <v>1947</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1680</v>
+        <v>1948</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1650</v>
+        <v>1917</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -6315,10 +7218,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1651</v>
+        <v>1918</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -6333,10 +7237,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1652</v>
+        <v>1919</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -6351,10 +7256,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1653</v>
+        <v>1920</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -6369,10 +7275,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1654</v>
+        <v>1921</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -6387,10 +7294,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1655</v>
+        <v>1922</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -6405,10 +7313,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1656</v>
+        <v>1923</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -6423,10 +7332,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1657</v>
+        <v>1924</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -6441,10 +7351,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1658</v>
+        <v>1925</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -6459,10 +7370,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1659</v>
+        <v>1926</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -6477,10 +7389,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1660</v>
+        <v>1927</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -6495,10 +7408,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1661</v>
+        <v>1928</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -6511,10 +7425,11 @@
         <v>2.6360000000000001</v>
       </c>
       <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1662</v>
+        <v>1929</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -6527,10 +7442,11 @@
         <v>2.6360000000000001</v>
       </c>
       <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1663</v>
+        <v>1930</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -6545,10 +7461,11 @@
       <c r="F16" s="0">
         <v>2.6850000000000001</v>
       </c>
+      <c r="G16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1664</v>
+        <v>1931</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -6563,10 +7480,11 @@
       <c r="F17" s="0">
         <v>2.6840000000000002</v>
       </c>
+      <c r="G17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1665</v>
+        <v>1932</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -6581,10 +7499,11 @@
       <c r="F18" s="0">
         <v>2.673</v>
       </c>
+      <c r="G18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1666</v>
+        <v>1933</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -6599,10 +7518,11 @@
       <c r="F19" s="0">
         <v>2.8199999999999998</v>
       </c>
+      <c r="G19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1667</v>
+        <v>1934</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -6617,10 +7537,11 @@
       <c r="F20" s="0">
         <v>2.794</v>
       </c>
+      <c r="G20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1668</v>
+        <v>1935</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -6635,10 +7556,11 @@
       <c r="F21" s="0">
         <v>2.6549999999999998</v>
       </c>
+      <c r="G21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1669</v>
+        <v>1936</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -6653,10 +7575,11 @@
       <c r="F22" s="0">
         <v>2.6549999999999998</v>
       </c>
+      <c r="G22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1670</v>
+        <v>1937</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -6671,10 +7594,11 @@
       <c r="F23" s="0">
         <v>2.6549999999999998</v>
       </c>
+      <c r="G23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1671</v>
+        <v>1938</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -6689,10 +7613,11 @@
       <c r="F24" s="0">
         <v>2.3540000000000001</v>
       </c>
+      <c r="G24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1672</v>
+        <v>1939</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -6707,10 +7632,11 @@
       <c r="F25" s="0">
         <v>2.6549999999999998</v>
       </c>
+      <c r="G25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1673</v>
+        <v>1940</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -6725,10 +7651,11 @@
       <c r="F26" s="0">
         <v>2.6549999999999998</v>
       </c>
+      <c r="G26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1674</v>
+        <v>1941</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -6743,10 +7670,11 @@
       <c r="F27" s="0">
         <v>2.6549999999999998</v>
       </c>
+      <c r="G27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1675</v>
+        <v>1942</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -6758,6 +7686,26 @@
       </c>
       <c r="F28" s="0">
         <v>2.649</v>
+      </c>
+      <c r="G28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0">
+        <v>1.8200000000000001</v>
+      </c>
+      <c r="E29" s="0">
+        <v>4.9500000000000002</v>
+      </c>
+      <c r="F29" s="0">
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="G29" s="0">
+        <v>2.5760000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6766,7 +7714,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6779,51 +7727,55 @@
     <col min="8" max="8" width="7.2109375" customWidth="true"/>
     <col min="9" max="9" width="6.8125" customWidth="true"/>
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
+    <col min="11" max="11" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1721</v>
+        <v>1992</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1722</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1720</v>
+        <v>1991</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1711</v>
+        <v>1981</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1712</v>
+        <v>1982</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1713</v>
+        <v>1983</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1714</v>
+        <v>1984</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1715</v>
+        <v>1985</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1716</v>
+        <v>1986</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1717</v>
+        <v>1987</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1718</v>
+        <v>1988</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1719</v>
+        <v>1989</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>1990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1685</v>
+        <v>1954</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -6842,10 +7794,11 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1686</v>
+        <v>1955</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -6862,10 +7815,11 @@
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1687</v>
+        <v>1956</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6882,10 +7836,11 @@
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1688</v>
+        <v>1957</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6902,10 +7857,11 @@
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1689</v>
+        <v>1958</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6924,10 +7880,11 @@
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1690</v>
+        <v>1959</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6946,10 +7903,11 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1691</v>
+        <v>1960</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6966,10 +7924,11 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1692</v>
+        <v>1961</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6986,10 +7945,11 @@
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1693</v>
+        <v>1962</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -7008,10 +7968,11 @@
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1694</v>
+        <v>1963</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7030,10 +7991,11 @@
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1695</v>
+        <v>1964</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7050,10 +8012,11 @@
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1696</v>
+        <v>1965</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7070,10 +8033,11 @@
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1697</v>
+        <v>1966</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7090,10 +8054,11 @@
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1698</v>
+        <v>1967</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7112,10 +8077,11 @@
       </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1699</v>
+        <v>1968</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -7132,10 +8098,11 @@
       </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1700</v>
+        <v>1969</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -7152,10 +8119,11 @@
       </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1701</v>
+        <v>1970</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -7172,10 +8140,11 @@
       </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1702</v>
+        <v>1971</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -7194,10 +8163,11 @@
         <v>2.3650000000000002</v>
       </c>
       <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1703</v>
+        <v>1972</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -7216,10 +8186,11 @@
         <v>2.2040000000000002</v>
       </c>
       <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1704</v>
+        <v>1973</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7236,10 +8207,11 @@
         <v>2.5670000000000002</v>
       </c>
       <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1705</v>
+        <v>1974</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7256,10 +8228,11 @@
         <v>2.5659999999999998</v>
       </c>
       <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1706</v>
+        <v>1975</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -7278,10 +8251,11 @@
       <c r="J24" s="0">
         <v>2.202</v>
       </c>
+      <c r="K24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1707</v>
+        <v>1976</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -7300,10 +8274,11 @@
       <c r="J25" s="0">
         <v>2.1560000000000001</v>
       </c>
+      <c r="K25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1708</v>
+        <v>1977</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -7320,10 +8295,11 @@
       <c r="J26" s="0">
         <v>2.5339999999999998</v>
       </c>
+      <c r="K26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1709</v>
+        <v>1978</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -7340,10 +8316,11 @@
       <c r="J27" s="0">
         <v>2.5339999999999998</v>
       </c>
+      <c r="K27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1710</v>
+        <v>1979</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -7360,6 +8337,30 @@
       <c r="J28" s="0">
         <v>2.532</v>
       </c>
+      <c r="K28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0">
+        <v>4.5490000000000004</v>
+      </c>
+      <c r="I29" s="0">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="J29" s="0">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="K29" s="0">
+        <v>2.6269999999999998</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -7367,7 +8368,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7380,51 +8381,55 @@
     <col min="8" max="8" width="7.2109375" customWidth="true"/>
     <col min="9" max="9" width="6.8125" customWidth="true"/>
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
+    <col min="11" max="11" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1760</v>
+        <v>2033</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1761</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1759</v>
+        <v>2032</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1750</v>
+        <v>2022</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1751</v>
+        <v>2023</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1752</v>
+        <v>2024</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1753</v>
+        <v>2025</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1754</v>
+        <v>2026</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1755</v>
+        <v>2027</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1756</v>
+        <v>2028</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1757</v>
+        <v>2029</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1758</v>
+        <v>2030</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1724</v>
+        <v>1995</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -7443,10 +8448,11 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1725</v>
+        <v>1996</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -7463,10 +8469,11 @@
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1726</v>
+        <v>1997</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7483,10 +8490,11 @@
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1727</v>
+        <v>1998</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7503,10 +8511,11 @@
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1728</v>
+        <v>1999</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7525,10 +8534,11 @@
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1729</v>
+        <v>2000</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7547,10 +8557,11 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1730</v>
+        <v>2001</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -7567,10 +8578,11 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1731</v>
+        <v>2002</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -7587,10 +8599,11 @@
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1732</v>
+        <v>2003</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -7609,10 +8622,11 @@
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1733</v>
+        <v>2004</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7631,10 +8645,11 @@
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1734</v>
+        <v>2005</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7651,10 +8666,11 @@
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1735</v>
+        <v>2006</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7671,10 +8687,11 @@
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1736</v>
+        <v>2007</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7691,10 +8708,11 @@
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1737</v>
+        <v>2008</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7713,10 +8731,11 @@
       </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1738</v>
+        <v>2009</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -7733,10 +8752,11 @@
       </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1739</v>
+        <v>2010</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -7753,10 +8773,11 @@
       </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1740</v>
+        <v>2011</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -7773,10 +8794,11 @@
       </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1741</v>
+        <v>2012</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -7795,10 +8817,11 @@
         <v>2.9660000000000002</v>
       </c>
       <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1742</v>
+        <v>2013</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -7817,10 +8840,11 @@
         <v>2.7280000000000002</v>
       </c>
       <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1743</v>
+        <v>2014</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7837,10 +8861,11 @@
         <v>2.8490000000000002</v>
       </c>
       <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1744</v>
+        <v>2015</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7857,10 +8882,11 @@
         <v>2.8849999999999998</v>
       </c>
       <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1745</v>
+        <v>2016</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -7879,10 +8905,11 @@
       <c r="J24" s="0">
         <v>3.0899999999999999</v>
       </c>
+      <c r="K24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1746</v>
+        <v>2017</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -7901,10 +8928,11 @@
       <c r="J25" s="0">
         <v>2.9140000000000001</v>
       </c>
+      <c r="K25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1747</v>
+        <v>2018</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -7921,10 +8949,11 @@
       <c r="J26" s="0">
         <v>3.3420000000000001</v>
       </c>
+      <c r="K26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1748</v>
+        <v>2019</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -7941,10 +8970,11 @@
       <c r="J27" s="0">
         <v>3.371</v>
       </c>
+      <c r="K27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1749</v>
+        <v>2020</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -7961,6 +8991,30 @@
       <c r="J28" s="0">
         <v>3.3759999999999999</v>
       </c>
+      <c r="K28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0">
+        <v>3.367</v>
+      </c>
+      <c r="I29" s="0">
+        <v>3.423</v>
+      </c>
+      <c r="J29" s="0">
+        <v>3.2629999999999999</v>
+      </c>
+      <c r="K29" s="0">
+        <v>3.2429999999999999</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -7968,7 +9022,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7981,51 +9035,55 @@
     <col min="8" max="8" width="7.2109375" customWidth="true"/>
     <col min="9" max="9" width="6.8125" customWidth="true"/>
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
+    <col min="11" max="11" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1799</v>
+        <v>2074</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1800</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1798</v>
+        <v>2073</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1789</v>
+        <v>2063</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1790</v>
+        <v>2064</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1791</v>
+        <v>2065</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1792</v>
+        <v>2066</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1793</v>
+        <v>2067</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1794</v>
+        <v>2068</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1795</v>
+        <v>2069</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1796</v>
+        <v>2070</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1797</v>
+        <v>2071</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1763</v>
+        <v>2036</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -8044,10 +9102,11 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1764</v>
+        <v>2037</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -8064,10 +9123,11 @@
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1765</v>
+        <v>2038</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -8084,10 +9144,11 @@
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1766</v>
+        <v>2039</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -8104,10 +9165,11 @@
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1767</v>
+        <v>2040</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8126,10 +9188,11 @@
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1768</v>
+        <v>2041</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8148,10 +9211,11 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1769</v>
+        <v>2042</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -8168,10 +9232,11 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1770</v>
+        <v>2043</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -8188,10 +9253,11 @@
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1771</v>
+        <v>2044</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -8210,10 +9276,11 @@
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1772</v>
+        <v>2045</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -8232,10 +9299,11 @@
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1773</v>
+        <v>2046</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8252,10 +9320,11 @@
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1774</v>
+        <v>2047</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8272,10 +9341,11 @@
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1775</v>
+        <v>2048</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8292,10 +9362,11 @@
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1776</v>
+        <v>2049</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8314,10 +9385,11 @@
       </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1777</v>
+        <v>2050</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -8334,10 +9406,11 @@
       </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1778</v>
+        <v>2051</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -8354,10 +9427,11 @@
       </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1779</v>
+        <v>2052</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8374,10 +9448,11 @@
       </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1780</v>
+        <v>2053</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8396,10 +9471,11 @@
         <v>2.657</v>
       </c>
       <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1781</v>
+        <v>2054</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8418,10 +9494,11 @@
         <v>2.7890000000000001</v>
       </c>
       <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1782</v>
+        <v>2055</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -8438,10 +9515,11 @@
         <v>3.387</v>
       </c>
       <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1783</v>
+        <v>2056</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8458,10 +9536,11 @@
         <v>3.391</v>
       </c>
       <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1784</v>
+        <v>2057</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8480,10 +9559,11 @@
       <c r="J24" s="0">
         <v>3.226</v>
       </c>
+      <c r="K24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1785</v>
+        <v>2058</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -8502,10 +9582,11 @@
       <c r="J25" s="0">
         <v>3.073</v>
       </c>
+      <c r="K25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1786</v>
+        <v>2059</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -8522,10 +9603,11 @@
       <c r="J26" s="0">
         <v>3.6760000000000002</v>
       </c>
+      <c r="K26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1787</v>
+        <v>2060</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -8542,10 +9624,11 @@
       <c r="J27" s="0">
         <v>3.7389999999999999</v>
       </c>
+      <c r="K27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1788</v>
+        <v>2061</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -8562,6 +9645,30 @@
       <c r="J28" s="0">
         <v>3.7650000000000001</v>
       </c>
+      <c r="K28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0">
+        <v>3.8700000000000001</v>
+      </c>
+      <c r="I29" s="0">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="J29" s="0">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="K29" s="0">
+        <v>3.6949999999999998</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -8569,7 +9676,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -8581,48 +9688,52 @@
     <col min="7" max="7" width="7.2109375" customWidth="true"/>
     <col min="8" max="8" width="6.8125" customWidth="true"/>
     <col min="9" max="9" width="7.4140625" customWidth="true"/>
+    <col min="10" max="10" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1837</v>
+        <v>2114</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1838</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1836</v>
+        <v>2113</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1828</v>
+        <v>2104</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1829</v>
+        <v>2105</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1830</v>
+        <v>2106</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1831</v>
+        <v>2107</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1832</v>
+        <v>2108</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1833</v>
+        <v>2109</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1834</v>
+        <v>2110</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1835</v>
+        <v>2111</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1802</v>
+        <v>2077</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -8638,10 +9749,11 @@
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1803</v>
+        <v>2078</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -8657,10 +9769,11 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1804</v>
+        <v>2079</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -8676,10 +9789,11 @@
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1805</v>
+        <v>2080</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -8695,10 +9809,11 @@
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1806</v>
+        <v>2081</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8714,10 +9829,11 @@
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1807</v>
+        <v>2082</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8733,10 +9849,11 @@
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1808</v>
+        <v>2083</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -8752,10 +9869,11 @@
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1809</v>
+        <v>2084</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -8771,10 +9889,11 @@
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1810</v>
+        <v>2085</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -8792,10 +9911,11 @@
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1811</v>
+        <v>2086</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -8811,10 +9931,11 @@
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1812</v>
+        <v>2087</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8830,10 +9951,11 @@
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1813</v>
+        <v>2088</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8849,10 +9971,11 @@
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1814</v>
+        <v>2089</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8868,10 +9991,11 @@
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1815</v>
+        <v>2090</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8887,10 +10011,11 @@
       </c>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1816</v>
+        <v>2091</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -8906,10 +10031,11 @@
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1817</v>
+        <v>2092</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -8925,10 +10051,11 @@
       </c>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1818</v>
+        <v>2093</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8944,10 +10071,11 @@
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1819</v>
+        <v>2094</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8963,10 +10091,11 @@
         <v>0.02</v>
       </c>
       <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1820</v>
+        <v>2095</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8982,10 +10111,11 @@
         <v>0.023</v>
       </c>
       <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1821</v>
+        <v>2096</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -9001,10 +10131,11 @@
         <v>0.024</v>
       </c>
       <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1822</v>
+        <v>2097</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -9020,10 +10151,11 @@
         <v>0.025000000000000001</v>
       </c>
       <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1823</v>
+        <v>2098</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -9041,10 +10173,11 @@
       <c r="I24" s="0">
         <v>0.016</v>
       </c>
+      <c r="J24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1824</v>
+        <v>2099</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -9060,10 +10193,11 @@
       <c r="I25" s="0">
         <v>0.037999999999999999</v>
       </c>
+      <c r="J25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1825</v>
+        <v>2100</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -9079,10 +10213,11 @@
       <c r="I26" s="0">
         <v>0.039</v>
       </c>
+      <c r="J26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1826</v>
+        <v>2101</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -9098,10 +10233,11 @@
       <c r="I27" s="0">
         <v>0.039</v>
       </c>
+      <c r="J27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1827</v>
+        <v>2102</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -9117,6 +10253,27 @@
       <c r="I28" s="0">
         <v>0.039</v>
       </c>
+      <c r="J28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0">
+        <v>-0.017999999999999999</v>
+      </c>
+      <c r="I29" s="0">
+        <v>-0.012</v>
+      </c>
+      <c r="J29" s="0">
+        <v>0.02</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -9124,7 +10281,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -9136,48 +10293,52 @@
     <col min="7" max="7" width="7.2109375" customWidth="true"/>
     <col min="8" max="8" width="6.8125" customWidth="true"/>
     <col min="9" max="9" width="7.4140625" customWidth="true"/>
+    <col min="10" max="10" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1875</v>
+        <v>2154</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1876</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1874</v>
+        <v>2153</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1866</v>
+        <v>2144</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1867</v>
+        <v>2145</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1868</v>
+        <v>2146</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1869</v>
+        <v>2147</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1870</v>
+        <v>2148</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1871</v>
+        <v>2149</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1872</v>
+        <v>2150</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1873</v>
+        <v>2151</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>2152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1840</v>
+        <v>2117</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -9193,10 +10354,11 @@
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1841</v>
+        <v>2118</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -9212,10 +10374,11 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1842</v>
+        <v>2119</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -9231,10 +10394,11 @@
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1843</v>
+        <v>2120</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -9250,10 +10414,11 @@
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1844</v>
+        <v>2121</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -9269,10 +10434,11 @@
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1845</v>
+        <v>2122</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -9288,10 +10454,11 @@
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1846</v>
+        <v>2123</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -9307,10 +10474,11 @@
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1847</v>
+        <v>2124</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -9326,10 +10494,11 @@
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1848</v>
+        <v>2125</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -9347,10 +10516,11 @@
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1849</v>
+        <v>2126</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9366,10 +10536,11 @@
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1850</v>
+        <v>2127</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -9385,10 +10556,11 @@
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1851</v>
+        <v>2128</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -9404,10 +10576,11 @@
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1852</v>
+        <v>2129</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -9423,10 +10596,11 @@
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1853</v>
+        <v>2130</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9442,10 +10616,11 @@
       </c>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1854</v>
+        <v>2131</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -9461,10 +10636,11 @@
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1855</v>
+        <v>2132</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -9480,10 +10656,11 @@
       </c>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1856</v>
+        <v>2133</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -9499,10 +10676,11 @@
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1857</v>
+        <v>2134</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -9518,10 +10696,11 @@
         <v>0.085999999999999993</v>
       </c>
       <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1858</v>
+        <v>2135</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -9537,10 +10716,11 @@
         <v>0.073999999999999996</v>
       </c>
       <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1859</v>
+        <v>2136</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -9556,10 +10736,11 @@
         <v>0.068000000000000005</v>
       </c>
       <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1860</v>
+        <v>2137</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -9575,10 +10756,11 @@
         <v>0.068000000000000005</v>
       </c>
       <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1861</v>
+        <v>2138</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -9596,10 +10778,11 @@
       <c r="I24" s="0">
         <v>0.084000000000000005</v>
       </c>
+      <c r="J24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1862</v>
+        <v>2139</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -9615,10 +10798,11 @@
       <c r="I25" s="0">
         <v>0.048000000000000001</v>
       </c>
+      <c r="J25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1863</v>
+        <v>2140</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -9634,10 +10818,11 @@
       <c r="I26" s="0">
         <v>0.051999999999999998</v>
       </c>
+      <c r="J26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1864</v>
+        <v>2141</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -9653,10 +10838,11 @@
       <c r="I27" s="0">
         <v>0.050999999999999997</v>
       </c>
+      <c r="J27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1865</v>
+        <v>2142</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -9672,6 +10858,27 @@
       <c r="I28" s="0">
         <v>0.050999999999999997</v>
       </c>
+      <c r="J28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I29" s="0">
+        <v>0.106</v>
+      </c>
+      <c r="J29" s="0">
+        <v>0.058000000000000003</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -9679,7 +10886,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -9692,51 +10899,55 @@
     <col min="8" max="8" width="7.2109375" customWidth="true"/>
     <col min="9" max="9" width="6.8125" customWidth="true"/>
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
+    <col min="11" max="11" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1914</v>
+        <v>2195</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1915</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1913</v>
+        <v>2194</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1904</v>
+        <v>2184</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1905</v>
+        <v>2185</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1906</v>
+        <v>2186</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1907</v>
+        <v>2187</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1908</v>
+        <v>2188</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1909</v>
+        <v>2189</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1910</v>
+        <v>2190</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1911</v>
+        <v>2191</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1912</v>
+        <v>2192</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1878</v>
+        <v>2157</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -9755,10 +10966,11 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1879</v>
+        <v>2158</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -9777,10 +10989,11 @@
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1880</v>
+        <v>2159</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -9797,10 +11010,11 @@
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1881</v>
+        <v>2160</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -9817,10 +11031,11 @@
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1882</v>
+        <v>2161</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -9839,10 +11054,11 @@
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1883</v>
+        <v>2162</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -9861,10 +11077,11 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1884</v>
+        <v>2163</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -9881,10 +11098,11 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1885</v>
+        <v>2164</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -9901,10 +11119,11 @@
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1886</v>
+        <v>2165</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -9923,10 +11142,11 @@
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1887</v>
+        <v>2166</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9945,10 +11165,11 @@
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1888</v>
+        <v>2167</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -9965,10 +11186,11 @@
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1889</v>
+        <v>2168</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -9985,10 +11207,11 @@
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1890</v>
+        <v>2169</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -10005,10 +11228,11 @@
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1891</v>
+        <v>2170</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -10027,10 +11251,11 @@
       </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1892</v>
+        <v>2171</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -10049,10 +11274,11 @@
       </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1893</v>
+        <v>2172</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -10069,10 +11295,11 @@
       </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1894</v>
+        <v>2173</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10089,10 +11316,11 @@
       </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1895</v>
+        <v>2174</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -10111,10 +11339,11 @@
         <v>2.3220000000000001</v>
       </c>
       <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1896</v>
+        <v>2175</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10133,10 +11362,11 @@
         <v>2.3220000000000001</v>
       </c>
       <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1897</v>
+        <v>2176</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -10153,10 +11383,11 @@
         <v>2.3239999999999998</v>
       </c>
       <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1898</v>
+        <v>2177</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10173,10 +11404,11 @@
         <v>2.3239999999999998</v>
       </c>
       <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1899</v>
+        <v>2178</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -10195,10 +11427,11 @@
       <c r="J24" s="0">
         <v>2.319</v>
       </c>
+      <c r="K24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1900</v>
+        <v>2179</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -10217,10 +11450,11 @@
       <c r="J25" s="0">
         <v>2.319</v>
       </c>
+      <c r="K25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1901</v>
+        <v>2180</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -10237,10 +11471,11 @@
       <c r="J26" s="0">
         <v>2.3090000000000002</v>
       </c>
+      <c r="K26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1902</v>
+        <v>2181</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -10257,10 +11492,11 @@
       <c r="J27" s="0">
         <v>2.3090000000000002</v>
       </c>
+      <c r="K27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1903</v>
+        <v>2182</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10277,6 +11513,30 @@
       <c r="J28" s="0">
         <v>2.3090000000000002</v>
       </c>
+      <c r="K28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0">
+        <v>4.617</v>
+      </c>
+      <c r="I29" s="0">
+        <v>5.6619999999999999</v>
+      </c>
+      <c r="J29" s="0">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="K29" s="0">
+        <v>2.3290000000000002</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2485">
   <si>
     <t>Row</t>
   </si>
@@ -6572,6 +6572,870 @@
   </si>
   <si>
     <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -6631,7 +7495,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="253">
+  <borders count="281">
     <border>
       <left/>
       <right/>
@@ -6891,11 +7755,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -7149,6 +8041,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7158,7 +8078,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7172,38 +8092,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1951</v>
+        <v>2233</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1952</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1950</v>
+        <v>2232</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1944</v>
+        <v>2226</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1945</v>
+        <v>2227</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1946</v>
+        <v>2228</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1947</v>
+        <v>2229</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1948</v>
+        <v>2230</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1949</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1917</v>
+        <v>2198</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -7222,7 +8142,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1918</v>
+        <v>2199</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -7241,7 +8161,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1919</v>
+        <v>2200</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -7260,7 +8180,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1920</v>
+        <v>2201</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -7279,7 +8199,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1921</v>
+        <v>2202</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -7298,7 +8218,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1922</v>
+        <v>2203</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -7317,7 +8237,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1923</v>
+        <v>2204</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -7336,7 +8256,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1924</v>
+        <v>2205</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -7355,7 +8275,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1925</v>
+        <v>2206</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -7374,7 +8294,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1926</v>
+        <v>2207</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -7393,7 +8313,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1927</v>
+        <v>2208</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -7412,7 +8332,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1928</v>
+        <v>2209</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -7429,7 +8349,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1929</v>
+        <v>2210</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -7446,7 +8366,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1930</v>
+        <v>2211</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -7465,7 +8385,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1931</v>
+        <v>2212</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -7484,7 +8404,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1932</v>
+        <v>2213</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -7503,7 +8423,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1933</v>
+        <v>2214</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -7522,7 +8442,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1934</v>
+        <v>2215</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -7541,7 +8461,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1935</v>
+        <v>2216</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -7560,7 +8480,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1936</v>
+        <v>2217</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -7579,7 +8499,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1937</v>
+        <v>2218</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -7598,7 +8518,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1938</v>
+        <v>2219</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -7617,7 +8537,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1939</v>
+        <v>2220</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -7636,7 +8556,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1940</v>
+        <v>2221</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -7655,7 +8575,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1941</v>
+        <v>2222</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -7674,7 +8594,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1942</v>
+        <v>2223</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -7691,7 +8611,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1943</v>
+        <v>2224</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -7706,6 +8626,25 @@
       </c>
       <c r="G29" s="0">
         <v>2.5760000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="E30" s="0">
+        <v>4.9909999999999997</v>
+      </c>
+      <c r="F30" s="0">
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="G30" s="0">
+        <v>2.5750000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -7714,7 +8653,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7732,50 +8671,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1992</v>
+        <v>2275</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1993</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1991</v>
+        <v>2274</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1981</v>
+        <v>2264</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1982</v>
+        <v>2265</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1983</v>
+        <v>2266</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1984</v>
+        <v>2267</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1985</v>
+        <v>2268</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1986</v>
+        <v>2269</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1987</v>
+        <v>2270</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1988</v>
+        <v>2271</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1989</v>
+        <v>2272</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1990</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1954</v>
+        <v>2236</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -7798,7 +8737,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1955</v>
+        <v>2237</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -7819,7 +8758,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1956</v>
+        <v>2238</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7840,7 +8779,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1957</v>
+        <v>2239</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7861,7 +8800,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1958</v>
+        <v>2240</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7884,7 +8823,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1959</v>
+        <v>2241</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7907,7 +8846,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1960</v>
+        <v>2242</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -7928,7 +8867,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1961</v>
+        <v>2243</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -7949,7 +8888,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1962</v>
+        <v>2244</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -7972,7 +8911,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1963</v>
+        <v>2245</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7995,7 +8934,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1964</v>
+        <v>2246</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8016,7 +8955,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1965</v>
+        <v>2247</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8037,7 +8976,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1966</v>
+        <v>2248</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8058,7 +8997,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1967</v>
+        <v>2249</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8081,7 +9020,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1968</v>
+        <v>2250</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -8102,7 +9041,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1969</v>
+        <v>2251</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -8123,7 +9062,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1970</v>
+        <v>2252</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8144,7 +9083,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1971</v>
+        <v>2253</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8167,7 +9106,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1972</v>
+        <v>2254</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8190,7 +9129,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1973</v>
+        <v>2255</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -8211,7 +9150,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1974</v>
+        <v>2256</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8232,7 +9171,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1975</v>
+        <v>2257</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8255,7 +9194,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1976</v>
+        <v>2258</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -8278,7 +9217,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1977</v>
+        <v>2259</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -8299,7 +9238,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1978</v>
+        <v>2260</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -8320,7 +9259,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1979</v>
+        <v>2261</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -8341,7 +9280,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1980</v>
+        <v>2262</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -8362,13 +9301,34 @@
         <v>2.6269999999999998</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0">
+        <v>2.794</v>
+      </c>
+      <c r="J30" s="0">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="K30" s="0">
+        <v>2.5750000000000002</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -8386,50 +9346,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2033</v>
+        <v>2317</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2034</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2032</v>
+        <v>2316</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2022</v>
+        <v>2306</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2023</v>
+        <v>2307</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2024</v>
+        <v>2308</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2025</v>
+        <v>2309</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2026</v>
+        <v>2310</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2027</v>
+        <v>2311</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2028</v>
+        <v>2312</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2029</v>
+        <v>2313</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2030</v>
+        <v>2314</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2031</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1995</v>
+        <v>2278</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -8452,7 +9412,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1996</v>
+        <v>2279</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -8473,7 +9433,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1997</v>
+        <v>2280</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -8494,7 +9454,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1998</v>
+        <v>2281</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -8515,7 +9475,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1999</v>
+        <v>2282</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8538,7 +9498,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2000</v>
+        <v>2283</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8561,7 +9521,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2001</v>
+        <v>2284</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -8582,7 +9542,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2002</v>
+        <v>2285</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -8603,7 +9563,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2003</v>
+        <v>2286</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -8626,7 +9586,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2004</v>
+        <v>2287</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -8649,7 +9609,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2005</v>
+        <v>2288</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8670,7 +9630,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2006</v>
+        <v>2289</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8691,7 +9651,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2007</v>
+        <v>2290</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8712,7 +9672,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2008</v>
+        <v>2291</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8735,7 +9695,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2009</v>
+        <v>2292</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -8756,7 +9716,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2010</v>
+        <v>2293</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -8777,7 +9737,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2011</v>
+        <v>2294</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8798,7 +9758,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2012</v>
+        <v>2295</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8821,7 +9781,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2013</v>
+        <v>2296</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8844,7 +9804,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2014</v>
+        <v>2297</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -8865,7 +9825,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2015</v>
+        <v>2298</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8886,7 +9846,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2016</v>
+        <v>2299</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8909,7 +9869,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2017</v>
+        <v>2300</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -8932,7 +9892,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2018</v>
+        <v>2301</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -8953,7 +9913,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2019</v>
+        <v>2302</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -8974,7 +9934,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2020</v>
+        <v>2303</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -8995,7 +9955,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2021</v>
+        <v>2304</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -9016,13 +9976,34 @@
         <v>3.2429999999999999</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0">
+        <v>3.4119999999999999</v>
+      </c>
+      <c r="J30" s="0">
+        <v>3.3900000000000001</v>
+      </c>
+      <c r="K30" s="0">
+        <v>3.2130000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -9040,50 +10021,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2074</v>
+        <v>2359</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2075</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2073</v>
+        <v>2358</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2063</v>
+        <v>2348</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2064</v>
+        <v>2349</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2065</v>
+        <v>2350</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2066</v>
+        <v>2351</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2067</v>
+        <v>2352</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2068</v>
+        <v>2353</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2069</v>
+        <v>2354</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2070</v>
+        <v>2355</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2071</v>
+        <v>2356</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2072</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2036</v>
+        <v>2320</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -9106,7 +10087,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2037</v>
+        <v>2321</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -9127,7 +10108,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2038</v>
+        <v>2322</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -9148,7 +10129,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2039</v>
+        <v>2323</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -9169,7 +10150,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2040</v>
+        <v>2324</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -9192,7 +10173,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2041</v>
+        <v>2325</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -9215,7 +10196,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2042</v>
+        <v>2326</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -9236,7 +10217,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2043</v>
+        <v>2327</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -9257,7 +10238,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2044</v>
+        <v>2328</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -9280,7 +10261,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2045</v>
+        <v>2329</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9303,7 +10284,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2046</v>
+        <v>2330</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -9324,7 +10305,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2047</v>
+        <v>2331</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -9345,7 +10326,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2048</v>
+        <v>2332</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -9366,7 +10347,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2049</v>
+        <v>2333</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9389,7 +10370,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2050</v>
+        <v>2334</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -9410,7 +10391,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2051</v>
+        <v>2335</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -9431,7 +10412,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2052</v>
+        <v>2336</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -9452,7 +10433,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2053</v>
+        <v>2337</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -9475,7 +10456,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2054</v>
+        <v>2338</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -9498,7 +10479,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2055</v>
+        <v>2339</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -9519,7 +10500,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2056</v>
+        <v>2340</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -9540,7 +10521,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2057</v>
+        <v>2341</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -9563,7 +10544,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2058</v>
+        <v>2342</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -9586,7 +10567,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2059</v>
+        <v>2343</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -9607,7 +10588,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2060</v>
+        <v>2344</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -9628,7 +10609,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2061</v>
+        <v>2345</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -9649,7 +10630,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2062</v>
+        <v>2346</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -9670,13 +10651,34 @@
         <v>3.6949999999999998</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0">
+        <v>3.444</v>
+      </c>
+      <c r="J30" s="0">
+        <v>3.2400000000000002</v>
+      </c>
+      <c r="K30" s="0">
+        <v>3.1899999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -9693,47 +10695,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2114</v>
+        <v>2400</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2115</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2113</v>
+        <v>2399</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2104</v>
+        <v>2390</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2105</v>
+        <v>2391</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2106</v>
+        <v>2392</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2107</v>
+        <v>2393</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2108</v>
+        <v>2394</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2109</v>
+        <v>2395</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2110</v>
+        <v>2396</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2111</v>
+        <v>2397</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2112</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2077</v>
+        <v>2362</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -9753,7 +10755,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2078</v>
+        <v>2363</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -9773,7 +10775,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2079</v>
+        <v>2364</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -9793,7 +10795,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2080</v>
+        <v>2365</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -9813,7 +10815,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2081</v>
+        <v>2366</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -9833,7 +10835,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2082</v>
+        <v>2367</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -9853,7 +10855,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2083</v>
+        <v>2368</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -9873,7 +10875,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2084</v>
+        <v>2369</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -9893,7 +10895,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2085</v>
+        <v>2370</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -9915,7 +10917,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2086</v>
+        <v>2371</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9935,7 +10937,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2087</v>
+        <v>2372</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -9955,7 +10957,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2088</v>
+        <v>2373</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -9975,7 +10977,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2089</v>
+        <v>2374</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -9995,7 +10997,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2090</v>
+        <v>2375</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -10015,7 +11017,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2091</v>
+        <v>2376</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -10035,7 +11037,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2092</v>
+        <v>2377</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -10055,7 +11057,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2093</v>
+        <v>2378</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10075,7 +11077,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2094</v>
+        <v>2379</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -10095,7 +11097,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2095</v>
+        <v>2380</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10115,7 +11117,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2096</v>
+        <v>2381</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -10135,7 +11137,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2097</v>
+        <v>2382</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10155,7 +11157,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2098</v>
+        <v>2383</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -10177,7 +11179,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2099</v>
+        <v>2384</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -10197,7 +11199,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2100</v>
+        <v>2385</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -10217,7 +11219,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2101</v>
+        <v>2386</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -10237,7 +11239,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2102</v>
+        <v>2387</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10257,7 +11259,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2103</v>
+        <v>2388</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -10275,13 +11277,33 @@
         <v>0.02</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="I30" s="0">
+        <v>-0.0040000000000000001</v>
+      </c>
+      <c r="J30" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -10298,47 +11320,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2154</v>
+        <v>2441</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2155</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2153</v>
+        <v>2440</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2144</v>
+        <v>2431</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2145</v>
+        <v>2432</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2146</v>
+        <v>2433</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2147</v>
+        <v>2434</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2148</v>
+        <v>2435</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2149</v>
+        <v>2436</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2150</v>
+        <v>2437</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2151</v>
+        <v>2438</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2152</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2117</v>
+        <v>2403</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -10358,7 +11380,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2118</v>
+        <v>2404</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -10378,7 +11400,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2119</v>
+        <v>2405</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -10398,7 +11420,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2120</v>
+        <v>2406</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -10418,7 +11440,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2121</v>
+        <v>2407</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -10438,7 +11460,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2122</v>
+        <v>2408</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -10458,7 +11480,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2123</v>
+        <v>2409</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -10478,7 +11500,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2124</v>
+        <v>2410</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -10498,7 +11520,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2125</v>
+        <v>2411</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -10520,7 +11542,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2126</v>
+        <v>2412</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -10540,7 +11562,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2127</v>
+        <v>2413</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -10560,7 +11582,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2128</v>
+        <v>2414</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -10580,7 +11602,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2129</v>
+        <v>2415</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -10600,7 +11622,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2130</v>
+        <v>2416</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -10620,7 +11642,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2131</v>
+        <v>2417</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -10640,7 +11662,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2132</v>
+        <v>2418</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -10660,7 +11682,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2133</v>
+        <v>2419</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10680,7 +11702,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2134</v>
+        <v>2420</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -10700,7 +11722,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2135</v>
+        <v>2421</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10720,7 +11742,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2136</v>
+        <v>2422</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -10740,7 +11762,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2137</v>
+        <v>2423</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10760,7 +11782,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2138</v>
+        <v>2424</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -10782,7 +11804,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2139</v>
+        <v>2425</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -10802,7 +11824,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2140</v>
+        <v>2426</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -10822,7 +11844,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2141</v>
+        <v>2427</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -10842,7 +11864,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2142</v>
+        <v>2428</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10862,7 +11884,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2143</v>
+        <v>2429</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -10880,13 +11902,33 @@
         <v>0.058000000000000003</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0">
+        <v>0.13</v>
+      </c>
+      <c r="I30" s="0">
+        <v>0.105</v>
+      </c>
+      <c r="J30" s="0">
+        <v>0.042999999999999997</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -10904,50 +11946,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2195</v>
+        <v>2483</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2196</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2194</v>
+        <v>2482</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2184</v>
+        <v>2472</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2185</v>
+        <v>2473</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2186</v>
+        <v>2474</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2187</v>
+        <v>2475</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2188</v>
+        <v>2476</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2189</v>
+        <v>2477</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2190</v>
+        <v>2478</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2191</v>
+        <v>2479</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2192</v>
+        <v>2480</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2193</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2157</v>
+        <v>2444</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -10970,7 +12012,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2158</v>
+        <v>2445</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -10993,7 +12035,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2159</v>
+        <v>2446</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -11014,7 +12056,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2160</v>
+        <v>2447</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -11035,7 +12077,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2161</v>
+        <v>2448</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -11058,7 +12100,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2162</v>
+        <v>2449</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -11081,7 +12123,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2163</v>
+        <v>2450</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -11102,7 +12144,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2164</v>
+        <v>2451</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -11123,7 +12165,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2165</v>
+        <v>2452</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -11146,7 +12188,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2166</v>
+        <v>2453</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -11169,7 +12211,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2167</v>
+        <v>2454</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -11190,7 +12232,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2168</v>
+        <v>2455</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -11211,7 +12253,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2169</v>
+        <v>2456</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -11232,7 +12274,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2170</v>
+        <v>2457</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -11255,7 +12297,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2171</v>
+        <v>2458</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -11278,7 +12320,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2172</v>
+        <v>2459</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -11299,7 +12341,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2173</v>
+        <v>2460</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -11320,7 +12362,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2174</v>
+        <v>2461</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -11343,7 +12385,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2175</v>
+        <v>2462</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -11366,7 +12408,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2176</v>
+        <v>2463</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -11387,7 +12429,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2177</v>
+        <v>2464</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -11408,7 +12450,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2178</v>
+        <v>2465</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -11431,7 +12473,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2179</v>
+        <v>2466</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -11454,7 +12496,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2180</v>
+        <v>2467</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -11475,7 +12517,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2181</v>
+        <v>2468</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -11496,7 +12538,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2182</v>
+        <v>2469</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -11517,7 +12559,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2183</v>
+        <v>2470</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -11538,6 +12580,29 @@
         <v>2.3290000000000002</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0">
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="I30" s="0">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="J30" s="0">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="K30" s="0">
+        <v>2.2890000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="2773">
   <si>
     <t>Row</t>
   </si>
@@ -6572,6 +6572,870 @@
   </si>
   <si>
     <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -7495,7 +8359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="281">
+  <borders count="309">
     <border>
       <left/>
       <right/>
@@ -7783,11 +8647,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -8069,6 +8961,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8092,38 +9012,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2233</v>
+        <v>2521</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2234</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2232</v>
+        <v>2520</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2226</v>
+        <v>2514</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2227</v>
+        <v>2515</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2228</v>
+        <v>2516</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2229</v>
+        <v>2517</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2230</v>
+        <v>2518</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2231</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2198</v>
+        <v>2486</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -8142,7 +9062,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2199</v>
+        <v>2487</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -8161,7 +9081,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2200</v>
+        <v>2488</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -8180,7 +9100,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2201</v>
+        <v>2489</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -8199,7 +9119,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2202</v>
+        <v>2490</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -8218,7 +9138,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2203</v>
+        <v>2491</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -8237,7 +9157,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2204</v>
+        <v>2492</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -8256,7 +9176,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2205</v>
+        <v>2493</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -8275,7 +9195,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2206</v>
+        <v>2494</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -8294,7 +9214,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2207</v>
+        <v>2495</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -8313,7 +9233,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2208</v>
+        <v>2496</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -8332,7 +9252,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2209</v>
+        <v>2497</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -8349,7 +9269,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2210</v>
+        <v>2498</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -8366,7 +9286,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2211</v>
+        <v>2499</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -8385,7 +9305,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2212</v>
+        <v>2500</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -8404,7 +9324,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2213</v>
+        <v>2501</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -8423,7 +9343,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2214</v>
+        <v>2502</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -8442,7 +9362,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2215</v>
+        <v>2503</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -8461,7 +9381,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2216</v>
+        <v>2504</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -8480,7 +9400,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2217</v>
+        <v>2505</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -8499,7 +9419,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2218</v>
+        <v>2506</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -8518,7 +9438,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2219</v>
+        <v>2507</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -8537,7 +9457,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2220</v>
+        <v>2508</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -8556,7 +9476,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2221</v>
+        <v>2509</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -8575,7 +9495,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2222</v>
+        <v>2510</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -8594,7 +9514,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2223</v>
+        <v>2511</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -8611,7 +9531,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2224</v>
+        <v>2512</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -8630,7 +9550,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2225</v>
+        <v>2513</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -8671,50 +9591,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2275</v>
+        <v>2563</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2276</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2274</v>
+        <v>2562</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2264</v>
+        <v>2552</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2265</v>
+        <v>2553</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2266</v>
+        <v>2554</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2267</v>
+        <v>2555</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2268</v>
+        <v>2556</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2269</v>
+        <v>2557</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2270</v>
+        <v>2558</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2271</v>
+        <v>2559</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2272</v>
+        <v>2560</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2273</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2236</v>
+        <v>2524</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -8737,7 +9657,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2237</v>
+        <v>2525</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -8758,7 +9678,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2238</v>
+        <v>2526</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -8779,7 +9699,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2239</v>
+        <v>2527</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -8800,7 +9720,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2240</v>
+        <v>2528</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8823,7 +9743,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2241</v>
+        <v>2529</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8846,7 +9766,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2242</v>
+        <v>2530</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -8867,7 +9787,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2243</v>
+        <v>2531</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -8888,7 +9808,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2244</v>
+        <v>2532</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -8911,7 +9831,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2245</v>
+        <v>2533</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -8934,7 +9854,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2246</v>
+        <v>2534</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8955,7 +9875,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2247</v>
+        <v>2535</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8976,7 +9896,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2248</v>
+        <v>2536</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8997,7 +9917,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2249</v>
+        <v>2537</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9020,7 +9940,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2250</v>
+        <v>2538</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -9041,7 +9961,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2251</v>
+        <v>2539</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -9062,7 +9982,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2252</v>
+        <v>2540</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -9083,7 +10003,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2253</v>
+        <v>2541</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -9106,7 +10026,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2254</v>
+        <v>2542</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -9129,7 +10049,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2255</v>
+        <v>2543</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -9150,7 +10070,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2256</v>
+        <v>2544</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -9171,7 +10091,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2257</v>
+        <v>2545</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -9194,7 +10114,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2258</v>
+        <v>2546</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -9217,7 +10137,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2259</v>
+        <v>2547</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -9238,7 +10158,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2260</v>
+        <v>2548</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -9259,7 +10179,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2261</v>
+        <v>2549</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -9280,7 +10200,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2262</v>
+        <v>2550</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -9303,7 +10223,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2263</v>
+        <v>2551</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -9346,50 +10266,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2317</v>
+        <v>2605</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2318</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2316</v>
+        <v>2604</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2306</v>
+        <v>2594</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2307</v>
+        <v>2595</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2308</v>
+        <v>2596</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2309</v>
+        <v>2597</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2310</v>
+        <v>2598</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2311</v>
+        <v>2599</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2312</v>
+        <v>2600</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2313</v>
+        <v>2601</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2314</v>
+        <v>2602</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2315</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2278</v>
+        <v>2566</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -9412,7 +10332,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2279</v>
+        <v>2567</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -9433,7 +10353,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2280</v>
+        <v>2568</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -9454,7 +10374,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2281</v>
+        <v>2569</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -9475,7 +10395,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2282</v>
+        <v>2570</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -9498,7 +10418,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2283</v>
+        <v>2571</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -9521,7 +10441,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2284</v>
+        <v>2572</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -9542,7 +10462,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2285</v>
+        <v>2573</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -9563,7 +10483,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2286</v>
+        <v>2574</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -9586,7 +10506,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2287</v>
+        <v>2575</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9609,7 +10529,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2288</v>
+        <v>2576</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -9630,7 +10550,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2289</v>
+        <v>2577</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -9651,7 +10571,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2290</v>
+        <v>2578</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -9672,7 +10592,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2291</v>
+        <v>2579</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9695,7 +10615,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2292</v>
+        <v>2580</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -9716,7 +10636,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2293</v>
+        <v>2581</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -9737,7 +10657,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2294</v>
+        <v>2582</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -9758,7 +10678,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2295</v>
+        <v>2583</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -9781,7 +10701,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2296</v>
+        <v>2584</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -9804,7 +10724,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2297</v>
+        <v>2585</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -9825,7 +10745,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2298</v>
+        <v>2586</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -9846,7 +10766,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2299</v>
+        <v>2587</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -9869,7 +10789,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2300</v>
+        <v>2588</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -9892,7 +10812,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2301</v>
+        <v>2589</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -9913,7 +10833,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2302</v>
+        <v>2590</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -9934,7 +10854,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2303</v>
+        <v>2591</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -9955,7 +10875,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2304</v>
+        <v>2592</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -9978,7 +10898,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2305</v>
+        <v>2593</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -10021,50 +10941,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2359</v>
+        <v>2647</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2360</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2358</v>
+        <v>2646</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2348</v>
+        <v>2636</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2349</v>
+        <v>2637</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2350</v>
+        <v>2638</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2351</v>
+        <v>2639</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2352</v>
+        <v>2640</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2353</v>
+        <v>2641</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2354</v>
+        <v>2642</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2355</v>
+        <v>2643</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2356</v>
+        <v>2644</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2357</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2320</v>
+        <v>2608</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -10087,7 +11007,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2321</v>
+        <v>2609</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -10108,7 +11028,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2322</v>
+        <v>2610</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -10129,7 +11049,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2323</v>
+        <v>2611</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -10150,7 +11070,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2324</v>
+        <v>2612</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -10173,7 +11093,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2325</v>
+        <v>2613</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -10196,7 +11116,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2326</v>
+        <v>2614</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -10217,7 +11137,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2327</v>
+        <v>2615</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -10238,7 +11158,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2328</v>
+        <v>2616</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -10261,7 +11181,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2329</v>
+        <v>2617</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -10284,7 +11204,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2330</v>
+        <v>2618</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -10305,7 +11225,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2331</v>
+        <v>2619</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -10326,7 +11246,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2332</v>
+        <v>2620</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -10347,7 +11267,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2333</v>
+        <v>2621</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -10370,7 +11290,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2334</v>
+        <v>2622</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -10391,7 +11311,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2335</v>
+        <v>2623</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -10412,7 +11332,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2336</v>
+        <v>2624</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10433,7 +11353,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2337</v>
+        <v>2625</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -10456,7 +11376,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2338</v>
+        <v>2626</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10479,7 +11399,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2339</v>
+        <v>2627</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -10500,7 +11420,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2340</v>
+        <v>2628</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10521,7 +11441,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2341</v>
+        <v>2629</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -10544,7 +11464,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2342</v>
+        <v>2630</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -10567,7 +11487,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2343</v>
+        <v>2631</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -10588,7 +11508,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2344</v>
+        <v>2632</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -10609,7 +11529,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2345</v>
+        <v>2633</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10630,7 +11550,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2346</v>
+        <v>2634</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -10653,7 +11573,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2347</v>
+        <v>2635</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -10695,47 +11615,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2400</v>
+        <v>2688</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2401</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2399</v>
+        <v>2687</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2390</v>
+        <v>2678</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2391</v>
+        <v>2679</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2392</v>
+        <v>2680</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2393</v>
+        <v>2681</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2394</v>
+        <v>2682</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2395</v>
+        <v>2683</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2396</v>
+        <v>2684</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2397</v>
+        <v>2685</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2398</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2362</v>
+        <v>2650</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -10755,7 +11675,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2363</v>
+        <v>2651</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -10775,7 +11695,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2364</v>
+        <v>2652</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -10795,7 +11715,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2365</v>
+        <v>2653</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -10815,7 +11735,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2366</v>
+        <v>2654</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -10835,7 +11755,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2367</v>
+        <v>2655</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -10855,7 +11775,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2368</v>
+        <v>2656</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -10875,7 +11795,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2369</v>
+        <v>2657</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -10895,7 +11815,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2370</v>
+        <v>2658</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -10917,7 +11837,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2371</v>
+        <v>2659</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -10937,7 +11857,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2372</v>
+        <v>2660</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -10957,7 +11877,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2373</v>
+        <v>2661</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -10977,7 +11897,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2374</v>
+        <v>2662</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -10997,7 +11917,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2375</v>
+        <v>2663</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -11017,7 +11937,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2376</v>
+        <v>2664</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -11037,7 +11957,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2377</v>
+        <v>2665</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -11057,7 +11977,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2378</v>
+        <v>2666</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -11077,7 +11997,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2379</v>
+        <v>2667</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -11097,7 +12017,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2380</v>
+        <v>2668</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -11117,7 +12037,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2381</v>
+        <v>2669</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -11137,7 +12057,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2382</v>
+        <v>2670</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -11157,7 +12077,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2383</v>
+        <v>2671</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -11179,7 +12099,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2384</v>
+        <v>2672</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -11199,7 +12119,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2385</v>
+        <v>2673</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -11219,7 +12139,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2386</v>
+        <v>2674</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -11239,7 +12159,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2387</v>
+        <v>2675</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -11259,7 +12179,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2388</v>
+        <v>2676</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -11279,7 +12199,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2389</v>
+        <v>2677</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -11320,47 +12240,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2441</v>
+        <v>2729</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2442</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2440</v>
+        <v>2728</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2431</v>
+        <v>2719</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2432</v>
+        <v>2720</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2433</v>
+        <v>2721</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2434</v>
+        <v>2722</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2435</v>
+        <v>2723</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2436</v>
+        <v>2724</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2437</v>
+        <v>2725</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2438</v>
+        <v>2726</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2439</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2403</v>
+        <v>2691</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -11380,7 +12300,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2404</v>
+        <v>2692</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -11400,7 +12320,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2405</v>
+        <v>2693</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -11420,7 +12340,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2406</v>
+        <v>2694</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -11440,7 +12360,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2407</v>
+        <v>2695</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -11460,7 +12380,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2408</v>
+        <v>2696</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -11480,7 +12400,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2409</v>
+        <v>2697</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -11500,7 +12420,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2410</v>
+        <v>2698</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -11520,7 +12440,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2411</v>
+        <v>2699</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -11542,7 +12462,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2412</v>
+        <v>2700</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -11562,7 +12482,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2413</v>
+        <v>2701</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -11582,7 +12502,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2414</v>
+        <v>2702</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -11602,7 +12522,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2415</v>
+        <v>2703</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -11622,7 +12542,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2416</v>
+        <v>2704</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -11642,7 +12562,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2417</v>
+        <v>2705</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -11662,7 +12582,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2418</v>
+        <v>2706</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -11682,7 +12602,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2419</v>
+        <v>2707</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -11702,7 +12622,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2420</v>
+        <v>2708</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -11722,7 +12642,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2421</v>
+        <v>2709</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -11742,7 +12662,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2422</v>
+        <v>2710</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -11762,7 +12682,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2423</v>
+        <v>2711</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -11782,7 +12702,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2424</v>
+        <v>2712</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -11804,7 +12724,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2425</v>
+        <v>2713</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -11824,7 +12744,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2426</v>
+        <v>2714</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -11844,7 +12764,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2427</v>
+        <v>2715</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -11864,7 +12784,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2428</v>
+        <v>2716</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -11884,7 +12804,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2429</v>
+        <v>2717</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -11904,7 +12824,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2430</v>
+        <v>2718</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -11946,50 +12866,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2483</v>
+        <v>2771</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2484</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2482</v>
+        <v>2770</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2472</v>
+        <v>2760</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2473</v>
+        <v>2761</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2474</v>
+        <v>2762</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2475</v>
+        <v>2763</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2476</v>
+        <v>2764</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2477</v>
+        <v>2765</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2478</v>
+        <v>2766</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2479</v>
+        <v>2767</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2480</v>
+        <v>2768</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2481</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2444</v>
+        <v>2732</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -12012,7 +12932,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2445</v>
+        <v>2733</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -12035,7 +12955,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2446</v>
+        <v>2734</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -12056,7 +12976,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2447</v>
+        <v>2735</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -12077,7 +12997,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2448</v>
+        <v>2736</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -12100,7 +13020,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2449</v>
+        <v>2737</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -12123,7 +13043,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2450</v>
+        <v>2738</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -12144,7 +13064,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2451</v>
+        <v>2739</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -12165,7 +13085,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2452</v>
+        <v>2740</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -12188,7 +13108,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2453</v>
+        <v>2741</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -12211,7 +13131,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2454</v>
+        <v>2742</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -12232,7 +13152,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2455</v>
+        <v>2743</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -12253,7 +13173,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2456</v>
+        <v>2744</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -12274,7 +13194,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2457</v>
+        <v>2745</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -12297,7 +13217,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2458</v>
+        <v>2746</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -12320,7 +13240,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2459</v>
+        <v>2747</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -12341,7 +13261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2460</v>
+        <v>2748</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -12362,7 +13282,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2461</v>
+        <v>2749</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -12385,7 +13305,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2462</v>
+        <v>2750</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -12408,7 +13328,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2463</v>
+        <v>2751</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -12429,7 +13349,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2464</v>
+        <v>2752</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -12450,7 +13370,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2465</v>
+        <v>2753</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -12473,7 +13393,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2466</v>
+        <v>2754</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -12496,7 +13416,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2467</v>
+        <v>2755</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -12517,7 +13437,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2468</v>
+        <v>2756</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -12538,7 +13458,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2469</v>
+        <v>2757</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -12559,7 +13479,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2470</v>
+        <v>2758</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -12582,7 +13502,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2471</v>
+        <v>2759</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="2773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="3075">
   <si>
     <t>Row</t>
   </si>
@@ -8300,6 +8300,912 @@
   </si>
   <si>
     <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -8359,7 +9265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="309">
+  <borders count="337">
     <border>
       <left/>
       <right/>
@@ -8675,11 +9581,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -8989,6 +9923,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8998,7 +9960,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -9012,38 +9974,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2521</v>
+        <v>2811</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2522</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2520</v>
+        <v>2810</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2514</v>
+        <v>2804</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2515</v>
+        <v>2805</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2516</v>
+        <v>2806</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2517</v>
+        <v>2807</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2518</v>
+        <v>2808</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2519</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2486</v>
+        <v>2774</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -9062,7 +10024,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2487</v>
+        <v>2775</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -9081,7 +10043,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2488</v>
+        <v>2776</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -9100,7 +10062,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2489</v>
+        <v>2777</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -9119,7 +10081,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2490</v>
+        <v>2778</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -9138,7 +10100,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2491</v>
+        <v>2779</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -9157,7 +10119,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2492</v>
+        <v>2780</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -9176,7 +10138,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2493</v>
+        <v>2781</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -9195,7 +10157,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2494</v>
+        <v>2782</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -9214,7 +10176,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2495</v>
+        <v>2783</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -9233,7 +10195,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2496</v>
+        <v>2784</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -9252,7 +10214,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2497</v>
+        <v>2785</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -9269,7 +10231,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2498</v>
+        <v>2786</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -9286,7 +10248,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2499</v>
+        <v>2787</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -9305,7 +10267,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2500</v>
+        <v>2788</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -9324,7 +10286,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2501</v>
+        <v>2789</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -9343,7 +10305,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2502</v>
+        <v>2790</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -9362,7 +10324,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2503</v>
+        <v>2791</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -9381,7 +10343,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2504</v>
+        <v>2792</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -9400,7 +10362,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2505</v>
+        <v>2793</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -9419,7 +10381,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2506</v>
+        <v>2794</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -9438,7 +10400,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2507</v>
+        <v>2795</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -9457,7 +10419,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2508</v>
+        <v>2796</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -9476,7 +10438,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2509</v>
+        <v>2797</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -9495,7 +10457,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2510</v>
+        <v>2798</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -9514,7 +10476,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2511</v>
+        <v>2799</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -9531,7 +10493,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2512</v>
+        <v>2800</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -9550,7 +10512,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2513</v>
+        <v>2801</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -9565,6 +10527,44 @@
       </c>
       <c r="G30" s="0">
         <v>2.5750000000000002</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="E31" s="0">
+        <v>4.9299999999999997</v>
+      </c>
+      <c r="F31" s="0">
+        <v>2.504</v>
+      </c>
+      <c r="G31" s="0">
+        <v>3.2629999999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="E32" s="0">
+        <v>7.2729999999999997</v>
+      </c>
+      <c r="F32" s="0">
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="G32" s="0">
+        <v>3.9060000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9573,7 +10573,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -9591,50 +10591,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2563</v>
+        <v>2855</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2564</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2562</v>
+        <v>2854</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2552</v>
+        <v>2844</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2553</v>
+        <v>2845</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2554</v>
+        <v>2846</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2555</v>
+        <v>2847</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2556</v>
+        <v>2848</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2557</v>
+        <v>2849</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2558</v>
+        <v>2850</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2559</v>
+        <v>2851</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2560</v>
+        <v>2852</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2561</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2524</v>
+        <v>2814</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -9657,7 +10657,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2525</v>
+        <v>2815</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -9678,7 +10678,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2526</v>
+        <v>2816</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -9699,7 +10699,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2527</v>
+        <v>2817</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -9720,7 +10720,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2528</v>
+        <v>2818</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -9743,7 +10743,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2529</v>
+        <v>2819</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -9766,7 +10766,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2530</v>
+        <v>2820</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -9787,7 +10787,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2531</v>
+        <v>2821</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -9808,7 +10808,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2532</v>
+        <v>2822</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -9831,7 +10831,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2533</v>
+        <v>2823</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9854,7 +10854,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2534</v>
+        <v>2824</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -9875,7 +10875,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2535</v>
+        <v>2825</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -9896,7 +10896,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2536</v>
+        <v>2826</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -9917,7 +10917,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2537</v>
+        <v>2827</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9940,7 +10940,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2538</v>
+        <v>2828</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -9961,7 +10961,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2539</v>
+        <v>2829</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -9982,7 +10982,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2540</v>
+        <v>2830</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10003,7 +11003,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2541</v>
+        <v>2831</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -10026,7 +11026,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2542</v>
+        <v>2832</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10049,7 +11049,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2543</v>
+        <v>2833</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -10070,7 +11070,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2544</v>
+        <v>2834</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10091,7 +11091,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2545</v>
+        <v>2835</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -10114,7 +11114,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2546</v>
+        <v>2836</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -10137,7 +11137,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2547</v>
+        <v>2837</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -10158,7 +11158,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2548</v>
+        <v>2838</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -10179,7 +11179,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2549</v>
+        <v>2839</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10200,7 +11200,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2550</v>
+        <v>2840</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -10223,7 +11223,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2551</v>
+        <v>2841</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -10242,13 +11242,55 @@
         <v>2.5750000000000002</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0">
+        <v>2.569</v>
+      </c>
+      <c r="J31" s="0">
+        <v>2.488</v>
+      </c>
+      <c r="K31" s="0">
+        <v>2.5680000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0">
+        <v>2.6440000000000001</v>
+      </c>
+      <c r="J32" s="0">
+        <v>2.3969999999999998</v>
+      </c>
+      <c r="K32" s="0">
+        <v>2.5750000000000002</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -10266,50 +11308,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2605</v>
+        <v>2899</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2606</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2604</v>
+        <v>2898</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2594</v>
+        <v>2888</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2595</v>
+        <v>2889</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2596</v>
+        <v>2890</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2597</v>
+        <v>2891</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2598</v>
+        <v>2892</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2599</v>
+        <v>2893</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2600</v>
+        <v>2894</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2601</v>
+        <v>2895</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2602</v>
+        <v>2896</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2603</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2566</v>
+        <v>2858</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -10332,7 +11374,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2567</v>
+        <v>2859</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -10353,7 +11395,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2568</v>
+        <v>2860</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -10374,7 +11416,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2569</v>
+        <v>2861</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -10395,7 +11437,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2570</v>
+        <v>2862</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -10418,7 +11460,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2571</v>
+        <v>2863</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -10441,7 +11483,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2572</v>
+        <v>2864</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -10462,7 +11504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2573</v>
+        <v>2865</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -10483,7 +11525,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2574</v>
+        <v>2866</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -10506,7 +11548,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2575</v>
+        <v>2867</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -10529,7 +11571,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2576</v>
+        <v>2868</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -10550,7 +11592,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2577</v>
+        <v>2869</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -10571,7 +11613,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2578</v>
+        <v>2870</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -10592,7 +11634,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2579</v>
+        <v>2871</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -10615,7 +11657,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2580</v>
+        <v>2872</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -10636,7 +11678,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2581</v>
+        <v>2873</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -10657,7 +11699,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2582</v>
+        <v>2874</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10678,7 +11720,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2583</v>
+        <v>2875</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -10701,7 +11743,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2584</v>
+        <v>2876</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10724,7 +11766,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2585</v>
+        <v>2877</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -10745,7 +11787,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2586</v>
+        <v>2878</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10766,7 +11808,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2587</v>
+        <v>2879</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -10789,7 +11831,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2588</v>
+        <v>2880</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -10812,7 +11854,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2589</v>
+        <v>2881</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -10833,7 +11875,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2590</v>
+        <v>2882</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -10854,7 +11896,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2591</v>
+        <v>2883</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10875,7 +11917,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2592</v>
+        <v>2884</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -10898,7 +11940,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2593</v>
+        <v>2885</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -10917,13 +11959,55 @@
         <v>3.2130000000000001</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0">
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="J31" s="0">
+        <v>3.3199999999999998</v>
+      </c>
+      <c r="K31" s="0">
+        <v>3.145</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0">
+        <v>3.4100000000000001</v>
+      </c>
+      <c r="J32" s="0">
+        <v>3.3500000000000001</v>
+      </c>
+      <c r="K32" s="0">
+        <v>3.2109999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -10941,50 +12025,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2647</v>
+        <v>2943</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2648</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2646</v>
+        <v>2942</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2636</v>
+        <v>2932</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2637</v>
+        <v>2933</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2638</v>
+        <v>2934</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2639</v>
+        <v>2935</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2640</v>
+        <v>2936</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2641</v>
+        <v>2937</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2642</v>
+        <v>2938</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2643</v>
+        <v>2939</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2644</v>
+        <v>2940</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2645</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2608</v>
+        <v>2902</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -11007,7 +12091,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2609</v>
+        <v>2903</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -11028,7 +12112,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2610</v>
+        <v>2904</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -11049,7 +12133,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2611</v>
+        <v>2905</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -11070,7 +12154,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2612</v>
+        <v>2906</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -11093,7 +12177,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2613</v>
+        <v>2907</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -11116,7 +12200,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2614</v>
+        <v>2908</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -11137,7 +12221,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2615</v>
+        <v>2909</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -11158,7 +12242,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2616</v>
+        <v>2910</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -11181,7 +12265,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2617</v>
+        <v>2911</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -11204,7 +12288,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2618</v>
+        <v>2912</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -11225,7 +12309,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2619</v>
+        <v>2913</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -11246,7 +12330,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2620</v>
+        <v>2914</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -11267,7 +12351,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2621</v>
+        <v>2915</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -11290,7 +12374,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2622</v>
+        <v>2916</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -11311,7 +12395,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2623</v>
+        <v>2917</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -11332,7 +12416,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2624</v>
+        <v>2918</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -11353,7 +12437,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2625</v>
+        <v>2919</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -11376,7 +12460,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2626</v>
+        <v>2920</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -11399,7 +12483,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2627</v>
+        <v>2921</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -11420,7 +12504,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2628</v>
+        <v>2922</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -11441,7 +12525,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2629</v>
+        <v>2923</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -11464,7 +12548,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2630</v>
+        <v>2924</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -11487,7 +12571,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2631</v>
+        <v>2925</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -11508,7 +12592,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2632</v>
+        <v>2926</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -11529,7 +12613,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2633</v>
+        <v>2927</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -11550,7 +12634,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2634</v>
+        <v>2928</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -11573,7 +12657,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2635</v>
+        <v>2929</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -11592,13 +12676,55 @@
         <v>3.1899999999999999</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0">
+        <v>3.339</v>
+      </c>
+      <c r="J31" s="0">
+        <v>3.1659999999999999</v>
+      </c>
+      <c r="K31" s="0">
+        <v>3.028</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0">
+        <v>3.2970000000000002</v>
+      </c>
+      <c r="J32" s="0">
+        <v>3.181</v>
+      </c>
+      <c r="K32" s="0">
+        <v>2.9889999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -11615,47 +12741,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2688</v>
+        <v>2986</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2689</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2687</v>
+        <v>2985</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2678</v>
+        <v>2976</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2679</v>
+        <v>2977</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2680</v>
+        <v>2978</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2681</v>
+        <v>2979</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2682</v>
+        <v>2980</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2683</v>
+        <v>2981</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2684</v>
+        <v>2982</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2685</v>
+        <v>2983</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2686</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2650</v>
+        <v>2946</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -11675,7 +12801,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2651</v>
+        <v>2947</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -11695,7 +12821,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2652</v>
+        <v>2948</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -11715,7 +12841,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2653</v>
+        <v>2949</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -11735,7 +12861,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2654</v>
+        <v>2950</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -11755,7 +12881,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2655</v>
+        <v>2951</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -11775,7 +12901,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2656</v>
+        <v>2952</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -11795,7 +12921,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2657</v>
+        <v>2953</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -11815,7 +12941,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2658</v>
+        <v>2954</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -11837,7 +12963,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2659</v>
+        <v>2955</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -11857,7 +12983,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2660</v>
+        <v>2956</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -11877,7 +13003,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2661</v>
+        <v>2957</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -11897,7 +13023,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2662</v>
+        <v>2958</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -11917,7 +13043,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2663</v>
+        <v>2959</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -11937,7 +13063,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2664</v>
+        <v>2960</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -11957,7 +13083,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2665</v>
+        <v>2961</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -11977,7 +13103,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2666</v>
+        <v>2962</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -11997,7 +13123,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2667</v>
+        <v>2963</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -12017,7 +13143,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2668</v>
+        <v>2964</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -12037,7 +13163,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2669</v>
+        <v>2965</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -12057,7 +13183,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2670</v>
+        <v>2966</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -12077,7 +13203,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2671</v>
+        <v>2967</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -12099,7 +13225,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2672</v>
+        <v>2968</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -12119,7 +13245,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2673</v>
+        <v>2969</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -12139,7 +13265,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2674</v>
+        <v>2970</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -12159,7 +13285,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2675</v>
+        <v>2971</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -12179,7 +13305,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2676</v>
+        <v>2972</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -12199,7 +13325,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2677</v>
+        <v>2973</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -12217,13 +13343,53 @@
         <v>0.032000000000000001</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="I31" s="0">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0">
+        <v>0.035999999999999997</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="I32" s="0">
+        <v>0.0030000000000000001</v>
+      </c>
+      <c r="J32" s="0">
+        <v>0.037999999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -12240,47 +13406,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2729</v>
+        <v>3029</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2730</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2728</v>
+        <v>3028</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2719</v>
+        <v>3019</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2720</v>
+        <v>3020</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2721</v>
+        <v>3021</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2722</v>
+        <v>3022</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2723</v>
+        <v>3023</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2724</v>
+        <v>3024</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2725</v>
+        <v>3025</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2726</v>
+        <v>3026</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2727</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2691</v>
+        <v>2989</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -12300,7 +13466,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2692</v>
+        <v>2990</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -12320,7 +13486,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2693</v>
+        <v>2991</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -12340,7 +13506,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2694</v>
+        <v>2992</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -12360,7 +13526,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2695</v>
+        <v>2993</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -12380,7 +13546,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2696</v>
+        <v>2994</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -12400,7 +13566,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2697</v>
+        <v>2995</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -12420,7 +13586,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2698</v>
+        <v>2996</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -12440,7 +13606,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2699</v>
+        <v>2997</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -12462,7 +13628,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2700</v>
+        <v>2998</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -12482,7 +13648,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2701</v>
+        <v>2999</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -12502,7 +13668,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2702</v>
+        <v>3000</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -12522,7 +13688,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2703</v>
+        <v>3001</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -12542,7 +13708,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2704</v>
+        <v>3002</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -12562,7 +13728,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2705</v>
+        <v>3003</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -12582,7 +13748,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2706</v>
+        <v>3004</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -12602,7 +13768,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2707</v>
+        <v>3005</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -12622,7 +13788,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2708</v>
+        <v>3006</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -12642,7 +13808,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2709</v>
+        <v>3007</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -12662,7 +13828,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2710</v>
+        <v>3008</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -12682,7 +13848,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2711</v>
+        <v>3009</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -12702,7 +13868,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2712</v>
+        <v>3010</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -12724,7 +13890,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2713</v>
+        <v>3011</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -12744,7 +13910,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2714</v>
+        <v>3012</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -12764,7 +13930,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2715</v>
+        <v>3013</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -12784,7 +13950,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2716</v>
+        <v>3014</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -12804,7 +13970,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2717</v>
+        <v>3015</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -12824,7 +13990,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2718</v>
+        <v>3016</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -12842,13 +14008,53 @@
         <v>0.042999999999999997</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0">
+        <v>0.122</v>
+      </c>
+      <c r="I31" s="0">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="J31" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0">
+        <v>0.121</v>
+      </c>
+      <c r="I32" s="0">
+        <v>0.079000000000000001</v>
+      </c>
+      <c r="J32" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -12866,50 +14072,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2771</v>
+        <v>3073</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2772</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2770</v>
+        <v>3072</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2760</v>
+        <v>3062</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2761</v>
+        <v>3063</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2762</v>
+        <v>3064</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2763</v>
+        <v>3065</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2764</v>
+        <v>3066</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2765</v>
+        <v>3067</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2766</v>
+        <v>3068</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2767</v>
+        <v>3069</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2768</v>
+        <v>3070</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2769</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2732</v>
+        <v>3032</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -12932,7 +14138,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2733</v>
+        <v>3033</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -12955,7 +14161,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2734</v>
+        <v>3034</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -12976,7 +14182,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2735</v>
+        <v>3035</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -12997,7 +14203,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2736</v>
+        <v>3036</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -13020,7 +14226,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2737</v>
+        <v>3037</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -13043,7 +14249,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2738</v>
+        <v>3038</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13064,7 +14270,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2739</v>
+        <v>3039</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -13085,7 +14291,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2740</v>
+        <v>3040</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -13108,7 +14314,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2741</v>
+        <v>3041</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13131,7 +14337,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2742</v>
+        <v>3042</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -13152,7 +14358,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2743</v>
+        <v>3043</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -13173,7 +14379,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2744</v>
+        <v>3044</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -13194,7 +14400,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2745</v>
+        <v>3045</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13217,7 +14423,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2746</v>
+        <v>3046</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -13240,7 +14446,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2747</v>
+        <v>3047</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13261,7 +14467,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2748</v>
+        <v>3048</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13282,7 +14488,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2749</v>
+        <v>3049</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -13305,7 +14511,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2750</v>
+        <v>3050</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13328,7 +14534,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2751</v>
+        <v>3051</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -13349,7 +14555,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2752</v>
+        <v>3052</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13370,7 +14576,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2753</v>
+        <v>3053</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -13393,7 +14599,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2754</v>
+        <v>3054</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -13416,7 +14622,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2755</v>
+        <v>3055</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -13437,7 +14643,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2756</v>
+        <v>3056</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -13458,7 +14664,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2757</v>
+        <v>3057</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13479,7 +14685,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2758</v>
+        <v>3058</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -13502,7 +14708,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2759</v>
+        <v>3059</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -13523,6 +14729,48 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="J31" s="0">
+        <v>1.393</v>
+      </c>
+      <c r="K31" s="0">
+        <v>2.3140000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0">
+        <v>4.0839999999999996</v>
+      </c>
+      <c r="J32" s="0">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="K32" s="0">
+        <v>2.3140000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="3075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="3390">
   <si>
     <t>Row</t>
   </si>
@@ -9236,6 +9236,951 @@
   </si>
   <si>
     <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
   </si>
   <si>
     <t>Forecast Dates</t>
@@ -9265,7 +10210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="337">
+  <borders count="365">
     <border>
       <left/>
       <right/>
@@ -9609,11 +10554,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -9951,6 +10924,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9960,7 +10961,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -9974,38 +10975,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2811</v>
+        <v>3114</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2812</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2810</v>
+        <v>3113</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2804</v>
+        <v>3107</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2805</v>
+        <v>3108</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2806</v>
+        <v>3109</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2807</v>
+        <v>3110</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2808</v>
+        <v>3111</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2809</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2774</v>
+        <v>3076</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -10024,7 +11025,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2775</v>
+        <v>3077</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -10043,7 +11044,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2776</v>
+        <v>3078</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -10062,7 +11063,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2777</v>
+        <v>3079</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -10081,7 +11082,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2778</v>
+        <v>3080</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -10100,7 +11101,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2779</v>
+        <v>3081</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -10119,7 +11120,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2780</v>
+        <v>3082</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -10138,7 +11139,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2781</v>
+        <v>3083</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -10157,7 +11158,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2782</v>
+        <v>3084</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -10176,7 +11177,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2783</v>
+        <v>3085</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -10195,7 +11196,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2784</v>
+        <v>3086</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -10214,7 +11215,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2785</v>
+        <v>3087</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -10231,7 +11232,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2786</v>
+        <v>3088</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -10248,7 +11249,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2787</v>
+        <v>3089</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -10267,7 +11268,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2788</v>
+        <v>3090</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -10286,7 +11287,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2789</v>
+        <v>3091</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -10305,7 +11306,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2790</v>
+        <v>3092</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -10324,7 +11325,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2791</v>
+        <v>3093</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -10343,7 +11344,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2792</v>
+        <v>3094</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -10362,7 +11363,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2793</v>
+        <v>3095</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -10381,7 +11382,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2794</v>
+        <v>3096</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -10400,7 +11401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2795</v>
+        <v>3097</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -10419,7 +11420,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2796</v>
+        <v>3098</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -10438,7 +11439,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2797</v>
+        <v>3099</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -10457,7 +11458,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2798</v>
+        <v>3100</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -10476,7 +11477,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2799</v>
+        <v>3101</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10493,7 +11494,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2800</v>
+        <v>3102</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -10512,7 +11513,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2801</v>
+        <v>3103</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -10531,7 +11532,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2802</v>
+        <v>3104</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -10550,7 +11551,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2803</v>
+        <v>3105</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -10558,13 +11559,32 @@
         <v>1.1659999999999999</v>
       </c>
       <c r="E32" s="0">
-        <v>7.2729999999999997</v>
+        <v>7.4800000000000004</v>
       </c>
       <c r="F32" s="0">
         <v>2.6509999999999998</v>
       </c>
       <c r="G32" s="0">
         <v>3.9060000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="E33" s="0">
+        <v>1.954</v>
+      </c>
+      <c r="F33" s="0">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G33" s="0">
+        <v>2.1379999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10573,7 +11593,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -10587,54 +11607,58 @@
     <col min="9" max="9" width="6.8125" customWidth="true"/>
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
+    <col min="12" max="12" width="6.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2855</v>
+        <v>3160</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2856</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2854</v>
+        <v>3159</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2844</v>
+        <v>3148</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2845</v>
+        <v>3149</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2846</v>
+        <v>3150</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2847</v>
+        <v>3151</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2848</v>
+        <v>3152</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2849</v>
+        <v>3153</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2850</v>
+        <v>3154</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2851</v>
+        <v>3155</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2852</v>
+        <v>3156</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2853</v>
+        <v>3157</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>3158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2814</v>
+        <v>3117</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -10654,10 +11678,11 @@
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2815</v>
+        <v>3118</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -10675,10 +11700,11 @@
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2816</v>
+        <v>3119</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -10696,10 +11722,11 @@
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2817</v>
+        <v>3120</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -10717,10 +11744,11 @@
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2818</v>
+        <v>3121</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -10740,10 +11768,11 @@
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2819</v>
+        <v>3122</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -10763,10 +11792,11 @@
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2820</v>
+        <v>3123</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -10784,10 +11814,11 @@
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2821</v>
+        <v>3124</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -10805,10 +11836,11 @@
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2822</v>
+        <v>3125</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -10828,10 +11860,11 @@
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2823</v>
+        <v>3126</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -10851,10 +11884,11 @@
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2824</v>
+        <v>3127</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -10872,10 +11906,11 @@
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2825</v>
+        <v>3128</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -10893,10 +11928,11 @@
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2826</v>
+        <v>3129</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -10914,10 +11950,11 @@
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2827</v>
+        <v>3130</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -10937,10 +11974,11 @@
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2828</v>
+        <v>3131</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -10958,10 +11996,11 @@
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2829</v>
+        <v>3132</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -10979,10 +12018,11 @@
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2830</v>
+        <v>3133</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -11000,10 +12040,11 @@
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2831</v>
+        <v>3134</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -11023,10 +12064,11 @@
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2832</v>
+        <v>3135</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -11046,10 +12088,11 @@
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2833</v>
+        <v>3136</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -11067,10 +12110,11 @@
       </c>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2834</v>
+        <v>3137</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -11088,10 +12132,11 @@
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2835</v>
+        <v>3138</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -11111,10 +12156,11 @@
         <v>2.202</v>
       </c>
       <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2836</v>
+        <v>3139</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -11134,10 +12180,11 @@
         <v>2.1560000000000001</v>
       </c>
       <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2837</v>
+        <v>3140</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -11155,10 +12202,11 @@
         <v>2.5339999999999998</v>
       </c>
       <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2838</v>
+        <v>3141</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -11176,10 +12224,11 @@
         <v>2.5339999999999998</v>
       </c>
       <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2839</v>
+        <v>3142</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -11197,10 +12246,11 @@
         <v>2.532</v>
       </c>
       <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2840</v>
+        <v>3143</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -11220,10 +12270,11 @@
       <c r="K29" s="0">
         <v>2.6269999999999998</v>
       </c>
+      <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2841</v>
+        <v>3144</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -11241,10 +12292,11 @@
       <c r="K30" s="0">
         <v>2.5750000000000002</v>
       </c>
+      <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2842</v>
+        <v>3145</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -11262,10 +12314,11 @@
       <c r="K31" s="0">
         <v>2.5680000000000001</v>
       </c>
+      <c r="L31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2843</v>
+        <v>3146</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -11283,6 +12336,31 @@
       <c r="K32" s="0">
         <v>2.5750000000000002</v>
       </c>
+      <c r="L32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0">
+        <v>6.0620000000000003</v>
+      </c>
+      <c r="J33" s="0">
+        <v>4.1589999999999998</v>
+      </c>
+      <c r="K33" s="0">
+        <v>2.9870000000000001</v>
+      </c>
+      <c r="L33" s="0">
+        <v>2.2309999999999999</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -11290,7 +12368,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -11304,54 +12382,58 @@
     <col min="9" max="9" width="6.8125" customWidth="true"/>
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
+    <col min="12" max="12" width="6.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2899</v>
+        <v>3206</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2900</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2898</v>
+        <v>3205</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2888</v>
+        <v>3194</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2889</v>
+        <v>3195</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2890</v>
+        <v>3196</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2891</v>
+        <v>3197</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2892</v>
+        <v>3198</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2893</v>
+        <v>3199</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2894</v>
+        <v>3200</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2895</v>
+        <v>3201</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2896</v>
+        <v>3202</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2897</v>
+        <v>3203</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>3204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2858</v>
+        <v>3163</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -11371,10 +12453,11 @@
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2859</v>
+        <v>3164</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -11392,10 +12475,11 @@
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2860</v>
+        <v>3165</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -11413,10 +12497,11 @@
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2861</v>
+        <v>3166</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -11434,10 +12519,11 @@
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2862</v>
+        <v>3167</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -11457,10 +12543,11 @@
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2863</v>
+        <v>3168</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -11480,10 +12567,11 @@
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2864</v>
+        <v>3169</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -11501,10 +12589,11 @@
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2865</v>
+        <v>3170</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -11522,10 +12611,11 @@
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2866</v>
+        <v>3171</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -11545,10 +12635,11 @@
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2867</v>
+        <v>3172</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -11568,10 +12659,11 @@
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2868</v>
+        <v>3173</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -11589,10 +12681,11 @@
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2869</v>
+        <v>3174</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -11610,10 +12703,11 @@
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2870</v>
+        <v>3175</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -11631,10 +12725,11 @@
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2871</v>
+        <v>3176</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -11654,10 +12749,11 @@
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2872</v>
+        <v>3177</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -11675,10 +12771,11 @@
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2873</v>
+        <v>3178</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -11696,10 +12793,11 @@
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2874</v>
+        <v>3179</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -11717,10 +12815,11 @@
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2875</v>
+        <v>3180</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -11740,10 +12839,11 @@
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2876</v>
+        <v>3181</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -11763,10 +12863,11 @@
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2877</v>
+        <v>3182</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -11784,10 +12885,11 @@
       </c>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2878</v>
+        <v>3183</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -11805,10 +12907,11 @@
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2879</v>
+        <v>3184</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -11828,10 +12931,11 @@
         <v>3.0899999999999999</v>
       </c>
       <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2880</v>
+        <v>3185</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -11851,10 +12955,11 @@
         <v>2.9140000000000001</v>
       </c>
       <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2881</v>
+        <v>3186</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -11872,10 +12977,11 @@
         <v>3.3420000000000001</v>
       </c>
       <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2882</v>
+        <v>3187</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -11893,10 +12999,11 @@
         <v>3.371</v>
       </c>
       <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2883</v>
+        <v>3188</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -11914,10 +13021,11 @@
         <v>3.3759999999999999</v>
       </c>
       <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2884</v>
+        <v>3189</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -11937,10 +13045,11 @@
       <c r="K29" s="0">
         <v>3.2429999999999999</v>
       </c>
+      <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2885</v>
+        <v>3190</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -11958,10 +13067,11 @@
       <c r="K30" s="0">
         <v>3.2130000000000001</v>
       </c>
+      <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2886</v>
+        <v>3191</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -11979,10 +13089,11 @@
       <c r="K31" s="0">
         <v>3.145</v>
       </c>
+      <c r="L31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2887</v>
+        <v>3192</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -12000,6 +13111,31 @@
       <c r="K32" s="0">
         <v>3.2109999999999999</v>
       </c>
+      <c r="L32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0">
+        <v>3.7389999999999999</v>
+      </c>
+      <c r="J33" s="0">
+        <v>3.6600000000000001</v>
+      </c>
+      <c r="K33" s="0">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="L33" s="0">
+        <v>3.4820000000000002</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -12007,7 +13143,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -12021,54 +13157,58 @@
     <col min="9" max="9" width="6.8125" customWidth="true"/>
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
+    <col min="12" max="12" width="6.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2943</v>
+        <v>3252</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2944</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2942</v>
+        <v>3251</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2932</v>
+        <v>3240</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2933</v>
+        <v>3241</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2934</v>
+        <v>3242</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2935</v>
+        <v>3243</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2936</v>
+        <v>3244</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2937</v>
+        <v>3245</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2938</v>
+        <v>3246</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2939</v>
+        <v>3247</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2940</v>
+        <v>3248</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>2941</v>
+        <v>3249</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>3250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2902</v>
+        <v>3209</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -12088,10 +13228,11 @@
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2903</v>
+        <v>3210</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -12109,10 +13250,11 @@
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2904</v>
+        <v>3211</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -12130,10 +13272,11 @@
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2905</v>
+        <v>3212</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -12151,10 +13294,11 @@
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2906</v>
+        <v>3213</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -12174,10 +13318,11 @@
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2907</v>
+        <v>3214</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -12197,10 +13342,11 @@
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2908</v>
+        <v>3215</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -12218,10 +13364,11 @@
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2909</v>
+        <v>3216</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -12239,10 +13386,11 @@
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2910</v>
+        <v>3217</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -12262,10 +13410,11 @@
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2911</v>
+        <v>3218</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -12285,10 +13434,11 @@
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2912</v>
+        <v>3219</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -12306,10 +13456,11 @@
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2913</v>
+        <v>3220</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -12327,10 +13478,11 @@
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2914</v>
+        <v>3221</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -12348,10 +13500,11 @@
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2915</v>
+        <v>3222</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -12371,10 +13524,11 @@
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2916</v>
+        <v>3223</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -12392,10 +13546,11 @@
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2917</v>
+        <v>3224</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -12413,10 +13568,11 @@
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2918</v>
+        <v>3225</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -12434,10 +13590,11 @@
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2919</v>
+        <v>3226</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -12457,10 +13614,11 @@
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2920</v>
+        <v>3227</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -12480,10 +13638,11 @@
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2921</v>
+        <v>3228</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -12501,10 +13660,11 @@
       </c>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2922</v>
+        <v>3229</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -12522,10 +13682,11 @@
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2923</v>
+        <v>3230</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -12545,10 +13706,11 @@
         <v>3.226</v>
       </c>
       <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2924</v>
+        <v>3231</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -12568,10 +13730,11 @@
         <v>3.073</v>
       </c>
       <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2925</v>
+        <v>3232</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -12589,10 +13752,11 @@
         <v>3.6760000000000002</v>
       </c>
       <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2926</v>
+        <v>3233</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -12610,10 +13774,11 @@
         <v>3.7389999999999999</v>
       </c>
       <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2927</v>
+        <v>3234</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -12631,10 +13796,11 @@
         <v>3.7650000000000001</v>
       </c>
       <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2928</v>
+        <v>3235</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -12654,10 +13820,11 @@
       <c r="K29" s="0">
         <v>3.6949999999999998</v>
       </c>
+      <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2929</v>
+        <v>3236</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -12675,10 +13842,11 @@
       <c r="K30" s="0">
         <v>3.1899999999999999</v>
       </c>
+      <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2930</v>
+        <v>3237</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -12696,10 +13864,11 @@
       <c r="K31" s="0">
         <v>3.028</v>
       </c>
+      <c r="L31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2931</v>
+        <v>3238</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -12717,6 +13886,31 @@
       <c r="K32" s="0">
         <v>2.9889999999999999</v>
       </c>
+      <c r="L32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0">
+        <v>3.375</v>
+      </c>
+      <c r="J33" s="0">
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="K33" s="0">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="L33" s="0">
+        <v>3.363</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -12724,7 +13918,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -12737,51 +13931,55 @@
     <col min="8" max="8" width="6.8125" customWidth="true"/>
     <col min="9" max="9" width="7.4140625" customWidth="true"/>
     <col min="10" max="10" width="6.61328125" customWidth="true"/>
+    <col min="11" max="11" width="6.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2986</v>
+        <v>3297</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2987</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2985</v>
+        <v>3296</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2976</v>
+        <v>3286</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2977</v>
+        <v>3287</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2978</v>
+        <v>3288</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2979</v>
+        <v>3289</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2980</v>
+        <v>3290</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2981</v>
+        <v>3291</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2982</v>
+        <v>3292</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2983</v>
+        <v>3293</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>2984</v>
+        <v>3294</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2946</v>
+        <v>3255</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -12798,10 +13996,11 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2947</v>
+        <v>3256</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -12818,10 +14017,11 @@
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2948</v>
+        <v>3257</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -12838,10 +14038,11 @@
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2949</v>
+        <v>3258</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -12858,10 +14059,11 @@
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2950</v>
+        <v>3259</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -12878,10 +14080,11 @@
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2951</v>
+        <v>3260</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -12898,10 +14101,11 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2952</v>
+        <v>3261</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -12918,10 +14122,11 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2953</v>
+        <v>3262</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -12938,10 +14143,11 @@
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2954</v>
+        <v>3263</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -12960,10 +14166,11 @@
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2955</v>
+        <v>3264</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -12980,10 +14187,11 @@
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2956</v>
+        <v>3265</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -13000,10 +14208,11 @@
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2957</v>
+        <v>3266</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -13020,10 +14229,11 @@
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2958</v>
+        <v>3267</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -13040,10 +14250,11 @@
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2959</v>
+        <v>3268</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13060,10 +14271,11 @@
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2960</v>
+        <v>3269</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -13080,10 +14292,11 @@
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2961</v>
+        <v>3270</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13100,10 +14313,11 @@
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2962</v>
+        <v>3271</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13120,10 +14334,11 @@
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2963</v>
+        <v>3272</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -13140,10 +14355,11 @@
       </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2964</v>
+        <v>3273</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13160,10 +14376,11 @@
       </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2965</v>
+        <v>3274</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -13180,10 +14397,11 @@
       </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2966</v>
+        <v>3275</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13200,10 +14418,11 @@
       </c>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2967</v>
+        <v>3276</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -13222,10 +14441,11 @@
         <v>0.016</v>
       </c>
       <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2968</v>
+        <v>3277</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -13242,10 +14462,11 @@
         <v>0.037999999999999999</v>
       </c>
       <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2969</v>
+        <v>3278</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -13262,10 +14483,11 @@
         <v>0.039</v>
       </c>
       <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2970</v>
+        <v>3279</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -13282,10 +14504,11 @@
         <v>0.039</v>
       </c>
       <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2971</v>
+        <v>3280</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13302,10 +14525,11 @@
         <v>0.039</v>
       </c>
       <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2972</v>
+        <v>3281</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -13322,10 +14546,11 @@
       <c r="J29" s="0">
         <v>0.02</v>
       </c>
+      <c r="K29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2973</v>
+        <v>3282</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -13342,10 +14567,11 @@
       <c r="J30" s="0">
         <v>0.032000000000000001</v>
       </c>
+      <c r="K30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2974</v>
+        <v>3283</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -13362,10 +14588,11 @@
       <c r="J31" s="0">
         <v>0.035999999999999997</v>
       </c>
+      <c r="K31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2975</v>
+        <v>3284</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -13382,6 +14609,28 @@
       <c r="J32" s="0">
         <v>0.037999999999999999</v>
       </c>
+      <c r="K32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0">
+        <v>-0.010999999999999999</v>
+      </c>
+      <c r="J33" s="0">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="K33" s="0">
+        <v>0.033000000000000002</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -13389,7 +14638,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -13402,51 +14651,55 @@
     <col min="8" max="8" width="6.8125" customWidth="true"/>
     <col min="9" max="9" width="7.4140625" customWidth="true"/>
     <col min="10" max="10" width="6.61328125" customWidth="true"/>
+    <col min="11" max="11" width="6.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3029</v>
+        <v>3342</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3030</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3028</v>
+        <v>3341</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3019</v>
+        <v>3331</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3020</v>
+        <v>3332</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3021</v>
+        <v>3333</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3022</v>
+        <v>3334</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3023</v>
+        <v>3335</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3024</v>
+        <v>3336</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3025</v>
+        <v>3337</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3026</v>
+        <v>3338</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3027</v>
+        <v>3339</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>3340</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -13463,10 +14716,11 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2990</v>
+        <v>3301</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -13483,10 +14737,11 @@
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2991</v>
+        <v>3302</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -13503,10 +14758,11 @@
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2992</v>
+        <v>3303</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -13523,10 +14779,11 @@
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2993</v>
+        <v>3304</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -13543,10 +14800,11 @@
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2994</v>
+        <v>3305</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -13563,10 +14821,11 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2995</v>
+        <v>3306</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -13583,10 +14842,11 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2996</v>
+        <v>3307</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -13603,10 +14863,11 @@
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2997</v>
+        <v>3308</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -13625,10 +14886,11 @@
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2998</v>
+        <v>3309</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13645,10 +14907,11 @@
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2999</v>
+        <v>3310</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -13665,10 +14928,11 @@
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3000</v>
+        <v>3311</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -13685,10 +14949,11 @@
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3001</v>
+        <v>3312</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -13705,10 +14970,11 @@
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3002</v>
+        <v>3313</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13725,10 +14991,11 @@
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3003</v>
+        <v>3314</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -13745,10 +15012,11 @@
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3004</v>
+        <v>3315</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13765,10 +15033,11 @@
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3005</v>
+        <v>3316</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13785,10 +15054,11 @@
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3006</v>
+        <v>3317</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -13805,10 +15075,11 @@
       </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3007</v>
+        <v>3318</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13825,10 +15096,11 @@
       </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3008</v>
+        <v>3319</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -13845,10 +15117,11 @@
       </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3009</v>
+        <v>3320</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13865,10 +15138,11 @@
       </c>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3010</v>
+        <v>3321</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -13887,10 +15161,11 @@
         <v>0.084000000000000005</v>
       </c>
       <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3011</v>
+        <v>3322</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -13907,10 +15182,11 @@
         <v>0.048000000000000001</v>
       </c>
       <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3012</v>
+        <v>3323</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -13927,10 +15203,11 @@
         <v>0.051999999999999998</v>
       </c>
       <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3013</v>
+        <v>3324</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -13947,10 +15224,11 @@
         <v>0.050999999999999997</v>
       </c>
       <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3014</v>
+        <v>3325</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13967,10 +15245,11 @@
         <v>0.050999999999999997</v>
       </c>
       <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3015</v>
+        <v>3326</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -13987,10 +15266,11 @@
       <c r="J29" s="0">
         <v>0.058000000000000003</v>
       </c>
+      <c r="K29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3016</v>
+        <v>3327</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -14007,10 +15287,11 @@
       <c r="J30" s="0">
         <v>0.042999999999999997</v>
       </c>
+      <c r="K30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3017</v>
+        <v>3328</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -14027,10 +15308,11 @@
       <c r="J31" s="0">
         <v>0.040000000000000001</v>
       </c>
+      <c r="K31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3018</v>
+        <v>3329</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -14047,6 +15329,28 @@
       <c r="J32" s="0">
         <v>0.039</v>
       </c>
+      <c r="K32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0">
+        <v>0.122</v>
+      </c>
+      <c r="J33" s="0">
+        <v>0.019</v>
+      </c>
+      <c r="K33" s="0">
+        <v>0.070999999999999994</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -14054,7 +15358,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -14068,54 +15372,58 @@
     <col min="9" max="9" width="6.8125" customWidth="true"/>
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
+    <col min="12" max="12" width="6.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3073</v>
+        <v>3388</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3074</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3072</v>
+        <v>3387</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3062</v>
+        <v>3376</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3063</v>
+        <v>3377</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3064</v>
+        <v>3378</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3065</v>
+        <v>3379</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3066</v>
+        <v>3380</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3067</v>
+        <v>3381</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3068</v>
+        <v>3382</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3069</v>
+        <v>3383</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3070</v>
+        <v>3384</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3071</v>
+        <v>3385</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>3386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3032</v>
+        <v>3345</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -14135,10 +15443,11 @@
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3033</v>
+        <v>3346</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -14158,10 +15467,11 @@
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3034</v>
+        <v>3347</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -14179,10 +15489,11 @@
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3035</v>
+        <v>3348</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -14200,10 +15511,11 @@
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3036</v>
+        <v>3349</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -14223,10 +15535,11 @@
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3037</v>
+        <v>3350</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -14246,10 +15559,11 @@
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3038</v>
+        <v>3351</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -14267,10 +15581,11 @@
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3039</v>
+        <v>3352</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -14288,10 +15603,11 @@
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3040</v>
+        <v>3353</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -14311,10 +15627,11 @@
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3041</v>
+        <v>3354</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -14334,10 +15651,11 @@
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3042</v>
+        <v>3355</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -14355,10 +15673,11 @@
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3043</v>
+        <v>3356</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -14376,10 +15695,11 @@
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3044</v>
+        <v>3357</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -14397,10 +15717,11 @@
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3045</v>
+        <v>3358</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -14420,10 +15741,11 @@
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3046</v>
+        <v>3359</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -14443,10 +15765,11 @@
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3047</v>
+        <v>3360</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -14464,10 +15787,11 @@
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3048</v>
+        <v>3361</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -14485,10 +15809,11 @@
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3049</v>
+        <v>3362</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -14508,10 +15833,11 @@
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3050</v>
+        <v>3363</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -14531,10 +15857,11 @@
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3051</v>
+        <v>3364</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -14552,10 +15879,11 @@
       </c>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3052</v>
+        <v>3365</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -14573,10 +15901,11 @@
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3053</v>
+        <v>3366</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -14596,10 +15925,11 @@
         <v>2.319</v>
       </c>
       <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3054</v>
+        <v>3367</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -14619,10 +15949,11 @@
         <v>2.319</v>
       </c>
       <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3055</v>
+        <v>3368</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -14640,10 +15971,11 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3056</v>
+        <v>3369</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -14661,10 +15993,11 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3057</v>
+        <v>3370</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -14682,10 +16015,11 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3058</v>
+        <v>3371</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -14705,10 +16039,11 @@
       <c r="K29" s="0">
         <v>2.3290000000000002</v>
       </c>
+      <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3059</v>
+        <v>3372</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -14728,10 +16063,11 @@
       <c r="K30" s="0">
         <v>2.2890000000000001</v>
       </c>
+      <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3060</v>
+        <v>3373</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -14749,10 +16085,11 @@
       <c r="K31" s="0">
         <v>2.3140000000000001</v>
       </c>
+      <c r="L31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3061</v>
+        <v>3374</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -14770,6 +16107,31 @@
       <c r="K32" s="0">
         <v>2.3140000000000001</v>
       </c>
+      <c r="L32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0">
+        <v>-8.7360000000000007</v>
+      </c>
+      <c r="J33" s="0">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K33" s="0">
+        <v>3.5529999999999999</v>
+      </c>
+      <c r="L33" s="0">
+        <v>2.4700000000000002</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="3390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="3705">
   <si>
     <t>Row</t>
   </si>
@@ -9236,6 +9236,951 @@
   </si>
   <si>
     <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
   </si>
   <si>
     <t>Forecast Dates</t>
@@ -10210,7 +11155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="365">
+  <borders count="393">
     <border>
       <left/>
       <right/>
@@ -10582,11 +11527,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="365">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -10952,6 +11925,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10975,38 +11976,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3114</v>
+        <v>3429</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3115</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3113</v>
+        <v>3428</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3107</v>
+        <v>3422</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3108</v>
+        <v>3423</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3109</v>
+        <v>3424</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3110</v>
+        <v>3425</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3111</v>
+        <v>3426</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3112</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3076</v>
+        <v>3391</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -11025,7 +12026,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3077</v>
+        <v>3392</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -11044,7 +12045,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3078</v>
+        <v>3393</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -11063,7 +12064,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3079</v>
+        <v>3394</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -11082,7 +12083,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3080</v>
+        <v>3395</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -11101,7 +12102,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3081</v>
+        <v>3396</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -11120,7 +12121,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3082</v>
+        <v>3397</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -11139,7 +12140,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3083</v>
+        <v>3398</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -11158,7 +12159,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3084</v>
+        <v>3399</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -11177,7 +12178,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3085</v>
+        <v>3400</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -11196,7 +12197,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3086</v>
+        <v>3401</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -11215,7 +12216,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3087</v>
+        <v>3402</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -11232,7 +12233,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3088</v>
+        <v>3403</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -11249,7 +12250,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3089</v>
+        <v>3404</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -11268,7 +12269,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3090</v>
+        <v>3405</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -11287,7 +12288,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3091</v>
+        <v>3406</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -11306,7 +12307,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3092</v>
+        <v>3407</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -11325,7 +12326,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3093</v>
+        <v>3408</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -11344,7 +12345,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3094</v>
+        <v>3409</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -11363,7 +12364,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3095</v>
+        <v>3410</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -11382,7 +12383,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3096</v>
+        <v>3411</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -11401,7 +12402,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3097</v>
+        <v>3412</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -11420,7 +12421,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3098</v>
+        <v>3413</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -11439,7 +12440,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3099</v>
+        <v>3414</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -11458,7 +12459,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3100</v>
+        <v>3415</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -11477,7 +12478,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3101</v>
+        <v>3416</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -11494,7 +12495,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3102</v>
+        <v>3417</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -11513,7 +12514,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3103</v>
+        <v>3418</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -11532,7 +12533,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3104</v>
+        <v>3419</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -11551,40 +12552,40 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3105</v>
+        <v>3420</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
       <c r="D32" s="0">
-        <v>1.1659999999999999</v>
+        <v>1.599</v>
       </c>
       <c r="E32" s="0">
-        <v>7.4800000000000004</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="F32" s="0">
         <v>2.6509999999999998</v>
       </c>
       <c r="G32" s="0">
-        <v>3.9060000000000001</v>
+        <v>3.9009999999999998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3106</v>
+        <v>3421</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0">
-        <v>3.2029999999999998</v>
+        <v>2.6080000000000001</v>
       </c>
       <c r="E33" s="0">
-        <v>1.954</v>
+        <v>1.9399999999999999</v>
       </c>
       <c r="F33" s="0">
-        <v>2.5099999999999998</v>
+        <v>2.6509999999999998</v>
       </c>
       <c r="G33" s="0">
-        <v>2.1379999999999999</v>
+        <v>2.2309999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11612,53 +12613,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3160</v>
+        <v>3475</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3161</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3159</v>
+        <v>3474</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3148</v>
+        <v>3463</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3149</v>
+        <v>3464</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3150</v>
+        <v>3465</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3151</v>
+        <v>3466</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3152</v>
+        <v>3467</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3153</v>
+        <v>3468</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3154</v>
+        <v>3469</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3155</v>
+        <v>3470</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3156</v>
+        <v>3471</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3157</v>
+        <v>3472</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3158</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3117</v>
+        <v>3432</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -11682,7 +12683,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3118</v>
+        <v>3433</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -11704,7 +12705,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3119</v>
+        <v>3434</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -11726,7 +12727,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3120</v>
+        <v>3435</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -11748,7 +12749,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3121</v>
+        <v>3436</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -11772,7 +12773,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3122</v>
+        <v>3437</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -11796,7 +12797,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3123</v>
+        <v>3438</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -11818,7 +12819,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3124</v>
+        <v>3439</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -11840,7 +12841,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3125</v>
+        <v>3440</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -11864,7 +12865,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3126</v>
+        <v>3441</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -11888,7 +12889,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3127</v>
+        <v>3442</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -11910,7 +12911,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3128</v>
+        <v>3443</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -11932,7 +12933,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3129</v>
+        <v>3444</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -11954,7 +12955,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3130</v>
+        <v>3445</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -11978,7 +12979,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3131</v>
+        <v>3446</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -12000,7 +13001,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3132</v>
+        <v>3447</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -12022,7 +13023,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3133</v>
+        <v>3448</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -12044,7 +13045,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3134</v>
+        <v>3449</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -12068,7 +13069,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3135</v>
+        <v>3450</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -12092,7 +13093,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3136</v>
+        <v>3451</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -12114,7 +13115,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3137</v>
+        <v>3452</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -12136,7 +13137,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3138</v>
+        <v>3453</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -12160,7 +13161,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3139</v>
+        <v>3454</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -12184,7 +13185,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3140</v>
+        <v>3455</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -12206,7 +13207,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3141</v>
+        <v>3456</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -12228,7 +13229,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3142</v>
+        <v>3457</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -12250,7 +13251,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3143</v>
+        <v>3458</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -12274,7 +13275,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3144</v>
+        <v>3459</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -12296,7 +13297,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3145</v>
+        <v>3460</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -12318,7 +13319,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3146</v>
+        <v>3461</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -12328,10 +13329,10 @@
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0">
-        <v>2.6440000000000001</v>
+        <v>2.7240000000000002</v>
       </c>
       <c r="J32" s="0">
-        <v>2.3969999999999998</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="K32" s="0">
         <v>2.5750000000000002</v>
@@ -12340,7 +13341,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3147</v>
+        <v>3462</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -12350,13 +13351,13 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>6.0620000000000003</v>
+        <v>6.5439999999999996</v>
       </c>
       <c r="J33" s="0">
-        <v>4.1589999999999998</v>
+        <v>4.149</v>
       </c>
       <c r="K33" s="0">
-        <v>2.9870000000000001</v>
+        <v>2.839</v>
       </c>
       <c r="L33" s="0">
         <v>2.2309999999999999</v>
@@ -12387,53 +13388,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3206</v>
+        <v>3521</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3207</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3205</v>
+        <v>3520</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3194</v>
+        <v>3509</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3195</v>
+        <v>3510</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3196</v>
+        <v>3511</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3197</v>
+        <v>3512</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3198</v>
+        <v>3513</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3199</v>
+        <v>3514</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3200</v>
+        <v>3515</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3201</v>
+        <v>3516</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3202</v>
+        <v>3517</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3203</v>
+        <v>3518</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3204</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3163</v>
+        <v>3478</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -12457,7 +13458,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3164</v>
+        <v>3479</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -12479,7 +13480,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3165</v>
+        <v>3480</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -12501,7 +13502,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3166</v>
+        <v>3481</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -12523,7 +13524,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3167</v>
+        <v>3482</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -12547,7 +13548,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3168</v>
+        <v>3483</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -12571,7 +13572,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3169</v>
+        <v>3484</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -12593,7 +13594,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3170</v>
+        <v>3485</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -12615,7 +13616,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3171</v>
+        <v>3486</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -12639,7 +13640,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3172</v>
+        <v>3487</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -12663,7 +13664,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3173</v>
+        <v>3488</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -12685,7 +13686,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3174</v>
+        <v>3489</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -12707,7 +13708,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3175</v>
+        <v>3490</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -12729,7 +13730,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3176</v>
+        <v>3491</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -12753,7 +13754,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3177</v>
+        <v>3492</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -12775,7 +13776,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3178</v>
+        <v>3493</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -12797,7 +13798,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3179</v>
+        <v>3494</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -12819,7 +13820,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3180</v>
+        <v>3495</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -12843,7 +13844,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3181</v>
+        <v>3496</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -12867,7 +13868,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3182</v>
+        <v>3497</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -12889,7 +13890,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3183</v>
+        <v>3498</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -12911,7 +13912,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3184</v>
+        <v>3499</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -12935,7 +13936,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3185</v>
+        <v>3500</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -12959,7 +13960,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3186</v>
+        <v>3501</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -12981,7 +13982,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3187</v>
+        <v>3502</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -13003,7 +14004,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3188</v>
+        <v>3503</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13025,7 +14026,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3189</v>
+        <v>3504</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -13049,7 +14050,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3190</v>
+        <v>3505</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -13071,7 +14072,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3191</v>
+        <v>3506</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -13093,7 +14094,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3192</v>
+        <v>3507</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -13103,19 +14104,19 @@
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0">
-        <v>3.4100000000000001</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="J32" s="0">
-        <v>3.3500000000000001</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="K32" s="0">
-        <v>3.2109999999999999</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="L32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3193</v>
+        <v>3508</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -13125,16 +14126,16 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>3.7389999999999999</v>
+        <v>3.758</v>
       </c>
       <c r="J33" s="0">
-        <v>3.6600000000000001</v>
+        <v>3.601</v>
       </c>
       <c r="K33" s="0">
-        <v>3.4740000000000002</v>
+        <v>3.4399999999999999</v>
       </c>
       <c r="L33" s="0">
-        <v>3.4820000000000002</v>
+        <v>3.5009999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13162,53 +14163,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3252</v>
+        <v>3567</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3253</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3251</v>
+        <v>3566</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3240</v>
+        <v>3555</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3241</v>
+        <v>3556</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3242</v>
+        <v>3557</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3243</v>
+        <v>3558</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3244</v>
+        <v>3559</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3245</v>
+        <v>3560</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3246</v>
+        <v>3561</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3247</v>
+        <v>3562</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3248</v>
+        <v>3563</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3249</v>
+        <v>3564</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3250</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3209</v>
+        <v>3524</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -13232,7 +14233,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3210</v>
+        <v>3525</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -13254,7 +14255,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3211</v>
+        <v>3526</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -13276,7 +14277,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3212</v>
+        <v>3527</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -13298,7 +14299,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3213</v>
+        <v>3528</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -13322,7 +14323,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3214</v>
+        <v>3529</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -13346,7 +14347,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3215</v>
+        <v>3530</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13368,7 +14369,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3216</v>
+        <v>3531</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -13390,7 +14391,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3217</v>
+        <v>3532</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -13414,7 +14415,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3218</v>
+        <v>3533</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13438,7 +14439,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3219</v>
+        <v>3534</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -13460,7 +14461,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3220</v>
+        <v>3535</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -13482,7 +14483,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3221</v>
+        <v>3536</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -13504,7 +14505,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3222</v>
+        <v>3537</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13528,7 +14529,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3223</v>
+        <v>3538</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -13550,7 +14551,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3224</v>
+        <v>3539</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13572,7 +14573,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3225</v>
+        <v>3540</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13594,7 +14595,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3226</v>
+        <v>3541</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -13618,7 +14619,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3227</v>
+        <v>3542</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13642,7 +14643,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3228</v>
+        <v>3543</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -13664,7 +14665,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3229</v>
+        <v>3544</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13686,7 +14687,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3230</v>
+        <v>3545</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -13710,7 +14711,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3231</v>
+        <v>3546</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -13734,7 +14735,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3232</v>
+        <v>3547</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -13756,7 +14757,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3233</v>
+        <v>3548</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -13778,7 +14779,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3234</v>
+        <v>3549</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13800,7 +14801,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3235</v>
+        <v>3550</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -13824,7 +14825,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3236</v>
+        <v>3551</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -13846,7 +14847,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3237</v>
+        <v>3552</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -13868,7 +14869,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3238</v>
+        <v>3553</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -13878,19 +14879,19 @@
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0">
-        <v>3.2970000000000002</v>
+        <v>3.3279999999999998</v>
       </c>
       <c r="J32" s="0">
-        <v>3.181</v>
+        <v>3.0699999999999998</v>
       </c>
       <c r="K32" s="0">
-        <v>2.9889999999999999</v>
+        <v>2.879</v>
       </c>
       <c r="L32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3239</v>
+        <v>3554</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -13900,16 +14901,16 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>3.375</v>
+        <v>3.5089999999999999</v>
       </c>
       <c r="J33" s="0">
-        <v>2.6280000000000001</v>
+        <v>2.6560000000000001</v>
       </c>
       <c r="K33" s="0">
-        <v>2.9260000000000002</v>
+        <v>2.9609999999999999</v>
       </c>
       <c r="L33" s="0">
-        <v>3.363</v>
+        <v>3.4590000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13936,50 +14937,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3297</v>
+        <v>3612</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3298</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3296</v>
+        <v>3611</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3286</v>
+        <v>3601</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3287</v>
+        <v>3602</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3288</v>
+        <v>3603</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3289</v>
+        <v>3604</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3290</v>
+        <v>3605</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3291</v>
+        <v>3606</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3292</v>
+        <v>3607</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3293</v>
+        <v>3608</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3294</v>
+        <v>3609</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3295</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3255</v>
+        <v>3570</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -14000,7 +15001,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3256</v>
+        <v>3571</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -14021,7 +15022,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3257</v>
+        <v>3572</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -14042,7 +15043,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3258</v>
+        <v>3573</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -14063,7 +15064,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3259</v>
+        <v>3574</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -14084,7 +15085,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3260</v>
+        <v>3575</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -14105,7 +15106,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3261</v>
+        <v>3576</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -14126,7 +15127,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3262</v>
+        <v>3577</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -14147,7 +15148,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3263</v>
+        <v>3578</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -14170,7 +15171,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3264</v>
+        <v>3579</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -14191,7 +15192,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3265</v>
+        <v>3580</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -14212,7 +15213,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3266</v>
+        <v>3581</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -14233,7 +15234,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3267</v>
+        <v>3582</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -14254,7 +15255,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3268</v>
+        <v>3583</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -14275,7 +15276,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3269</v>
+        <v>3584</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -14296,7 +15297,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3270</v>
+        <v>3585</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -14317,7 +15318,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3271</v>
+        <v>3586</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -14338,7 +15339,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3272</v>
+        <v>3587</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -14359,7 +15360,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3273</v>
+        <v>3588</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -14380,7 +15381,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3274</v>
+        <v>3589</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -14401,7 +15402,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3275</v>
+        <v>3590</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -14422,7 +15423,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3276</v>
+        <v>3591</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -14445,7 +15446,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3277</v>
+        <v>3592</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -14466,7 +15467,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3278</v>
+        <v>3593</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -14487,7 +15488,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3279</v>
+        <v>3594</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -14508,7 +15509,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3280</v>
+        <v>3595</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -14529,7 +15530,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3281</v>
+        <v>3596</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -14550,7 +15551,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3282</v>
+        <v>3597</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -14571,7 +15572,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3283</v>
+        <v>3598</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -14592,7 +15593,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3284</v>
+        <v>3599</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -14604,16 +15605,16 @@
         <v>-0.017000000000000001</v>
       </c>
       <c r="I32" s="0">
-        <v>0.0030000000000000001</v>
+        <v>-0.012999999999999999</v>
       </c>
       <c r="J32" s="0">
-        <v>0.037999999999999999</v>
+        <v>0.033000000000000002</v>
       </c>
       <c r="K32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3285</v>
+        <v>3600</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -14623,13 +15624,13 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>-0.010999999999999999</v>
+        <v>-0.012</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.017000000000000001</v>
+        <v>-0.028000000000000001</v>
       </c>
       <c r="K33" s="0">
-        <v>0.033000000000000002</v>
+        <v>0.029000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14656,50 +15657,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3342</v>
+        <v>3657</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3343</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3341</v>
+        <v>3656</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3331</v>
+        <v>3646</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3332</v>
+        <v>3647</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3333</v>
+        <v>3648</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3334</v>
+        <v>3649</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3335</v>
+        <v>3650</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3336</v>
+        <v>3651</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3337</v>
+        <v>3652</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3338</v>
+        <v>3653</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3339</v>
+        <v>3654</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3340</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3300</v>
+        <v>3615</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -14720,7 +15721,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3301</v>
+        <v>3616</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -14741,7 +15742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3302</v>
+        <v>3617</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -14762,7 +15763,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3303</v>
+        <v>3618</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -14783,7 +15784,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3304</v>
+        <v>3619</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -14804,7 +15805,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3305</v>
+        <v>3620</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -14825,7 +15826,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3306</v>
+        <v>3621</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -14846,7 +15847,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3307</v>
+        <v>3622</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -14867,7 +15868,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3308</v>
+        <v>3623</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -14890,7 +15891,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3309</v>
+        <v>3624</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -14911,7 +15912,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3310</v>
+        <v>3625</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -14932,7 +15933,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3311</v>
+        <v>3626</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -14953,7 +15954,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3312</v>
+        <v>3627</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -14974,7 +15975,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3313</v>
+        <v>3628</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -14995,7 +15996,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3314</v>
+        <v>3629</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -15016,7 +16017,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3315</v>
+        <v>3630</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -15037,7 +16038,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3316</v>
+        <v>3631</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -15058,7 +16059,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3317</v>
+        <v>3632</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -15079,7 +16080,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3318</v>
+        <v>3633</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -15100,7 +16101,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3319</v>
+        <v>3634</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -15121,7 +16122,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3320</v>
+        <v>3635</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -15142,7 +16143,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3321</v>
+        <v>3636</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -15165,7 +16166,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3322</v>
+        <v>3637</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -15186,7 +16187,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3323</v>
+        <v>3638</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -15207,7 +16208,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3324</v>
+        <v>3639</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -15228,7 +16229,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3325</v>
+        <v>3640</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -15249,7 +16250,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3326</v>
+        <v>3641</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -15270,7 +16271,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3327</v>
+        <v>3642</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -15291,7 +16292,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3328</v>
+        <v>3643</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -15312,7 +16313,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3329</v>
+        <v>3644</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -15324,16 +16325,16 @@
         <v>0.121</v>
       </c>
       <c r="I32" s="0">
-        <v>0.079000000000000001</v>
+        <v>0.074999999999999997</v>
       </c>
       <c r="J32" s="0">
-        <v>0.039</v>
+        <v>0.035999999999999997</v>
       </c>
       <c r="K32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3330</v>
+        <v>3645</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -15343,13 +16344,13 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>0.122</v>
+        <v>0.125</v>
       </c>
       <c r="J33" s="0">
-        <v>0.019</v>
+        <v>0.074999999999999997</v>
       </c>
       <c r="K33" s="0">
-        <v>0.070999999999999994</v>
+        <v>0.079000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -15377,53 +16378,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3388</v>
+        <v>3703</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3389</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3387</v>
+        <v>3702</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3376</v>
+        <v>3691</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3377</v>
+        <v>3692</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3378</v>
+        <v>3693</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3379</v>
+        <v>3694</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3380</v>
+        <v>3695</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3381</v>
+        <v>3696</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3382</v>
+        <v>3697</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3383</v>
+        <v>3698</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3384</v>
+        <v>3699</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3385</v>
+        <v>3700</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3386</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3345</v>
+        <v>3660</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -15447,7 +16448,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3346</v>
+        <v>3661</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -15471,7 +16472,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3347</v>
+        <v>3662</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -15493,7 +16494,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3348</v>
+        <v>3663</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -15515,7 +16516,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3349</v>
+        <v>3664</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -15539,7 +16540,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3350</v>
+        <v>3665</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -15563,7 +16564,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3351</v>
+        <v>3666</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -15585,7 +16586,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3352</v>
+        <v>3667</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -15607,7 +16608,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3353</v>
+        <v>3668</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -15631,7 +16632,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3354</v>
+        <v>3669</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -15655,7 +16656,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3355</v>
+        <v>3670</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -15677,7 +16678,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3356</v>
+        <v>3671</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -15699,7 +16700,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3357</v>
+        <v>3672</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -15721,7 +16722,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3358</v>
+        <v>3673</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -15745,7 +16746,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3359</v>
+        <v>3674</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -15769,7 +16770,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3360</v>
+        <v>3675</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -15791,7 +16792,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3361</v>
+        <v>3676</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -15813,7 +16814,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3362</v>
+        <v>3677</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -15837,7 +16838,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3363</v>
+        <v>3678</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -15861,7 +16862,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3364</v>
+        <v>3679</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -15883,7 +16884,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3365</v>
+        <v>3680</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -15905,7 +16906,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3366</v>
+        <v>3681</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -15929,7 +16930,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3367</v>
+        <v>3682</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -15953,7 +16954,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3368</v>
+        <v>3683</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -15975,7 +16976,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3369</v>
+        <v>3684</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -15997,7 +16998,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3370</v>
+        <v>3685</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -16019,7 +17020,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3371</v>
+        <v>3686</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -16043,7 +17044,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3372</v>
+        <v>3687</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -16067,7 +17068,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3373</v>
+        <v>3688</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -16089,7 +17090,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3374</v>
+        <v>3689</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -16099,7 +17100,7 @@
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0">
-        <v>4.0839999999999996</v>
+        <v>4.077</v>
       </c>
       <c r="J32" s="0">
         <v>1.0629999999999999</v>
@@ -16111,7 +17112,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3375</v>
+        <v>3690</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -16121,13 +17122,13 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>-8.7360000000000007</v>
+        <v>-9.5350000000000001</v>
       </c>
       <c r="J33" s="0">
-        <v>0.14099999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="K33" s="0">
-        <v>3.5529999999999999</v>
+        <v>3.419</v>
       </c>
       <c r="L33" s="0">
         <v>2.4700000000000002</v>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="3705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="4020">
   <si>
     <t>Row</t>
   </si>
@@ -9236,6 +9236,951 @@
   </si>
   <si>
     <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
   </si>
   <si>
     <t>Forecast Dates</t>
@@ -11155,7 +12100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="393">
+  <borders count="421">
     <border>
       <left/>
       <right/>
@@ -11555,11 +12500,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -11953,6 +12926,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11976,38 +12977,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3429</v>
+        <v>3744</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3430</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3428</v>
+        <v>3743</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3422</v>
+        <v>3737</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3423</v>
+        <v>3738</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3424</v>
+        <v>3739</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3425</v>
+        <v>3740</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3426</v>
+        <v>3741</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3427</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3391</v>
+        <v>3706</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -12026,7 +13027,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3392</v>
+        <v>3707</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -12045,7 +13046,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3393</v>
+        <v>3708</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -12064,7 +13065,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3394</v>
+        <v>3709</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -12083,7 +13084,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3395</v>
+        <v>3710</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -12102,7 +13103,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3396</v>
+        <v>3711</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -12121,7 +13122,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3397</v>
+        <v>3712</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -12140,7 +13141,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3398</v>
+        <v>3713</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -12159,7 +13160,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3399</v>
+        <v>3714</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -12178,7 +13179,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3400</v>
+        <v>3715</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -12197,7 +13198,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3401</v>
+        <v>3716</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -12216,7 +13217,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3402</v>
+        <v>3717</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -12233,7 +13234,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3403</v>
+        <v>3718</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -12250,7 +13251,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3404</v>
+        <v>3719</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -12269,7 +13270,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3405</v>
+        <v>3720</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -12288,7 +13289,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3406</v>
+        <v>3721</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -12307,7 +13308,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3407</v>
+        <v>3722</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -12326,7 +13327,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3408</v>
+        <v>3723</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -12345,7 +13346,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3409</v>
+        <v>3724</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -12364,7 +13365,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3410</v>
+        <v>3725</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -12383,7 +13384,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3411</v>
+        <v>3726</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -12402,7 +13403,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3412</v>
+        <v>3727</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -12421,7 +13422,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3413</v>
+        <v>3728</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -12440,7 +13441,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3414</v>
+        <v>3729</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -12459,7 +13460,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3415</v>
+        <v>3730</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -12478,7 +13479,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3416</v>
+        <v>3731</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -12495,7 +13496,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3417</v>
+        <v>3732</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -12514,7 +13515,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3418</v>
+        <v>3733</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -12533,7 +13534,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3419</v>
+        <v>3734</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -12552,40 +13553,40 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3420</v>
+        <v>3735</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
       <c r="D32" s="0">
-        <v>1.599</v>
+        <v>2.6880000000000002</v>
       </c>
       <c r="E32" s="0">
-        <v>5.8879999999999999</v>
+        <v>4.1989999999999998</v>
       </c>
       <c r="F32" s="0">
         <v>2.6509999999999998</v>
       </c>
       <c r="G32" s="0">
-        <v>3.9009999999999998</v>
+        <v>2.9260000000000002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3421</v>
+        <v>3736</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0">
-        <v>2.6080000000000001</v>
+        <v>2.2559999999999998</v>
       </c>
       <c r="E33" s="0">
-        <v>1.9399999999999999</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="F33" s="0">
         <v>2.6509999999999998</v>
       </c>
       <c r="G33" s="0">
-        <v>2.2309999999999999</v>
+        <v>2.706</v>
       </c>
     </row>
   </sheetData>
@@ -12613,53 +13614,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3475</v>
+        <v>3790</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3476</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3474</v>
+        <v>3789</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3463</v>
+        <v>3778</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3464</v>
+        <v>3779</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3465</v>
+        <v>3780</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3466</v>
+        <v>3781</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3467</v>
+        <v>3782</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3468</v>
+        <v>3783</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3469</v>
+        <v>3784</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3470</v>
+        <v>3785</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3471</v>
+        <v>3786</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3472</v>
+        <v>3787</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3473</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3432</v>
+        <v>3747</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -12683,7 +13684,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3433</v>
+        <v>3748</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -12705,7 +13706,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3434</v>
+        <v>3749</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -12727,7 +13728,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3435</v>
+        <v>3750</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -12749,7 +13750,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3436</v>
+        <v>3751</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -12773,7 +13774,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3437</v>
+        <v>3752</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -12797,7 +13798,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3438</v>
+        <v>3753</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -12819,7 +13820,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3439</v>
+        <v>3754</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -12841,7 +13842,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3440</v>
+        <v>3755</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -12865,7 +13866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3441</v>
+        <v>3756</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -12889,7 +13890,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3442</v>
+        <v>3757</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -12911,7 +13912,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3443</v>
+        <v>3758</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -12933,7 +13934,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3444</v>
+        <v>3759</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -12955,7 +13956,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3445</v>
+        <v>3760</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -12979,7 +13980,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3446</v>
+        <v>3761</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -13001,7 +14002,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3447</v>
+        <v>3762</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13023,7 +14024,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3448</v>
+        <v>3763</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13045,7 +14046,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3449</v>
+        <v>3764</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -13069,7 +14070,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3450</v>
+        <v>3765</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13093,7 +14094,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3451</v>
+        <v>3766</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -13115,7 +14116,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3452</v>
+        <v>3767</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13137,7 +14138,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3453</v>
+        <v>3768</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -13161,7 +14162,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3454</v>
+        <v>3769</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -13185,7 +14186,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3455</v>
+        <v>3770</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -13207,7 +14208,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3456</v>
+        <v>3771</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -13229,7 +14230,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3457</v>
+        <v>3772</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13251,7 +14252,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3458</v>
+        <v>3773</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -13275,7 +14276,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3459</v>
+        <v>3774</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -13297,7 +14298,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3460</v>
+        <v>3775</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -13319,7 +14320,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3461</v>
+        <v>3776</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -13329,19 +14330,19 @@
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0">
-        <v>2.7240000000000002</v>
+        <v>3.0819999999999999</v>
       </c>
       <c r="J32" s="0">
-        <v>2.3769999999999998</v>
+        <v>2.2989999999999999</v>
       </c>
       <c r="K32" s="0">
-        <v>2.5750000000000002</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="L32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3462</v>
+        <v>3777</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -13351,16 +14352,16 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>6.5439999999999996</v>
+        <v>7.431</v>
       </c>
       <c r="J33" s="0">
-        <v>4.149</v>
+        <v>4.2439999999999998</v>
       </c>
       <c r="K33" s="0">
-        <v>2.839</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="L33" s="0">
-        <v>2.2309999999999999</v>
+        <v>2.6640000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13388,53 +14389,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3521</v>
+        <v>3836</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3522</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3520</v>
+        <v>3835</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3509</v>
+        <v>3824</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3510</v>
+        <v>3825</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3511</v>
+        <v>3826</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3512</v>
+        <v>3827</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3513</v>
+        <v>3828</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3514</v>
+        <v>3829</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3515</v>
+        <v>3830</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3516</v>
+        <v>3831</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3517</v>
+        <v>3832</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3518</v>
+        <v>3833</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3519</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3478</v>
+        <v>3793</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -13458,7 +14459,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3479</v>
+        <v>3794</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -13480,7 +14481,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3480</v>
+        <v>3795</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -13502,7 +14503,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3481</v>
+        <v>3796</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -13524,7 +14525,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3482</v>
+        <v>3797</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -13548,7 +14549,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3483</v>
+        <v>3798</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -13572,7 +14573,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3484</v>
+        <v>3799</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13594,7 +14595,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3485</v>
+        <v>3800</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -13616,7 +14617,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3486</v>
+        <v>3801</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -13640,7 +14641,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3487</v>
+        <v>3802</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13664,7 +14665,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3488</v>
+        <v>3803</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -13686,7 +14687,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3489</v>
+        <v>3804</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -13708,7 +14709,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3490</v>
+        <v>3805</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -13730,7 +14731,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3491</v>
+        <v>3806</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13754,7 +14755,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3492</v>
+        <v>3807</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -13776,7 +14777,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3493</v>
+        <v>3808</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -13798,7 +14799,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3494</v>
+        <v>3809</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13820,7 +14821,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3495</v>
+        <v>3810</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -13844,7 +14845,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3496</v>
+        <v>3811</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13868,7 +14869,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3497</v>
+        <v>3812</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -13890,7 +14891,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3498</v>
+        <v>3813</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13912,7 +14913,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3499</v>
+        <v>3814</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -13936,7 +14937,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3500</v>
+        <v>3815</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -13960,7 +14961,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3501</v>
+        <v>3816</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -13982,7 +14983,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3502</v>
+        <v>3817</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -14004,7 +15005,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3503</v>
+        <v>3818</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -14026,7 +15027,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3504</v>
+        <v>3819</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -14050,7 +15051,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3505</v>
+        <v>3820</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -14072,7 +15073,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3506</v>
+        <v>3821</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -14094,7 +15095,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3507</v>
+        <v>3822</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -14104,19 +15105,19 @@
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0">
-        <v>3.3639999999999999</v>
+        <v>3.335</v>
       </c>
       <c r="J32" s="0">
-        <v>3.2959999999999998</v>
+        <v>3.206</v>
       </c>
       <c r="K32" s="0">
-        <v>3.1890000000000001</v>
+        <v>3.2050000000000001</v>
       </c>
       <c r="L32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3508</v>
+        <v>3823</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -14126,16 +15127,16 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>3.758</v>
+        <v>3.7549999999999999</v>
       </c>
       <c r="J33" s="0">
-        <v>3.601</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="K33" s="0">
-        <v>3.4399999999999999</v>
+        <v>3.605</v>
       </c>
       <c r="L33" s="0">
-        <v>3.5009999999999999</v>
+        <v>3.5390000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14163,53 +15164,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3567</v>
+        <v>3882</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3568</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3566</v>
+        <v>3881</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3555</v>
+        <v>3870</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3556</v>
+        <v>3871</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3557</v>
+        <v>3872</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3558</v>
+        <v>3873</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3559</v>
+        <v>3874</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3560</v>
+        <v>3875</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3561</v>
+        <v>3876</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3562</v>
+        <v>3877</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3563</v>
+        <v>3878</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3564</v>
+        <v>3879</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3565</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3524</v>
+        <v>3839</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -14233,7 +15234,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3525</v>
+        <v>3840</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -14255,7 +15256,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3526</v>
+        <v>3841</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -14277,7 +15278,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3527</v>
+        <v>3842</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -14299,7 +15300,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3528</v>
+        <v>3843</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -14323,7 +15324,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3529</v>
+        <v>3844</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -14347,7 +15348,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3530</v>
+        <v>3845</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -14369,7 +15370,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3531</v>
+        <v>3846</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -14391,7 +15392,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3532</v>
+        <v>3847</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -14415,7 +15416,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3533</v>
+        <v>3848</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -14439,7 +15440,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3534</v>
+        <v>3849</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -14461,7 +15462,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3535</v>
+        <v>3850</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -14483,7 +15484,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3536</v>
+        <v>3851</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -14505,7 +15506,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3537</v>
+        <v>3852</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -14529,7 +15530,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3538</v>
+        <v>3853</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -14551,7 +15552,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3539</v>
+        <v>3854</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -14573,7 +15574,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3540</v>
+        <v>3855</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -14595,7 +15596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3541</v>
+        <v>3856</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -14619,7 +15620,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3542</v>
+        <v>3857</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -14643,7 +15644,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3543</v>
+        <v>3858</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -14665,7 +15666,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3544</v>
+        <v>3859</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -14687,7 +15688,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3545</v>
+        <v>3860</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -14711,7 +15712,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3546</v>
+        <v>3861</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -14735,7 +15736,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3547</v>
+        <v>3862</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -14757,7 +15758,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3548</v>
+        <v>3863</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -14779,7 +15780,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3549</v>
+        <v>3864</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -14801,7 +15802,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3550</v>
+        <v>3865</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -14825,7 +15826,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3551</v>
+        <v>3866</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -14847,7 +15848,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3552</v>
+        <v>3867</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -14869,7 +15870,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3553</v>
+        <v>3868</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -14879,19 +15880,19 @@
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0">
-        <v>3.3279999999999998</v>
+        <v>3.2429999999999999</v>
       </c>
       <c r="J32" s="0">
-        <v>3.0699999999999998</v>
+        <v>3.1160000000000001</v>
       </c>
       <c r="K32" s="0">
-        <v>2.879</v>
+        <v>3.0670000000000002</v>
       </c>
       <c r="L32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3554</v>
+        <v>3869</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -14901,16 +15902,16 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>3.5089999999999999</v>
+        <v>3.5390000000000001</v>
       </c>
       <c r="J33" s="0">
-        <v>2.6560000000000001</v>
+        <v>2.851</v>
       </c>
       <c r="K33" s="0">
-        <v>2.9609999999999999</v>
+        <v>3.3479999999999999</v>
       </c>
       <c r="L33" s="0">
-        <v>3.4590000000000001</v>
+        <v>3.1520000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14937,50 +15938,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3612</v>
+        <v>3927</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3613</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3611</v>
+        <v>3926</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3601</v>
+        <v>3916</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3602</v>
+        <v>3917</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3603</v>
+        <v>3918</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3604</v>
+        <v>3919</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3605</v>
+        <v>3920</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3606</v>
+        <v>3921</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3607</v>
+        <v>3922</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3608</v>
+        <v>3923</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3609</v>
+        <v>3924</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3610</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3570</v>
+        <v>3885</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -15001,7 +16002,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3571</v>
+        <v>3886</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -15022,7 +16023,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3572</v>
+        <v>3887</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -15043,7 +16044,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3573</v>
+        <v>3888</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -15064,7 +16065,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3574</v>
+        <v>3889</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -15085,7 +16086,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3575</v>
+        <v>3890</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -15106,7 +16107,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3576</v>
+        <v>3891</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -15127,7 +16128,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3577</v>
+        <v>3892</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -15148,7 +16149,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3578</v>
+        <v>3893</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -15171,7 +16172,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3579</v>
+        <v>3894</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -15192,7 +16193,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3580</v>
+        <v>3895</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -15213,7 +16214,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3581</v>
+        <v>3896</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -15234,7 +16235,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3582</v>
+        <v>3897</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -15255,7 +16256,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3583</v>
+        <v>3898</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -15276,7 +16277,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3584</v>
+        <v>3899</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -15297,7 +16298,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3585</v>
+        <v>3900</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -15318,7 +16319,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3586</v>
+        <v>3901</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -15339,7 +16340,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3587</v>
+        <v>3902</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -15360,7 +16361,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3588</v>
+        <v>3903</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -15381,7 +16382,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3589</v>
+        <v>3904</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -15402,7 +16403,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3590</v>
+        <v>3905</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -15423,7 +16424,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3591</v>
+        <v>3906</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -15446,7 +16447,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3592</v>
+        <v>3907</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -15467,7 +16468,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3593</v>
+        <v>3908</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -15488,7 +16489,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3594</v>
+        <v>3909</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -15509,7 +16510,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3595</v>
+        <v>3910</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -15530,7 +16531,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3596</v>
+        <v>3911</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -15551,7 +16552,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3597</v>
+        <v>3912</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -15572,7 +16573,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3598</v>
+        <v>3913</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -15593,7 +16594,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3599</v>
+        <v>3914</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -15602,19 +16603,19 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="H32" s="0">
-        <v>-0.017000000000000001</v>
+        <v>-0.016</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.012999999999999999</v>
+        <v>-0.012</v>
       </c>
       <c r="J32" s="0">
-        <v>0.033000000000000002</v>
+        <v>0.051999999999999998</v>
       </c>
       <c r="K32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3600</v>
+        <v>3915</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -15624,13 +16625,13 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>-0.012</v>
+        <v>-0.019</v>
       </c>
       <c r="J33" s="0">
         <v>-0.028000000000000001</v>
       </c>
       <c r="K33" s="0">
-        <v>0.029000000000000001</v>
+        <v>0.035999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -15657,50 +16658,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3657</v>
+        <v>3972</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3658</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3656</v>
+        <v>3971</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3646</v>
+        <v>3961</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3647</v>
+        <v>3962</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3648</v>
+        <v>3963</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3649</v>
+        <v>3964</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3650</v>
+        <v>3965</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3651</v>
+        <v>3966</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3652</v>
+        <v>3967</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3653</v>
+        <v>3968</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3654</v>
+        <v>3969</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3655</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3615</v>
+        <v>3930</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -15721,7 +16722,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3616</v>
+        <v>3931</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -15742,7 +16743,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3617</v>
+        <v>3932</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -15763,7 +16764,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3618</v>
+        <v>3933</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -15784,7 +16785,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3619</v>
+        <v>3934</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -15805,7 +16806,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3620</v>
+        <v>3935</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -15826,7 +16827,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3621</v>
+        <v>3936</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -15847,7 +16848,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3622</v>
+        <v>3937</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -15868,7 +16869,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3623</v>
+        <v>3938</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -15891,7 +16892,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3624</v>
+        <v>3939</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -15912,7 +16913,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3625</v>
+        <v>3940</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -15933,7 +16934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3626</v>
+        <v>3941</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -15954,7 +16955,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3627</v>
+        <v>3942</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -15975,7 +16976,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3628</v>
+        <v>3943</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -15996,7 +16997,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3629</v>
+        <v>3944</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -16017,7 +17018,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3630</v>
+        <v>3945</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -16038,7 +17039,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3631</v>
+        <v>3946</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -16059,7 +17060,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3632</v>
+        <v>3947</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -16080,7 +17081,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3633</v>
+        <v>3948</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -16101,7 +17102,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3634</v>
+        <v>3949</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -16122,7 +17123,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3635</v>
+        <v>3950</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -16143,7 +17144,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3636</v>
+        <v>3951</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -16166,7 +17167,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3637</v>
+        <v>3952</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -16187,7 +17188,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3638</v>
+        <v>3953</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -16208,7 +17209,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3639</v>
+        <v>3954</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -16229,7 +17230,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3640</v>
+        <v>3955</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -16250,7 +17251,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3641</v>
+        <v>3956</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -16271,7 +17272,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3642</v>
+        <v>3957</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -16292,7 +17293,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3643</v>
+        <v>3958</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -16313,7 +17314,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3644</v>
+        <v>3959</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -16322,19 +17323,19 @@
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="H32" s="0">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="I32" s="0">
-        <v>0.074999999999999997</v>
+        <v>0.097000000000000003</v>
       </c>
       <c r="J32" s="0">
-        <v>0.035999999999999997</v>
+        <v>0.035000000000000003</v>
       </c>
       <c r="K32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3645</v>
+        <v>3960</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -16344,13 +17345,13 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="J33" s="0">
-        <v>0.074999999999999997</v>
+        <v>0.085999999999999993</v>
       </c>
       <c r="K33" s="0">
-        <v>0.079000000000000001</v>
+        <v>0.082000000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -16378,53 +17379,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3703</v>
+        <v>4018</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3704</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3702</v>
+        <v>4017</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3691</v>
+        <v>4006</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3692</v>
+        <v>4007</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3693</v>
+        <v>4008</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3694</v>
+        <v>4009</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3695</v>
+        <v>4010</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3696</v>
+        <v>4011</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3697</v>
+        <v>4012</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3698</v>
+        <v>4013</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3699</v>
+        <v>4014</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3700</v>
+        <v>4015</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3701</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3660</v>
+        <v>3975</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -16448,7 +17449,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3661</v>
+        <v>3976</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -16472,7 +17473,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3662</v>
+        <v>3977</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -16494,7 +17495,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3663</v>
+        <v>3978</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -16516,7 +17517,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3664</v>
+        <v>3979</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -16540,7 +17541,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3665</v>
+        <v>3980</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -16564,7 +17565,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3666</v>
+        <v>3981</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -16586,7 +17587,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3667</v>
+        <v>3982</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -16608,7 +17609,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3668</v>
+        <v>3983</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -16632,7 +17633,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3669</v>
+        <v>3984</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -16656,7 +17657,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3670</v>
+        <v>3985</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -16678,7 +17679,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3671</v>
+        <v>3986</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -16700,7 +17701,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3672</v>
+        <v>3987</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -16722,7 +17723,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3673</v>
+        <v>3988</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -16746,7 +17747,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3674</v>
+        <v>3989</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -16770,7 +17771,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3675</v>
+        <v>3990</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -16792,7 +17793,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3676</v>
+        <v>3991</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -16814,7 +17815,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3677</v>
+        <v>3992</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -16838,7 +17839,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3678</v>
+        <v>3993</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -16862,7 +17863,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3679</v>
+        <v>3994</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -16884,7 +17885,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3680</v>
+        <v>3995</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -16906,7 +17907,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3681</v>
+        <v>3996</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -16930,7 +17931,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3682</v>
+        <v>3997</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -16954,7 +17955,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3683</v>
+        <v>3998</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -16976,7 +17977,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3684</v>
+        <v>3999</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -16998,7 +17999,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3685</v>
+        <v>4000</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -17020,7 +18021,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3686</v>
+        <v>4001</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -17044,7 +18045,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3687</v>
+        <v>4002</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -17068,7 +18069,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3688</v>
+        <v>4003</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -17090,7 +18091,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3689</v>
+        <v>4004</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -17100,10 +18101,10 @@
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0">
-        <v>4.077</v>
+        <v>3.9940000000000002</v>
       </c>
       <c r="J32" s="0">
-        <v>1.0629999999999999</v>
+        <v>1.478</v>
       </c>
       <c r="K32" s="0">
         <v>2.3140000000000001</v>
@@ -17112,7 +18113,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3690</v>
+        <v>4005</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -17122,16 +18123,16 @@
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0">
-        <v>-9.5350000000000001</v>
+        <v>-7.0309999999999997</v>
       </c>
       <c r="J33" s="0">
-        <v>0.10199999999999999</v>
+        <v>-0.501</v>
       </c>
       <c r="K33" s="0">
-        <v>3.419</v>
+        <v>4.0430000000000001</v>
       </c>
       <c r="L33" s="0">
-        <v>2.4700000000000002</v>
+        <v>2.3119999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="4020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="4342">
   <si>
     <t>Row</t>
   </si>
@@ -12038,6 +12038,972 @@
   </si>
   <si>
     <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -12100,7 +13066,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="421">
+  <borders count="449">
     <border>
       <left/>
       <right/>
@@ -12528,11 +13494,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -12954,6 +13948,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12963,7 +13985,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -12977,38 +13999,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3744</v>
+        <v>4060</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3745</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3743</v>
+        <v>4059</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3737</v>
+        <v>4053</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3738</v>
+        <v>4054</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3739</v>
+        <v>4055</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3740</v>
+        <v>4056</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3741</v>
+        <v>4057</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3742</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3706</v>
+        <v>4021</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -13027,7 +14049,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3707</v>
+        <v>4022</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -13046,7 +14068,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3708</v>
+        <v>4023</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -13065,7 +14087,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3709</v>
+        <v>4024</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -13084,7 +14106,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3710</v>
+        <v>4025</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -13103,7 +14125,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3711</v>
+        <v>4026</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -13122,7 +14144,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3712</v>
+        <v>4027</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -13141,7 +14163,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3713</v>
+        <v>4028</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -13160,7 +14182,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3714</v>
+        <v>4029</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -13179,7 +14201,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3715</v>
+        <v>4030</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -13198,7 +14220,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3716</v>
+        <v>4031</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -13217,7 +14239,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3717</v>
+        <v>4032</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -13234,7 +14256,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3718</v>
+        <v>4033</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -13251,7 +14273,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3719</v>
+        <v>4034</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -13270,7 +14292,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3720</v>
+        <v>4035</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -13289,7 +14311,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3721</v>
+        <v>4036</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -13308,7 +14330,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3722</v>
+        <v>4037</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -13327,7 +14349,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3723</v>
+        <v>4038</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -13346,7 +14368,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3724</v>
+        <v>4039</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -13365,7 +14387,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3725</v>
+        <v>4040</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -13384,7 +14406,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3726</v>
+        <v>4041</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -13403,7 +14425,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3727</v>
+        <v>4042</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -13422,7 +14444,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3728</v>
+        <v>4043</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -13441,7 +14463,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3729</v>
+        <v>4044</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -13460,7 +14482,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3730</v>
+        <v>4045</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -13479,7 +14501,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3731</v>
+        <v>4046</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -13496,64 +14518,64 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3732</v>
+        <v>4047</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
       <c r="D29" s="0">
-        <v>1.8200000000000001</v>
+        <v>2.056</v>
       </c>
       <c r="E29" s="0">
-        <v>4.9500000000000002</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F29" s="0">
-        <v>2.6509999999999998</v>
+        <v>2.637</v>
       </c>
       <c r="G29" s="0">
-        <v>2.5760000000000001</v>
+        <v>2.4449999999999998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3733</v>
+        <v>4048</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
       <c r="D30" s="0">
-        <v>1.8720000000000001</v>
+        <v>2.0600000000000001</v>
       </c>
       <c r="E30" s="0">
-        <v>4.9909999999999997</v>
+        <v>4.117</v>
       </c>
       <c r="F30" s="0">
-        <v>2.6509999999999998</v>
+        <v>2.637</v>
       </c>
       <c r="G30" s="0">
-        <v>2.5750000000000002</v>
+        <v>2.4449999999999998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3734</v>
+        <v>4049</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="0">
-        <v>2.7000000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="E31" s="0">
-        <v>4.9299999999999997</v>
+        <v>3.6019999999999999</v>
       </c>
       <c r="F31" s="0">
-        <v>2.504</v>
+        <v>2.633</v>
       </c>
       <c r="G31" s="0">
-        <v>3.2629999999999999</v>
+        <v>2.5680000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3735</v>
+        <v>4050</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -13572,7 +14594,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3736</v>
+        <v>4051</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -13587,6 +14609,25 @@
       </c>
       <c r="G33" s="0">
         <v>2.706</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0">
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="E34" s="0">
+        <v>2.895</v>
+      </c>
+      <c r="F34" s="0">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G34" s="0">
+        <v>2.6000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13595,7 +14636,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -13614,53 +14655,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3790</v>
+        <v>4107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3791</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3789</v>
+        <v>4106</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3778</v>
+        <v>4095</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3779</v>
+        <v>4096</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3780</v>
+        <v>4097</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3781</v>
+        <v>4098</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3782</v>
+        <v>4099</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3783</v>
+        <v>4100</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3784</v>
+        <v>4101</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3785</v>
+        <v>4102</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3786</v>
+        <v>4103</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3787</v>
+        <v>4104</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3788</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3747</v>
+        <v>4063</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -13684,7 +14725,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3748</v>
+        <v>4064</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -13706,7 +14747,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3749</v>
+        <v>4065</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -13728,7 +14769,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3750</v>
+        <v>4066</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -13750,7 +14791,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3751</v>
+        <v>4067</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -13774,7 +14815,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3752</v>
+        <v>4068</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -13798,7 +14839,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3753</v>
+        <v>4069</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13820,7 +14861,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3754</v>
+        <v>4070</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -13842,7 +14883,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3755</v>
+        <v>4071</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -13866,7 +14907,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3756</v>
+        <v>4072</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -13890,7 +14931,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3757</v>
+        <v>4073</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -13912,7 +14953,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3758</v>
+        <v>4074</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -13934,7 +14975,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3759</v>
+        <v>4075</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -13956,7 +14997,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3760</v>
+        <v>4076</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -13980,7 +15021,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3761</v>
+        <v>4077</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -14002,7 +15043,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3762</v>
+        <v>4078</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -14024,7 +15065,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3763</v>
+        <v>4079</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -14046,7 +15087,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3764</v>
+        <v>4080</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -14070,7 +15111,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3765</v>
+        <v>4081</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -14094,7 +15135,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3766</v>
+        <v>4082</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -14116,7 +15157,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3767</v>
+        <v>4083</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -14138,7 +15179,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3768</v>
+        <v>4084</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -14162,7 +15203,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3769</v>
+        <v>4085</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -14186,7 +15227,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3770</v>
+        <v>4086</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -14208,7 +15249,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3771</v>
+        <v>4087</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -14230,7 +15271,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3772</v>
+        <v>4088</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -14252,7 +15293,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3773</v>
+        <v>4089</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -14261,22 +15302,22 @@
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0">
-        <v>4.5490000000000004</v>
+        <v>5.1719999999999997</v>
       </c>
       <c r="I29" s="0">
-        <v>3.0720000000000001</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="J29" s="0">
-        <v>3.0169999999999999</v>
+        <v>3.3460000000000001</v>
       </c>
       <c r="K29" s="0">
-        <v>2.6269999999999998</v>
+        <v>2.6539999999999999</v>
       </c>
       <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3774</v>
+        <v>4090</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -14286,19 +15327,19 @@
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0">
-        <v>2.794</v>
+        <v>3.2429999999999999</v>
       </c>
       <c r="J30" s="0">
-        <v>2.7770000000000001</v>
+        <v>2.7349999999999999</v>
       </c>
       <c r="K30" s="0">
-        <v>2.5750000000000002</v>
+        <v>2.7149999999999999</v>
       </c>
       <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3775</v>
+        <v>4091</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -14308,19 +15349,19 @@
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0">
-        <v>2.569</v>
+        <v>2.98</v>
       </c>
       <c r="J31" s="0">
-        <v>2.488</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="K31" s="0">
-        <v>2.5680000000000001</v>
+        <v>2.7290000000000001</v>
       </c>
       <c r="L31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3776</v>
+        <v>4092</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -14342,7 +15383,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3777</v>
+        <v>4093</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -14364,13 +15405,37 @@
         <v>2.6640000000000001</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0">
+        <v>5.0549999999999997</v>
+      </c>
+      <c r="J34" s="0">
+        <v>3.331</v>
+      </c>
+      <c r="K34" s="0">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="L34" s="0">
+        <v>2.6629999999999998</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -14389,53 +15454,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3836</v>
+        <v>4154</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3837</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3835</v>
+        <v>4153</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3824</v>
+        <v>4142</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3825</v>
+        <v>4143</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3826</v>
+        <v>4144</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3827</v>
+        <v>4145</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3828</v>
+        <v>4146</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3829</v>
+        <v>4147</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3830</v>
+        <v>4148</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3831</v>
+        <v>4149</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3832</v>
+        <v>4150</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3833</v>
+        <v>4151</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3834</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3793</v>
+        <v>4110</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -14459,7 +15524,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3794</v>
+        <v>4111</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -14481,7 +15546,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3795</v>
+        <v>4112</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -14503,7 +15568,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3796</v>
+        <v>4113</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -14525,7 +15590,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3797</v>
+        <v>4114</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -14549,7 +15614,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3798</v>
+        <v>4115</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -14573,7 +15638,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3799</v>
+        <v>4116</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -14595,7 +15660,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3800</v>
+        <v>4117</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -14617,7 +15682,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3801</v>
+        <v>4118</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -14641,7 +15706,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3802</v>
+        <v>4119</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -14665,7 +15730,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3803</v>
+        <v>4120</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -14687,7 +15752,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3804</v>
+        <v>4121</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -14709,7 +15774,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3805</v>
+        <v>4122</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -14731,7 +15796,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3806</v>
+        <v>4123</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -14755,7 +15820,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3807</v>
+        <v>4124</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -14777,7 +15842,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3808</v>
+        <v>4125</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -14799,7 +15864,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3809</v>
+        <v>4126</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -14821,7 +15886,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3810</v>
+        <v>4127</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -14845,7 +15910,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3811</v>
+        <v>4128</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -14869,7 +15934,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3812</v>
+        <v>4129</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -14891,7 +15956,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3813</v>
+        <v>4130</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -14913,7 +15978,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3814</v>
+        <v>4131</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -14937,7 +16002,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3815</v>
+        <v>4132</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -14961,7 +16026,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3816</v>
+        <v>4133</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -14983,7 +16048,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3817</v>
+        <v>4134</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -15005,7 +16070,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3818</v>
+        <v>4135</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -15027,7 +16092,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3819</v>
+        <v>4136</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -15036,22 +16101,22 @@
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0">
-        <v>3.367</v>
+        <v>3.4489999999999998</v>
       </c>
       <c r="I29" s="0">
-        <v>3.423</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="J29" s="0">
-        <v>3.2629999999999999</v>
+        <v>3.5299999999999998</v>
       </c>
       <c r="K29" s="0">
-        <v>3.2429999999999999</v>
+        <v>3.528</v>
       </c>
       <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3820</v>
+        <v>4137</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -15061,19 +16126,19 @@
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0">
-        <v>3.4119999999999999</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="J30" s="0">
-        <v>3.3900000000000001</v>
+        <v>3.2519999999999998</v>
       </c>
       <c r="K30" s="0">
-        <v>3.2130000000000001</v>
+        <v>3.3159999999999998</v>
       </c>
       <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3821</v>
+        <v>4138</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -15083,19 +16148,19 @@
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0">
-        <v>3.3740000000000001</v>
+        <v>3.3170000000000002</v>
       </c>
       <c r="J31" s="0">
-        <v>3.3199999999999998</v>
+        <v>3.1789999999999998</v>
       </c>
       <c r="K31" s="0">
-        <v>3.145</v>
+        <v>3.1899999999999999</v>
       </c>
       <c r="L31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3822</v>
+        <v>4139</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -15117,7 +16182,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3823</v>
+        <v>4140</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -15139,13 +16204,37 @@
         <v>3.5390000000000001</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="J34" s="0">
+        <v>3.528</v>
+      </c>
+      <c r="K34" s="0">
+        <v>3.4359999999999999</v>
+      </c>
+      <c r="L34" s="0">
+        <v>3.367</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -15164,53 +16253,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3882</v>
+        <v>4201</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3883</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3881</v>
+        <v>4200</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3870</v>
+        <v>4189</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3871</v>
+        <v>4190</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3872</v>
+        <v>4191</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3873</v>
+        <v>4192</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3874</v>
+        <v>4193</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3875</v>
+        <v>4194</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3876</v>
+        <v>4195</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3877</v>
+        <v>4196</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3878</v>
+        <v>4197</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3879</v>
+        <v>4198</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>3880</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3839</v>
+        <v>4157</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -15234,7 +16323,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3840</v>
+        <v>4158</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -15256,7 +16345,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3841</v>
+        <v>4159</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -15278,7 +16367,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3842</v>
+        <v>4160</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -15300,7 +16389,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3843</v>
+        <v>4161</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -15324,7 +16413,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3844</v>
+        <v>4162</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -15348,7 +16437,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3845</v>
+        <v>4163</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -15370,7 +16459,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3846</v>
+        <v>4164</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -15392,7 +16481,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3847</v>
+        <v>4165</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -15416,7 +16505,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3848</v>
+        <v>4166</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -15440,7 +16529,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3849</v>
+        <v>4167</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -15462,7 +16551,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3850</v>
+        <v>4168</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -15484,7 +16573,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3851</v>
+        <v>4169</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -15506,7 +16595,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3852</v>
+        <v>4170</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -15530,7 +16619,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3853</v>
+        <v>4171</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -15552,7 +16641,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3854</v>
+        <v>4172</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -15574,7 +16663,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3855</v>
+        <v>4173</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -15596,7 +16685,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3856</v>
+        <v>4174</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -15620,7 +16709,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3857</v>
+        <v>4175</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -15644,7 +16733,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3858</v>
+        <v>4176</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -15666,7 +16755,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3859</v>
+        <v>4177</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -15688,7 +16777,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3860</v>
+        <v>4178</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -15712,7 +16801,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3861</v>
+        <v>4179</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -15736,7 +16825,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3862</v>
+        <v>4180</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -15758,7 +16847,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3863</v>
+        <v>4181</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -15780,7 +16869,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3864</v>
+        <v>4182</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -15802,7 +16891,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3865</v>
+        <v>4183</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -15811,22 +16900,22 @@
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0">
-        <v>3.8700000000000001</v>
+        <v>4.2720000000000002</v>
       </c>
       <c r="I29" s="0">
-        <v>3.0680000000000001</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="J29" s="0">
-        <v>3.4260000000000002</v>
+        <v>3.6920000000000002</v>
       </c>
       <c r="K29" s="0">
-        <v>3.6949999999999998</v>
+        <v>3.577</v>
       </c>
       <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3866</v>
+        <v>4184</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -15836,19 +16925,19 @@
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0">
-        <v>3.444</v>
+        <v>3.5550000000000002</v>
       </c>
       <c r="J30" s="0">
-        <v>3.2400000000000002</v>
+        <v>3.1949999999999998</v>
       </c>
       <c r="K30" s="0">
-        <v>3.1899999999999999</v>
+        <v>3.343</v>
       </c>
       <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3867</v>
+        <v>4185</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -15858,19 +16947,19 @@
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0">
-        <v>3.339</v>
+        <v>3.4940000000000002</v>
       </c>
       <c r="J31" s="0">
         <v>3.1659999999999999</v>
       </c>
       <c r="K31" s="0">
-        <v>3.028</v>
+        <v>3.1400000000000001</v>
       </c>
       <c r="L31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3868</v>
+        <v>4186</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -15892,7 +16981,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3869</v>
+        <v>4187</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -15914,13 +17003,37 @@
         <v>3.1520000000000001</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0">
+        <v>3.3730000000000002</v>
+      </c>
+      <c r="J34" s="0">
+        <v>3.0499999999999998</v>
+      </c>
+      <c r="K34" s="0">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="L34" s="0">
+        <v>3.069</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -15938,50 +17051,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3927</v>
+        <v>4247</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3928</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3926</v>
+        <v>4246</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3916</v>
+        <v>4236</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3917</v>
+        <v>4237</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3918</v>
+        <v>4238</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3919</v>
+        <v>4239</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3920</v>
+        <v>4240</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3921</v>
+        <v>4241</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3922</v>
+        <v>4242</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3923</v>
+        <v>4243</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3924</v>
+        <v>4244</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3925</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3885</v>
+        <v>4204</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -16002,7 +17115,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3886</v>
+        <v>4205</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -16023,7 +17136,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3887</v>
+        <v>4206</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -16044,7 +17157,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3888</v>
+        <v>4207</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -16065,7 +17178,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3889</v>
+        <v>4208</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -16086,7 +17199,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3890</v>
+        <v>4209</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -16107,7 +17220,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3891</v>
+        <v>4210</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -16128,7 +17241,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3892</v>
+        <v>4211</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -16149,7 +17262,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3893</v>
+        <v>4212</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -16172,7 +17285,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3894</v>
+        <v>4213</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -16193,7 +17306,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3895</v>
+        <v>4214</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -16214,7 +17327,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3896</v>
+        <v>4215</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -16235,7 +17348,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3897</v>
+        <v>4216</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -16256,7 +17369,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3898</v>
+        <v>4217</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -16277,7 +17390,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3899</v>
+        <v>4218</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -16298,7 +17411,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3900</v>
+        <v>4219</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -16319,7 +17432,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3901</v>
+        <v>4220</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -16340,7 +17453,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3902</v>
+        <v>4221</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -16361,7 +17474,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3903</v>
+        <v>4222</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -16382,7 +17495,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3904</v>
+        <v>4223</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -16403,7 +17516,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3905</v>
+        <v>4224</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -16424,7 +17537,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3906</v>
+        <v>4225</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -16447,7 +17560,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3907</v>
+        <v>4226</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -16468,7 +17581,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3908</v>
+        <v>4227</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -16489,7 +17602,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3909</v>
+        <v>4228</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -16510,7 +17623,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3910</v>
+        <v>4229</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -16531,7 +17644,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3911</v>
+        <v>4230</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -16540,19 +17653,19 @@
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0">
-        <v>-0.017999999999999999</v>
+        <v>-0.02</v>
       </c>
       <c r="I29" s="0">
-        <v>-0.012</v>
+        <v>-0.021000000000000001</v>
       </c>
       <c r="J29" s="0">
-        <v>0.02</v>
+        <v>0.029000000000000001</v>
       </c>
       <c r="K29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3912</v>
+        <v>4231</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -16564,16 +17677,16 @@
         <v>-0.017000000000000001</v>
       </c>
       <c r="I30" s="0">
-        <v>-0.0040000000000000001</v>
+        <v>-0.016</v>
       </c>
       <c r="J30" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="K30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3913</v>
+        <v>4232</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -16582,19 +17695,19 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0">
-        <v>-0.017000000000000001</v>
+        <v>-0.016</v>
       </c>
       <c r="I31" s="0">
-        <v>0</v>
+        <v>-0.012999999999999999</v>
       </c>
       <c r="J31" s="0">
-        <v>0.035999999999999997</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="K31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3914</v>
+        <v>4233</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -16615,7 +17728,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3915</v>
+        <v>4234</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -16634,13 +17747,34 @@
         <v>0.035999999999999997</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0">
+        <v>-0.02</v>
+      </c>
+      <c r="J34" s="0">
+        <v>-0.025000000000000001</v>
+      </c>
+      <c r="K34" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -16658,50 +17792,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3972</v>
+        <v>4293</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3973</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3971</v>
+        <v>4292</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3961</v>
+        <v>4282</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3962</v>
+        <v>4283</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3963</v>
+        <v>4284</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3964</v>
+        <v>4285</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3965</v>
+        <v>4286</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3966</v>
+        <v>4287</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3967</v>
+        <v>4288</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3968</v>
+        <v>4289</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3969</v>
+        <v>4290</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3970</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3930</v>
+        <v>4250</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -16722,7 +17856,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3931</v>
+        <v>4251</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -16743,7 +17877,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3932</v>
+        <v>4252</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -16764,7 +17898,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3933</v>
+        <v>4253</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -16785,7 +17919,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3934</v>
+        <v>4254</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -16806,7 +17940,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3935</v>
+        <v>4255</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -16827,7 +17961,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3936</v>
+        <v>4256</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -16848,7 +17982,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3937</v>
+        <v>4257</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -16869,7 +18003,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3938</v>
+        <v>4258</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -16892,7 +18026,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3939</v>
+        <v>4259</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -16913,7 +18047,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3940</v>
+        <v>4260</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -16934,7 +18068,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3941</v>
+        <v>4261</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -16955,7 +18089,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3942</v>
+        <v>4262</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -16976,7 +18110,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3943</v>
+        <v>4263</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -16997,7 +18131,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3944</v>
+        <v>4264</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -17018,7 +18152,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3945</v>
+        <v>4265</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -17039,7 +18173,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3946</v>
+        <v>4266</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -17060,7 +18194,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3947</v>
+        <v>4267</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -17081,7 +18215,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3948</v>
+        <v>4268</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -17102,7 +18236,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3949</v>
+        <v>4269</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -17123,7 +18257,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3950</v>
+        <v>4270</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -17144,7 +18278,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3951</v>
+        <v>4271</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -17167,7 +18301,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3952</v>
+        <v>4272</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -17188,7 +18322,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3953</v>
+        <v>4273</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -17209,7 +18343,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3954</v>
+        <v>4274</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -17230,7 +18364,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3955</v>
+        <v>4275</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -17251,7 +18385,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3956</v>
+        <v>4276</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -17260,19 +18394,19 @@
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0">
-        <v>0.13200000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="I29" s="0">
-        <v>0.106</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="J29" s="0">
-        <v>0.058000000000000003</v>
+        <v>0.055</v>
       </c>
       <c r="K29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3957</v>
+        <v>4277</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -17281,19 +18415,19 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="H30" s="0">
-        <v>0.13</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="I30" s="0">
-        <v>0.105</v>
+        <v>0.122</v>
       </c>
       <c r="J30" s="0">
-        <v>0.042999999999999997</v>
+        <v>0.050999999999999997</v>
       </c>
       <c r="K30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3958</v>
+        <v>4278</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -17302,19 +18436,19 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0">
-        <v>0.122</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="I31" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.090999999999999998</v>
       </c>
       <c r="J31" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.039</v>
       </c>
       <c r="K31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3959</v>
+        <v>4279</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -17335,7 +18469,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3960</v>
+        <v>4280</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -17354,13 +18488,34 @@
         <v>0.082000000000000003</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0">
+        <v>0.13</v>
+      </c>
+      <c r="J34" s="0">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K34" s="0">
+        <v>0.066000000000000003</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -17379,53 +18534,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4018</v>
+        <v>4340</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4019</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4017</v>
+        <v>4339</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4006</v>
+        <v>4328</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4007</v>
+        <v>4329</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4008</v>
+        <v>4330</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4009</v>
+        <v>4331</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4010</v>
+        <v>4332</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4011</v>
+        <v>4333</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4012</v>
+        <v>4334</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4013</v>
+        <v>4335</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4014</v>
+        <v>4336</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4015</v>
+        <v>4337</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4016</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3975</v>
+        <v>4296</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -17449,7 +18604,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3976</v>
+        <v>4297</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -17473,7 +18628,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3977</v>
+        <v>4298</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -17495,7 +18650,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3978</v>
+        <v>4299</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -17517,7 +18672,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3979</v>
+        <v>4300</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -17541,7 +18696,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3980</v>
+        <v>4301</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -17565,7 +18720,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3981</v>
+        <v>4302</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -17587,7 +18742,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3982</v>
+        <v>4303</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -17609,7 +18764,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3983</v>
+        <v>4304</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -17633,7 +18788,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3984</v>
+        <v>4305</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -17657,7 +18812,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3985</v>
+        <v>4306</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -17679,7 +18834,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3986</v>
+        <v>4307</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -17701,7 +18856,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3987</v>
+        <v>4308</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -17723,7 +18878,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3988</v>
+        <v>4309</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -17747,7 +18902,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3989</v>
+        <v>4310</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -17771,7 +18926,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3990</v>
+        <v>4311</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -17793,7 +18948,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3991</v>
+        <v>4312</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -17815,7 +18970,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3992</v>
+        <v>4313</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -17839,7 +18994,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3993</v>
+        <v>4314</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -17863,7 +19018,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3994</v>
+        <v>4315</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -17885,7 +19040,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3995</v>
+        <v>4316</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -17907,7 +19062,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3996</v>
+        <v>4317</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -17931,7 +19086,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3997</v>
+        <v>4318</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -17955,7 +19110,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3998</v>
+        <v>4319</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -17977,7 +19132,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3999</v>
+        <v>4320</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -17999,7 +19154,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4000</v>
+        <v>4321</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -18021,7 +19176,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4001</v>
+        <v>4322</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -18030,22 +19185,22 @@
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0">
-        <v>4.617</v>
+        <v>6.4000000000000004</v>
       </c>
       <c r="I29" s="0">
-        <v>5.6619999999999999</v>
+        <v>7.133</v>
       </c>
       <c r="J29" s="0">
-        <v>2.4350000000000001</v>
+        <v>3.1459999999999999</v>
       </c>
       <c r="K29" s="0">
-        <v>2.3290000000000002</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4002</v>
+        <v>4323</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -18054,22 +19209,22 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="H30" s="0">
-        <v>4.6580000000000004</v>
+        <v>3.0870000000000002</v>
       </c>
       <c r="I30" s="0">
-        <v>4.7709999999999999</v>
+        <v>4.4130000000000003</v>
       </c>
       <c r="J30" s="0">
-        <v>2.2189999999999999</v>
+        <v>2.4889999999999999</v>
       </c>
       <c r="K30" s="0">
-        <v>2.2890000000000001</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4003</v>
+        <v>4324</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -18079,10 +19234,10 @@
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0">
-        <v>4.0979999999999999</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J31" s="0">
-        <v>1.393</v>
+        <v>1.835</v>
       </c>
       <c r="K31" s="0">
         <v>2.3140000000000001</v>
@@ -18091,7 +19246,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4004</v>
+        <v>4325</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -18113,7 +19268,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4005</v>
+        <v>4326</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -18135,6 +19290,30 @@
         <v>2.3119999999999998</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0">
+        <v>-5.7220000000000004</v>
+      </c>
+      <c r="J34" s="0">
+        <v>-0.65600000000000003</v>
+      </c>
+      <c r="K34" s="0">
+        <v>3.266</v>
+      </c>
+      <c r="L34" s="0">
+        <v>2.3119999999999998</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="4342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="4671">
   <si>
     <t>Row</t>
   </si>
@@ -13004,6 +13004,993 @@
   </si>
   <si>
     <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -13066,7 +14053,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="449">
+  <borders count="477">
     <border>
       <left/>
       <right/>
@@ -13522,11 +14509,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="449">
+  <cellXfs count="477">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -13976,6 +14991,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="476" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13985,7 +15028,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -13999,38 +15042,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4060</v>
+        <v>4383</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4061</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4059</v>
+        <v>4382</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4053</v>
+        <v>4376</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4054</v>
+        <v>4377</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4055</v>
+        <v>4378</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4056</v>
+        <v>4379</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4057</v>
+        <v>4380</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4058</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4021</v>
+        <v>4343</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -14049,7 +15092,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4022</v>
+        <v>4344</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -14068,7 +15111,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4023</v>
+        <v>4345</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -14087,7 +15130,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4024</v>
+        <v>4346</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -14106,7 +15149,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4025</v>
+        <v>4347</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -14125,7 +15168,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4026</v>
+        <v>4348</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -14144,7 +15187,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4027</v>
+        <v>4349</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -14163,7 +15206,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4028</v>
+        <v>4350</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -14182,7 +15225,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4029</v>
+        <v>4351</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -14201,7 +15244,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4030</v>
+        <v>4352</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -14220,7 +15263,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4031</v>
+        <v>4353</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -14239,7 +15282,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4032</v>
+        <v>4354</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -14256,7 +15299,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4033</v>
+        <v>4355</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -14273,7 +15316,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4034</v>
+        <v>4356</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -14292,7 +15335,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4035</v>
+        <v>4357</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -14311,7 +15354,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4036</v>
+        <v>4358</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -14330,7 +15373,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4037</v>
+        <v>4359</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -14349,7 +15392,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4038</v>
+        <v>4360</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -14368,7 +15411,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4039</v>
+        <v>4361</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -14387,7 +15430,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4040</v>
+        <v>4362</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -14406,7 +15449,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4041</v>
+        <v>4363</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -14425,7 +15468,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4042</v>
+        <v>4364</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -14444,7 +15487,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4043</v>
+        <v>4365</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -14463,7 +15506,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4044</v>
+        <v>4366</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -14482,7 +15525,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4045</v>
+        <v>4367</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -14501,7 +15544,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4046</v>
+        <v>4368</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -14518,7 +15561,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4047</v>
+        <v>4369</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -14537,7 +15580,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4048</v>
+        <v>4370</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -14556,7 +15599,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4049</v>
+        <v>4371</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -14575,7 +15618,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4050</v>
+        <v>4372</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -14594,7 +15637,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4051</v>
+        <v>4373</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -14613,7 +15656,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4052</v>
+        <v>4374</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -14628,6 +15671,25 @@
       </c>
       <c r="G34" s="0">
         <v>2.6000000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0">
+        <v>2.137</v>
+      </c>
+      <c r="E35" s="0">
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="F35" s="0">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="G35" s="0">
+        <v>2.5990000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -14636,7 +15698,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -14655,53 +15717,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4107</v>
+        <v>4431</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4108</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4106</v>
+        <v>4430</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4095</v>
+        <v>4419</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4096</v>
+        <v>4420</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4097</v>
+        <v>4421</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4098</v>
+        <v>4422</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4099</v>
+        <v>4423</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4100</v>
+        <v>4424</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4101</v>
+        <v>4425</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4102</v>
+        <v>4426</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4103</v>
+        <v>4427</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4104</v>
+        <v>4428</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4105</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4063</v>
+        <v>4386</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -14725,7 +15787,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4064</v>
+        <v>4387</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -14747,7 +15809,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4065</v>
+        <v>4388</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -14769,7 +15831,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4066</v>
+        <v>4389</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -14791,7 +15853,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4067</v>
+        <v>4390</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -14815,7 +15877,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4068</v>
+        <v>4391</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -14839,7 +15901,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4069</v>
+        <v>4392</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -14861,7 +15923,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4070</v>
+        <v>4393</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -14883,7 +15945,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4071</v>
+        <v>4394</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -14907,7 +15969,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4072</v>
+        <v>4395</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -14931,7 +15993,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4073</v>
+        <v>4396</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -14953,7 +16015,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4074</v>
+        <v>4397</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -14975,7 +16037,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4075</v>
+        <v>4398</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -14997,7 +16059,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4076</v>
+        <v>4399</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -15021,7 +16083,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4077</v>
+        <v>4400</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -15043,7 +16105,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4078</v>
+        <v>4401</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -15065,7 +16127,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4079</v>
+        <v>4402</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -15087,7 +16149,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4080</v>
+        <v>4403</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -15111,7 +16173,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4081</v>
+        <v>4404</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -15135,7 +16197,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4082</v>
+        <v>4405</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -15157,7 +16219,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4083</v>
+        <v>4406</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -15179,7 +16241,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4084</v>
+        <v>4407</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -15203,7 +16265,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4085</v>
+        <v>4408</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -15227,7 +16289,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4086</v>
+        <v>4409</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -15249,7 +16311,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4087</v>
+        <v>4410</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -15271,7 +16333,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4088</v>
+        <v>4411</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -15293,7 +16355,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4089</v>
+        <v>4412</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -15317,7 +16379,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4090</v>
+        <v>4413</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -15339,7 +16401,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4091</v>
+        <v>4414</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -15361,7 +16423,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4092</v>
+        <v>4415</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -15383,7 +16445,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4093</v>
+        <v>4416</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -15407,7 +16469,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4094</v>
+        <v>4417</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -15429,13 +16491,35 @@
         <v>2.6629999999999998</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0">
+        <v>3.964</v>
+      </c>
+      <c r="K35" s="0">
+        <v>3.4910000000000001</v>
+      </c>
+      <c r="L35" s="0">
+        <v>2.637</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -15454,53 +16538,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4154</v>
+        <v>4479</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4155</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4153</v>
+        <v>4478</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4142</v>
+        <v>4467</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4143</v>
+        <v>4468</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4144</v>
+        <v>4469</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4145</v>
+        <v>4470</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4146</v>
+        <v>4471</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4147</v>
+        <v>4472</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4148</v>
+        <v>4473</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4149</v>
+        <v>4474</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4150</v>
+        <v>4475</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4151</v>
+        <v>4476</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4152</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4110</v>
+        <v>4434</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -15524,7 +16608,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4111</v>
+        <v>4435</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -15546,7 +16630,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4112</v>
+        <v>4436</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -15568,7 +16652,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4113</v>
+        <v>4437</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -15590,7 +16674,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4114</v>
+        <v>4438</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -15614,7 +16698,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4115</v>
+        <v>4439</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -15638,7 +16722,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4116</v>
+        <v>4440</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -15660,7 +16744,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4117</v>
+        <v>4441</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -15682,7 +16766,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4118</v>
+        <v>4442</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -15706,7 +16790,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4119</v>
+        <v>4443</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -15730,7 +16814,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4120</v>
+        <v>4444</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -15752,7 +16836,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4121</v>
+        <v>4445</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -15774,7 +16858,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4122</v>
+        <v>4446</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -15796,7 +16880,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4123</v>
+        <v>4447</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -15820,7 +16904,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4124</v>
+        <v>4448</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -15842,7 +16926,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4125</v>
+        <v>4449</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -15864,7 +16948,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4126</v>
+        <v>4450</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -15886,7 +16970,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4127</v>
+        <v>4451</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -15910,7 +16994,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4128</v>
+        <v>4452</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -15934,7 +17018,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4129</v>
+        <v>4453</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -15956,7 +17040,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4130</v>
+        <v>4454</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -15978,7 +17062,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4131</v>
+        <v>4455</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -16002,7 +17086,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4132</v>
+        <v>4456</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -16026,7 +17110,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4133</v>
+        <v>4457</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -16048,7 +17132,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4134</v>
+        <v>4458</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -16070,7 +17154,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4135</v>
+        <v>4459</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -16092,7 +17176,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4136</v>
+        <v>4460</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -16116,7 +17200,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4137</v>
+        <v>4461</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -16138,7 +17222,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4138</v>
+        <v>4462</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -16160,7 +17244,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4139</v>
+        <v>4463</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -16182,7 +17266,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4140</v>
+        <v>4464</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -16206,7 +17290,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4141</v>
+        <v>4465</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -16228,13 +17312,35 @@
         <v>3.367</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0">
+        <v>3.4209999999999998</v>
+      </c>
+      <c r="K35" s="0">
+        <v>3.5899999999999999</v>
+      </c>
+      <c r="L35" s="0">
+        <v>3.5720000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -16253,53 +17359,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4201</v>
+        <v>4527</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4202</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4200</v>
+        <v>4526</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4189</v>
+        <v>4515</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4190</v>
+        <v>4516</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4191</v>
+        <v>4517</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4192</v>
+        <v>4518</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4193</v>
+        <v>4519</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4194</v>
+        <v>4520</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4195</v>
+        <v>4521</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4196</v>
+        <v>4522</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4197</v>
+        <v>4523</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4198</v>
+        <v>4524</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4199</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4157</v>
+        <v>4482</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -16323,7 +17429,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4158</v>
+        <v>4483</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -16345,7 +17451,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4159</v>
+        <v>4484</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -16367,7 +17473,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4160</v>
+        <v>4485</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -16389,7 +17495,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4161</v>
+        <v>4486</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -16413,7 +17519,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4162</v>
+        <v>4487</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -16437,7 +17543,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4163</v>
+        <v>4488</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -16459,7 +17565,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4164</v>
+        <v>4489</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -16481,7 +17587,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4165</v>
+        <v>4490</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -16505,7 +17611,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4166</v>
+        <v>4491</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -16529,7 +17635,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4167</v>
+        <v>4492</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -16551,7 +17657,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4168</v>
+        <v>4493</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -16573,7 +17679,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4169</v>
+        <v>4494</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -16595,7 +17701,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4170</v>
+        <v>4495</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -16619,7 +17725,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4171</v>
+        <v>4496</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -16641,7 +17747,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4172</v>
+        <v>4497</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -16663,7 +17769,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4173</v>
+        <v>4498</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -16685,7 +17791,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4174</v>
+        <v>4499</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -16709,7 +17815,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4175</v>
+        <v>4500</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -16733,7 +17839,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4176</v>
+        <v>4501</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -16755,7 +17861,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4177</v>
+        <v>4502</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -16777,7 +17883,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4178</v>
+        <v>4503</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -16801,7 +17907,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4179</v>
+        <v>4504</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -16825,7 +17931,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4180</v>
+        <v>4505</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -16847,7 +17953,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4181</v>
+        <v>4506</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -16869,7 +17975,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4182</v>
+        <v>4507</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -16891,7 +17997,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4183</v>
+        <v>4508</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -16915,7 +18021,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4184</v>
+        <v>4509</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -16937,7 +18043,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4185</v>
+        <v>4510</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -16959,7 +18065,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4186</v>
+        <v>4511</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -16981,7 +18087,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4187</v>
+        <v>4512</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -17005,7 +18111,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4188</v>
+        <v>4513</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -17027,13 +18133,35 @@
         <v>3.069</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="K35" s="0">
+        <v>3.2080000000000002</v>
+      </c>
+      <c r="L35" s="0">
+        <v>3.569</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -17051,50 +18179,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4247</v>
+        <v>4574</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4248</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4246</v>
+        <v>4573</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4236</v>
+        <v>4563</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4237</v>
+        <v>4564</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4238</v>
+        <v>4565</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4239</v>
+        <v>4566</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4240</v>
+        <v>4567</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4241</v>
+        <v>4568</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4242</v>
+        <v>4569</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4243</v>
+        <v>4570</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4244</v>
+        <v>4571</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4245</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4204</v>
+        <v>4530</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -17115,7 +18243,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4205</v>
+        <v>4531</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -17136,7 +18264,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4206</v>
+        <v>4532</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -17157,7 +18285,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4207</v>
+        <v>4533</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -17178,7 +18306,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4208</v>
+        <v>4534</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -17199,7 +18327,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4209</v>
+        <v>4535</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -17220,7 +18348,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4210</v>
+        <v>4536</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -17241,7 +18369,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4211</v>
+        <v>4537</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -17262,7 +18390,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4212</v>
+        <v>4538</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -17285,7 +18413,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4213</v>
+        <v>4539</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -17306,7 +18434,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4214</v>
+        <v>4540</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -17327,7 +18455,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4215</v>
+        <v>4541</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -17348,7 +18476,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4216</v>
+        <v>4542</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -17369,7 +18497,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4217</v>
+        <v>4543</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -17390,7 +18518,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4218</v>
+        <v>4544</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -17411,7 +18539,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4219</v>
+        <v>4545</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -17432,7 +18560,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4220</v>
+        <v>4546</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -17453,7 +18581,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4221</v>
+        <v>4547</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -17474,7 +18602,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4222</v>
+        <v>4548</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -17495,7 +18623,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4223</v>
+        <v>4549</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -17516,7 +18644,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4224</v>
+        <v>4550</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -17537,7 +18665,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4225</v>
+        <v>4551</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -17560,7 +18688,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4226</v>
+        <v>4552</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -17581,7 +18709,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4227</v>
+        <v>4553</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -17602,7 +18730,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4228</v>
+        <v>4554</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -17623,7 +18751,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4229</v>
+        <v>4555</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -17644,7 +18772,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4230</v>
+        <v>4556</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -17665,7 +18793,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4231</v>
+        <v>4557</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -17686,7 +18814,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4232</v>
+        <v>4558</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -17707,7 +18835,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4233</v>
+        <v>4559</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -17728,7 +18856,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4234</v>
+        <v>4560</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -17749,7 +18877,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4235</v>
+        <v>4561</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -17768,13 +18896,34 @@
         <v>0.050000000000000003</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0">
+        <v>-0.021999999999999999</v>
+      </c>
+      <c r="J35" s="0">
+        <v>-0.029999999999999999</v>
+      </c>
+      <c r="K35" s="0">
+        <v>0.063</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -17792,50 +18941,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4293</v>
+        <v>4621</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4294</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4292</v>
+        <v>4620</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4282</v>
+        <v>4610</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4283</v>
+        <v>4611</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4284</v>
+        <v>4612</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4285</v>
+        <v>4613</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4286</v>
+        <v>4614</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4287</v>
+        <v>4615</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4288</v>
+        <v>4616</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4289</v>
+        <v>4617</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4290</v>
+        <v>4618</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4291</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4250</v>
+        <v>4577</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -17856,7 +19005,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4251</v>
+        <v>4578</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -17877,7 +19026,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4252</v>
+        <v>4579</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -17898,7 +19047,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4253</v>
+        <v>4580</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -17919,7 +19068,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4254</v>
+        <v>4581</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -17940,7 +19089,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4255</v>
+        <v>4582</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -17961,7 +19110,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4256</v>
+        <v>4583</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -17982,7 +19131,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4257</v>
+        <v>4584</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -18003,7 +19152,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4258</v>
+        <v>4585</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -18026,7 +19175,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4259</v>
+        <v>4586</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -18047,7 +19196,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4260</v>
+        <v>4587</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -18068,7 +19217,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4261</v>
+        <v>4588</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -18089,7 +19238,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4262</v>
+        <v>4589</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -18110,7 +19259,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4263</v>
+        <v>4590</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -18131,7 +19280,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4264</v>
+        <v>4591</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -18152,7 +19301,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4265</v>
+        <v>4592</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -18173,7 +19322,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4266</v>
+        <v>4593</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -18194,7 +19343,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4267</v>
+        <v>4594</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -18215,7 +19364,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4268</v>
+        <v>4595</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -18236,7 +19385,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4269</v>
+        <v>4596</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -18257,7 +19406,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4270</v>
+        <v>4597</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -18278,7 +19427,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4271</v>
+        <v>4598</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -18301,7 +19450,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4272</v>
+        <v>4599</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -18322,7 +19471,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4273</v>
+        <v>4600</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -18343,7 +19492,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4274</v>
+        <v>4601</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -18364,7 +19513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4275</v>
+        <v>4602</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -18385,7 +19534,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4276</v>
+        <v>4603</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -18406,7 +19555,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4277</v>
+        <v>4604</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -18427,7 +19576,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4278</v>
+        <v>4605</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -18448,7 +19597,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4279</v>
+        <v>4606</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -18469,7 +19618,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4280</v>
+        <v>4607</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -18490,7 +19639,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4281</v>
+        <v>4608</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -18509,13 +19658,34 @@
         <v>0.066000000000000003</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>4609</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0">
+        <v>0.153</v>
+      </c>
+      <c r="J35" s="0">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K35" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -18534,53 +19704,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4340</v>
+        <v>4669</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4341</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4339</v>
+        <v>4668</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4328</v>
+        <v>4657</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4329</v>
+        <v>4658</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4330</v>
+        <v>4659</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4331</v>
+        <v>4660</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4332</v>
+        <v>4661</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4333</v>
+        <v>4662</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4334</v>
+        <v>4663</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4335</v>
+        <v>4664</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4336</v>
+        <v>4665</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4337</v>
+        <v>4666</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4338</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4296</v>
+        <v>4624</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -18604,7 +19774,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4297</v>
+        <v>4625</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -18628,7 +19798,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4298</v>
+        <v>4626</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -18650,7 +19820,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4299</v>
+        <v>4627</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -18672,7 +19842,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4300</v>
+        <v>4628</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -18696,7 +19866,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4301</v>
+        <v>4629</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -18720,7 +19890,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4302</v>
+        <v>4630</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -18742,7 +19912,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4303</v>
+        <v>4631</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -18764,7 +19934,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4304</v>
+        <v>4632</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -18788,7 +19958,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4305</v>
+        <v>4633</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -18812,7 +19982,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4306</v>
+        <v>4634</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -18834,7 +20004,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4307</v>
+        <v>4635</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -18856,7 +20026,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4308</v>
+        <v>4636</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -18878,7 +20048,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4309</v>
+        <v>4637</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -18902,7 +20072,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4310</v>
+        <v>4638</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -18926,7 +20096,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4311</v>
+        <v>4639</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -18948,7 +20118,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4312</v>
+        <v>4640</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -18970,7 +20140,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4313</v>
+        <v>4641</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -18994,7 +20164,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4314</v>
+        <v>4642</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -19018,7 +20188,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4315</v>
+        <v>4643</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -19040,7 +20210,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4316</v>
+        <v>4644</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -19062,7 +20232,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4317</v>
+        <v>4645</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -19086,7 +20256,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4318</v>
+        <v>4646</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -19110,7 +20280,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4319</v>
+        <v>4647</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -19132,7 +20302,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4320</v>
+        <v>4648</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -19154,7 +20324,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4321</v>
+        <v>4649</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -19176,7 +20346,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4322</v>
+        <v>4650</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -19200,7 +20370,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4323</v>
+        <v>4651</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -19224,7 +20394,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4324</v>
+        <v>4652</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -19246,7 +20416,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4325</v>
+        <v>4653</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -19268,7 +20438,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4326</v>
+        <v>4654</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -19292,7 +20462,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4327</v>
+        <v>4655</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -19314,6 +20484,28 @@
         <v>2.3119999999999998</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>4656</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0">
+        <v>4.5289999999999999</v>
+      </c>
+      <c r="K35" s="0">
+        <v>3.6739999999999999</v>
+      </c>
+      <c r="L35" s="0">
+        <v>2.3119999999999998</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="4671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="5000">
   <si>
     <t>Row</t>
   </si>
@@ -13004,6 +13004,993 @@
   </si>
   <si>
     <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -14053,7 +15040,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="477">
+  <borders count="505">
     <border>
       <left/>
       <right/>
@@ -14537,11 +15524,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="477">
+  <cellXfs count="505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -15019,6 +16034,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="474" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="475" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="504" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15042,38 +16085,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4383</v>
+        <v>4712</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4384</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4382</v>
+        <v>4711</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4376</v>
+        <v>4705</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4377</v>
+        <v>4706</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4378</v>
+        <v>4707</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4379</v>
+        <v>4708</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4380</v>
+        <v>4709</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4381</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4343</v>
+        <v>4672</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -15092,7 +16135,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4344</v>
+        <v>4673</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -15111,7 +16154,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4345</v>
+        <v>4674</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -15130,7 +16173,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4346</v>
+        <v>4675</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -15149,7 +16192,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4347</v>
+        <v>4676</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -15168,7 +16211,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4348</v>
+        <v>4677</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -15187,7 +16230,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4349</v>
+        <v>4678</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -15206,7 +16249,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4350</v>
+        <v>4679</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -15225,7 +16268,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4351</v>
+        <v>4680</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -15244,7 +16287,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4352</v>
+        <v>4681</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -15263,7 +16306,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4353</v>
+        <v>4682</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -15282,7 +16325,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4354</v>
+        <v>4683</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -15299,7 +16342,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4355</v>
+        <v>4684</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -15316,7 +16359,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4356</v>
+        <v>4685</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -15335,7 +16378,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4357</v>
+        <v>4686</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -15354,7 +16397,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4358</v>
+        <v>4687</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -15373,7 +16416,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4359</v>
+        <v>4688</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -15392,7 +16435,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4360</v>
+        <v>4689</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -15411,7 +16454,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4361</v>
+        <v>4690</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -15430,7 +16473,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4362</v>
+        <v>4691</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -15449,7 +16492,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4363</v>
+        <v>4692</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -15468,7 +16511,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4364</v>
+        <v>4693</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -15487,7 +16530,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4365</v>
+        <v>4694</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -15506,7 +16549,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4366</v>
+        <v>4695</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -15525,7 +16568,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4367</v>
+        <v>4696</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -15544,7 +16587,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4368</v>
+        <v>4697</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -15561,7 +16604,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4369</v>
+        <v>4698</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -15580,7 +16623,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4370</v>
+        <v>4699</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -15599,7 +16642,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4371</v>
+        <v>4700</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -15618,7 +16661,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4372</v>
+        <v>4701</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -15637,7 +16680,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4373</v>
+        <v>4702</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -15656,7 +16699,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4374</v>
+        <v>4703</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -15675,7 +16718,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4375</v>
+        <v>4704</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -15717,53 +16760,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4431</v>
+        <v>4760</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4432</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4430</v>
+        <v>4759</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4419</v>
+        <v>4748</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4420</v>
+        <v>4749</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4421</v>
+        <v>4750</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4422</v>
+        <v>4751</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4423</v>
+        <v>4752</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4424</v>
+        <v>4753</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4425</v>
+        <v>4754</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4426</v>
+        <v>4755</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4427</v>
+        <v>4756</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4428</v>
+        <v>4757</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4429</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4386</v>
+        <v>4715</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -15787,7 +16830,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4387</v>
+        <v>4716</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -15809,7 +16852,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4388</v>
+        <v>4717</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -15831,7 +16874,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4389</v>
+        <v>4718</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -15853,7 +16896,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4390</v>
+        <v>4719</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -15877,7 +16920,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4391</v>
+        <v>4720</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -15901,7 +16944,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4392</v>
+        <v>4721</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -15923,7 +16966,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4393</v>
+        <v>4722</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -15945,7 +16988,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4394</v>
+        <v>4723</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -15969,7 +17012,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4395</v>
+        <v>4724</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -15993,7 +17036,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4396</v>
+        <v>4725</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -16015,7 +17058,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4397</v>
+        <v>4726</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -16037,7 +17080,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4398</v>
+        <v>4727</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -16059,7 +17102,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4399</v>
+        <v>4728</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -16083,7 +17126,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4400</v>
+        <v>4729</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -16105,7 +17148,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4401</v>
+        <v>4730</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -16127,7 +17170,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4402</v>
+        <v>4731</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -16149,7 +17192,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4403</v>
+        <v>4732</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -16173,7 +17216,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4404</v>
+        <v>4733</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -16197,7 +17240,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4405</v>
+        <v>4734</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -16219,7 +17262,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4406</v>
+        <v>4735</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -16241,7 +17284,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4407</v>
+        <v>4736</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -16265,7 +17308,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4408</v>
+        <v>4737</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -16289,7 +17332,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4409</v>
+        <v>4738</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -16311,7 +17354,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4410</v>
+        <v>4739</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -16333,7 +17376,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4411</v>
+        <v>4740</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -16355,7 +17398,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4412</v>
+        <v>4741</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -16379,7 +17422,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4413</v>
+        <v>4742</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -16401,7 +17444,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4414</v>
+        <v>4743</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -16423,7 +17466,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4415</v>
+        <v>4744</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -16445,7 +17488,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4416</v>
+        <v>4745</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -16469,7 +17512,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4417</v>
+        <v>4746</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -16493,7 +17536,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4418</v>
+        <v>4747</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -16538,53 +17581,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4479</v>
+        <v>4808</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4480</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4478</v>
+        <v>4807</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4467</v>
+        <v>4796</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4468</v>
+        <v>4797</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4469</v>
+        <v>4798</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4470</v>
+        <v>4799</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4471</v>
+        <v>4800</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4472</v>
+        <v>4801</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4473</v>
+        <v>4802</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4474</v>
+        <v>4803</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4475</v>
+        <v>4804</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4476</v>
+        <v>4805</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4477</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4434</v>
+        <v>4763</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -16608,7 +17651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4435</v>
+        <v>4764</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -16630,7 +17673,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4436</v>
+        <v>4765</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -16652,7 +17695,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4437</v>
+        <v>4766</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -16674,7 +17717,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4438</v>
+        <v>4767</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -16698,7 +17741,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4439</v>
+        <v>4768</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -16722,7 +17765,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4440</v>
+        <v>4769</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -16744,7 +17787,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4441</v>
+        <v>4770</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -16766,7 +17809,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4442</v>
+        <v>4771</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -16790,7 +17833,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4443</v>
+        <v>4772</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -16814,7 +17857,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4444</v>
+        <v>4773</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -16836,7 +17879,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4445</v>
+        <v>4774</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -16858,7 +17901,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4446</v>
+        <v>4775</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -16880,7 +17923,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4447</v>
+        <v>4776</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -16904,7 +17947,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4448</v>
+        <v>4777</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -16926,7 +17969,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4449</v>
+        <v>4778</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -16948,7 +17991,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4450</v>
+        <v>4779</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -16970,7 +18013,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4451</v>
+        <v>4780</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -16994,7 +18037,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4452</v>
+        <v>4781</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -17018,7 +18061,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4453</v>
+        <v>4782</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -17040,7 +18083,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4454</v>
+        <v>4783</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -17062,7 +18105,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4455</v>
+        <v>4784</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -17086,7 +18129,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4456</v>
+        <v>4785</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -17110,7 +18153,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4457</v>
+        <v>4786</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -17132,7 +18175,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4458</v>
+        <v>4787</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -17154,7 +18197,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4459</v>
+        <v>4788</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -17176,7 +18219,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4460</v>
+        <v>4789</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -17200,7 +18243,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4461</v>
+        <v>4790</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -17222,7 +18265,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4462</v>
+        <v>4791</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -17244,7 +18287,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4463</v>
+        <v>4792</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -17266,7 +18309,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4464</v>
+        <v>4793</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -17290,7 +18333,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4465</v>
+        <v>4794</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -17314,7 +18357,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4466</v>
+        <v>4795</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -17359,53 +18402,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4527</v>
+        <v>4856</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4528</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4526</v>
+        <v>4855</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4515</v>
+        <v>4844</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4516</v>
+        <v>4845</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4517</v>
+        <v>4846</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4518</v>
+        <v>4847</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4519</v>
+        <v>4848</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4520</v>
+        <v>4849</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4521</v>
+        <v>4850</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4522</v>
+        <v>4851</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4523</v>
+        <v>4852</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4524</v>
+        <v>4853</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4525</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4482</v>
+        <v>4811</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -17429,7 +18472,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4483</v>
+        <v>4812</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -17451,7 +18494,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4484</v>
+        <v>4813</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -17473,7 +18516,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4485</v>
+        <v>4814</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -17495,7 +18538,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4486</v>
+        <v>4815</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -17519,7 +18562,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4487</v>
+        <v>4816</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -17543,7 +18586,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4488</v>
+        <v>4817</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -17565,7 +18608,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4489</v>
+        <v>4818</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -17587,7 +18630,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4490</v>
+        <v>4819</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -17611,7 +18654,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4491</v>
+        <v>4820</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -17635,7 +18678,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4492</v>
+        <v>4821</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -17657,7 +18700,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4493</v>
+        <v>4822</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -17679,7 +18722,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4494</v>
+        <v>4823</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -17701,7 +18744,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4495</v>
+        <v>4824</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -17725,7 +18768,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4496</v>
+        <v>4825</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -17747,7 +18790,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4497</v>
+        <v>4826</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -17769,7 +18812,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4498</v>
+        <v>4827</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -17791,7 +18834,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4499</v>
+        <v>4828</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -17815,7 +18858,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4500</v>
+        <v>4829</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -17839,7 +18882,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4501</v>
+        <v>4830</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -17861,7 +18904,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4502</v>
+        <v>4831</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -17883,7 +18926,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4503</v>
+        <v>4832</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -17907,7 +18950,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4504</v>
+        <v>4833</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -17931,7 +18974,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4505</v>
+        <v>4834</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -17953,7 +18996,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4506</v>
+        <v>4835</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -17975,7 +19018,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4507</v>
+        <v>4836</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -17997,7 +19040,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4508</v>
+        <v>4837</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -18021,7 +19064,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4509</v>
+        <v>4838</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -18043,7 +19086,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4510</v>
+        <v>4839</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -18065,7 +19108,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4511</v>
+        <v>4840</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -18087,7 +19130,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4512</v>
+        <v>4841</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -18111,7 +19154,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4513</v>
+        <v>4842</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -18135,7 +19178,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4514</v>
+        <v>4843</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -18179,50 +19222,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4574</v>
+        <v>4903</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4575</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4573</v>
+        <v>4902</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4563</v>
+        <v>4892</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4564</v>
+        <v>4893</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4565</v>
+        <v>4894</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4566</v>
+        <v>4895</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4567</v>
+        <v>4896</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4568</v>
+        <v>4897</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4569</v>
+        <v>4898</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4570</v>
+        <v>4899</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4571</v>
+        <v>4900</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4572</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4530</v>
+        <v>4859</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -18243,7 +19286,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4531</v>
+        <v>4860</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -18264,7 +19307,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4532</v>
+        <v>4861</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -18285,7 +19328,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4533</v>
+        <v>4862</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -18306,7 +19349,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4534</v>
+        <v>4863</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -18327,7 +19370,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4535</v>
+        <v>4864</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -18348,7 +19391,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4536</v>
+        <v>4865</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -18369,7 +19412,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4537</v>
+        <v>4866</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -18390,7 +19433,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4538</v>
+        <v>4867</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -18413,7 +19456,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4539</v>
+        <v>4868</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -18434,7 +19477,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4540</v>
+        <v>4869</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -18455,7 +19498,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4541</v>
+        <v>4870</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -18476,7 +19519,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4542</v>
+        <v>4871</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -18497,7 +19540,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4543</v>
+        <v>4872</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -18518,7 +19561,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4544</v>
+        <v>4873</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -18539,7 +19582,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4545</v>
+        <v>4874</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -18560,7 +19603,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4546</v>
+        <v>4875</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -18581,7 +19624,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4547</v>
+        <v>4876</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -18602,7 +19645,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4548</v>
+        <v>4877</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -18623,7 +19666,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4549</v>
+        <v>4878</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -18644,7 +19687,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4550</v>
+        <v>4879</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -18665,7 +19708,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4551</v>
+        <v>4880</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -18688,7 +19731,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4552</v>
+        <v>4881</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -18709,7 +19752,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4553</v>
+        <v>4882</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -18730,7 +19773,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4554</v>
+        <v>4883</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -18751,7 +19794,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4555</v>
+        <v>4884</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -18772,7 +19815,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4556</v>
+        <v>4885</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -18793,7 +19836,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4557</v>
+        <v>4886</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -18814,7 +19857,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4558</v>
+        <v>4887</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -18835,7 +19878,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4559</v>
+        <v>4888</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -18856,7 +19899,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4560</v>
+        <v>4889</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -18877,7 +19920,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4561</v>
+        <v>4890</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -18898,7 +19941,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4562</v>
+        <v>4891</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -18941,50 +19984,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4621</v>
+        <v>4950</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4622</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4620</v>
+        <v>4949</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4610</v>
+        <v>4939</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4611</v>
+        <v>4940</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4612</v>
+        <v>4941</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4613</v>
+        <v>4942</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4614</v>
+        <v>4943</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4615</v>
+        <v>4944</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4616</v>
+        <v>4945</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4617</v>
+        <v>4946</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4618</v>
+        <v>4947</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4619</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4577</v>
+        <v>4906</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -19005,7 +20048,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4578</v>
+        <v>4907</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -19026,7 +20069,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4579</v>
+        <v>4908</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -19047,7 +20090,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4580</v>
+        <v>4909</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -19068,7 +20111,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4581</v>
+        <v>4910</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -19089,7 +20132,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4582</v>
+        <v>4911</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -19110,7 +20153,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4583</v>
+        <v>4912</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -19131,7 +20174,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4584</v>
+        <v>4913</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -19152,7 +20195,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4585</v>
+        <v>4914</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -19175,7 +20218,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4586</v>
+        <v>4915</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -19196,7 +20239,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4587</v>
+        <v>4916</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -19217,7 +20260,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4588</v>
+        <v>4917</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -19238,7 +20281,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4589</v>
+        <v>4918</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -19259,7 +20302,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4590</v>
+        <v>4919</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -19280,7 +20323,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4591</v>
+        <v>4920</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -19301,7 +20344,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4592</v>
+        <v>4921</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -19322,7 +20365,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4593</v>
+        <v>4922</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -19343,7 +20386,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4594</v>
+        <v>4923</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -19364,7 +20407,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4595</v>
+        <v>4924</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -19385,7 +20428,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4596</v>
+        <v>4925</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -19406,7 +20449,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4597</v>
+        <v>4926</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -19427,7 +20470,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4598</v>
+        <v>4927</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -19450,7 +20493,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4599</v>
+        <v>4928</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -19471,7 +20514,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4600</v>
+        <v>4929</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -19492,7 +20535,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4601</v>
+        <v>4930</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -19513,7 +20556,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4602</v>
+        <v>4931</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -19534,7 +20577,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4603</v>
+        <v>4932</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -19555,7 +20598,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4604</v>
+        <v>4933</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -19576,7 +20619,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4605</v>
+        <v>4934</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -19597,7 +20640,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4606</v>
+        <v>4935</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -19618,7 +20661,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4607</v>
+        <v>4936</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -19639,7 +20682,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4608</v>
+        <v>4937</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -19660,7 +20703,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4609</v>
+        <v>4938</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -19704,53 +20747,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4669</v>
+        <v>4998</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4670</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4668</v>
+        <v>4997</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4657</v>
+        <v>4986</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4658</v>
+        <v>4987</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4659</v>
+        <v>4988</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4660</v>
+        <v>4989</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4661</v>
+        <v>4990</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4662</v>
+        <v>4991</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4663</v>
+        <v>4992</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4664</v>
+        <v>4993</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4665</v>
+        <v>4994</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4666</v>
+        <v>4995</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4667</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4624</v>
+        <v>4953</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -19774,7 +20817,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4625</v>
+        <v>4954</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -19798,7 +20841,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4626</v>
+        <v>4955</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -19820,7 +20863,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4627</v>
+        <v>4956</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -19842,7 +20885,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4628</v>
+        <v>4957</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -19866,7 +20909,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4629</v>
+        <v>4958</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -19890,7 +20933,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4630</v>
+        <v>4959</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -19912,7 +20955,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4631</v>
+        <v>4960</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -19934,7 +20977,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4632</v>
+        <v>4961</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -19958,7 +21001,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4633</v>
+        <v>4962</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -19982,7 +21025,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4634</v>
+        <v>4963</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -20004,7 +21047,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4635</v>
+        <v>4964</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -20026,7 +21069,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4636</v>
+        <v>4965</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -20048,7 +21091,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4637</v>
+        <v>4966</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -20072,7 +21115,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4638</v>
+        <v>4967</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -20096,7 +21139,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4639</v>
+        <v>4968</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -20118,7 +21161,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4640</v>
+        <v>4969</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -20140,7 +21183,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4641</v>
+        <v>4970</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -20164,7 +21207,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4642</v>
+        <v>4971</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -20188,7 +21231,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4643</v>
+        <v>4972</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -20210,7 +21253,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4644</v>
+        <v>4973</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -20232,7 +21275,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4645</v>
+        <v>4974</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -20256,7 +21299,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4646</v>
+        <v>4975</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -20280,7 +21323,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4647</v>
+        <v>4976</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -20302,7 +21345,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4648</v>
+        <v>4977</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -20324,7 +21367,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4649</v>
+        <v>4978</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -20346,7 +21389,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4650</v>
+        <v>4979</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -20370,7 +21413,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4651</v>
+        <v>4980</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -20394,7 +21437,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4652</v>
+        <v>4981</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -20416,7 +21459,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4653</v>
+        <v>4982</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -20438,7 +21481,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4654</v>
+        <v>4983</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -20462,7 +21505,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4655</v>
+        <v>4984</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -20486,7 +21529,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4656</v>
+        <v>4985</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="5000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5336" uniqueCount="5336">
   <si>
     <t>Row</t>
   </si>
@@ -14978,6 +14978,1014 @@
   </si>
   <si>
     <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -15040,7 +16048,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="505">
+  <borders count="533">
     <border>
       <left/>
       <right/>
@@ -15552,11 +16560,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="505">
+  <cellXfs count="533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -16062,6 +17098,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="502" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="503" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="532" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16071,7 +17135,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -16085,38 +17149,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4712</v>
+        <v>5042</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4713</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4711</v>
+        <v>5041</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4705</v>
+        <v>5035</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4706</v>
+        <v>5036</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4707</v>
+        <v>5037</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4708</v>
+        <v>5038</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4709</v>
+        <v>5039</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4710</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4672</v>
+        <v>5001</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -16135,7 +17199,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4673</v>
+        <v>5002</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -16154,7 +17218,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4674</v>
+        <v>5003</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -16173,7 +17237,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4675</v>
+        <v>5004</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -16192,7 +17256,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4676</v>
+        <v>5005</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -16211,7 +17275,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4677</v>
+        <v>5006</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -16230,7 +17294,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4678</v>
+        <v>5007</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -16249,7 +17313,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4679</v>
+        <v>5008</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -16268,7 +17332,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4680</v>
+        <v>5009</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -16287,7 +17351,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4681</v>
+        <v>5010</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -16306,7 +17370,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4682</v>
+        <v>5011</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -16325,7 +17389,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4683</v>
+        <v>5012</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -16342,7 +17406,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4684</v>
+        <v>5013</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -16359,7 +17423,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4685</v>
+        <v>5014</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -16378,7 +17442,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4686</v>
+        <v>5015</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -16397,7 +17461,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4687</v>
+        <v>5016</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -16416,7 +17480,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4688</v>
+        <v>5017</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -16435,7 +17499,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4689</v>
+        <v>5018</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -16454,7 +17518,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4690</v>
+        <v>5019</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -16473,7 +17537,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4691</v>
+        <v>5020</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -16492,7 +17556,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4692</v>
+        <v>5021</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -16511,7 +17575,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4693</v>
+        <v>5022</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -16530,7 +17594,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4694</v>
+        <v>5023</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -16549,7 +17613,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4695</v>
+        <v>5024</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -16568,7 +17632,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4696</v>
+        <v>5025</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -16587,7 +17651,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4697</v>
+        <v>5026</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -16604,7 +17668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4698</v>
+        <v>5027</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -16623,7 +17687,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4699</v>
+        <v>5028</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -16642,7 +17706,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4700</v>
+        <v>5029</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -16661,7 +17725,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4701</v>
+        <v>5030</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -16680,7 +17744,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4702</v>
+        <v>5031</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -16699,7 +17763,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4703</v>
+        <v>5032</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -16718,7 +17782,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4704</v>
+        <v>5033</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -16732,6 +17796,25 @@
         <v>2.3290000000000002</v>
       </c>
       <c r="G35" s="0">
+        <v>2.5990000000000002</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>5034</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="E36" s="0">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="F36" s="0">
+        <v>2.335</v>
+      </c>
+      <c r="G36" s="0">
         <v>2.5990000000000002</v>
       </c>
     </row>
@@ -16741,7 +17824,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -16760,53 +17843,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4760</v>
+        <v>5091</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4761</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4759</v>
+        <v>5090</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4748</v>
+        <v>5079</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4749</v>
+        <v>5080</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4750</v>
+        <v>5081</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4751</v>
+        <v>5082</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4752</v>
+        <v>5083</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4753</v>
+        <v>5084</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4754</v>
+        <v>5085</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4755</v>
+        <v>5086</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4756</v>
+        <v>5087</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4757</v>
+        <v>5088</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4758</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4715</v>
+        <v>5045</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -16830,7 +17913,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4716</v>
+        <v>5046</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -16852,7 +17935,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4717</v>
+        <v>5047</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -16874,7 +17957,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4718</v>
+        <v>5048</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -16896,7 +17979,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4719</v>
+        <v>5049</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -16920,7 +18003,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4720</v>
+        <v>5050</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -16944,7 +18027,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4721</v>
+        <v>5051</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -16966,7 +18049,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4722</v>
+        <v>5052</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -16988,7 +18071,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4723</v>
+        <v>5053</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -17012,7 +18095,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4724</v>
+        <v>5054</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -17036,7 +18119,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4725</v>
+        <v>5055</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -17058,7 +18141,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4726</v>
+        <v>5056</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -17080,7 +18163,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4727</v>
+        <v>5057</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -17102,7 +18185,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4728</v>
+        <v>5058</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -17126,7 +18209,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4729</v>
+        <v>5059</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -17148,7 +18231,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4730</v>
+        <v>5060</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -17170,7 +18253,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4731</v>
+        <v>5061</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -17192,7 +18275,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4732</v>
+        <v>5062</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -17216,7 +18299,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4733</v>
+        <v>5063</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -17240,7 +18323,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4734</v>
+        <v>5064</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -17262,7 +18345,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4735</v>
+        <v>5065</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -17284,7 +18367,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4736</v>
+        <v>5066</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -17308,7 +18391,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4737</v>
+        <v>5067</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -17332,7 +18415,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4738</v>
+        <v>5068</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -17354,7 +18437,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4739</v>
+        <v>5069</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -17376,7 +18459,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4740</v>
+        <v>5070</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -17398,7 +18481,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4741</v>
+        <v>5071</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -17422,7 +18505,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4742</v>
+        <v>5072</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -17444,7 +18527,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4743</v>
+        <v>5073</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -17466,7 +18549,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4744</v>
+        <v>5074</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -17488,7 +18571,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4745</v>
+        <v>5075</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -17512,7 +18595,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4746</v>
+        <v>5076</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -17536,7 +18619,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4747</v>
+        <v>5077</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -17556,13 +18639,35 @@
         <v>2.637</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>5078</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0">
+        <v>4.0129999999999999</v>
+      </c>
+      <c r="K36" s="0">
+        <v>3.5880000000000001</v>
+      </c>
+      <c r="L36" s="0">
+        <v>2.6379999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -17581,53 +18686,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4808</v>
+        <v>5140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4809</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4807</v>
+        <v>5139</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4796</v>
+        <v>5128</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4797</v>
+        <v>5129</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4798</v>
+        <v>5130</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4799</v>
+        <v>5131</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4800</v>
+        <v>5132</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4801</v>
+        <v>5133</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4802</v>
+        <v>5134</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4803</v>
+        <v>5135</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4804</v>
+        <v>5136</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4805</v>
+        <v>5137</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4806</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4763</v>
+        <v>5094</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -17651,7 +18756,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4764</v>
+        <v>5095</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -17673,7 +18778,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4765</v>
+        <v>5096</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -17695,7 +18800,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4766</v>
+        <v>5097</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -17717,7 +18822,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4767</v>
+        <v>5098</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -17741,7 +18846,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4768</v>
+        <v>5099</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -17765,7 +18870,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4769</v>
+        <v>5100</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -17787,7 +18892,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4770</v>
+        <v>5101</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -17809,7 +18914,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4771</v>
+        <v>5102</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -17833,7 +18938,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4772</v>
+        <v>5103</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -17857,7 +18962,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4773</v>
+        <v>5104</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -17879,7 +18984,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4774</v>
+        <v>5105</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -17901,7 +19006,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4775</v>
+        <v>5106</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -17923,7 +19028,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4776</v>
+        <v>5107</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -17947,7 +19052,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4777</v>
+        <v>5108</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -17969,7 +19074,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4778</v>
+        <v>5109</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -17991,7 +19096,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4779</v>
+        <v>5110</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -18013,7 +19118,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4780</v>
+        <v>5111</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -18037,7 +19142,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4781</v>
+        <v>5112</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -18061,7 +19166,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4782</v>
+        <v>5113</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -18083,7 +19188,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4783</v>
+        <v>5114</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -18105,7 +19210,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4784</v>
+        <v>5115</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -18129,7 +19234,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4785</v>
+        <v>5116</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -18153,7 +19258,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4786</v>
+        <v>5117</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -18175,7 +19280,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4787</v>
+        <v>5118</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -18197,7 +19302,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4788</v>
+        <v>5119</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -18219,7 +19324,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4789</v>
+        <v>5120</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -18243,7 +19348,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4790</v>
+        <v>5121</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -18265,7 +19370,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4791</v>
+        <v>5122</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -18287,7 +19392,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4792</v>
+        <v>5123</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -18309,7 +19414,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4793</v>
+        <v>5124</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -18333,7 +19438,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4794</v>
+        <v>5125</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -18357,7 +19462,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4795</v>
+        <v>5126</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -18377,13 +19482,35 @@
         <v>3.5720000000000001</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>5127</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0">
+        <v>3.4300000000000002</v>
+      </c>
+      <c r="K36" s="0">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="L36" s="0">
+        <v>3.5979999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -18402,53 +19529,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4856</v>
+        <v>5189</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4857</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4855</v>
+        <v>5188</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4844</v>
+        <v>5177</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4845</v>
+        <v>5178</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4846</v>
+        <v>5179</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4847</v>
+        <v>5180</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4848</v>
+        <v>5181</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4849</v>
+        <v>5182</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4850</v>
+        <v>5183</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4851</v>
+        <v>5184</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4852</v>
+        <v>5185</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4853</v>
+        <v>5186</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4854</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4811</v>
+        <v>5143</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -18472,7 +19599,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4812</v>
+        <v>5144</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -18494,7 +19621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4813</v>
+        <v>5145</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -18516,7 +19643,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4814</v>
+        <v>5146</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -18538,7 +19665,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4815</v>
+        <v>5147</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -18562,7 +19689,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4816</v>
+        <v>5148</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -18586,7 +19713,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4817</v>
+        <v>5149</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -18608,7 +19735,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4818</v>
+        <v>5150</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -18630,7 +19757,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4819</v>
+        <v>5151</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -18654,7 +19781,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4820</v>
+        <v>5152</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -18678,7 +19805,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4821</v>
+        <v>5153</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -18700,7 +19827,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4822</v>
+        <v>5154</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -18722,7 +19849,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4823</v>
+        <v>5155</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -18744,7 +19871,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4824</v>
+        <v>5156</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -18768,7 +19895,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4825</v>
+        <v>5157</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -18790,7 +19917,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4826</v>
+        <v>5158</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -18812,7 +19939,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4827</v>
+        <v>5159</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -18834,7 +19961,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4828</v>
+        <v>5160</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -18858,7 +19985,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4829</v>
+        <v>5161</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -18882,7 +20009,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4830</v>
+        <v>5162</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -18904,7 +20031,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4831</v>
+        <v>5163</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -18926,7 +20053,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4832</v>
+        <v>5164</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -18950,7 +20077,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4833</v>
+        <v>5165</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -18974,7 +20101,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4834</v>
+        <v>5166</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -18996,7 +20123,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4835</v>
+        <v>5167</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -19018,7 +20145,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4836</v>
+        <v>5168</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -19040,7 +20167,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4837</v>
+        <v>5169</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -19064,7 +20191,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4838</v>
+        <v>5170</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -19086,7 +20213,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4839</v>
+        <v>5171</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -19108,7 +20235,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4840</v>
+        <v>5172</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -19130,7 +20257,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4841</v>
+        <v>5173</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -19154,7 +20281,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4842</v>
+        <v>5174</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -19178,7 +20305,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4843</v>
+        <v>5175</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -19198,13 +20325,35 @@
         <v>3.569</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>5176</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0">
+        <v>3.4199999999999999</v>
+      </c>
+      <c r="K36" s="0">
+        <v>3.246</v>
+      </c>
+      <c r="L36" s="0">
+        <v>3.6019999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -19222,50 +20371,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4903</v>
+        <v>5237</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4904</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4902</v>
+        <v>5236</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4892</v>
+        <v>5226</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4893</v>
+        <v>5227</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4894</v>
+        <v>5228</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4895</v>
+        <v>5229</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4896</v>
+        <v>5230</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4897</v>
+        <v>5231</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4898</v>
+        <v>5232</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4899</v>
+        <v>5233</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4900</v>
+        <v>5234</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4901</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4859</v>
+        <v>5192</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -19286,7 +20435,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4860</v>
+        <v>5193</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -19307,7 +20456,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4861</v>
+        <v>5194</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -19328,7 +20477,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4862</v>
+        <v>5195</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -19349,7 +20498,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4863</v>
+        <v>5196</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -19370,7 +20519,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4864</v>
+        <v>5197</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -19391,7 +20540,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4865</v>
+        <v>5198</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -19412,7 +20561,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4866</v>
+        <v>5199</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -19433,7 +20582,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4867</v>
+        <v>5200</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -19456,7 +20605,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4868</v>
+        <v>5201</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -19477,7 +20626,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4869</v>
+        <v>5202</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -19498,7 +20647,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4870</v>
+        <v>5203</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -19519,7 +20668,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4871</v>
+        <v>5204</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -19540,7 +20689,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4872</v>
+        <v>5205</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -19561,7 +20710,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4873</v>
+        <v>5206</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -19582,7 +20731,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4874</v>
+        <v>5207</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -19603,7 +20752,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4875</v>
+        <v>5208</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -19624,7 +20773,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4876</v>
+        <v>5209</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -19645,7 +20794,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4877</v>
+        <v>5210</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -19666,7 +20815,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4878</v>
+        <v>5211</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -19687,7 +20836,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4879</v>
+        <v>5212</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -19708,7 +20857,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4880</v>
+        <v>5213</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -19731,7 +20880,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4881</v>
+        <v>5214</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -19752,7 +20901,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4882</v>
+        <v>5215</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -19773,7 +20922,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4883</v>
+        <v>5216</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -19794,7 +20943,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4884</v>
+        <v>5217</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -19815,7 +20964,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4885</v>
+        <v>5218</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -19836,7 +20985,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4886</v>
+        <v>5219</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -19857,7 +21006,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4887</v>
+        <v>5220</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -19878,7 +21027,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4888</v>
+        <v>5221</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -19899,7 +21048,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4889</v>
+        <v>5222</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -19920,7 +21069,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4890</v>
+        <v>5223</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -19941,7 +21090,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4891</v>
+        <v>5224</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -19960,13 +21109,34 @@
         <v>0.063</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>5225</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0">
+        <v>-0.023</v>
+      </c>
+      <c r="J36" s="0">
+        <v>-0.032000000000000001</v>
+      </c>
+      <c r="K36" s="0">
+        <v>0.063</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -19984,50 +21154,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4950</v>
+        <v>5285</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4951</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4949</v>
+        <v>5284</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4939</v>
+        <v>5274</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4940</v>
+        <v>5275</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4941</v>
+        <v>5276</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4942</v>
+        <v>5277</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4943</v>
+        <v>5278</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4944</v>
+        <v>5279</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4945</v>
+        <v>5280</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4946</v>
+        <v>5281</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4947</v>
+        <v>5282</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4948</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4906</v>
+        <v>5240</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -20048,7 +21218,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4907</v>
+        <v>5241</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -20069,7 +21239,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4908</v>
+        <v>5242</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -20090,7 +21260,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4909</v>
+        <v>5243</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -20111,7 +21281,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4910</v>
+        <v>5244</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -20132,7 +21302,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4911</v>
+        <v>5245</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -20153,7 +21323,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4912</v>
+        <v>5246</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -20174,7 +21344,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4913</v>
+        <v>5247</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -20195,7 +21365,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4914</v>
+        <v>5248</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -20218,7 +21388,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4915</v>
+        <v>5249</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -20239,7 +21409,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4916</v>
+        <v>5250</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -20260,7 +21430,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4917</v>
+        <v>5251</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -20281,7 +21451,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4918</v>
+        <v>5252</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -20302,7 +21472,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4919</v>
+        <v>5253</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -20323,7 +21493,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4920</v>
+        <v>5254</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -20344,7 +21514,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4921</v>
+        <v>5255</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -20365,7 +21535,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4922</v>
+        <v>5256</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -20386,7 +21556,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4923</v>
+        <v>5257</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -20407,7 +21577,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4924</v>
+        <v>5258</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -20428,7 +21598,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4925</v>
+        <v>5259</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -20449,7 +21619,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4926</v>
+        <v>5260</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -20470,7 +21640,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4927</v>
+        <v>5261</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -20493,7 +21663,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4928</v>
+        <v>5262</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -20514,7 +21684,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4929</v>
+        <v>5263</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -20535,7 +21705,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4930</v>
+        <v>5264</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -20556,7 +21726,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4931</v>
+        <v>5265</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -20577,7 +21747,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4932</v>
+        <v>5266</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -20598,7 +21768,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4933</v>
+        <v>5267</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -20619,7 +21789,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4934</v>
+        <v>5268</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -20640,7 +21810,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4935</v>
+        <v>5269</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -20661,7 +21831,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4936</v>
+        <v>5270</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -20682,7 +21852,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4937</v>
+        <v>5271</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -20703,7 +21873,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4938</v>
+        <v>5272</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -20722,13 +21892,34 @@
         <v>0.050000000000000003</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0">
+        <v>0.157</v>
+      </c>
+      <c r="J36" s="0">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K36" s="0">
+        <v>0.050999999999999997</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -20747,53 +21938,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4998</v>
+        <v>5334</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4999</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4997</v>
+        <v>5333</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4986</v>
+        <v>5322</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4987</v>
+        <v>5323</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4988</v>
+        <v>5324</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4989</v>
+        <v>5325</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4990</v>
+        <v>5326</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4991</v>
+        <v>5327</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4992</v>
+        <v>5328</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>4993</v>
+        <v>5329</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4994</v>
+        <v>5330</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4995</v>
+        <v>5331</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>4996</v>
+        <v>5332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4953</v>
+        <v>5288</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -20817,7 +22008,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4954</v>
+        <v>5289</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -20841,7 +22032,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4955</v>
+        <v>5290</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -20863,7 +22054,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4956</v>
+        <v>5291</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -20885,7 +22076,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4957</v>
+        <v>5292</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -20909,7 +22100,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4958</v>
+        <v>5293</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -20933,7 +22124,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4959</v>
+        <v>5294</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -20955,7 +22146,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4960</v>
+        <v>5295</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -20977,7 +22168,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4961</v>
+        <v>5296</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -21001,7 +22192,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4962</v>
+        <v>5297</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -21025,7 +22216,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4963</v>
+        <v>5298</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -21047,7 +22238,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4964</v>
+        <v>5299</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -21069,7 +22260,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4965</v>
+        <v>5300</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -21091,7 +22282,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4966</v>
+        <v>5301</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -21115,7 +22306,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4967</v>
+        <v>5302</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -21139,7 +22330,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4968</v>
+        <v>5303</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -21161,7 +22352,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4969</v>
+        <v>5304</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -21183,7 +22374,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4970</v>
+        <v>5305</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -21207,7 +22398,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4971</v>
+        <v>5306</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -21231,7 +22422,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4972</v>
+        <v>5307</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -21253,7 +22444,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4973</v>
+        <v>5308</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -21275,7 +22466,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4974</v>
+        <v>5309</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -21299,7 +22490,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4975</v>
+        <v>5310</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -21323,7 +22514,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4976</v>
+        <v>5311</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -21345,7 +22536,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4977</v>
+        <v>5312</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -21367,7 +22558,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4978</v>
+        <v>5313</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -21389,7 +22580,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4979</v>
+        <v>5314</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -21413,7 +22604,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4980</v>
+        <v>5315</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -21437,7 +22628,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4981</v>
+        <v>5316</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -21459,7 +22650,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4982</v>
+        <v>5317</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -21481,7 +22672,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4983</v>
+        <v>5318</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -21505,7 +22696,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4984</v>
+        <v>5319</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -21529,7 +22720,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4985</v>
+        <v>5320</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -21549,6 +22740,28 @@
         <v>2.3119999999999998</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>5321</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0">
+        <v>4.641</v>
+      </c>
+      <c r="K36" s="0">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="L36" s="0">
+        <v>2.3119999999999998</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5336" uniqueCount="5336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="5692">
   <si>
     <t>Row</t>
   </si>
@@ -16019,6 +16019,1074 @@
   </si>
   <si>
     <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
   </si>
   <si>
     <t>Forecast Dates</t>
@@ -16048,7 +17116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="533">
+  <borders count="561">
     <border>
       <left/>
       <right/>
@@ -16588,11 +17656,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="533">
+  <cellXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -17126,6 +18222,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="530" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="531" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="560" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17135,7 +18259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -17149,38 +18273,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5042</v>
+        <v>5380</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5043</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5041</v>
+        <v>5379</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5035</v>
+        <v>5373</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5036</v>
+        <v>5374</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5037</v>
+        <v>5375</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5038</v>
+        <v>5376</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5039</v>
+        <v>5377</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5040</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5001</v>
+        <v>5337</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -17199,7 +18323,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5002</v>
+        <v>5338</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -17218,7 +18342,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5003</v>
+        <v>5339</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -17237,7 +18361,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5004</v>
+        <v>5340</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -17256,7 +18380,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5005</v>
+        <v>5341</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -17275,7 +18399,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5006</v>
+        <v>5342</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -17294,7 +18418,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5007</v>
+        <v>5343</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -17313,7 +18437,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5008</v>
+        <v>5344</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -17332,7 +18456,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5009</v>
+        <v>5345</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -17351,7 +18475,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5010</v>
+        <v>5346</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -17370,7 +18494,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5011</v>
+        <v>5347</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -17389,7 +18513,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5012</v>
+        <v>5348</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -17406,7 +18530,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5013</v>
+        <v>5349</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -17423,7 +18547,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5014</v>
+        <v>5350</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -17442,7 +18566,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5015</v>
+        <v>5351</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -17461,7 +18585,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5016</v>
+        <v>5352</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -17480,7 +18604,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5017</v>
+        <v>5353</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -17499,7 +18623,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5018</v>
+        <v>5354</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -17518,7 +18642,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5019</v>
+        <v>5355</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -17537,7 +18661,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5020</v>
+        <v>5356</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -17556,7 +18680,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5021</v>
+        <v>5357</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -17575,7 +18699,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5022</v>
+        <v>5358</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -17594,7 +18718,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5023</v>
+        <v>5359</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -17613,7 +18737,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5024</v>
+        <v>5360</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -17632,7 +18756,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5025</v>
+        <v>5361</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -17651,7 +18775,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5026</v>
+        <v>5362</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -17668,7 +18792,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5027</v>
+        <v>5363</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -17687,7 +18811,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5028</v>
+        <v>5364</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -17706,7 +18830,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5029</v>
+        <v>5365</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -17725,7 +18849,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5030</v>
+        <v>5366</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -17744,7 +18868,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5031</v>
+        <v>5367</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -17763,7 +18887,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5032</v>
+        <v>5368</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -17782,7 +18906,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5033</v>
+        <v>5369</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -17801,7 +18925,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5034</v>
+        <v>5370</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -17816,6 +18940,44 @@
       </c>
       <c r="G36" s="0">
         <v>2.5990000000000002</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>5371</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0">
+        <v>1.986</v>
+      </c>
+      <c r="E37" s="0">
+        <v>4.694</v>
+      </c>
+      <c r="F37" s="0">
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="G37" s="0">
+        <v>2.7160000000000002</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>5372</v>
+      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="E38" s="0">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="F38" s="0">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="G38" s="0">
+        <v>2.661</v>
       </c>
     </row>
   </sheetData>
@@ -17824,7 +18986,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -17839,57 +19001,61 @@
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
     <col min="12" max="12" width="6.01171875" customWidth="true"/>
+    <col min="13" max="13" width="7.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5091</v>
+        <v>5432</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5092</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5090</v>
+        <v>5431</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5079</v>
+        <v>5419</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5080</v>
+        <v>5420</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5081</v>
+        <v>5421</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5082</v>
+        <v>5422</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5083</v>
+        <v>5423</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5084</v>
+        <v>5424</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5085</v>
+        <v>5425</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5086</v>
+        <v>5426</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5087</v>
+        <v>5427</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5088</v>
+        <v>5428</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5089</v>
+        <v>5429</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>5430</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5045</v>
+        <v>5383</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -17910,10 +19076,11 @@
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5046</v>
+        <v>5384</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -17932,10 +19099,11 @@
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5047</v>
+        <v>5385</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -17954,10 +19122,11 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5048</v>
+        <v>5386</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -17976,10 +19145,11 @@
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5049</v>
+        <v>5387</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -18000,10 +19170,11 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5050</v>
+        <v>5388</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -18024,10 +19195,11 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5051</v>
+        <v>5389</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -18046,10 +19218,11 @@
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5052</v>
+        <v>5390</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -18068,10 +19241,11 @@
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5053</v>
+        <v>5391</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -18092,10 +19266,11 @@
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5054</v>
+        <v>5392</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -18116,10 +19291,11 @@
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5055</v>
+        <v>5393</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -18138,10 +19314,11 @@
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5056</v>
+        <v>5394</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -18160,10 +19337,11 @@
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5057</v>
+        <v>5395</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -18182,10 +19360,11 @@
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5058</v>
+        <v>5396</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -18206,10 +19385,11 @@
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5059</v>
+        <v>5397</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -18228,10 +19408,11 @@
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5060</v>
+        <v>5398</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -18250,10 +19431,11 @@
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5061</v>
+        <v>5399</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -18272,10 +19454,11 @@
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5062</v>
+        <v>5400</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -18296,10 +19479,11 @@
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5063</v>
+        <v>5401</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -18320,10 +19504,11 @@
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5064</v>
+        <v>5402</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -18342,10 +19527,11 @@
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5065</v>
+        <v>5403</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -18364,10 +19550,11 @@
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5066</v>
+        <v>5404</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -18388,10 +19575,11 @@
       </c>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5067</v>
+        <v>5405</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -18412,10 +19600,11 @@
       </c>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5068</v>
+        <v>5406</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -18434,10 +19623,11 @@
       </c>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5069</v>
+        <v>5407</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -18456,10 +19646,11 @@
       </c>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5070</v>
+        <v>5408</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -18478,10 +19669,11 @@
       </c>
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5071</v>
+        <v>5409</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -18502,10 +19694,11 @@
         <v>2.6539999999999999</v>
       </c>
       <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5072</v>
+        <v>5410</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -18524,10 +19717,11 @@
         <v>2.7149999999999999</v>
       </c>
       <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5073</v>
+        <v>5411</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -18546,10 +19740,11 @@
         <v>2.7290000000000001</v>
       </c>
       <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5074</v>
+        <v>5412</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -18568,10 +19763,11 @@
         <v>2.7450000000000001</v>
       </c>
       <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5075</v>
+        <v>5413</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -18592,10 +19788,11 @@
       <c r="L33" s="0">
         <v>2.6640000000000001</v>
       </c>
+      <c r="M33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5076</v>
+        <v>5414</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -18616,10 +19813,11 @@
       <c r="L34" s="0">
         <v>2.6629999999999998</v>
       </c>
+      <c r="M34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5077</v>
+        <v>5415</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -18638,10 +19836,11 @@
       <c r="L35" s="0">
         <v>2.637</v>
       </c>
+      <c r="M35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5078</v>
+        <v>5416</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -18660,6 +19859,55 @@
       <c r="L36" s="0">
         <v>2.6379999999999999</v>
       </c>
+      <c r="M36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>5417</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0">
+        <v>3.5139999999999998</v>
+      </c>
+      <c r="K37" s="0">
+        <v>4.077</v>
+      </c>
+      <c r="L37" s="0">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="M37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>5418</v>
+      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0">
+        <v>4.6180000000000003</v>
+      </c>
+      <c r="K38" s="0">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="L38" s="0">
+        <v>3.556</v>
+      </c>
+      <c r="M38" s="0">
+        <v>2.339</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -18667,7 +19915,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -18682,57 +19930,61 @@
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
     <col min="12" max="12" width="6.01171875" customWidth="true"/>
+    <col min="13" max="13" width="7.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5140</v>
+        <v>5484</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5141</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5139</v>
+        <v>5483</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5128</v>
+        <v>5471</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5129</v>
+        <v>5472</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5130</v>
+        <v>5473</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5131</v>
+        <v>5474</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5132</v>
+        <v>5475</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5133</v>
+        <v>5476</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5134</v>
+        <v>5477</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5135</v>
+        <v>5478</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5136</v>
+        <v>5479</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5137</v>
+        <v>5480</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5138</v>
+        <v>5481</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>5482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5094</v>
+        <v>5435</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -18753,10 +20005,11 @@
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5095</v>
+        <v>5436</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -18775,10 +20028,11 @@
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5096</v>
+        <v>5437</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -18797,10 +20051,11 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5097</v>
+        <v>5438</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -18819,10 +20074,11 @@
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5098</v>
+        <v>5439</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -18843,10 +20099,11 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5099</v>
+        <v>5440</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -18867,10 +20124,11 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5100</v>
+        <v>5441</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -18889,10 +20147,11 @@
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5101</v>
+        <v>5442</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -18911,10 +20170,11 @@
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5102</v>
+        <v>5443</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -18935,10 +20195,11 @@
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5103</v>
+        <v>5444</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -18959,10 +20220,11 @@
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5104</v>
+        <v>5445</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -18981,10 +20243,11 @@
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5105</v>
+        <v>5446</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -19003,10 +20266,11 @@
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5106</v>
+        <v>5447</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -19025,10 +20289,11 @@
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5107</v>
+        <v>5448</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -19049,10 +20314,11 @@
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5108</v>
+        <v>5449</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -19071,10 +20337,11 @@
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5109</v>
+        <v>5450</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -19093,10 +20360,11 @@
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5110</v>
+        <v>5451</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -19115,10 +20383,11 @@
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5111</v>
+        <v>5452</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -19139,10 +20408,11 @@
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5112</v>
+        <v>5453</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -19163,10 +20433,11 @@
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5113</v>
+        <v>5454</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -19185,10 +20456,11 @@
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5114</v>
+        <v>5455</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -19207,10 +20479,11 @@
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5115</v>
+        <v>5456</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -19231,10 +20504,11 @@
       </c>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5116</v>
+        <v>5457</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -19255,10 +20529,11 @@
       </c>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5117</v>
+        <v>5458</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -19277,10 +20552,11 @@
       </c>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5118</v>
+        <v>5459</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -19299,10 +20575,11 @@
       </c>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5119</v>
+        <v>5460</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -19321,10 +20598,11 @@
       </c>
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5120</v>
+        <v>5461</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -19345,10 +20623,11 @@
         <v>3.528</v>
       </c>
       <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5121</v>
+        <v>5462</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -19367,10 +20646,11 @@
         <v>3.3159999999999998</v>
       </c>
       <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5122</v>
+        <v>5463</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -19389,10 +20669,11 @@
         <v>3.1899999999999999</v>
       </c>
       <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5123</v>
+        <v>5464</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -19411,10 +20692,11 @@
         <v>3.2050000000000001</v>
       </c>
       <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5124</v>
+        <v>5465</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -19435,10 +20717,11 @@
       <c r="L33" s="0">
         <v>3.5390000000000001</v>
       </c>
+      <c r="M33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5125</v>
+        <v>5466</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -19459,10 +20742,11 @@
       <c r="L34" s="0">
         <v>3.367</v>
       </c>
+      <c r="M34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5126</v>
+        <v>5467</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -19481,10 +20765,11 @@
       <c r="L35" s="0">
         <v>3.5720000000000001</v>
       </c>
+      <c r="M35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5127</v>
+        <v>5468</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -19503,6 +20788,55 @@
       <c r="L36" s="0">
         <v>3.5979999999999999</v>
       </c>
+      <c r="M36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>5469</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="K37" s="0">
+        <v>3.802</v>
+      </c>
+      <c r="L37" s="0">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="M37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>5470</v>
+      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0">
+        <v>3.73</v>
+      </c>
+      <c r="K38" s="0">
+        <v>3.7770000000000001</v>
+      </c>
+      <c r="L38" s="0">
+        <v>3.714</v>
+      </c>
+      <c r="M38" s="0">
+        <v>3.6560000000000001</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -19510,7 +20844,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -19525,57 +20859,61 @@
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
     <col min="12" max="12" width="6.01171875" customWidth="true"/>
+    <col min="13" max="13" width="7.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5189</v>
+        <v>5536</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5190</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5188</v>
+        <v>5535</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5177</v>
+        <v>5523</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5178</v>
+        <v>5524</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5179</v>
+        <v>5525</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5180</v>
+        <v>5526</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5181</v>
+        <v>5527</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5182</v>
+        <v>5528</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5183</v>
+        <v>5529</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5184</v>
+        <v>5530</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5185</v>
+        <v>5531</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5186</v>
+        <v>5532</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5187</v>
+        <v>5533</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>5534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5143</v>
+        <v>5487</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -19596,10 +20934,11 @@
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5144</v>
+        <v>5488</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -19618,10 +20957,11 @@
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5145</v>
+        <v>5489</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -19640,10 +20980,11 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5146</v>
+        <v>5490</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -19662,10 +21003,11 @@
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5147</v>
+        <v>5491</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -19686,10 +21028,11 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5148</v>
+        <v>5492</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -19710,10 +21053,11 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5149</v>
+        <v>5493</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -19732,10 +21076,11 @@
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5150</v>
+        <v>5494</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -19754,10 +21099,11 @@
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5151</v>
+        <v>5495</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -19778,10 +21124,11 @@
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5152</v>
+        <v>5496</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -19802,10 +21149,11 @@
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5153</v>
+        <v>5497</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -19824,10 +21172,11 @@
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5154</v>
+        <v>5498</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -19846,10 +21195,11 @@
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5155</v>
+        <v>5499</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -19868,10 +21218,11 @@
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5156</v>
+        <v>5500</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -19892,10 +21243,11 @@
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5157</v>
+        <v>5501</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -19914,10 +21266,11 @@
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5158</v>
+        <v>5502</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -19936,10 +21289,11 @@
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5159</v>
+        <v>5503</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -19958,10 +21312,11 @@
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5160</v>
+        <v>5504</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -19982,10 +21337,11 @@
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5161</v>
+        <v>5505</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -20006,10 +21362,11 @@
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5162</v>
+        <v>5506</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -20028,10 +21385,11 @@
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5163</v>
+        <v>5507</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -20050,10 +21408,11 @@
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5164</v>
+        <v>5508</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -20074,10 +21433,11 @@
       </c>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5165</v>
+        <v>5509</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -20098,10 +21458,11 @@
       </c>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5166</v>
+        <v>5510</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -20120,10 +21481,11 @@
       </c>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5167</v>
+        <v>5511</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -20142,10 +21504,11 @@
       </c>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5168</v>
+        <v>5512</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -20164,10 +21527,11 @@
       </c>
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5169</v>
+        <v>5513</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -20188,10 +21552,11 @@
         <v>3.577</v>
       </c>
       <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5170</v>
+        <v>5514</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -20210,10 +21575,11 @@
         <v>3.343</v>
       </c>
       <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5171</v>
+        <v>5515</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -20232,10 +21598,11 @@
         <v>3.1400000000000001</v>
       </c>
       <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5172</v>
+        <v>5516</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -20254,10 +21621,11 @@
         <v>3.0670000000000002</v>
       </c>
       <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5173</v>
+        <v>5517</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -20278,10 +21646,11 @@
       <c r="L33" s="0">
         <v>3.1520000000000001</v>
       </c>
+      <c r="M33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5174</v>
+        <v>5518</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -20302,10 +21671,11 @@
       <c r="L34" s="0">
         <v>3.069</v>
       </c>
+      <c r="M34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5175</v>
+        <v>5519</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -20324,10 +21694,11 @@
       <c r="L35" s="0">
         <v>3.569</v>
       </c>
+      <c r="M35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5176</v>
+        <v>5520</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -20346,6 +21717,55 @@
       <c r="L36" s="0">
         <v>3.6019999999999999</v>
       </c>
+      <c r="M36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>5521</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="K37" s="0">
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="L37" s="0">
+        <v>3.6970000000000001</v>
+      </c>
+      <c r="M37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>5522</v>
+      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0">
+        <v>4.0919999999999996</v>
+      </c>
+      <c r="K38" s="0">
+        <v>3.3300000000000001</v>
+      </c>
+      <c r="L38" s="0">
+        <v>3.8610000000000002</v>
+      </c>
+      <c r="M38" s="0">
+        <v>3.4329999999999998</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -20353,7 +21773,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -20367,54 +21787,58 @@
     <col min="9" max="9" width="7.4140625" customWidth="true"/>
     <col min="10" max="10" width="6.61328125" customWidth="true"/>
     <col min="11" max="11" width="6.01171875" customWidth="true"/>
+    <col min="12" max="12" width="7.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5237</v>
+        <v>5587</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5238</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5236</v>
+        <v>5586</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5226</v>
+        <v>5575</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5227</v>
+        <v>5576</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5228</v>
+        <v>5577</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5229</v>
+        <v>5578</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5230</v>
+        <v>5579</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5231</v>
+        <v>5580</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5232</v>
+        <v>5581</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5233</v>
+        <v>5582</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5234</v>
+        <v>5583</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5235</v>
+        <v>5584</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>5585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5192</v>
+        <v>5539</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -20432,10 +21856,11 @@
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5193</v>
+        <v>5540</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -20453,10 +21878,11 @@
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5194</v>
+        <v>5541</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -20474,10 +21900,11 @@
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5195</v>
+        <v>5542</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -20495,10 +21922,11 @@
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5196</v>
+        <v>5543</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -20516,10 +21944,11 @@
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5197</v>
+        <v>5544</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -20537,10 +21966,11 @@
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5198</v>
+        <v>5545</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -20558,10 +21988,11 @@
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5199</v>
+        <v>5546</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -20579,10 +22010,11 @@
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5200</v>
+        <v>5547</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -20602,10 +22034,11 @@
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5201</v>
+        <v>5548</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -20623,10 +22056,11 @@
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5202</v>
+        <v>5549</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -20644,10 +22078,11 @@
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5203</v>
+        <v>5550</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -20665,10 +22100,11 @@
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5204</v>
+        <v>5551</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -20686,10 +22122,11 @@
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5205</v>
+        <v>5552</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -20707,10 +22144,11 @@
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5206</v>
+        <v>5553</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -20728,10 +22166,11 @@
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5207</v>
+        <v>5554</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -20749,10 +22188,11 @@
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5208</v>
+        <v>5555</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -20770,10 +22210,11 @@
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5209</v>
+        <v>5556</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -20791,10 +22232,11 @@
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5210</v>
+        <v>5557</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -20812,10 +22254,11 @@
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5211</v>
+        <v>5558</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -20833,10 +22276,11 @@
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5212</v>
+        <v>5559</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -20854,10 +22298,11 @@
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5213</v>
+        <v>5560</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -20877,10 +22322,11 @@
       </c>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5214</v>
+        <v>5561</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -20898,10 +22344,11 @@
       </c>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5215</v>
+        <v>5562</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -20919,10 +22366,11 @@
       </c>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5216</v>
+        <v>5563</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -20940,10 +22388,11 @@
       </c>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5217</v>
+        <v>5564</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -20961,10 +22410,11 @@
       </c>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5218</v>
+        <v>5565</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -20982,10 +22432,11 @@
         <v>0.029000000000000001</v>
       </c>
       <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5219</v>
+        <v>5566</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -21003,10 +22454,11 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5220</v>
+        <v>5567</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -21024,10 +22476,11 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5221</v>
+        <v>5568</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -21045,10 +22498,11 @@
         <v>0.051999999999999998</v>
       </c>
       <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5222</v>
+        <v>5569</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -21066,10 +22520,11 @@
       <c r="K33" s="0">
         <v>0.035999999999999997</v>
       </c>
+      <c r="L33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5223</v>
+        <v>5570</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -21087,10 +22542,11 @@
       <c r="K34" s="0">
         <v>0.050000000000000003</v>
       </c>
+      <c r="L34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5224</v>
+        <v>5571</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -21108,10 +22564,11 @@
       <c r="K35" s="0">
         <v>0.063</v>
       </c>
+      <c r="L35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5225</v>
+        <v>5572</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -21129,6 +22586,51 @@
       <c r="K36" s="0">
         <v>0.063</v>
       </c>
+      <c r="L36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>5573</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0">
+        <v>-0.02</v>
+      </c>
+      <c r="J37" s="0">
+        <v>-0.035000000000000003</v>
+      </c>
+      <c r="K37" s="0">
+        <v>0.045999999999999999</v>
+      </c>
+      <c r="L37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>5574</v>
+      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0">
+        <v>-0.02</v>
+      </c>
+      <c r="K38" s="0">
+        <v>-0.029999999999999999</v>
+      </c>
+      <c r="L38" s="0">
+        <v>0.035999999999999997</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -21136,7 +22638,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -21150,54 +22652,58 @@
     <col min="9" max="9" width="7.4140625" customWidth="true"/>
     <col min="10" max="10" width="6.61328125" customWidth="true"/>
     <col min="11" max="11" width="6.01171875" customWidth="true"/>
+    <col min="12" max="12" width="7.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5285</v>
+        <v>5638</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5286</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5284</v>
+        <v>5637</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5274</v>
+        <v>5626</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5275</v>
+        <v>5627</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5276</v>
+        <v>5628</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5277</v>
+        <v>5629</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5278</v>
+        <v>5630</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5279</v>
+        <v>5631</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5280</v>
+        <v>5632</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5281</v>
+        <v>5633</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5282</v>
+        <v>5634</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5283</v>
+        <v>5635</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>5636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5240</v>
+        <v>5590</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -21215,10 +22721,11 @@
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5241</v>
+        <v>5591</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -21236,10 +22743,11 @@
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5242</v>
+        <v>5592</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -21257,10 +22765,11 @@
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5243</v>
+        <v>5593</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -21278,10 +22787,11 @@
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5244</v>
+        <v>5594</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -21299,10 +22809,11 @@
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5245</v>
+        <v>5595</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -21320,10 +22831,11 @@
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5246</v>
+        <v>5596</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -21341,10 +22853,11 @@
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5247</v>
+        <v>5597</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -21362,10 +22875,11 @@
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5248</v>
+        <v>5598</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -21385,10 +22899,11 @@
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5249</v>
+        <v>5599</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -21406,10 +22921,11 @@
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5250</v>
+        <v>5600</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -21427,10 +22943,11 @@
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5251</v>
+        <v>5601</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -21448,10 +22965,11 @@
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5252</v>
+        <v>5602</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -21469,10 +22987,11 @@
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5253</v>
+        <v>5603</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -21490,10 +23009,11 @@
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5254</v>
+        <v>5604</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -21511,10 +23031,11 @@
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5255</v>
+        <v>5605</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -21532,10 +23053,11 @@
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5256</v>
+        <v>5606</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -21553,10 +23075,11 @@
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5257</v>
+        <v>5607</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -21574,10 +23097,11 @@
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5258</v>
+        <v>5608</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -21595,10 +23119,11 @@
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5259</v>
+        <v>5609</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -21616,10 +23141,11 @@
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5260</v>
+        <v>5610</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -21637,10 +23163,11 @@
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5261</v>
+        <v>5611</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -21660,10 +23187,11 @@
       </c>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5262</v>
+        <v>5612</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -21681,10 +23209,11 @@
       </c>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5263</v>
+        <v>5613</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -21702,10 +23231,11 @@
       </c>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5264</v>
+        <v>5614</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -21723,10 +23253,11 @@
       </c>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5265</v>
+        <v>5615</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -21744,10 +23275,11 @@
       </c>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5266</v>
+        <v>5616</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -21765,10 +23297,11 @@
         <v>0.055</v>
       </c>
       <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5267</v>
+        <v>5617</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -21786,10 +23319,11 @@
         <v>0.050999999999999997</v>
       </c>
       <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5268</v>
+        <v>5618</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -21807,10 +23341,11 @@
         <v>0.039</v>
       </c>
       <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5269</v>
+        <v>5619</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -21828,10 +23363,11 @@
         <v>0.035000000000000003</v>
       </c>
       <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5270</v>
+        <v>5620</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -21849,10 +23385,11 @@
       <c r="K33" s="0">
         <v>0.082000000000000003</v>
       </c>
+      <c r="L33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5271</v>
+        <v>5621</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -21870,10 +23407,11 @@
       <c r="K34" s="0">
         <v>0.066000000000000003</v>
       </c>
+      <c r="L34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5272</v>
+        <v>5622</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -21891,10 +23429,11 @@
       <c r="K35" s="0">
         <v>0.050000000000000003</v>
       </c>
+      <c r="L35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5273</v>
+        <v>5623</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -21912,6 +23451,51 @@
       <c r="K36" s="0">
         <v>0.050999999999999997</v>
       </c>
+      <c r="L36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>5624</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="J37" s="0">
+        <v>0.13</v>
+      </c>
+      <c r="K37" s="0">
+        <v>0.062</v>
+      </c>
+      <c r="L37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>5625</v>
+      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="K38" s="0">
+        <v>0.124</v>
+      </c>
+      <c r="L38" s="0">
+        <v>0.044999999999999998</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -21919,7 +23503,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -21934,57 +23518,61 @@
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
     <col min="12" max="12" width="6.01171875" customWidth="true"/>
+    <col min="13" max="13" width="7.01171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5334</v>
+        <v>5690</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5335</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5333</v>
+        <v>5689</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5322</v>
+        <v>5677</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5323</v>
+        <v>5678</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5324</v>
+        <v>5679</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5325</v>
+        <v>5680</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5326</v>
+        <v>5681</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5327</v>
+        <v>5682</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5328</v>
+        <v>5683</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5329</v>
+        <v>5684</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5330</v>
+        <v>5685</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5331</v>
+        <v>5686</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5332</v>
+        <v>5687</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>5688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5288</v>
+        <v>5641</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -22005,10 +23593,11 @@
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5289</v>
+        <v>5642</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -22029,10 +23618,11 @@
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5290</v>
+        <v>5643</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -22051,10 +23641,11 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5291</v>
+        <v>5644</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -22073,10 +23664,11 @@
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5292</v>
+        <v>5645</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -22097,10 +23689,11 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5293</v>
+        <v>5646</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -22121,10 +23714,11 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5294</v>
+        <v>5647</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -22143,10 +23737,11 @@
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5295</v>
+        <v>5648</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -22165,10 +23760,11 @@
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5296</v>
+        <v>5649</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -22189,10 +23785,11 @@
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5297</v>
+        <v>5650</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -22213,10 +23810,11 @@
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5298</v>
+        <v>5651</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -22235,10 +23833,11 @@
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5299</v>
+        <v>5652</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -22257,10 +23856,11 @@
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5300</v>
+        <v>5653</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -22279,10 +23879,11 @@
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5301</v>
+        <v>5654</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -22303,10 +23904,11 @@
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5302</v>
+        <v>5655</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -22327,10 +23929,11 @@
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5303</v>
+        <v>5656</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -22349,10 +23952,11 @@
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5304</v>
+        <v>5657</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -22371,10 +23975,11 @@
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5305</v>
+        <v>5658</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -22395,10 +24000,11 @@
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5306</v>
+        <v>5659</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -22419,10 +24025,11 @@
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5307</v>
+        <v>5660</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -22441,10 +24048,11 @@
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5308</v>
+        <v>5661</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -22463,10 +24071,11 @@
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5309</v>
+        <v>5662</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -22487,10 +24096,11 @@
       </c>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5310</v>
+        <v>5663</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -22511,10 +24121,11 @@
       </c>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5311</v>
+        <v>5664</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -22533,10 +24144,11 @@
       </c>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5312</v>
+        <v>5665</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -22555,10 +24167,11 @@
       </c>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5313</v>
+        <v>5666</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -22577,10 +24190,11 @@
       </c>
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5314</v>
+        <v>5667</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -22601,10 +24215,11 @@
         <v>2.3069999999999999</v>
       </c>
       <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5315</v>
+        <v>5668</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -22625,10 +24240,11 @@
         <v>2.3069999999999999</v>
       </c>
       <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5316</v>
+        <v>5669</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -22647,10 +24263,11 @@
         <v>2.3140000000000001</v>
       </c>
       <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5317</v>
+        <v>5670</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -22669,10 +24286,11 @@
         <v>2.3140000000000001</v>
       </c>
       <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5318</v>
+        <v>5671</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -22693,10 +24311,11 @@
       <c r="L33" s="0">
         <v>2.3119999999999998</v>
       </c>
+      <c r="M33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5319</v>
+        <v>5672</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -22717,10 +24336,11 @@
       <c r="L34" s="0">
         <v>2.3119999999999998</v>
       </c>
+      <c r="M34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5320</v>
+        <v>5673</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -22739,10 +24359,11 @@
       <c r="L35" s="0">
         <v>2.3119999999999998</v>
       </c>
+      <c r="M35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5321</v>
+        <v>5674</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -22761,6 +24382,55 @@
       <c r="L36" s="0">
         <v>2.3119999999999998</v>
       </c>
+      <c r="M36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>5675</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0">
+        <v>4.5640000000000001</v>
+      </c>
+      <c r="K37" s="0">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="L37" s="0">
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="M37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>5676</v>
+      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0">
+        <v>9.3010000000000002</v>
+      </c>
+      <c r="K38" s="0">
+        <v>8.5139999999999993</v>
+      </c>
+      <c r="L38" s="0">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="M38" s="0">
+        <v>2.0529999999999999</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="5692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="6062">
   <si>
     <t>Row</t>
   </si>
@@ -17051,6 +17051,1116 @@
   </si>
   <si>
     <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -17116,7 +18226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="561">
+  <borders count="589">
     <border>
       <left/>
       <right/>
@@ -17684,11 +18794,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="561">
+  <cellXfs count="589">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -18250,6 +19388,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="558" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="559" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="588" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18259,7 +19425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -18273,38 +19439,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5380</v>
+        <v>5738</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5381</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5379</v>
+        <v>5737</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5373</v>
+        <v>5731</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5374</v>
+        <v>5732</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5375</v>
+        <v>5733</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5376</v>
+        <v>5734</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5377</v>
+        <v>5735</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5378</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5337</v>
+        <v>5693</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -18323,7 +19489,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5338</v>
+        <v>5694</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -18342,7 +19508,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5339</v>
+        <v>5695</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -18361,7 +19527,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5340</v>
+        <v>5696</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -18380,7 +19546,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5341</v>
+        <v>5697</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -18399,7 +19565,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5342</v>
+        <v>5698</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -18418,7 +19584,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5343</v>
+        <v>5699</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -18437,7 +19603,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5344</v>
+        <v>5700</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -18456,7 +19622,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5345</v>
+        <v>5701</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -18475,7 +19641,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5346</v>
+        <v>5702</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -18494,7 +19660,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5347</v>
+        <v>5703</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -18513,7 +19679,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5348</v>
+        <v>5704</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -18530,7 +19696,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5349</v>
+        <v>5705</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -18547,7 +19713,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5350</v>
+        <v>5706</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -18566,7 +19732,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5351</v>
+        <v>5707</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -18585,7 +19751,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5352</v>
+        <v>5708</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -18604,7 +19770,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5353</v>
+        <v>5709</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -18623,7 +19789,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5354</v>
+        <v>5710</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -18642,7 +19808,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5355</v>
+        <v>5711</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -18661,7 +19827,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5356</v>
+        <v>5712</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -18680,7 +19846,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5357</v>
+        <v>5713</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -18699,7 +19865,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5358</v>
+        <v>5714</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -18718,7 +19884,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5359</v>
+        <v>5715</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -18737,7 +19903,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5360</v>
+        <v>5716</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -18756,7 +19922,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5361</v>
+        <v>5717</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -18775,7 +19941,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5362</v>
+        <v>5718</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -18792,7 +19958,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5363</v>
+        <v>5719</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -18811,7 +19977,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5364</v>
+        <v>5720</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -18830,7 +19996,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5365</v>
+        <v>5721</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -18849,7 +20015,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5366</v>
+        <v>5722</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -18868,7 +20034,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5367</v>
+        <v>5723</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -18887,7 +20053,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5368</v>
+        <v>5724</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -18906,7 +20072,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5369</v>
+        <v>5725</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -18925,7 +20091,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5370</v>
+        <v>5726</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -18944,7 +20110,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5371</v>
+        <v>5727</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -18963,7 +20129,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5372</v>
+        <v>5728</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -18977,6 +20143,44 @@
         <v>2.6629999999999998</v>
       </c>
       <c r="G38" s="0">
+        <v>2.661</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>5729</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="E39" s="0">
+        <v>4.4279999999999999</v>
+      </c>
+      <c r="F39" s="0">
+        <v>2.3100000000000001</v>
+      </c>
+      <c r="G39" s="0">
+        <v>2.661</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>5730</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="E40" s="0">
+        <v>4.3369999999999997</v>
+      </c>
+      <c r="F40" s="0">
+        <v>2.6440000000000001</v>
+      </c>
+      <c r="G40" s="0">
         <v>2.661</v>
       </c>
     </row>
@@ -18986,7 +20190,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -19006,56 +20210,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5432</v>
+        <v>5792</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5433</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5431</v>
+        <v>5791</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5419</v>
+        <v>5779</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5420</v>
+        <v>5780</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5421</v>
+        <v>5781</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5422</v>
+        <v>5782</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5423</v>
+        <v>5783</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5424</v>
+        <v>5784</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5425</v>
+        <v>5785</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5426</v>
+        <v>5786</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5427</v>
+        <v>5787</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5428</v>
+        <v>5788</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5429</v>
+        <v>5789</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>5430</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5383</v>
+        <v>5741</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -19080,7 +20284,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5384</v>
+        <v>5742</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -19103,7 +20307,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5385</v>
+        <v>5743</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -19126,7 +20330,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5386</v>
+        <v>5744</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -19149,7 +20353,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5387</v>
+        <v>5745</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -19174,7 +20378,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5388</v>
+        <v>5746</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -19199,7 +20403,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5389</v>
+        <v>5747</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -19222,7 +20426,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5390</v>
+        <v>5748</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -19245,7 +20449,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5391</v>
+        <v>5749</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -19270,7 +20474,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5392</v>
+        <v>5750</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -19295,7 +20499,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5393</v>
+        <v>5751</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -19318,7 +20522,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5394</v>
+        <v>5752</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -19341,7 +20545,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5395</v>
+        <v>5753</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -19364,7 +20568,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5396</v>
+        <v>5754</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -19389,7 +20593,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5397</v>
+        <v>5755</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -19412,7 +20616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5398</v>
+        <v>5756</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -19435,7 +20639,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5399</v>
+        <v>5757</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -19458,7 +20662,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5400</v>
+        <v>5758</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -19483,7 +20687,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5401</v>
+        <v>5759</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -19508,7 +20712,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5402</v>
+        <v>5760</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -19531,7 +20735,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5403</v>
+        <v>5761</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -19554,7 +20758,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5404</v>
+        <v>5762</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -19579,7 +20783,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5405</v>
+        <v>5763</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -19604,7 +20808,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5406</v>
+        <v>5764</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -19627,7 +20831,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5407</v>
+        <v>5765</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -19650,7 +20854,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5408</v>
+        <v>5766</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -19673,7 +20877,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5409</v>
+        <v>5767</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -19698,7 +20902,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5410</v>
+        <v>5768</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -19721,7 +20925,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5411</v>
+        <v>5769</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -19744,7 +20948,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5412</v>
+        <v>5770</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -19767,7 +20971,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5413</v>
+        <v>5771</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -19792,7 +20996,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5414</v>
+        <v>5772</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -19817,7 +21021,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5415</v>
+        <v>5773</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -19840,7 +21044,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5416</v>
+        <v>5774</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -19863,7 +21067,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5417</v>
+        <v>5775</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -19886,7 +21090,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5418</v>
+        <v>5776</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -19909,13 +21113,59 @@
         <v>2.339</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>5777</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0">
+        <v>1.8200000000000001</v>
+      </c>
+      <c r="L39" s="0">
+        <v>3.5979999999999999</v>
+      </c>
+      <c r="M39" s="0">
+        <v>2.6280000000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>5778</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="L40" s="0">
+        <v>3.4430000000000001</v>
+      </c>
+      <c r="M40" s="0">
+        <v>2.6280000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -19935,56 +21185,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5484</v>
+        <v>5846</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5485</v>
+        <v>5847</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5483</v>
+        <v>5845</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5471</v>
+        <v>5833</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5472</v>
+        <v>5834</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5473</v>
+        <v>5835</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5474</v>
+        <v>5836</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5475</v>
+        <v>5837</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5476</v>
+        <v>5838</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5477</v>
+        <v>5839</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5478</v>
+        <v>5840</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5479</v>
+        <v>5841</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5480</v>
+        <v>5842</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5481</v>
+        <v>5843</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>5482</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5435</v>
+        <v>5795</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -20009,7 +21259,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5436</v>
+        <v>5796</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -20032,7 +21282,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5437</v>
+        <v>5797</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -20055,7 +21305,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5438</v>
+        <v>5798</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -20078,7 +21328,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5439</v>
+        <v>5799</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -20103,7 +21353,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5440</v>
+        <v>5800</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -20128,7 +21378,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5441</v>
+        <v>5801</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -20151,7 +21401,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5442</v>
+        <v>5802</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -20174,7 +21424,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5443</v>
+        <v>5803</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -20199,7 +21449,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5444</v>
+        <v>5804</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -20224,7 +21474,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5445</v>
+        <v>5805</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -20247,7 +21497,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5446</v>
+        <v>5806</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -20270,7 +21520,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5447</v>
+        <v>5807</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -20293,7 +21543,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5448</v>
+        <v>5808</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -20318,7 +21568,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5449</v>
+        <v>5809</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -20341,7 +21591,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5450</v>
+        <v>5810</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -20364,7 +21614,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5451</v>
+        <v>5811</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -20387,7 +21637,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5452</v>
+        <v>5812</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -20412,7 +21662,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5453</v>
+        <v>5813</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -20437,7 +21687,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5454</v>
+        <v>5814</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -20460,7 +21710,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5455</v>
+        <v>5815</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -20483,7 +21733,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5456</v>
+        <v>5816</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -20508,7 +21758,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5457</v>
+        <v>5817</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -20533,7 +21783,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5458</v>
+        <v>5818</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -20556,7 +21806,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5459</v>
+        <v>5819</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -20579,7 +21829,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5460</v>
+        <v>5820</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -20602,7 +21852,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5461</v>
+        <v>5821</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -20627,7 +21877,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5462</v>
+        <v>5822</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -20650,7 +21900,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5463</v>
+        <v>5823</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -20673,7 +21923,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5464</v>
+        <v>5824</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -20696,7 +21946,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5465</v>
+        <v>5825</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -20721,7 +21971,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5466</v>
+        <v>5826</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -20746,7 +21996,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5467</v>
+        <v>5827</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -20769,7 +22019,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5468</v>
+        <v>5828</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -20792,7 +22042,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5469</v>
+        <v>5829</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -20815,7 +22065,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5470</v>
+        <v>5830</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -20838,13 +22088,59 @@
         <v>3.6560000000000001</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>5831</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0">
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="L39" s="0">
+        <v>3.294</v>
+      </c>
+      <c r="M39" s="0">
+        <v>3.2589999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>5832</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0">
+        <v>3.234</v>
+      </c>
+      <c r="L40" s="0">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="M40" s="0">
+        <v>3.2069999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -20864,56 +22160,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5536</v>
+        <v>5900</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5537</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5535</v>
+        <v>5899</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5523</v>
+        <v>5887</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5524</v>
+        <v>5888</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5525</v>
+        <v>5889</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5526</v>
+        <v>5890</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5527</v>
+        <v>5891</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5528</v>
+        <v>5892</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5529</v>
+        <v>5893</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5530</v>
+        <v>5894</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5531</v>
+        <v>5895</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5532</v>
+        <v>5896</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5533</v>
+        <v>5897</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>5534</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5487</v>
+        <v>5849</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -20938,7 +22234,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5488</v>
+        <v>5850</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -20961,7 +22257,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5489</v>
+        <v>5851</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -20984,7 +22280,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5490</v>
+        <v>5852</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -21007,7 +22303,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5491</v>
+        <v>5853</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -21032,7 +22328,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5492</v>
+        <v>5854</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -21057,7 +22353,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5493</v>
+        <v>5855</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -21080,7 +22376,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5494</v>
+        <v>5856</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -21103,7 +22399,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5495</v>
+        <v>5857</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -21128,7 +22424,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5496</v>
+        <v>5858</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -21153,7 +22449,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5497</v>
+        <v>5859</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -21176,7 +22472,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5498</v>
+        <v>5860</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -21199,7 +22495,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5499</v>
+        <v>5861</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -21222,7 +22518,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5500</v>
+        <v>5862</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -21247,7 +22543,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5501</v>
+        <v>5863</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -21270,7 +22566,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5502</v>
+        <v>5864</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -21293,7 +22589,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5503</v>
+        <v>5865</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -21316,7 +22612,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5504</v>
+        <v>5866</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -21341,7 +22637,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5505</v>
+        <v>5867</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -21366,7 +22662,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5506</v>
+        <v>5868</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -21389,7 +22685,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5507</v>
+        <v>5869</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -21412,7 +22708,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5508</v>
+        <v>5870</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -21437,7 +22733,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5509</v>
+        <v>5871</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -21462,7 +22758,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5510</v>
+        <v>5872</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -21485,7 +22781,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5511</v>
+        <v>5873</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -21508,7 +22804,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5512</v>
+        <v>5874</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -21531,7 +22827,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5513</v>
+        <v>5875</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -21556,7 +22852,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5514</v>
+        <v>5876</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -21579,7 +22875,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5515</v>
+        <v>5877</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -21602,7 +22898,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5516</v>
+        <v>5878</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -21625,7 +22921,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5517</v>
+        <v>5879</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -21650,7 +22946,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5518</v>
+        <v>5880</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -21675,7 +22971,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5519</v>
+        <v>5881</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -21698,7 +22994,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5520</v>
+        <v>5882</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -21721,7 +23017,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5521</v>
+        <v>5883</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -21744,7 +23040,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5522</v>
+        <v>5884</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -21767,13 +23063,59 @@
         <v>3.4329999999999998</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>5885</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0">
+        <v>2.6070000000000002</v>
+      </c>
+      <c r="L39" s="0">
+        <v>3.0710000000000002</v>
+      </c>
+      <c r="M39" s="0">
+        <v>3.5310000000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>5886</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="L40" s="0">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="M40" s="0">
+        <v>3.4929999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -21792,53 +23134,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5587</v>
+        <v>5953</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5588</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5586</v>
+        <v>5952</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5575</v>
+        <v>5941</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5576</v>
+        <v>5942</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5577</v>
+        <v>5943</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5578</v>
+        <v>5944</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5579</v>
+        <v>5945</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5580</v>
+        <v>5946</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5581</v>
+        <v>5947</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5582</v>
+        <v>5948</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5583</v>
+        <v>5949</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5584</v>
+        <v>5950</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5585</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5539</v>
+        <v>5903</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -21860,7 +23202,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5540</v>
+        <v>5904</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -21882,7 +23224,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5541</v>
+        <v>5905</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -21904,7 +23246,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5542</v>
+        <v>5906</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -21926,7 +23268,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5543</v>
+        <v>5907</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -21948,7 +23290,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5544</v>
+        <v>5908</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -21970,7 +23312,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5545</v>
+        <v>5909</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -21992,7 +23334,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5546</v>
+        <v>5910</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -22014,7 +23356,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5547</v>
+        <v>5911</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -22038,7 +23380,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5548</v>
+        <v>5912</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -22060,7 +23402,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5549</v>
+        <v>5913</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -22082,7 +23424,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5550</v>
+        <v>5914</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -22104,7 +23446,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5551</v>
+        <v>5915</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -22126,7 +23468,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5552</v>
+        <v>5916</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -22148,7 +23490,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5553</v>
+        <v>5917</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -22170,7 +23512,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5554</v>
+        <v>5918</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -22192,7 +23534,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5555</v>
+        <v>5919</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -22214,7 +23556,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5556</v>
+        <v>5920</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -22236,7 +23578,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5557</v>
+        <v>5921</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -22258,7 +23600,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5558</v>
+        <v>5922</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -22280,7 +23622,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5559</v>
+        <v>5923</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -22302,7 +23644,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5560</v>
+        <v>5924</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -22326,7 +23668,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5561</v>
+        <v>5925</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -22348,7 +23690,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5562</v>
+        <v>5926</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -22370,7 +23712,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5563</v>
+        <v>5927</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -22392,7 +23734,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5564</v>
+        <v>5928</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -22414,7 +23756,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5565</v>
+        <v>5929</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -22436,7 +23778,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5566</v>
+        <v>5930</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -22458,7 +23800,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5567</v>
+        <v>5931</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -22480,7 +23822,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5568</v>
+        <v>5932</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -22502,7 +23844,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5569</v>
+        <v>5933</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -22524,7 +23866,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5570</v>
+        <v>5934</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -22546,7 +23888,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5571</v>
+        <v>5935</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -22568,7 +23910,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5572</v>
+        <v>5936</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -22590,7 +23932,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5573</v>
+        <v>5937</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -22612,7 +23954,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5574</v>
+        <v>5938</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -22632,13 +23974,57 @@
         <v>0.035999999999999997</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>5939</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0">
+        <v>-0.01</v>
+      </c>
+      <c r="K39" s="0">
+        <v>-0.01</v>
+      </c>
+      <c r="L39" s="0">
+        <v>0.029000000000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>5940</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0">
+        <v>-0.012999999999999999</v>
+      </c>
+      <c r="K40" s="0">
+        <v>-0.017999999999999999</v>
+      </c>
+      <c r="L40" s="0">
+        <v>0.035000000000000003</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -22657,53 +24043,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5638</v>
+        <v>6006</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5639</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5637</v>
+        <v>6005</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5626</v>
+        <v>5994</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5627</v>
+        <v>5995</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5628</v>
+        <v>5996</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5629</v>
+        <v>5997</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5630</v>
+        <v>5998</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5631</v>
+        <v>5999</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5632</v>
+        <v>6000</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5633</v>
+        <v>6001</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5634</v>
+        <v>6002</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5635</v>
+        <v>6003</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5636</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5590</v>
+        <v>5956</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -22725,7 +24111,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5591</v>
+        <v>5957</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -22747,7 +24133,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5592</v>
+        <v>5958</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -22769,7 +24155,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5593</v>
+        <v>5959</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -22791,7 +24177,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5594</v>
+        <v>5960</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -22813,7 +24199,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5595</v>
+        <v>5961</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -22835,7 +24221,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5596</v>
+        <v>5962</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -22857,7 +24243,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5597</v>
+        <v>5963</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -22879,7 +24265,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5598</v>
+        <v>5964</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -22903,7 +24289,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5599</v>
+        <v>5965</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -22925,7 +24311,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5600</v>
+        <v>5966</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -22947,7 +24333,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5601</v>
+        <v>5967</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -22969,7 +24355,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5602</v>
+        <v>5968</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -22991,7 +24377,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5603</v>
+        <v>5969</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -23013,7 +24399,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5604</v>
+        <v>5970</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -23035,7 +24421,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5605</v>
+        <v>5971</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -23057,7 +24443,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5606</v>
+        <v>5972</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -23079,7 +24465,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5607</v>
+        <v>5973</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -23101,7 +24487,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5608</v>
+        <v>5974</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -23123,7 +24509,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5609</v>
+        <v>5975</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -23145,7 +24531,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5610</v>
+        <v>5976</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -23167,7 +24553,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5611</v>
+        <v>5977</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -23191,7 +24577,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5612</v>
+        <v>5978</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -23213,7 +24599,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5613</v>
+        <v>5979</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -23235,7 +24621,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5614</v>
+        <v>5980</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -23257,7 +24643,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5615</v>
+        <v>5981</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -23279,7 +24665,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5616</v>
+        <v>5982</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -23301,7 +24687,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5617</v>
+        <v>5983</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -23323,7 +24709,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5618</v>
+        <v>5984</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -23345,7 +24731,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5619</v>
+        <v>5985</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -23367,7 +24753,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5620</v>
+        <v>5986</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -23389,7 +24775,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5621</v>
+        <v>5987</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -23411,7 +24797,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5622</v>
+        <v>5988</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -23433,7 +24819,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5623</v>
+        <v>5989</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -23455,7 +24841,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5624</v>
+        <v>5990</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -23477,7 +24863,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5625</v>
+        <v>5991</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -23497,13 +24883,57 @@
         <v>0.044999999999999998</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>5992</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0">
+        <v>0.114</v>
+      </c>
+      <c r="K39" s="0">
+        <v>0.073999999999999996</v>
+      </c>
+      <c r="L39" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>5993</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0">
+        <v>0.122</v>
+      </c>
+      <c r="K40" s="0">
+        <v>0.11</v>
+      </c>
+      <c r="L40" s="0">
+        <v>0.050999999999999997</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -23523,56 +24953,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5690</v>
+        <v>6060</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5691</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5689</v>
+        <v>6059</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5677</v>
+        <v>6047</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5678</v>
+        <v>6048</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5679</v>
+        <v>6049</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5680</v>
+        <v>6050</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5681</v>
+        <v>6051</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5682</v>
+        <v>6052</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5683</v>
+        <v>6053</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5684</v>
+        <v>6054</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5685</v>
+        <v>6055</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5686</v>
+        <v>6056</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5687</v>
+        <v>6057</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>5688</v>
+        <v>6058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5641</v>
+        <v>6009</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -23597,7 +25027,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5642</v>
+        <v>6010</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -23622,7 +25052,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5643</v>
+        <v>6011</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -23645,7 +25075,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5644</v>
+        <v>6012</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -23668,7 +25098,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5645</v>
+        <v>6013</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -23693,7 +25123,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5646</v>
+        <v>6014</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -23718,7 +25148,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5647</v>
+        <v>6015</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -23741,7 +25171,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5648</v>
+        <v>6016</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -23764,7 +25194,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5649</v>
+        <v>6017</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -23789,7 +25219,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5650</v>
+        <v>6018</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -23814,7 +25244,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5651</v>
+        <v>6019</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -23837,7 +25267,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5652</v>
+        <v>6020</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -23860,7 +25290,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5653</v>
+        <v>6021</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -23883,7 +25313,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5654</v>
+        <v>6022</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -23908,7 +25338,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5655</v>
+        <v>6023</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -23933,7 +25363,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5656</v>
+        <v>6024</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -23956,7 +25386,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5657</v>
+        <v>6025</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -23979,7 +25409,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5658</v>
+        <v>6026</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -24004,7 +25434,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5659</v>
+        <v>6027</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -24029,7 +25459,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5660</v>
+        <v>6028</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -24052,7 +25482,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5661</v>
+        <v>6029</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -24075,7 +25505,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5662</v>
+        <v>6030</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -24100,7 +25530,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5663</v>
+        <v>6031</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -24125,7 +25555,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5664</v>
+        <v>6032</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -24148,7 +25578,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5665</v>
+        <v>6033</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -24171,7 +25601,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5666</v>
+        <v>6034</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -24194,7 +25624,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5667</v>
+        <v>6035</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -24219,7 +25649,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5668</v>
+        <v>6036</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -24244,7 +25674,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5669</v>
+        <v>6037</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -24267,7 +25697,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5670</v>
+        <v>6038</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -24290,7 +25720,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5671</v>
+        <v>6039</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -24315,7 +25745,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5672</v>
+        <v>6040</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -24340,7 +25770,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5673</v>
+        <v>6041</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -24363,7 +25793,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5674</v>
+        <v>6042</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -24386,7 +25816,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5675</v>
+        <v>6043</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -24409,7 +25839,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5676</v>
+        <v>6044</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -24432,6 +25862,54 @@
         <v>2.0529999999999999</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>6045</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0">
+        <v>-0.48399999999999999</v>
+      </c>
+      <c r="K39" s="0">
+        <v>4.681</v>
+      </c>
+      <c r="L39" s="0">
+        <v>3.2120000000000002</v>
+      </c>
+      <c r="M39" s="0">
+        <v>2.081</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>6046</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0">
+        <v>6.0549999999999997</v>
+      </c>
+      <c r="L40" s="0">
+        <v>1.984</v>
+      </c>
+      <c r="M40" s="0">
+        <v>2.3239999999999998</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="6062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6467" uniqueCount="6467">
   <si>
     <t>Row</t>
   </si>
@@ -18197,6 +18197,1221 @@
   </si>
   <si>
     <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
   </si>
   <si>
     <t>Forecast Dates</t>
@@ -18226,7 +19441,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="589">
+  <borders count="617">
     <border>
       <left/>
       <right/>
@@ -18822,11 +20037,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="589">
+  <cellXfs count="617">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -19416,6 +20659,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="586" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="587" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="616" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19425,7 +20696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -19435,42 +20706,46 @@
     <col min="5" max="5" width="7.51171875" customWidth="true"/>
     <col min="6" max="6" width="7.51171875" customWidth="true"/>
     <col min="7" max="7" width="7.51171875" customWidth="true"/>
+    <col min="8" max="8" width="7.51171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5738</v>
+        <v>6113</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5739</v>
+        <v>6114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5737</v>
+        <v>6112</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5731</v>
+        <v>6105</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5732</v>
+        <v>6106</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5733</v>
+        <v>6107</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5734</v>
+        <v>6108</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5735</v>
+        <v>6109</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5736</v>
+        <v>6110</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>6111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5693</v>
+        <v>6063</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -19486,10 +20761,11 @@
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5694</v>
+        <v>6064</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -19505,10 +20781,11 @@
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5695</v>
+        <v>6065</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -19524,10 +20801,11 @@
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5696</v>
+        <v>6066</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -19543,10 +20821,11 @@
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5697</v>
+        <v>6067</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -19562,10 +20841,11 @@
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5698</v>
+        <v>6068</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -19581,10 +20861,11 @@
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5699</v>
+        <v>6069</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -19600,10 +20881,11 @@
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5700</v>
+        <v>6070</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -19619,10 +20901,11 @@
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5701</v>
+        <v>6071</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -19638,10 +20921,11 @@
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5702</v>
+        <v>6072</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -19657,10 +20941,11 @@
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5703</v>
+        <v>6073</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -19676,10 +20961,11 @@
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5704</v>
+        <v>6074</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -19693,10 +20979,11 @@
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5705</v>
+        <v>6075</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -19710,10 +20997,11 @@
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5706</v>
+        <v>6076</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -19729,10 +21017,11 @@
         <v>2.6850000000000001</v>
       </c>
       <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5707</v>
+        <v>6077</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -19748,10 +21037,11 @@
         <v>2.6840000000000002</v>
       </c>
       <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5708</v>
+        <v>6078</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -19767,10 +21057,11 @@
         <v>2.673</v>
       </c>
       <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5709</v>
+        <v>6079</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -19786,10 +21077,11 @@
         <v>2.8199999999999998</v>
       </c>
       <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5710</v>
+        <v>6080</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -19805,10 +21097,11 @@
         <v>2.794</v>
       </c>
       <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5711</v>
+        <v>6081</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -19824,10 +21117,11 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5712</v>
+        <v>6082</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -19843,10 +21137,11 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5713</v>
+        <v>6083</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -19862,10 +21157,11 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5714</v>
+        <v>6084</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -19881,10 +21177,11 @@
         <v>2.3540000000000001</v>
       </c>
       <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5715</v>
+        <v>6085</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -19900,10 +21197,11 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5716</v>
+        <v>6086</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -19919,10 +21217,11 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5717</v>
+        <v>6087</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -19938,10 +21237,11 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5718</v>
+        <v>6088</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -19955,10 +21255,11 @@
         <v>2.649</v>
       </c>
       <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5719</v>
+        <v>6089</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -19974,10 +21275,11 @@
       <c r="G29" s="0">
         <v>2.4449999999999998</v>
       </c>
+      <c r="H29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5720</v>
+        <v>6090</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -19993,10 +21295,11 @@
       <c r="G30" s="0">
         <v>2.4449999999999998</v>
       </c>
+      <c r="H30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5721</v>
+        <v>6091</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -20012,10 +21315,11 @@
       <c r="G31" s="0">
         <v>2.5680000000000001</v>
       </c>
+      <c r="H31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5722</v>
+        <v>6092</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -20031,10 +21335,11 @@
       <c r="G32" s="0">
         <v>2.9260000000000002</v>
       </c>
+      <c r="H32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5723</v>
+        <v>6093</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -20050,10 +21355,11 @@
       <c r="G33" s="0">
         <v>2.706</v>
       </c>
+      <c r="H33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5724</v>
+        <v>6094</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -20069,10 +21375,11 @@
       <c r="G34" s="0">
         <v>2.6000000000000001</v>
       </c>
+      <c r="H34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5725</v>
+        <v>6095</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -20088,10 +21395,11 @@
       <c r="G35" s="0">
         <v>2.5990000000000002</v>
       </c>
+      <c r="H35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5726</v>
+        <v>6096</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -20107,10 +21415,11 @@
       <c r="G36" s="0">
         <v>2.5990000000000002</v>
       </c>
+      <c r="H36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5727</v>
+        <v>6097</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -20126,10 +21435,11 @@
       <c r="G37" s="0">
         <v>2.7160000000000002</v>
       </c>
+      <c r="H37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5728</v>
+        <v>6098</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -20145,10 +21455,11 @@
       <c r="G38" s="0">
         <v>2.661</v>
       </c>
+      <c r="H38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>5729</v>
+        <v>6099</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -20164,10 +21475,11 @@
       <c r="G39" s="0">
         <v>2.661</v>
       </c>
+      <c r="H39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>5730</v>
+        <v>6100</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -20182,6 +21494,85 @@
       </c>
       <c r="G40" s="0">
         <v>2.661</v>
+      </c>
+      <c r="H40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>6101</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0">
+        <v>4.3339999999999996</v>
+      </c>
+      <c r="F41" s="0">
+        <v>2.415</v>
+      </c>
+      <c r="G41" s="0">
+        <v>2.6520000000000001</v>
+      </c>
+      <c r="H41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>6102</v>
+      </c>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0">
+        <v>3.3980000000000001</v>
+      </c>
+      <c r="F42" s="0">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="G42" s="0">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="H42" s="0">
+        <v>2.1560000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>6103</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="F43" s="0">
+        <v>4.7779999999999996</v>
+      </c>
+      <c r="G43" s="0">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="H43" s="0">
+        <v>2.1560000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>6104</v>
+      </c>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="F44" s="0">
+        <v>4.4900000000000002</v>
+      </c>
+      <c r="G44" s="0">
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="H44" s="0">
+        <v>1.8959999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -20190,7 +21581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -20206,60 +21597,64 @@
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
     <col min="12" max="12" width="6.01171875" customWidth="true"/>
     <col min="13" max="13" width="7.01171875" customWidth="true"/>
+    <col min="14" max="14" width="6.8125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5792</v>
+        <v>6172</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5793</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5791</v>
+        <v>6171</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5779</v>
+        <v>6158</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5780</v>
+        <v>6159</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5781</v>
+        <v>6160</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5782</v>
+        <v>6161</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5783</v>
+        <v>6162</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5784</v>
+        <v>6163</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5785</v>
+        <v>6164</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5786</v>
+        <v>6165</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5787</v>
+        <v>6166</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5788</v>
+        <v>6167</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5789</v>
+        <v>6168</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>5790</v>
+        <v>6169</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>6170</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5741</v>
+        <v>6116</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -20281,10 +21676,11 @@
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5742</v>
+        <v>6117</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -20304,10 +21700,11 @@
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5743</v>
+        <v>6118</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -20327,10 +21724,11 @@
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5744</v>
+        <v>6119</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -20350,10 +21748,11 @@
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5745</v>
+        <v>6120</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -20375,10 +21774,11 @@
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5746</v>
+        <v>6121</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -20400,10 +21800,11 @@
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5747</v>
+        <v>6122</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -20423,10 +21824,11 @@
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5748</v>
+        <v>6123</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -20446,10 +21848,11 @@
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5749</v>
+        <v>6124</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -20471,10 +21874,11 @@
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5750</v>
+        <v>6125</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -20496,10 +21900,11 @@
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5751</v>
+        <v>6126</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -20519,10 +21924,11 @@
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5752</v>
+        <v>6127</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -20542,10 +21948,11 @@
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5753</v>
+        <v>6128</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -20565,10 +21972,11 @@
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5754</v>
+        <v>6129</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -20590,10 +21998,11 @@
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5755</v>
+        <v>6130</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -20613,10 +22022,11 @@
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5756</v>
+        <v>6131</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -20636,10 +22046,11 @@
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5757</v>
+        <v>6132</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -20659,10 +22070,11 @@
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5758</v>
+        <v>6133</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -20684,10 +22096,11 @@
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5759</v>
+        <v>6134</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -20709,10 +22122,11 @@
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5760</v>
+        <v>6135</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -20732,10 +22146,11 @@
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5761</v>
+        <v>6136</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -20755,10 +22170,11 @@
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5762</v>
+        <v>6137</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -20780,10 +22196,11 @@
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5763</v>
+        <v>6138</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -20805,10 +22222,11 @@
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5764</v>
+        <v>6139</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -20828,10 +22246,11 @@
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5765</v>
+        <v>6140</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -20851,10 +22270,11 @@
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5766</v>
+        <v>6141</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -20874,10 +22294,11 @@
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5767</v>
+        <v>6142</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -20899,10 +22320,11 @@
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5768</v>
+        <v>6143</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -20922,10 +22344,11 @@
       </c>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5769</v>
+        <v>6144</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -20945,10 +22368,11 @@
       </c>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5770</v>
+        <v>6145</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -20968,10 +22392,11 @@
       </c>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5771</v>
+        <v>6146</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -20993,10 +22418,11 @@
         <v>2.6640000000000001</v>
       </c>
       <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5772</v>
+        <v>6147</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -21018,10 +22444,11 @@
         <v>2.6629999999999998</v>
       </c>
       <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5773</v>
+        <v>6148</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -21041,10 +22468,11 @@
         <v>2.637</v>
       </c>
       <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5774</v>
+        <v>6149</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -21064,10 +22492,11 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5775</v>
+        <v>6150</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -21087,10 +22516,11 @@
         <v>2.6349999999999998</v>
       </c>
       <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5776</v>
+        <v>6151</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -21112,10 +22542,11 @@
       <c r="M38" s="0">
         <v>2.339</v>
       </c>
+      <c r="N38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>5777</v>
+        <v>6152</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -21135,10 +22566,11 @@
       <c r="M39" s="0">
         <v>2.6280000000000001</v>
       </c>
+      <c r="N39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>5778</v>
+        <v>6153</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -21158,6 +22590,105 @@
       <c r="M40" s="0">
         <v>2.6280000000000001</v>
       </c>
+      <c r="N40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>6154</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="L41" s="0">
+        <v>3.524</v>
+      </c>
+      <c r="M41" s="0">
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="N41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>6155</v>
+      </c>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0">
+        <v>3.1200000000000001</v>
+      </c>
+      <c r="L42" s="0">
+        <v>3.25</v>
+      </c>
+      <c r="M42" s="0">
+        <v>3.2919999999999998</v>
+      </c>
+      <c r="N42" s="0">
+        <v>2.6429999999999998</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>6156</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0">
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="M43" s="0">
+        <v>3.5899999999999999</v>
+      </c>
+      <c r="N43" s="0">
+        <v>2.6200000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>6157</v>
+      </c>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0">
+        <v>2.1600000000000001</v>
+      </c>
+      <c r="M44" s="0">
+        <v>3.4060000000000001</v>
+      </c>
+      <c r="N44" s="0">
+        <v>2.6200000000000001</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -21165,7 +22696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -21181,60 +22712,64 @@
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
     <col min="12" max="12" width="6.01171875" customWidth="true"/>
     <col min="13" max="13" width="7.01171875" customWidth="true"/>
+    <col min="14" max="14" width="6.8125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5846</v>
+        <v>6231</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5847</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5845</v>
+        <v>6230</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5833</v>
+        <v>6217</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5834</v>
+        <v>6218</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5835</v>
+        <v>6219</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5836</v>
+        <v>6220</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5837</v>
+        <v>6221</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5838</v>
+        <v>6222</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5839</v>
+        <v>6223</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5840</v>
+        <v>6224</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5841</v>
+        <v>6225</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5842</v>
+        <v>6226</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5843</v>
+        <v>6227</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>5844</v>
+        <v>6228</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>6229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5795</v>
+        <v>6175</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -21256,10 +22791,11 @@
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5796</v>
+        <v>6176</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -21279,10 +22815,11 @@
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5797</v>
+        <v>6177</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -21302,10 +22839,11 @@
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5798</v>
+        <v>6178</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -21325,10 +22863,11 @@
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5799</v>
+        <v>6179</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -21350,10 +22889,11 @@
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5800</v>
+        <v>6180</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -21375,10 +22915,11 @@
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5801</v>
+        <v>6181</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -21398,10 +22939,11 @@
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5802</v>
+        <v>6182</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -21421,10 +22963,11 @@
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5803</v>
+        <v>6183</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -21446,10 +22989,11 @@
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5804</v>
+        <v>6184</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -21471,10 +23015,11 @@
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5805</v>
+        <v>6185</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -21494,10 +23039,11 @@
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5806</v>
+        <v>6186</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -21517,10 +23063,11 @@
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5807</v>
+        <v>6187</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -21540,10 +23087,11 @@
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5808</v>
+        <v>6188</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -21565,10 +23113,11 @@
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5809</v>
+        <v>6189</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -21588,10 +23137,11 @@
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5810</v>
+        <v>6190</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -21611,10 +23161,11 @@
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5811</v>
+        <v>6191</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -21634,10 +23185,11 @@
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5812</v>
+        <v>6192</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -21659,10 +23211,11 @@
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5813</v>
+        <v>6193</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -21684,10 +23237,11 @@
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5814</v>
+        <v>6194</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -21707,10 +23261,11 @@
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5815</v>
+        <v>6195</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -21730,10 +23285,11 @@
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5816</v>
+        <v>6196</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -21755,10 +23311,11 @@
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5817</v>
+        <v>6197</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -21780,10 +23337,11 @@
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5818</v>
+        <v>6198</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -21803,10 +23361,11 @@
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5819</v>
+        <v>6199</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -21826,10 +23385,11 @@
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5820</v>
+        <v>6200</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -21849,10 +23409,11 @@
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5821</v>
+        <v>6201</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -21874,10 +23435,11 @@
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5822</v>
+        <v>6202</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -21897,10 +23459,11 @@
       </c>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5823</v>
+        <v>6203</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -21920,10 +23483,11 @@
       </c>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5824</v>
+        <v>6204</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -21943,10 +23507,11 @@
       </c>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5825</v>
+        <v>6205</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -21968,10 +23533,11 @@
         <v>3.5390000000000001</v>
       </c>
       <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5826</v>
+        <v>6206</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -21993,10 +23559,11 @@
         <v>3.367</v>
       </c>
       <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5827</v>
+        <v>6207</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -22016,10 +23583,11 @@
         <v>3.5720000000000001</v>
       </c>
       <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5828</v>
+        <v>6208</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -22039,10 +23607,11 @@
         <v>3.5979999999999999</v>
       </c>
       <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5829</v>
+        <v>6209</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -22062,10 +23631,11 @@
         <v>3.8279999999999998</v>
       </c>
       <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5830</v>
+        <v>6210</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -22087,10 +23657,11 @@
       <c r="M38" s="0">
         <v>3.6560000000000001</v>
       </c>
+      <c r="N38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>5831</v>
+        <v>6211</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -22110,10 +23681,11 @@
       <c r="M39" s="0">
         <v>3.2589999999999999</v>
       </c>
+      <c r="N39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>5832</v>
+        <v>6212</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -22133,6 +23705,105 @@
       <c r="M40" s="0">
         <v>3.2069999999999999</v>
       </c>
+      <c r="N40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>6213</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0">
+        <v>3.246</v>
+      </c>
+      <c r="L41" s="0">
+        <v>3.1680000000000001</v>
+      </c>
+      <c r="M41" s="0">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="N41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>6214</v>
+      </c>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0">
+        <v>3.46</v>
+      </c>
+      <c r="L42" s="0">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="M42" s="0">
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="N42" s="0">
+        <v>3.2040000000000002</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>6215</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="M43" s="0">
+        <v>2.758</v>
+      </c>
+      <c r="N43" s="0">
+        <v>2.8260000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>6216</v>
+      </c>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0">
+        <v>2.9289999999999998</v>
+      </c>
+      <c r="M44" s="0">
+        <v>2.77</v>
+      </c>
+      <c r="N44" s="0">
+        <v>2.8159999999999998</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -22140,7 +23811,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -22156,60 +23827,64 @@
     <col min="11" max="11" width="6.61328125" customWidth="true"/>
     <col min="12" max="12" width="6.01171875" customWidth="true"/>
     <col min="13" max="13" width="7.01171875" customWidth="true"/>
+    <col min="14" max="14" width="6.8125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5900</v>
+        <v>6290</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5901</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5899</v>
+        <v>6289</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5887</v>
+        <v>6276</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5888</v>
+        <v>6277</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5889</v>
+        <v>6278</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5890</v>
+        <v>6279</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5891</v>
+        <v>6280</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5892</v>
+        <v>6281</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5893</v>
+        <v>6282</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5894</v>
+        <v>6283</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5895</v>
+        <v>6284</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5896</v>
+        <v>6285</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5897</v>
+        <v>6286</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>5898</v>
+        <v>6287</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>6288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5849</v>
+        <v>6234</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -22231,10 +23906,11 @@
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5850</v>
+        <v>6235</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -22254,10 +23930,11 @@
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5851</v>
+        <v>6236</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -22277,10 +23954,11 @@
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5852</v>
+        <v>6237</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -22300,10 +23978,11 @@
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5853</v>
+        <v>6238</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -22325,10 +24004,11 @@
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5854</v>
+        <v>6239</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -22350,10 +24030,11 @@
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5855</v>
+        <v>6240</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -22373,10 +24054,11 @@
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5856</v>
+        <v>6241</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -22396,10 +24078,11 @@
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5857</v>
+        <v>6242</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -22421,10 +24104,11 @@
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5858</v>
+        <v>6243</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -22446,10 +24130,11 @@
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5859</v>
+        <v>6244</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -22469,10 +24154,11 @@
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5860</v>
+        <v>6245</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -22492,10 +24178,11 @@
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5861</v>
+        <v>6246</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -22515,10 +24202,11 @@
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5862</v>
+        <v>6247</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -22540,10 +24228,11 @@
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5863</v>
+        <v>6248</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -22563,10 +24252,11 @@
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5864</v>
+        <v>6249</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -22586,10 +24276,11 @@
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5865</v>
+        <v>6250</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -22609,10 +24300,11 @@
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5866</v>
+        <v>6251</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -22634,10 +24326,11 @@
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5867</v>
+        <v>6252</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -22659,10 +24352,11 @@
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5868</v>
+        <v>6253</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -22682,10 +24376,11 @@
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5869</v>
+        <v>6254</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -22705,10 +24400,11 @@
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5870</v>
+        <v>6255</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -22730,10 +24426,11 @@
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5871</v>
+        <v>6256</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -22755,10 +24452,11 @@
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5872</v>
+        <v>6257</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -22778,10 +24476,11 @@
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5873</v>
+        <v>6258</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -22801,10 +24500,11 @@
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5874</v>
+        <v>6259</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -22824,10 +24524,11 @@
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5875</v>
+        <v>6260</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -22849,10 +24550,11 @@
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5876</v>
+        <v>6261</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -22872,10 +24574,11 @@
       </c>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5877</v>
+        <v>6262</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -22895,10 +24598,11 @@
       </c>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5878</v>
+        <v>6263</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -22918,10 +24622,11 @@
       </c>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5879</v>
+        <v>6264</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -22943,10 +24648,11 @@
         <v>3.1520000000000001</v>
       </c>
       <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5880</v>
+        <v>6265</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -22968,10 +24674,11 @@
         <v>3.069</v>
       </c>
       <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5881</v>
+        <v>6266</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -22991,10 +24698,11 @@
         <v>3.569</v>
       </c>
       <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5882</v>
+        <v>6267</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -23014,10 +24722,11 @@
         <v>3.6019999999999999</v>
       </c>
       <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5883</v>
+        <v>6268</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -23037,10 +24746,11 @@
         <v>3.6970000000000001</v>
       </c>
       <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5884</v>
+        <v>6269</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -23062,10 +24772,11 @@
       <c r="M38" s="0">
         <v>3.4329999999999998</v>
       </c>
+      <c r="N38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>5885</v>
+        <v>6270</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -23085,10 +24796,11 @@
       <c r="M39" s="0">
         <v>3.5310000000000001</v>
       </c>
+      <c r="N39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>5886</v>
+        <v>6271</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -23108,6 +24820,105 @@
       <c r="M40" s="0">
         <v>3.4929999999999999</v>
       </c>
+      <c r="N40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>6272</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0">
+        <v>2.609</v>
+      </c>
+      <c r="L41" s="0">
+        <v>3.177</v>
+      </c>
+      <c r="M41" s="0">
+        <v>3.556</v>
+      </c>
+      <c r="N41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>6273</v>
+      </c>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0">
+        <v>3.7549999999999999</v>
+      </c>
+      <c r="L42" s="0">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="M42" s="0">
+        <v>3.488</v>
+      </c>
+      <c r="N42" s="0">
+        <v>2.9630000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>6274</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="M43" s="0">
+        <v>2.9009999999999998</v>
+      </c>
+      <c r="N43" s="0">
+        <v>2.919</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>6275</v>
+      </c>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0">
+        <v>1.925</v>
+      </c>
+      <c r="M44" s="0">
+        <v>2.7919999999999998</v>
+      </c>
+      <c r="N44" s="0">
+        <v>2.9609999999999999</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -23115,7 +24926,1050 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:M44"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true"/>
+    <col min="3" max="3" width="7.11328125" customWidth="true"/>
+    <col min="4" max="4" width="6.8125" customWidth="true"/>
+    <col min="5" max="5" width="6.51171875" customWidth="true"/>
+    <col min="6" max="6" width="6.8125" customWidth="true"/>
+    <col min="7" max="7" width="7.2109375" customWidth="true"/>
+    <col min="8" max="8" width="6.8125" customWidth="true"/>
+    <col min="9" max="9" width="7.4140625" customWidth="true"/>
+    <col min="10" max="10" width="6.61328125" customWidth="true"/>
+    <col min="11" max="11" width="6.3125" customWidth="true"/>
+    <col min="12" max="12" width="7.01171875" customWidth="true"/>
+    <col min="13" max="13" width="6.8125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6348</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6347</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6335</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6336</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6337</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6338</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6339</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>6340</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>6341</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>6342</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>6343</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>6344</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>6345</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>6346</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6293</v>
+      </c>
+      <c r="B3" s="0">
+        <v>-0.016</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-0.0080000000000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.034000000000000002</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6294</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-0.0030000000000000001</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.044999999999999998</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6295</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.0060000000000000001</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>6296</v>
+      </c>
+      <c r="B6" s="0">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.0070000000000000001</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.035999999999999997</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>6297</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>-0.012</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-0.0080000000000000002</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.037999999999999999</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>6298</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>-0.016</v>
+      </c>
+      <c r="D8" s="0">
+        <v>-0.010999999999999999</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.044999999999999998</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>6299</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0">
+        <v>-0.0089999999999999993</v>
+      </c>
+      <c r="D9" s="0">
+        <v>-0.001</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.042000000000000003</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>6300</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>-0.0080000000000000002</v>
+      </c>
+      <c r="D10" s="0">
+        <v>-0.0030000000000000001</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.039</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>6301</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0">
+        <v>-0.0050000000000000001</v>
+      </c>
+      <c r="D11" s="0">
+        <v>-0.0060000000000000001</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-0.126</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.017000000000000001</v>
+      </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>6302</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>-0.0070000000000000001</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.044999999999999998</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.047</v>
+      </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>6303</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>-0.0070000000000000001</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.043999999999999997</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.051999999999999998</v>
+      </c>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>6304</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0">
+        <v>-0.0070000000000000001</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.042999999999999997</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.043999999999999997</v>
+      </c>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>6305</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0">
+        <v>-0.0050000000000000001</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.042000000000000003</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.034000000000000002</v>
+      </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>6306</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>-0.001</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.010999999999999999</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>6307</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>-0.0060000000000000001</v>
+      </c>
+      <c r="F17" s="0">
+        <v>-0.0030000000000000001</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.025999999999999999</v>
+      </c>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>6308</v>
+      </c>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0">
+        <v>-0.0040000000000000001</v>
+      </c>
+      <c r="F18" s="0">
+        <v>-0.0030000000000000001</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.027</v>
+      </c>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>6309</v>
+      </c>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0">
+        <v>-0.0050000000000000001</v>
+      </c>
+      <c r="F19" s="0">
+        <v>-0.0030000000000000001</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.028000000000000001</v>
+      </c>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>6310</v>
+      </c>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0">
+        <v>-0.016</v>
+      </c>
+      <c r="G20" s="0">
+        <v>-0.023</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>6311</v>
+      </c>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0">
+        <v>-0.014</v>
+      </c>
+      <c r="G21" s="0">
+        <v>-0.021999999999999999</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.023</v>
+      </c>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>6312</v>
+      </c>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="G22" s="0">
+        <v>-0.029000000000000001</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.024</v>
+      </c>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>6313</v>
+      </c>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0">
+        <v>-0.017999999999999999</v>
+      </c>
+      <c r="G23" s="0">
+        <v>-0.033000000000000002</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>6314</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0">
+        <v>-0.023</v>
+      </c>
+      <c r="G24" s="0">
+        <v>-0.029999999999999999</v>
+      </c>
+      <c r="H24" s="0">
+        <v>-0.223</v>
+      </c>
+      <c r="I24" s="0">
+        <v>0.016</v>
+      </c>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>6315</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0">
+        <v>-0.032000000000000001</v>
+      </c>
+      <c r="H25" s="0">
+        <v>-0.063</v>
+      </c>
+      <c r="I25" s="0">
+        <v>0.037999999999999999</v>
+      </c>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>6316</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0">
+        <v>-0.021999999999999999</v>
+      </c>
+      <c r="H26" s="0">
+        <v>-0.042000000000000003</v>
+      </c>
+      <c r="I26" s="0">
+        <v>0.039</v>
+      </c>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>6317</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0">
+        <v>-0.023</v>
+      </c>
+      <c r="H27" s="0">
+        <v>-0.044999999999999998</v>
+      </c>
+      <c r="I27" s="0">
+        <v>0.039</v>
+      </c>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>6318</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0">
+        <v>-0.024</v>
+      </c>
+      <c r="H28" s="0">
+        <v>-0.045999999999999999</v>
+      </c>
+      <c r="I28" s="0">
+        <v>0.039</v>
+      </c>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>6319</v>
+      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0">
+        <v>-0.02</v>
+      </c>
+      <c r="I29" s="0">
+        <v>-0.021000000000000001</v>
+      </c>
+      <c r="J29" s="0">
+        <v>0.029000000000000001</v>
+      </c>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>6320</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="I30" s="0">
+        <v>-0.016</v>
+      </c>
+      <c r="J30" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>6321</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0">
+        <v>-0.016</v>
+      </c>
+      <c r="I31" s="0">
+        <v>-0.012999999999999999</v>
+      </c>
+      <c r="J31" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>6322</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0">
+        <v>-0.016</v>
+      </c>
+      <c r="I32" s="0">
+        <v>-0.012</v>
+      </c>
+      <c r="J32" s="0">
+        <v>0.051999999999999998</v>
+      </c>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>6323</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0">
+        <v>-0.019</v>
+      </c>
+      <c r="J33" s="0">
+        <v>-0.028000000000000001</v>
+      </c>
+      <c r="K33" s="0">
+        <v>0.035999999999999997</v>
+      </c>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>6324</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0">
+        <v>-0.02</v>
+      </c>
+      <c r="J34" s="0">
+        <v>-0.025000000000000001</v>
+      </c>
+      <c r="K34" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>6325</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0">
+        <v>-0.021999999999999999</v>
+      </c>
+      <c r="J35" s="0">
+        <v>-0.029999999999999999</v>
+      </c>
+      <c r="K35" s="0">
+        <v>0.063</v>
+      </c>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>6326</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0">
+        <v>-0.023</v>
+      </c>
+      <c r="J36" s="0">
+        <v>-0.032000000000000001</v>
+      </c>
+      <c r="K36" s="0">
+        <v>0.063</v>
+      </c>
+      <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>6327</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0">
+        <v>-0.02</v>
+      </c>
+      <c r="J37" s="0">
+        <v>-0.035000000000000003</v>
+      </c>
+      <c r="K37" s="0">
+        <v>0.045999999999999999</v>
+      </c>
+      <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>6328</v>
+      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0">
+        <v>-0.02</v>
+      </c>
+      <c r="K38" s="0">
+        <v>-0.029999999999999999</v>
+      </c>
+      <c r="L38" s="0">
+        <v>0.035999999999999997</v>
+      </c>
+      <c r="M38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>6329</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0">
+        <v>-0.01</v>
+      </c>
+      <c r="K39" s="0">
+        <v>-0.01</v>
+      </c>
+      <c r="L39" s="0">
+        <v>0.029000000000000001</v>
+      </c>
+      <c r="M39" s="0"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>6330</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0">
+        <v>-0.012999999999999999</v>
+      </c>
+      <c r="K40" s="0">
+        <v>-0.017999999999999999</v>
+      </c>
+      <c r="L40" s="0">
+        <v>0.035000000000000003</v>
+      </c>
+      <c r="M40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>6331</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0">
+        <v>-0.012</v>
+      </c>
+      <c r="K41" s="0">
+        <v>-0.021000000000000001</v>
+      </c>
+      <c r="L41" s="0">
+        <v>0.036999999999999998</v>
+      </c>
+      <c r="M41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>6332</v>
+      </c>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0">
+        <v>-0.014</v>
+      </c>
+      <c r="L42" s="0">
+        <v>-0.023</v>
+      </c>
+      <c r="M42" s="0">
+        <v>0.035000000000000003</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>6333</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0">
+        <v>-0.010999999999999999</v>
+      </c>
+      <c r="L43" s="0">
+        <v>-0.019</v>
+      </c>
+      <c r="M43" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>6334</v>
+      </c>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0">
+        <v>-0.0070000000000000001</v>
+      </c>
+      <c r="L44" s="0">
+        <v>-0.0089999999999999993</v>
+      </c>
+      <c r="M44" s="0">
+        <v>0.029000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -23130,66 +25984,70 @@
     <col min="10" max="10" width="6.61328125" customWidth="true"/>
     <col min="11" max="11" width="6.01171875" customWidth="true"/>
     <col min="12" max="12" width="7.01171875" customWidth="true"/>
+    <col min="13" max="13" width="6.8125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5953</v>
+        <v>6406</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5954</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5952</v>
+        <v>6405</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5941</v>
+        <v>6393</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5942</v>
+        <v>6394</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5943</v>
+        <v>6395</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5944</v>
+        <v>6396</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5945</v>
+        <v>6397</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5946</v>
+        <v>6398</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5947</v>
+        <v>6399</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5948</v>
+        <v>6400</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>5949</v>
+        <v>6401</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5950</v>
+        <v>6402</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5951</v>
+        <v>6403</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>6404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5903</v>
+        <v>6351</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.016</v>
+        <v>0.126</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0080000000000000002</v>
+        <v>0.042000000000000003</v>
       </c>
       <c r="D3" s="0">
-        <v>0.034000000000000002</v>
+        <v>0.057000000000000002</v>
       </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
@@ -23199,19 +26057,20 @@
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5904</v>
+        <v>6352</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.017000000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0030000000000000001</v>
+        <v>0.0060000000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>0.044999999999999998</v>
+        <v>0.021000000000000001</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -23221,19 +26080,20 @@
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5905</v>
+        <v>6353</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.017000000000000001</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0060000000000000001</v>
+        <v>-0.012999999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.039</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -23243,19 +26103,20 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5906</v>
+        <v>6354</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.017000000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0070000000000000001</v>
+        <v>-0.014999999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>0.035999999999999997</v>
+        <v>0.039</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -23265,20 +26126,21 @@
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5907</v>
+        <v>6355</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
-        <v>-0.012</v>
+        <v>0.111</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0080000000000000002</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>0.037999999999999999</v>
+        <v>0.063</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
@@ -23287,20 +26149,21 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5908</v>
+        <v>6356</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
-        <v>-0.016</v>
+        <v>0.124</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.010999999999999999</v>
+        <v>0.058999999999999997</v>
       </c>
       <c r="E8" s="0">
-        <v>0.044999999999999998</v>
+        <v>0.057000000000000002</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -23309,20 +26172,21 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5909</v>
+        <v>6357</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
-        <v>-0.0089999999999999993</v>
+        <v>0.104</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.001</v>
+        <v>0.043999999999999997</v>
       </c>
       <c r="E9" s="0">
-        <v>0.042000000000000003</v>
+        <v>0.051999999999999998</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -23331,20 +26195,21 @@
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5910</v>
+        <v>6358</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
-        <v>-0.0080000000000000002</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0030000000000000001</v>
+        <v>0.051999999999999998</v>
       </c>
       <c r="E10" s="0">
-        <v>0.039</v>
+        <v>0.052999999999999999</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -23353,23 +26218,24 @@
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5911</v>
+        <v>6359</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
-        <v>-0.0050000000000000001</v>
+        <v>0.092999999999999999</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0060000000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.126</v>
+        <v>0.062</v>
       </c>
       <c r="F11" s="0">
-        <v>0.017000000000000001</v>
+        <v>0.068000000000000005</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
@@ -23377,21 +26243,22 @@
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5912</v>
+        <v>6360</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0">
-        <v>-0.0070000000000000001</v>
+        <v>0.099000000000000005</v>
       </c>
       <c r="E12" s="0">
-        <v>0.044999999999999998</v>
+        <v>-0.001</v>
       </c>
       <c r="F12" s="0">
-        <v>0.047</v>
+        <v>0.058000000000000003</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -23399,21 +26266,22 @@
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5913</v>
+        <v>6361</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0">
-        <v>-0.0070000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="E13" s="0">
-        <v>0.043999999999999997</v>
+        <v>0.0089999999999999993</v>
       </c>
       <c r="F13" s="0">
-        <v>0.051999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
@@ -23421,21 +26289,22 @@
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5914</v>
+        <v>6362</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="0">
-        <v>-0.0070000000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="E14" s="0">
-        <v>0.042999999999999997</v>
+        <v>0.0089999999999999993</v>
       </c>
       <c r="F14" s="0">
-        <v>0.043999999999999997</v>
+        <v>0.055</v>
       </c>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
@@ -23443,21 +26312,22 @@
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5915</v>
+        <v>6363</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0">
-        <v>-0.0050000000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>0.042000000000000003</v>
+        <v>-0.0089999999999999993</v>
       </c>
       <c r="F15" s="0">
-        <v>0.034000000000000002</v>
+        <v>0.057000000000000002</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -23465,1007 +26335,103 @@
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5916</v>
+        <v>6364</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0">
-        <v>-0.001</v>
+        <v>0.124</v>
       </c>
       <c r="F16" s="0">
-        <v>0.010999999999999999</v>
+        <v>0.012999999999999999</v>
       </c>
       <c r="G16" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.042999999999999997</v>
       </c>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5917</v>
+        <v>6365</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0">
-        <v>-0.0060000000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.0030000000000000001</v>
+        <v>0.075999999999999998</v>
       </c>
       <c r="G17" s="0">
-        <v>0.025999999999999999</v>
+        <v>0.049000000000000002</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5918</v>
+        <v>6366</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0">
-        <v>-0.0040000000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.0030000000000000001</v>
+        <v>0.085000000000000006</v>
       </c>
       <c r="G18" s="0">
-        <v>0.027</v>
+        <v>0.050999999999999997</v>
       </c>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5919</v>
+        <v>6367</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0">
-        <v>-0.0050000000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.0030000000000000001</v>
+        <v>0.075999999999999998</v>
       </c>
       <c r="G19" s="0">
-        <v>0.028000000000000001</v>
+        <v>0.050999999999999997</v>
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5920</v>
-      </c>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0">
-        <v>-0.016</v>
-      </c>
-      <c r="G20" s="0">
-        <v>-0.023</v>
-      </c>
-      <c r="H20" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>5921</v>
-      </c>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0">
-        <v>-0.014</v>
-      </c>
-      <c r="G21" s="0">
-        <v>-0.021999999999999999</v>
-      </c>
-      <c r="H21" s="0">
-        <v>0.023</v>
-      </c>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>5922</v>
-      </c>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0">
-        <v>-0.017000000000000001</v>
-      </c>
-      <c r="G22" s="0">
-        <v>-0.029000000000000001</v>
-      </c>
-      <c r="H22" s="0">
-        <v>0.024</v>
-      </c>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>5923</v>
-      </c>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0">
-        <v>-0.017999999999999999</v>
-      </c>
-      <c r="G23" s="0">
-        <v>-0.033000000000000002</v>
-      </c>
-      <c r="H23" s="0">
-        <v>0.025000000000000001</v>
-      </c>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>5924</v>
-      </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0">
-        <v>-0.023</v>
-      </c>
-      <c r="G24" s="0">
-        <v>-0.029999999999999999</v>
-      </c>
-      <c r="H24" s="0">
-        <v>-0.223</v>
-      </c>
-      <c r="I24" s="0">
-        <v>0.016</v>
-      </c>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>5925</v>
-      </c>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0">
-        <v>-0.032000000000000001</v>
-      </c>
-      <c r="H25" s="0">
-        <v>-0.063</v>
-      </c>
-      <c r="I25" s="0">
-        <v>0.037999999999999999</v>
-      </c>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>5926</v>
-      </c>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0">
-        <v>-0.021999999999999999</v>
-      </c>
-      <c r="H26" s="0">
-        <v>-0.042000000000000003</v>
-      </c>
-      <c r="I26" s="0">
-        <v>0.039</v>
-      </c>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>5927</v>
-      </c>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0">
-        <v>-0.023</v>
-      </c>
-      <c r="H27" s="0">
-        <v>-0.044999999999999998</v>
-      </c>
-      <c r="I27" s="0">
-        <v>0.039</v>
-      </c>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>5928</v>
-      </c>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0">
-        <v>-0.024</v>
-      </c>
-      <c r="H28" s="0">
-        <v>-0.045999999999999999</v>
-      </c>
-      <c r="I28" s="0">
-        <v>0.039</v>
-      </c>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>5929</v>
-      </c>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0">
-        <v>-0.02</v>
-      </c>
-      <c r="I29" s="0">
-        <v>-0.021000000000000001</v>
-      </c>
-      <c r="J29" s="0">
-        <v>0.029000000000000001</v>
-      </c>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>5930</v>
-      </c>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0">
-        <v>-0.017000000000000001</v>
-      </c>
-      <c r="I30" s="0">
-        <v>-0.016</v>
-      </c>
-      <c r="J30" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>5931</v>
-      </c>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0">
-        <v>-0.016</v>
-      </c>
-      <c r="I31" s="0">
-        <v>-0.012999999999999999</v>
-      </c>
-      <c r="J31" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>5932</v>
-      </c>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0">
-        <v>-0.016</v>
-      </c>
-      <c r="I32" s="0">
-        <v>-0.012</v>
-      </c>
-      <c r="J32" s="0">
-        <v>0.051999999999999998</v>
-      </c>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>5933</v>
-      </c>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0">
-        <v>-0.019</v>
-      </c>
-      <c r="J33" s="0">
-        <v>-0.028000000000000001</v>
-      </c>
-      <c r="K33" s="0">
-        <v>0.035999999999999997</v>
-      </c>
-      <c r="L33" s="0"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>5934</v>
-      </c>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0">
-        <v>-0.02</v>
-      </c>
-      <c r="J34" s="0">
-        <v>-0.025000000000000001</v>
-      </c>
-      <c r="K34" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="L34" s="0"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>5935</v>
-      </c>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0">
-        <v>-0.021999999999999999</v>
-      </c>
-      <c r="J35" s="0">
-        <v>-0.029999999999999999</v>
-      </c>
-      <c r="K35" s="0">
-        <v>0.063</v>
-      </c>
-      <c r="L35" s="0"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>5936</v>
-      </c>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0">
-        <v>-0.023</v>
-      </c>
-      <c r="J36" s="0">
-        <v>-0.032000000000000001</v>
-      </c>
-      <c r="K36" s="0">
-        <v>0.063</v>
-      </c>
-      <c r="L36" s="0"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>5937</v>
-      </c>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0">
-        <v>-0.02</v>
-      </c>
-      <c r="J37" s="0">
-        <v>-0.035000000000000003</v>
-      </c>
-      <c r="K37" s="0">
-        <v>0.045999999999999999</v>
-      </c>
-      <c r="L37" s="0"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>5938</v>
-      </c>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0">
-        <v>-0.02</v>
-      </c>
-      <c r="K38" s="0">
-        <v>-0.029999999999999999</v>
-      </c>
-      <c r="L38" s="0">
-        <v>0.035999999999999997</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>5939</v>
-      </c>
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0">
-        <v>-0.01</v>
-      </c>
-      <c r="K39" s="0">
-        <v>-0.01</v>
-      </c>
-      <c r="L39" s="0">
-        <v>0.029000000000000001</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>5940</v>
-      </c>
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0">
-        <v>-0.012999999999999999</v>
-      </c>
-      <c r="K40" s="0">
-        <v>-0.017999999999999999</v>
-      </c>
-      <c r="L40" s="0">
-        <v>0.035000000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.4140625" customWidth="true"/>
-    <col min="2" max="2" width="6.61328125" customWidth="true"/>
-    <col min="3" max="3" width="7.11328125" customWidth="true"/>
-    <col min="4" max="4" width="6.8125" customWidth="true"/>
-    <col min="5" max="5" width="6.51171875" customWidth="true"/>
-    <col min="6" max="6" width="6.8125" customWidth="true"/>
-    <col min="7" max="7" width="7.2109375" customWidth="true"/>
-    <col min="8" max="8" width="6.8125" customWidth="true"/>
-    <col min="9" max="9" width="7.4140625" customWidth="true"/>
-    <col min="10" max="10" width="6.61328125" customWidth="true"/>
-    <col min="11" max="11" width="6.01171875" customWidth="true"/>
-    <col min="12" max="12" width="7.01171875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6006</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>6007</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>6005</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5994</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>5997</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>5998</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>5999</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>6000</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>6001</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>6002</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>6003</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>6004</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>5956</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.126</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.042000000000000003</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.057000000000000002</v>
-      </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>5957</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.124</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.0060000000000000001</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.021000000000000001</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>5958</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="C5" s="0">
-        <v>-0.012999999999999999</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.039</v>
-      </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>5959</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="C6" s="0">
-        <v>-0.014999999999999999</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.039</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>5960</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0">
-        <v>0.111</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.063</v>
-      </c>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>5961</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0">
-        <v>0.124</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.058999999999999997</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.057000000000000002</v>
-      </c>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>5962</v>
-      </c>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0">
-        <v>0.104</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.043999999999999997</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.051999999999999998</v>
-      </c>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>5963</v>
-      </c>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.051999999999999998</v>
-      </c>
-      <c r="E10" s="0">
-        <v>0.052999999999999999</v>
-      </c>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>5964</v>
-      </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="E11" s="0">
-        <v>0.062</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.068000000000000005</v>
-      </c>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>5965</v>
-      </c>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0">
-        <v>0.099000000000000005</v>
-      </c>
-      <c r="E12" s="0">
-        <v>-0.001</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0.058000000000000003</v>
-      </c>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>5966</v>
-      </c>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="E13" s="0">
-        <v>0.0089999999999999993</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>5967</v>
-      </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="E14" s="0">
-        <v>0.0089999999999999993</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0.055</v>
-      </c>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>5968</v>
-      </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E15" s="0">
-        <v>-0.0089999999999999993</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0.057000000000000002</v>
-      </c>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>5969</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0">
-        <v>0.124</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0.012999999999999999</v>
-      </c>
-      <c r="G16" s="0">
-        <v>0.042999999999999997</v>
-      </c>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>5970</v>
-      </c>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="F17" s="0">
-        <v>0.075999999999999998</v>
-      </c>
-      <c r="G17" s="0">
-        <v>0.049000000000000002</v>
-      </c>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>5971</v>
-      </c>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0">
-        <v>0.124</v>
-      </c>
-      <c r="F18" s="0">
-        <v>0.085000000000000006</v>
-      </c>
-      <c r="G18" s="0">
-        <v>0.050999999999999997</v>
-      </c>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>5972</v>
-      </c>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0">
-        <v>0.123</v>
-      </c>
-      <c r="F19" s="0">
-        <v>0.075999999999999998</v>
-      </c>
-      <c r="G19" s="0">
-        <v>0.050999999999999997</v>
-      </c>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>5973</v>
+        <v>6368</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -24484,10 +26450,11 @@
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5974</v>
+        <v>6369</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -24506,10 +26473,11 @@
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5975</v>
+        <v>6370</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -24528,10 +26496,11 @@
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5976</v>
+        <v>6371</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -24550,10 +26519,11 @@
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5977</v>
+        <v>6372</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -24574,10 +26544,11 @@
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5978</v>
+        <v>6373</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -24596,10 +26567,11 @@
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5979</v>
+        <v>6374</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -24618,10 +26590,11 @@
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5980</v>
+        <v>6375</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -24640,10 +26613,11 @@
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5981</v>
+        <v>6376</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -24662,10 +26636,11 @@
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5982</v>
+        <v>6377</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -24684,10 +26659,11 @@
       </c>
       <c r="K29" s="0"/>
       <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5983</v>
+        <v>6378</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -24706,10 +26682,11 @@
       </c>
       <c r="K30" s="0"/>
       <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5984</v>
+        <v>6379</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -24728,10 +26705,11 @@
       </c>
       <c r="K31" s="0"/>
       <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5985</v>
+        <v>6380</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -24750,10 +26728,11 @@
       </c>
       <c r="K32" s="0"/>
       <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5986</v>
+        <v>6381</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -24772,10 +26751,11 @@
         <v>0.082000000000000003</v>
       </c>
       <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5987</v>
+        <v>6382</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -24794,10 +26774,11 @@
         <v>0.066000000000000003</v>
       </c>
       <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5988</v>
+        <v>6383</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -24816,10 +26797,11 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5989</v>
+        <v>6384</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -24838,10 +26820,11 @@
         <v>0.050999999999999997</v>
       </c>
       <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5990</v>
+        <v>6385</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -24860,10 +26843,11 @@
         <v>0.062</v>
       </c>
       <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5991</v>
+        <v>6386</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -24882,10 +26866,11 @@
       <c r="L38" s="0">
         <v>0.044999999999999998</v>
       </c>
+      <c r="M38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>5992</v>
+        <v>6387</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -24904,10 +26889,11 @@
       <c r="L39" s="0">
         <v>0.059999999999999998</v>
       </c>
+      <c r="M39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>5993</v>
+        <v>6388</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -24926,6 +26912,99 @@
       <c r="L40" s="0">
         <v>0.050999999999999997</v>
       </c>
+      <c r="M40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>6389</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0">
+        <v>0.121</v>
+      </c>
+      <c r="K41" s="0">
+        <v>0.106</v>
+      </c>
+      <c r="L41" s="0">
+        <v>0.043999999999999997</v>
+      </c>
+      <c r="M41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>6390</v>
+      </c>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0">
+        <v>0.126</v>
+      </c>
+      <c r="L42" s="0">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M42" s="0">
+        <v>0.049000000000000002</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>6391</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L43" s="0">
+        <v>0.107</v>
+      </c>
+      <c r="M43" s="0">
+        <v>0.044999999999999998</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>6392</v>
+      </c>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L44" s="0">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="M44" s="0">
+        <v>0.031</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -24933,7 +27012,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -24946,63 +27025,67 @@
     <col min="8" max="8" width="7.2109375" customWidth="true"/>
     <col min="9" max="9" width="6.8125" customWidth="true"/>
     <col min="10" max="10" width="7.4140625" customWidth="true"/>
-    <col min="11" max="11" width="6.61328125" customWidth="true"/>
-    <col min="12" max="12" width="6.01171875" customWidth="true"/>
+    <col min="11" max="11" width="6.7109375" customWidth="true"/>
+    <col min="12" max="12" width="6.7109375" customWidth="true"/>
     <col min="13" max="13" width="7.01171875" customWidth="true"/>
+    <col min="14" max="14" width="6.8125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6060</v>
+        <v>6465</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6061</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6059</v>
+        <v>6464</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6047</v>
+        <v>6451</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6048</v>
+        <v>6452</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6049</v>
+        <v>6453</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6050</v>
+        <v>6454</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>6051</v>
+        <v>6455</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>6052</v>
+        <v>6456</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>6053</v>
+        <v>6457</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>6054</v>
+        <v>6458</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>6055</v>
+        <v>6459</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>6056</v>
+        <v>6460</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>6057</v>
+        <v>6461</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>6058</v>
+        <v>6462</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>6463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6009</v>
+        <v>6409</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -25024,10 +27107,11 @@
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6010</v>
+        <v>6410</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -25049,10 +27133,11 @@
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6011</v>
+        <v>6411</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -25072,10 +27157,11 @@
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6012</v>
+        <v>6412</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -25095,10 +27181,11 @@
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6013</v>
+        <v>6413</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -25120,10 +27207,11 @@
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6014</v>
+        <v>6414</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -25145,10 +27233,11 @@
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6015</v>
+        <v>6415</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -25168,10 +27257,11 @@
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6016</v>
+        <v>6416</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -25191,10 +27281,11 @@
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6017</v>
+        <v>6417</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -25216,10 +27307,11 @@
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6018</v>
+        <v>6418</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -25241,10 +27333,11 @@
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6019</v>
+        <v>6419</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -25264,10 +27357,11 @@
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6020</v>
+        <v>6420</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -25287,10 +27381,11 @@
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6021</v>
+        <v>6421</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -25310,10 +27405,11 @@
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6022</v>
+        <v>6422</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -25335,10 +27431,11 @@
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6023</v>
+        <v>6423</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -25360,10 +27457,11 @@
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6024</v>
+        <v>6424</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -25383,10 +27481,11 @@
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6025</v>
+        <v>6425</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -25406,10 +27505,11 @@
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6026</v>
+        <v>6426</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -25431,10 +27531,11 @@
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6027</v>
+        <v>6427</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -25456,10 +27557,11 @@
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6028</v>
+        <v>6428</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -25479,10 +27581,11 @@
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6029</v>
+        <v>6429</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -25502,10 +27605,11 @@
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6030</v>
+        <v>6430</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -25527,10 +27631,11 @@
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6031</v>
+        <v>6431</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -25552,10 +27657,11 @@
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6032</v>
+        <v>6432</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -25575,10 +27681,11 @@
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6033</v>
+        <v>6433</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -25598,10 +27705,11 @@
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6034</v>
+        <v>6434</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -25621,10 +27729,11 @@
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6035</v>
+        <v>6435</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -25646,10 +27755,11 @@
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6036</v>
+        <v>6436</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -25671,10 +27781,11 @@
       </c>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6037</v>
+        <v>6437</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -25694,10 +27805,11 @@
       </c>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6038</v>
+        <v>6438</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -25717,10 +27829,11 @@
       </c>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6039</v>
+        <v>6439</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -25742,10 +27855,11 @@
         <v>2.3119999999999998</v>
       </c>
       <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6040</v>
+        <v>6440</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -25767,10 +27881,11 @@
         <v>2.3119999999999998</v>
       </c>
       <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6041</v>
+        <v>6441</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -25790,10 +27905,11 @@
         <v>2.3119999999999998</v>
       </c>
       <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6042</v>
+        <v>6442</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -25813,10 +27929,11 @@
         <v>2.3119999999999998</v>
       </c>
       <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6043</v>
+        <v>6443</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -25836,10 +27953,11 @@
         <v>2.3119999999999998</v>
       </c>
       <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6044</v>
+        <v>6444</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -25861,10 +27979,11 @@
       <c r="M38" s="0">
         <v>2.0529999999999999</v>
       </c>
+      <c r="N38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6045</v>
+        <v>6445</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -25886,10 +28005,11 @@
       <c r="M39" s="0">
         <v>2.081</v>
       </c>
+      <c r="N39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6046</v>
+        <v>6446</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -25909,6 +28029,107 @@
       <c r="M40" s="0">
         <v>2.3239999999999998</v>
       </c>
+      <c r="N40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>6447</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0">
+        <v>5.4669999999999996</v>
+      </c>
+      <c r="L41" s="0">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="M41" s="0">
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="N41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>6448</v>
+      </c>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0">
+        <v>13.038</v>
+      </c>
+      <c r="L42" s="0">
+        <v>10.356999999999999</v>
+      </c>
+      <c r="M42" s="0">
+        <v>1.849</v>
+      </c>
+      <c r="N42" s="0">
+        <v>2.3100000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>6449</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0">
+        <v>13.986000000000001</v>
+      </c>
+      <c r="L43" s="0">
+        <v>8.9689999999999994</v>
+      </c>
+      <c r="M43" s="0">
+        <v>4.0149999999999997</v>
+      </c>
+      <c r="N43" s="0">
+        <v>2.3100000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>6450</v>
+      </c>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0">
+        <v>3.8570000000000002</v>
+      </c>
+      <c r="M44" s="0">
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="N44" s="0">
+        <v>2.3340000000000001</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6467" uniqueCount="6467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6879" uniqueCount="6879">
   <si>
     <t>Row</t>
   </si>
@@ -19373,6 +19373,1242 @@
   </si>
   <si>
     <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -19441,7 +20677,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="617">
+  <borders count="645">
     <border>
       <left/>
       <right/>
@@ -20065,11 +21301,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="617">
+  <cellXfs count="645">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -20687,6 +21951,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="614" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="615" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="644" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20696,7 +21988,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -20711,41 +22003,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6113</v>
+        <v>6519</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6114</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6112</v>
+        <v>6518</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6105</v>
+        <v>6511</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6106</v>
+        <v>6512</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6107</v>
+        <v>6513</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6108</v>
+        <v>6514</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>6109</v>
+        <v>6515</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>6110</v>
+        <v>6516</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>6111</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6063</v>
+        <v>6468</v>
       </c>
       <c r="B3" s="0">
         <v>1.6419999999999999</v>
@@ -20765,7 +22057,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6064</v>
+        <v>6469</v>
       </c>
       <c r="B4" s="0">
         <v>1.6479999999999999</v>
@@ -20785,7 +22077,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6065</v>
+        <v>6470</v>
       </c>
       <c r="B5" s="0">
         <v>3.6659999999999999</v>
@@ -20805,7 +22097,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6066</v>
+        <v>6471</v>
       </c>
       <c r="B6" s="0">
         <v>5.6379999999999999</v>
@@ -20825,7 +22117,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6067</v>
+        <v>6472</v>
       </c>
       <c r="B7" s="0">
         <v>3.5710000000000002</v>
@@ -20845,7 +22137,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6068</v>
+        <v>6473</v>
       </c>
       <c r="B8" s="0">
         <v>3.4950000000000001</v>
@@ -20865,7 +22157,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6069</v>
+        <v>6474</v>
       </c>
       <c r="B9" s="0">
         <v>4.3760000000000003</v>
@@ -20885,7 +22177,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6070</v>
+        <v>6475</v>
       </c>
       <c r="B10" s="0">
         <v>4.423</v>
@@ -20905,7 +22197,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6071</v>
+        <v>6476</v>
       </c>
       <c r="B11" s="0">
         <v>4.3529999999999998</v>
@@ -20925,7 +22217,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6072</v>
+        <v>6477</v>
       </c>
       <c r="B12" s="0">
         <v>3.8980000000000001</v>
@@ -20945,7 +22237,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6073</v>
+        <v>6478</v>
       </c>
       <c r="B13" s="0">
         <v>3.8570000000000002</v>
@@ -20965,7 +22257,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6074</v>
+        <v>6479</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -20983,7 +22275,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6075</v>
+        <v>6480</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -21001,7 +22293,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6076</v>
+        <v>6481</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -21021,7 +22313,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6077</v>
+        <v>6482</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -21041,7 +22333,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6078</v>
+        <v>6483</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -21061,7 +22353,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6079</v>
+        <v>6484</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -21081,7 +22373,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6080</v>
+        <v>6485</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -21101,7 +22393,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6081</v>
+        <v>6486</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -21121,7 +22413,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6082</v>
+        <v>6487</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -21141,7 +22433,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6083</v>
+        <v>6488</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -21161,7 +22453,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6084</v>
+        <v>6489</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -21181,7 +22473,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6085</v>
+        <v>6490</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -21201,7 +22493,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6086</v>
+        <v>6491</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -21221,7 +22513,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6087</v>
+        <v>6492</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -21241,7 +22533,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6088</v>
+        <v>6493</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -21259,7 +22551,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6089</v>
+        <v>6494</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -21279,7 +22571,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6090</v>
+        <v>6495</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -21299,7 +22591,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6091</v>
+        <v>6496</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -21319,7 +22611,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6092</v>
+        <v>6497</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -21339,7 +22631,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6093</v>
+        <v>6498</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -21359,7 +22651,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6094</v>
+        <v>6499</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -21379,7 +22671,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6095</v>
+        <v>6500</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -21399,7 +22691,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6096</v>
+        <v>6501</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -21419,7 +22711,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6097</v>
+        <v>6502</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -21439,7 +22731,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6098</v>
+        <v>6503</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -21459,7 +22751,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6099</v>
+        <v>6504</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -21479,7 +22771,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6100</v>
+        <v>6505</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -21499,7 +22791,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6101</v>
+        <v>6506</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -21517,7 +22809,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6102</v>
+        <v>6507</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -21537,7 +22829,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6103</v>
+        <v>6508</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -21557,7 +22849,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6104</v>
+        <v>6509</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -21573,6 +22865,26 @@
       </c>
       <c r="H44" s="0">
         <v>1.8959999999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>6510</v>
+      </c>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0">
+        <v>6.218</v>
+      </c>
+      <c r="F45" s="0">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G45" s="0">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="H45" s="0">
+        <v>0.69699999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -21581,7 +22893,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -21602,59 +22914,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6172</v>
+        <v>6579</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6173</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6171</v>
+        <v>6578</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6158</v>
+        <v>6565</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6159</v>
+        <v>6566</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6160</v>
+        <v>6567</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6161</v>
+        <v>6568</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>6162</v>
+        <v>6569</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>6163</v>
+        <v>6570</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>6164</v>
+        <v>6571</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>6165</v>
+        <v>6572</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>6166</v>
+        <v>6573</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>6167</v>
+        <v>6574</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>6168</v>
+        <v>6575</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>6169</v>
+        <v>6576</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>6170</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6116</v>
+        <v>6522</v>
       </c>
       <c r="B3" s="0">
         <v>4.7450000000000001</v>
@@ -21680,7 +22992,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6117</v>
+        <v>6523</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -21704,7 +23016,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6118</v>
+        <v>6524</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -21728,7 +23040,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6119</v>
+        <v>6525</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -21752,7 +23064,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6120</v>
+        <v>6526</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -21778,7 +23090,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6121</v>
+        <v>6527</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -21804,7 +23116,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6122</v>
+        <v>6528</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -21828,7 +23140,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6123</v>
+        <v>6529</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -21852,7 +23164,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6124</v>
+        <v>6530</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -21878,7 +23190,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6125</v>
+        <v>6531</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -21904,7 +23216,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6126</v>
+        <v>6532</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -21928,7 +23240,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6127</v>
+        <v>6533</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -21952,7 +23264,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6128</v>
+        <v>6534</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -21976,7 +23288,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6129</v>
+        <v>6535</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -22002,7 +23314,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6130</v>
+        <v>6536</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -22026,7 +23338,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6131</v>
+        <v>6537</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -22050,7 +23362,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6132</v>
+        <v>6538</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -22074,7 +23386,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6133</v>
+        <v>6539</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -22100,7 +23412,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6134</v>
+        <v>6540</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -22126,7 +23438,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6135</v>
+        <v>6541</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -22150,7 +23462,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6136</v>
+        <v>6542</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -22174,7 +23486,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6137</v>
+        <v>6543</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -22200,7 +23512,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6138</v>
+        <v>6544</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -22226,7 +23538,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6139</v>
+        <v>6545</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -22250,7 +23562,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6140</v>
+        <v>6546</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -22274,7 +23586,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6141</v>
+        <v>6547</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -22298,7 +23610,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6142</v>
+        <v>6548</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -22324,7 +23636,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6143</v>
+        <v>6549</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -22348,7 +23660,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6144</v>
+        <v>6550</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -22372,7 +23684,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6145</v>
+        <v>6551</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -22396,7 +23708,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6146</v>
+        <v>6552</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -22422,7 +23734,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6147</v>
+        <v>6553</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -22448,7 +23760,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6148</v>
+        <v>6554</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -22472,7 +23784,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6149</v>
+        <v>6555</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -22496,7 +23808,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6150</v>
+        <v>6556</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -22520,7 +23832,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6151</v>
+        <v>6557</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -22546,7 +23858,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6152</v>
+        <v>6558</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -22570,7 +23882,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6153</v>
+        <v>6559</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -22594,7 +23906,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6154</v>
+        <v>6560</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -22618,7 +23930,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6155</v>
+        <v>6561</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -22644,7 +23956,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6156</v>
+        <v>6562</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -22668,7 +23980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6157</v>
+        <v>6563</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -22690,13 +24002,37 @@
         <v>2.6200000000000001</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>6564</v>
+      </c>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0">
+        <v>2.3929999999999998</v>
+      </c>
+      <c r="M45" s="0">
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="N45" s="0">
+        <v>2.6200000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -22717,59 +24053,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6231</v>
+        <v>6639</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6232</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6230</v>
+        <v>6638</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6217</v>
+        <v>6625</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6218</v>
+        <v>6626</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6219</v>
+        <v>6627</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6220</v>
+        <v>6628</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>6221</v>
+        <v>6629</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>6222</v>
+        <v>6630</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>6223</v>
+        <v>6631</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>6224</v>
+        <v>6632</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>6225</v>
+        <v>6633</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>6226</v>
+        <v>6634</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>6227</v>
+        <v>6635</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>6228</v>
+        <v>6636</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>6229</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6175</v>
+        <v>6582</v>
       </c>
       <c r="B3" s="0">
         <v>3.8610000000000002</v>
@@ -22795,7 +24131,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6176</v>
+        <v>6583</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -22819,7 +24155,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6177</v>
+        <v>6584</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -22843,7 +24179,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6178</v>
+        <v>6585</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -22867,7 +24203,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6179</v>
+        <v>6586</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -22893,7 +24229,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6180</v>
+        <v>6587</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -22919,7 +24255,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6181</v>
+        <v>6588</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -22943,7 +24279,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6182</v>
+        <v>6589</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -22967,7 +24303,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6183</v>
+        <v>6590</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -22993,7 +24329,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6184</v>
+        <v>6591</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -23019,7 +24355,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6185</v>
+        <v>6592</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -23043,7 +24379,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6186</v>
+        <v>6593</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -23067,7 +24403,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6187</v>
+        <v>6594</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -23091,7 +24427,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6188</v>
+        <v>6595</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -23117,7 +24453,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6189</v>
+        <v>6596</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -23141,7 +24477,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6190</v>
+        <v>6597</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -23165,7 +24501,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6191</v>
+        <v>6598</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -23189,7 +24525,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6192</v>
+        <v>6599</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -23215,7 +24551,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6193</v>
+        <v>6600</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -23241,7 +24577,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6194</v>
+        <v>6601</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -23265,7 +24601,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6195</v>
+        <v>6602</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -23289,7 +24625,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6196</v>
+        <v>6603</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -23315,7 +24651,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6197</v>
+        <v>6604</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -23341,7 +24677,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6198</v>
+        <v>6605</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -23365,7 +24701,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6199</v>
+        <v>6606</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -23389,7 +24725,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6200</v>
+        <v>6607</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -23413,7 +24749,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6201</v>
+        <v>6608</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -23439,7 +24775,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6202</v>
+        <v>6609</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -23463,7 +24799,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6203</v>
+        <v>6610</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -23487,7 +24823,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6204</v>
+        <v>6611</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -23511,7 +24847,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6205</v>
+        <v>6612</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -23537,7 +24873,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6206</v>
+        <v>6613</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -23563,7 +24899,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6207</v>
+        <v>6614</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -23587,7 +24923,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6208</v>
+        <v>6615</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -23611,7 +24947,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6209</v>
+        <v>6616</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -23635,7 +24971,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6210</v>
+        <v>6617</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -23661,7 +24997,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6211</v>
+        <v>6618</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -23685,7 +25021,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6212</v>
+        <v>6619</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -23709,7 +25045,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6213</v>
+        <v>6620</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -23733,7 +25069,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6214</v>
+        <v>6621</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -23759,7 +25095,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6215</v>
+        <v>6622</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -23783,7 +25119,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6216</v>
+        <v>6623</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -23805,13 +25141,37 @@
         <v>2.8159999999999998</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>6624</v>
+      </c>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0">
+        <v>2.9580000000000002</v>
+      </c>
+      <c r="M45" s="0">
+        <v>2.79</v>
+      </c>
+      <c r="N45" s="0">
+        <v>2.8130000000000002</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -23832,59 +25192,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6290</v>
+        <v>6699</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6291</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6289</v>
+        <v>6698</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6276</v>
+        <v>6685</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6277</v>
+        <v>6686</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6278</v>
+        <v>6687</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6279</v>
+        <v>6688</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>6280</v>
+        <v>6689</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>6281</v>
+        <v>6690</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>6282</v>
+        <v>6691</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>6283</v>
+        <v>6692</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>6284</v>
+        <v>6693</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>6285</v>
+        <v>6694</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>6286</v>
+        <v>6695</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>6287</v>
+        <v>6696</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>6288</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6234</v>
+        <v>6642</v>
       </c>
       <c r="B3" s="0">
         <v>4.0099999999999998</v>
@@ -23910,7 +25270,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6235</v>
+        <v>6643</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -23934,7 +25294,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6236</v>
+        <v>6644</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -23958,7 +25318,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6237</v>
+        <v>6645</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -23982,7 +25342,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6238</v>
+        <v>6646</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -24008,7 +25368,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6239</v>
+        <v>6647</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -24034,7 +25394,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6240</v>
+        <v>6648</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -24058,7 +25418,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6241</v>
+        <v>6649</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -24082,7 +25442,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6242</v>
+        <v>6650</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -24108,7 +25468,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6243</v>
+        <v>6651</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -24134,7 +25494,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6244</v>
+        <v>6652</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -24158,7 +25518,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6245</v>
+        <v>6653</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -24182,7 +25542,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6246</v>
+        <v>6654</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -24206,7 +25566,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6247</v>
+        <v>6655</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -24232,7 +25592,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6248</v>
+        <v>6656</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -24256,7 +25616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6249</v>
+        <v>6657</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -24280,7 +25640,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6250</v>
+        <v>6658</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -24304,7 +25664,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6251</v>
+        <v>6659</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -24330,7 +25690,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6252</v>
+        <v>6660</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -24356,7 +25716,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6253</v>
+        <v>6661</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -24380,7 +25740,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6254</v>
+        <v>6662</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -24404,7 +25764,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6255</v>
+        <v>6663</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -24430,7 +25790,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6256</v>
+        <v>6664</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -24456,7 +25816,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6257</v>
+        <v>6665</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -24480,7 +25840,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6258</v>
+        <v>6666</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -24504,7 +25864,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6259</v>
+        <v>6667</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -24528,7 +25888,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6260</v>
+        <v>6668</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -24554,7 +25914,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6261</v>
+        <v>6669</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -24578,7 +25938,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6262</v>
+        <v>6670</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -24602,7 +25962,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6263</v>
+        <v>6671</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -24626,7 +25986,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6264</v>
+        <v>6672</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -24652,7 +26012,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6265</v>
+        <v>6673</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -24678,7 +26038,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6266</v>
+        <v>6674</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -24702,7 +26062,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6267</v>
+        <v>6675</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -24726,7 +26086,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6268</v>
+        <v>6676</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -24750,7 +26110,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6269</v>
+        <v>6677</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -24776,7 +26136,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6270</v>
+        <v>6678</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -24800,7 +26160,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6271</v>
+        <v>6679</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -24824,7 +26184,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6272</v>
+        <v>6680</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -24848,7 +26208,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6273</v>
+        <v>6681</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -24874,7 +26234,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6274</v>
+        <v>6682</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -24898,7 +26258,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6275</v>
+        <v>6683</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -24920,13 +26280,37 @@
         <v>2.9609999999999999</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>6684</v>
+      </c>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="M45" s="0">
+        <v>2.7679999999999998</v>
+      </c>
+      <c r="N45" s="0">
+        <v>2.9580000000000002</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -24946,56 +26330,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6348</v>
+        <v>6758</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6349</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6347</v>
+        <v>6757</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6335</v>
+        <v>6745</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6336</v>
+        <v>6746</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6337</v>
+        <v>6747</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6338</v>
+        <v>6748</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>6339</v>
+        <v>6749</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>6340</v>
+        <v>6750</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>6341</v>
+        <v>6751</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>6342</v>
+        <v>6752</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>6343</v>
+        <v>6753</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>6344</v>
+        <v>6754</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>6345</v>
+        <v>6755</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>6346</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6293</v>
+        <v>6702</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -25018,7 +26402,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6294</v>
+        <v>6703</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017000000000000001</v>
@@ -25041,7 +26425,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6295</v>
+        <v>6704</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -25064,7 +26448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6296</v>
+        <v>6705</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -25087,7 +26471,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6297</v>
+        <v>6706</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -25110,7 +26494,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6298</v>
+        <v>6707</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -25133,7 +26517,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6299</v>
+        <v>6708</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -25156,7 +26540,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6300</v>
+        <v>6709</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -25179,7 +26563,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6301</v>
+        <v>6710</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -25204,7 +26588,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6302</v>
+        <v>6711</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -25227,7 +26611,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6303</v>
+        <v>6712</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -25250,7 +26634,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6304</v>
+        <v>6713</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -25273,7 +26657,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6305</v>
+        <v>6714</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -25296,7 +26680,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6306</v>
+        <v>6715</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -25319,7 +26703,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6307</v>
+        <v>6716</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -25342,7 +26726,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6308</v>
+        <v>6717</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -25365,7 +26749,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6309</v>
+        <v>6718</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -25388,7 +26772,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6310</v>
+        <v>6719</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -25411,7 +26795,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6311</v>
+        <v>6720</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -25434,7 +26818,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6312</v>
+        <v>6721</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -25457,7 +26841,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6313</v>
+        <v>6722</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -25480,7 +26864,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6314</v>
+        <v>6723</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -25505,7 +26889,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6315</v>
+        <v>6724</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -25528,7 +26912,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6316</v>
+        <v>6725</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -25551,7 +26935,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6317</v>
+        <v>6726</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -25574,7 +26958,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6318</v>
+        <v>6727</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -25597,7 +26981,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6319</v>
+        <v>6728</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -25620,7 +27004,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6320</v>
+        <v>6729</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -25643,7 +27027,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6321</v>
+        <v>6730</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -25666,7 +27050,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6322</v>
+        <v>6731</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -25689,7 +27073,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6323</v>
+        <v>6732</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -25712,7 +27096,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6324</v>
+        <v>6733</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -25735,7 +27119,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6325</v>
+        <v>6734</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -25758,7 +27142,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6326</v>
+        <v>6735</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -25781,7 +27165,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6327</v>
+        <v>6736</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -25804,7 +27188,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6328</v>
+        <v>6737</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -25827,7 +27211,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6329</v>
+        <v>6738</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -25850,7 +27234,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6330</v>
+        <v>6739</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -25873,7 +27257,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6331</v>
+        <v>6740</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -25896,7 +27280,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6332</v>
+        <v>6741</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -25919,7 +27303,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6333</v>
+        <v>6742</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -25942,7 +27326,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6334</v>
+        <v>6743</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -25963,13 +27347,36 @@
         <v>0.029000000000000001</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>6744</v>
+      </c>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0">
+        <v>-0.0050000000000000001</v>
+      </c>
+      <c r="L45" s="0">
+        <v>-0.0040000000000000001</v>
+      </c>
+      <c r="M45" s="0">
+        <v>0.029000000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -25989,56 +27396,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6406</v>
+        <v>6817</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6407</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6405</v>
+        <v>6816</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6393</v>
+        <v>6804</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6394</v>
+        <v>6805</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6395</v>
+        <v>6806</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6396</v>
+        <v>6807</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>6397</v>
+        <v>6808</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>6398</v>
+        <v>6809</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>6399</v>
+        <v>6810</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>6400</v>
+        <v>6811</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>6401</v>
+        <v>6812</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>6402</v>
+        <v>6813</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>6403</v>
+        <v>6814</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>6404</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6351</v>
+        <v>6761</v>
       </c>
       <c r="B3" s="0">
         <v>0.126</v>
@@ -26061,7 +27468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6352</v>
+        <v>6762</v>
       </c>
       <c r="B4" s="0">
         <v>0.124</v>
@@ -26084,7 +27491,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6353</v>
+        <v>6763</v>
       </c>
       <c r="B5" s="0">
         <v>0.10100000000000001</v>
@@ -26107,7 +27514,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6354</v>
+        <v>6764</v>
       </c>
       <c r="B6" s="0">
         <v>0.10299999999999999</v>
@@ -26130,7 +27537,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6355</v>
+        <v>6765</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -26153,7 +27560,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6356</v>
+        <v>6766</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -26176,7 +27583,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6357</v>
+        <v>6767</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -26199,7 +27606,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6358</v>
+        <v>6768</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -26222,7 +27629,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6359</v>
+        <v>6769</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -26247,7 +27654,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6360</v>
+        <v>6770</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -26270,7 +27677,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6361</v>
+        <v>6771</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -26293,7 +27700,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6362</v>
+        <v>6772</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -26316,7 +27723,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6363</v>
+        <v>6773</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -26339,7 +27746,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6364</v>
+        <v>6774</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -26362,7 +27769,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6365</v>
+        <v>6775</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -26385,7 +27792,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6366</v>
+        <v>6776</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -26408,7 +27815,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6367</v>
+        <v>6777</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -26431,7 +27838,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6368</v>
+        <v>6778</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -26454,7 +27861,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6369</v>
+        <v>6779</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -26477,7 +27884,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6370</v>
+        <v>6780</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -26500,7 +27907,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6371</v>
+        <v>6781</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -26523,7 +27930,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6372</v>
+        <v>6782</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -26548,7 +27955,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6373</v>
+        <v>6783</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -26571,7 +27978,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6374</v>
+        <v>6784</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -26594,7 +28001,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6375</v>
+        <v>6785</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -26617,7 +28024,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6376</v>
+        <v>6786</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -26640,7 +28047,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6377</v>
+        <v>6787</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -26663,7 +28070,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6378</v>
+        <v>6788</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -26686,7 +28093,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6379</v>
+        <v>6789</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -26709,7 +28116,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6380</v>
+        <v>6790</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -26732,7 +28139,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6381</v>
+        <v>6791</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -26755,7 +28162,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6382</v>
+        <v>6792</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -26778,7 +28185,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6383</v>
+        <v>6793</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -26801,7 +28208,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6384</v>
+        <v>6794</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -26824,7 +28231,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6385</v>
+        <v>6795</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -26847,7 +28254,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6386</v>
+        <v>6796</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -26870,7 +28277,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6387</v>
+        <v>6797</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -26893,7 +28300,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6388</v>
+        <v>6798</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -26916,7 +28323,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6389</v>
+        <v>6799</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -26939,7 +28346,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6390</v>
+        <v>6800</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -26962,7 +28369,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6391</v>
+        <v>6801</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -26985,7 +28392,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6392</v>
+        <v>6802</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -27006,13 +28413,36 @@
         <v>0.031</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>6803</v>
+      </c>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0">
+        <v>0.094</v>
+      </c>
+      <c r="L45" s="0">
+        <v>0.078</v>
+      </c>
+      <c r="M45" s="0">
+        <v>0.031</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -27033,59 +28463,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6465</v>
+        <v>6877</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6466</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6464</v>
+        <v>6876</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6451</v>
+        <v>6863</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6452</v>
+        <v>6864</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6453</v>
+        <v>6865</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6454</v>
+        <v>6866</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>6455</v>
+        <v>6867</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>6456</v>
+        <v>6868</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>6457</v>
+        <v>6869</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>6458</v>
+        <v>6870</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>6459</v>
+        <v>6871</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>6460</v>
+        <v>6872</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>6461</v>
+        <v>6873</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>6462</v>
+        <v>6874</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>6463</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6409</v>
+        <v>6820</v>
       </c>
       <c r="B3" s="0">
         <v>1.98</v>
@@ -27111,7 +28541,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6410</v>
+        <v>6821</v>
       </c>
       <c r="B4" s="0">
         <v>-0.18099999999999999</v>
@@ -27137,7 +28567,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6411</v>
+        <v>6822</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -27161,7 +28591,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6412</v>
+        <v>6823</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -27185,7 +28615,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6413</v>
+        <v>6824</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -27211,7 +28641,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6414</v>
+        <v>6825</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -27237,7 +28667,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6415</v>
+        <v>6826</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -27261,7 +28691,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6416</v>
+        <v>6827</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -27285,7 +28715,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6417</v>
+        <v>6828</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -27311,7 +28741,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6418</v>
+        <v>6829</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -27337,7 +28767,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6419</v>
+        <v>6830</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -27361,7 +28791,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6420</v>
+        <v>6831</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -27385,7 +28815,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6421</v>
+        <v>6832</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -27409,7 +28839,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6422</v>
+        <v>6833</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -27435,7 +28865,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6423</v>
+        <v>6834</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -27461,7 +28891,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6424</v>
+        <v>6835</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -27485,7 +28915,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6425</v>
+        <v>6836</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -27509,7 +28939,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6426</v>
+        <v>6837</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -27535,7 +28965,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6427</v>
+        <v>6838</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -27561,7 +28991,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6428</v>
+        <v>6839</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -27585,7 +29015,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6429</v>
+        <v>6840</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -27609,7 +29039,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6430</v>
+        <v>6841</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -27635,7 +29065,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6431</v>
+        <v>6842</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -27661,7 +29091,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6432</v>
+        <v>6843</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -27685,7 +29115,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6433</v>
+        <v>6844</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -27709,7 +29139,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6434</v>
+        <v>6845</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -27733,7 +29163,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6435</v>
+        <v>6846</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -27759,7 +29189,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6436</v>
+        <v>6847</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -27785,7 +29215,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6437</v>
+        <v>6848</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -27809,7 +29239,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6438</v>
+        <v>6849</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -27833,7 +29263,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6439</v>
+        <v>6850</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -27859,7 +29289,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6440</v>
+        <v>6851</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -27885,7 +29315,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6441</v>
+        <v>6852</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -27909,7 +29339,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6442</v>
+        <v>6853</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -27933,7 +29363,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6443</v>
+        <v>6854</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -27957,7 +29387,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6444</v>
+        <v>6855</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -27983,7 +29413,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6445</v>
+        <v>6856</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -28009,7 +29439,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6446</v>
+        <v>6857</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -28033,7 +29463,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6447</v>
+        <v>6858</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -28057,7 +29487,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6448</v>
+        <v>6859</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -28083,7 +29513,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6449</v>
+        <v>6860</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -28109,7 +29539,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6450</v>
+        <v>6861</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -28131,6 +29561,30 @@
         <v>2.3340000000000001</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>6862</v>
+      </c>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0">
+        <v>3.2730000000000001</v>
+      </c>
+      <c r="M45" s="0">
+        <v>3.0979999999999999</v>
+      </c>
+      <c r="N45" s="0">
+        <v>2.3340000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="837">
   <si>
     <t>Row</t>
   </si>
@@ -1247,6 +1247,1281 @@
   </si>
   <si>
     <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
   </si>
   <si>
     <t>Forecast Dates</t>
@@ -1276,7 +2551,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1312,11 +2587,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1346,6 +2649,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,7 +2686,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -1370,41 +2701,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>465</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>464</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>459</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>460</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>461</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>462</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>50</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="B3" s="0">
         <v>1.599</v>
@@ -1424,7 +2755,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>414</v>
       </c>
       <c r="B4" s="0">
         <v>1.3109999999999999</v>
@@ -1444,7 +2775,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>415</v>
       </c>
       <c r="B5" s="0">
         <v>3.6320000000000001</v>
@@ -1464,7 +2795,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>416</v>
       </c>
       <c r="B6" s="0">
         <v>5.5919999999999996</v>
@@ -1484,7 +2815,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>417</v>
       </c>
       <c r="B7" s="0">
         <v>2.8439999999999999</v>
@@ -1504,7 +2835,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>418</v>
       </c>
       <c r="B8" s="0">
         <v>2.7589999999999999</v>
@@ -1524,7 +2855,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="B9" s="0">
         <v>4.4939999999999998</v>
@@ -1544,7 +2875,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="B10" s="0">
         <v>4.5359999999999996</v>
@@ -1564,7 +2895,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="B11" s="0">
         <v>4.3780000000000001</v>
@@ -1584,7 +2915,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>10</v>
+        <v>422</v>
       </c>
       <c r="B12" s="0">
         <v>3.516</v>
@@ -1604,7 +2935,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="B13" s="0">
         <v>3.4630000000000001</v>
@@ -1624,7 +2955,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -1642,7 +2973,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -1660,7 +2991,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>14</v>
+        <v>426</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -1680,7 +3011,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>15</v>
+        <v>427</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -1700,7 +3031,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -1720,7 +3051,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>17</v>
+        <v>429</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -1740,7 +3071,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>18</v>
+        <v>430</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -1760,7 +3091,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -1780,7 +3111,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -1800,7 +3131,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>21</v>
+        <v>433</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -1820,7 +3151,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>22</v>
+        <v>434</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -1840,7 +3171,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>23</v>
+        <v>435</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -1860,7 +3191,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>24</v>
+        <v>436</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -1880,7 +3211,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>25</v>
+        <v>437</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -1900,7 +3231,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>26</v>
+        <v>438</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -1918,7 +3249,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>27</v>
+        <v>439</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -1938,7 +3269,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -1958,7 +3289,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>29</v>
+        <v>441</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -1978,7 +3309,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>30</v>
+        <v>442</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -1998,7 +3329,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>31</v>
+        <v>443</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -2018,7 +3349,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>32</v>
+        <v>444</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -2038,7 +3369,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>33</v>
+        <v>445</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -2058,7 +3389,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>34</v>
+        <v>446</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -2078,7 +3409,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>35</v>
+        <v>447</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -2098,7 +3429,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>36</v>
+        <v>448</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -2118,7 +3449,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -2138,7 +3469,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -2158,7 +3489,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>39</v>
+        <v>451</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -2176,7 +3507,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -2196,7 +3527,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -2216,7 +3547,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -2236,7 +3567,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>43</v>
+        <v>455</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -2252,6 +3583,26 @@
       </c>
       <c r="H45" s="0">
         <v>1.798</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0">
+        <v>3.2679999999999998</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="G46" s="0">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="H46" s="0">
+        <v>2.4380000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3611,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:O46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -2277,63 +3628,67 @@
     <col min="12" max="12" width="6.01171875" customWidth="true"/>
     <col min="13" max="13" width="7.01171875" customWidth="true"/>
     <col min="14" max="14" width="6.8125" customWidth="true"/>
+    <col min="15" max="15" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>527</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>111</v>
+        <v>526</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>512</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>513</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>100</v>
+        <v>514</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>101</v>
+        <v>515</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>102</v>
+        <v>516</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>103</v>
+        <v>517</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>104</v>
+        <v>518</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>105</v>
+        <v>519</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>106</v>
+        <v>520</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>107</v>
+        <v>521</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>108</v>
+        <v>522</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>109</v>
+        <v>523</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>110</v>
+        <v>524</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>55</v>
+        <v>468</v>
       </c>
       <c r="B3" s="0">
         <v>4.8330000000000002</v>
@@ -2356,10 +3711,11 @@
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -2380,10 +3736,11 @@
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>57</v>
+        <v>470</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -2404,10 +3761,11 @@
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>58</v>
+        <v>471</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -2428,10 +3786,11 @@
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>472</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -2454,10 +3813,11 @@
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>60</v>
+        <v>473</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -2480,10 +3840,11 @@
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>61</v>
+        <v>474</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -2504,10 +3865,11 @@
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>62</v>
+        <v>475</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -2528,10 +3890,11 @@
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>476</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -2554,10 +3917,11 @@
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>64</v>
+        <v>477</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -2580,10 +3944,11 @@
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>65</v>
+        <v>478</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -2604,10 +3969,11 @@
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>66</v>
+        <v>479</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -2628,10 +3994,11 @@
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>480</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -2652,10 +4019,11 @@
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -2678,10 +4046,11 @@
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>69</v>
+        <v>482</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -2702,10 +4071,11 @@
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>70</v>
+        <v>483</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -2726,10 +4096,11 @@
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>71</v>
+        <v>484</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -2750,10 +4121,11 @@
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>72</v>
+        <v>485</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -2776,10 +4148,11 @@
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>73</v>
+        <v>486</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -2802,10 +4175,11 @@
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>74</v>
+        <v>487</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -2826,10 +4200,11 @@
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>75</v>
+        <v>488</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -2850,10 +4225,11 @@
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>76</v>
+        <v>489</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -2876,10 +4252,11 @@
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -2902,10 +4279,11 @@
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -2926,10 +4304,11 @@
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -2950,10 +4329,11 @@
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -2974,10 +4354,11 @@
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -3000,10 +4381,11 @@
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -3024,10 +4406,11 @@
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>83</v>
+        <v>496</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -3048,10 +4431,11 @@
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>84</v>
+        <v>497</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -3072,10 +4456,11 @@
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>85</v>
+        <v>498</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -3098,10 +4483,11 @@
       </c>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>86</v>
+        <v>499</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -3124,10 +4510,11 @@
       </c>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>87</v>
+        <v>500</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -3148,10 +4535,11 @@
       </c>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>88</v>
+        <v>501</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -3172,10 +4560,11 @@
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>89</v>
+        <v>502</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -3196,10 +4585,11 @@
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>90</v>
+        <v>503</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -3222,10 +4612,11 @@
         <v>2.6349999999999998</v>
       </c>
       <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>91</v>
+        <v>504</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -3246,10 +4637,11 @@
         <v>2.6280000000000001</v>
       </c>
       <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>92</v>
+        <v>505</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -3270,10 +4662,11 @@
         <v>2.6280000000000001</v>
       </c>
       <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>93</v>
+        <v>506</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -3294,10 +4687,11 @@
         <v>2.6280000000000001</v>
       </c>
       <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>94</v>
+        <v>507</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -3320,10 +4714,11 @@
       <c r="N42" s="0">
         <v>2.6280000000000001</v>
       </c>
+      <c r="O42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>95</v>
+        <v>508</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -3344,10 +4739,11 @@
       <c r="N43" s="0">
         <v>2.6200000000000001</v>
       </c>
+      <c r="O43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>96</v>
+        <v>509</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -3368,10 +4764,11 @@
       <c r="N44" s="0">
         <v>2.6200000000000001</v>
       </c>
+      <c r="O44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>97</v>
+        <v>510</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -3392,6 +4789,34 @@
       <c r="N45" s="0">
         <v>2.6200000000000001</v>
       </c>
+      <c r="O45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0">
+        <v>5.5899999999999999</v>
+      </c>
+      <c r="M46" s="0">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="N46" s="0">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="O46" s="0">
+        <v>2.6200000000000001</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -3399,7 +4824,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:O46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -3416,63 +4841,67 @@
     <col min="12" max="12" width="6.01171875" customWidth="true"/>
     <col min="13" max="13" width="7.01171875" customWidth="true"/>
     <col min="14" max="14" width="6.8125" customWidth="true"/>
+    <col min="15" max="15" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>172</v>
+        <v>589</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>173</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>171</v>
+        <v>588</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>158</v>
+        <v>574</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>159</v>
+        <v>575</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>160</v>
+        <v>576</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>161</v>
+        <v>577</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>162</v>
+        <v>578</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>163</v>
+        <v>579</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>164</v>
+        <v>580</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>165</v>
+        <v>581</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>166</v>
+        <v>582</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>167</v>
+        <v>583</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>168</v>
+        <v>584</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>169</v>
+        <v>585</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>170</v>
+        <v>586</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>115</v>
+        <v>530</v>
       </c>
       <c r="B3" s="0">
         <v>3.8290000000000002</v>
@@ -3495,10 +4924,11 @@
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>116</v>
+        <v>531</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -3519,10 +4949,11 @@
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>117</v>
+        <v>532</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -3543,10 +4974,11 @@
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>118</v>
+        <v>533</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -3567,10 +4999,11 @@
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>119</v>
+        <v>534</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3593,10 +5026,11 @@
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>120</v>
+        <v>535</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3619,10 +5053,11 @@
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>121</v>
+        <v>536</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -3643,10 +5078,11 @@
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>122</v>
+        <v>537</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -3667,10 +5103,11 @@
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>123</v>
+        <v>538</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -3693,10 +5130,11 @@
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>124</v>
+        <v>539</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -3719,10 +5157,11 @@
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>125</v>
+        <v>540</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -3743,10 +5182,11 @@
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>126</v>
+        <v>541</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -3767,10 +5207,11 @@
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>127</v>
+        <v>542</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -3791,10 +5232,11 @@
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>128</v>
+        <v>543</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3817,10 +5259,11 @@
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>129</v>
+        <v>544</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -3841,10 +5284,11 @@
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>130</v>
+        <v>545</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -3865,10 +5309,11 @@
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>131</v>
+        <v>546</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -3889,10 +5334,11 @@
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>132</v>
+        <v>547</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -3915,10 +5361,11 @@
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>133</v>
+        <v>548</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -3941,10 +5388,11 @@
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>134</v>
+        <v>549</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -3965,10 +5413,11 @@
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>135</v>
+        <v>550</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -3989,10 +5438,11 @@
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>136</v>
+        <v>551</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -4015,10 +5465,11 @@
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>137</v>
+        <v>552</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -4041,10 +5492,11 @@
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>138</v>
+        <v>553</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -4065,10 +5517,11 @@
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>139</v>
+        <v>554</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -4089,10 +5542,11 @@
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>140</v>
+        <v>555</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -4113,10 +5567,11 @@
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>141</v>
+        <v>556</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -4139,10 +5594,11 @@
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>142</v>
+        <v>557</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -4163,10 +5619,11 @@
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>143</v>
+        <v>558</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -4187,10 +5644,11 @@
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>144</v>
+        <v>559</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -4211,10 +5669,11 @@
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>145</v>
+        <v>560</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -4237,10 +5696,11 @@
       </c>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>146</v>
+        <v>561</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -4263,10 +5723,11 @@
       </c>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>147</v>
+        <v>562</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -4287,10 +5748,11 @@
       </c>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>148</v>
+        <v>563</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -4311,10 +5773,11 @@
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>149</v>
+        <v>564</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -4335,10 +5798,11 @@
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>150</v>
+        <v>565</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -4361,10 +5825,11 @@
         <v>3.6000000000000001</v>
       </c>
       <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>151</v>
+        <v>566</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -4385,10 +5850,11 @@
         <v>3.302</v>
       </c>
       <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>152</v>
+        <v>567</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -4409,10 +5875,11 @@
         <v>3.27</v>
       </c>
       <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>153</v>
+        <v>568</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -4433,10 +5900,11 @@
         <v>3.2149999999999999</v>
       </c>
       <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>154</v>
+        <v>569</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -4459,10 +5927,11 @@
       <c r="N42" s="0">
         <v>3.1970000000000001</v>
       </c>
+      <c r="O42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>155</v>
+        <v>570</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -4483,10 +5952,11 @@
       <c r="N43" s="0">
         <v>2.9129999999999998</v>
       </c>
+      <c r="O43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>156</v>
+        <v>571</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -4507,10 +5977,11 @@
       <c r="N44" s="0">
         <v>2.976</v>
       </c>
+      <c r="O44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>157</v>
+        <v>572</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -4531,6 +6002,34 @@
       <c r="N45" s="0">
         <v>2.9390000000000001</v>
       </c>
+      <c r="O45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0">
+        <v>3.2869999999999999</v>
+      </c>
+      <c r="M46" s="0">
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="N46" s="0">
+        <v>2.7200000000000002</v>
+      </c>
+      <c r="O46" s="0">
+        <v>2.8879999999999999</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -4538,7 +6037,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:O46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4555,63 +6054,67 @@
     <col min="12" max="12" width="6.01171875" customWidth="true"/>
     <col min="13" max="13" width="7.01171875" customWidth="true"/>
     <col min="14" max="14" width="6.8125" customWidth="true"/>
+    <col min="15" max="15" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>232</v>
+        <v>651</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>233</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>231</v>
+        <v>650</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>218</v>
+        <v>636</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>219</v>
+        <v>637</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>220</v>
+        <v>638</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>221</v>
+        <v>639</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>222</v>
+        <v>640</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>223</v>
+        <v>641</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>224</v>
+        <v>642</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>225</v>
+        <v>643</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>226</v>
+        <v>644</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>227</v>
+        <v>645</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>228</v>
+        <v>646</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>229</v>
+        <v>647</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>230</v>
+        <v>648</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>175</v>
+        <v>592</v>
       </c>
       <c r="B3" s="0">
         <v>4.1399999999999997</v>
@@ -4634,10 +6137,11 @@
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>176</v>
+        <v>593</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -4658,10 +6162,11 @@
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>177</v>
+        <v>594</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -4682,10 +6187,11 @@
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>178</v>
+        <v>595</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -4706,10 +6212,11 @@
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>179</v>
+        <v>596</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4732,10 +6239,11 @@
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>180</v>
+        <v>597</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4758,10 +6266,11 @@
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>181</v>
+        <v>598</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -4782,10 +6291,11 @@
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>182</v>
+        <v>599</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -4806,10 +6316,11 @@
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>183</v>
+        <v>600</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4832,10 +6343,11 @@
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>184</v>
+        <v>601</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4858,10 +6370,11 @@
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>185</v>
+        <v>602</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4882,10 +6395,11 @@
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>186</v>
+        <v>603</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4906,10 +6420,11 @@
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>187</v>
+        <v>604</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4930,10 +6445,11 @@
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>188</v>
+        <v>605</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4956,10 +6472,11 @@
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>189</v>
+        <v>606</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -4980,10 +6497,11 @@
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>190</v>
+        <v>607</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -5004,10 +6522,11 @@
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>191</v>
+        <v>608</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -5028,10 +6547,11 @@
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>192</v>
+        <v>609</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -5054,10 +6574,11 @@
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>193</v>
+        <v>610</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -5080,10 +6601,11 @@
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>194</v>
+        <v>611</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -5104,10 +6626,11 @@
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>195</v>
+        <v>612</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -5128,10 +6651,11 @@
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>196</v>
+        <v>613</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -5154,10 +6678,11 @@
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>197</v>
+        <v>614</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -5180,10 +6705,11 @@
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>198</v>
+        <v>615</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -5204,10 +6730,11 @@
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>199</v>
+        <v>616</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -5228,10 +6755,11 @@
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>200</v>
+        <v>617</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -5252,10 +6780,11 @@
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>201</v>
+        <v>618</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -5278,10 +6807,11 @@
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>202</v>
+        <v>619</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -5302,10 +6832,11 @@
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>203</v>
+        <v>620</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -5326,10 +6857,11 @@
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>204</v>
+        <v>621</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -5350,10 +6882,11 @@
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>205</v>
+        <v>622</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -5376,10 +6909,11 @@
       </c>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>206</v>
+        <v>623</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -5402,10 +6936,11 @@
       </c>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>207</v>
+        <v>624</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -5426,10 +6961,11 @@
       </c>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>208</v>
+        <v>625</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -5450,10 +6986,11 @@
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>209</v>
+        <v>626</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -5474,10 +7011,11 @@
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>210</v>
+        <v>627</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -5500,10 +7038,11 @@
         <v>3.3860000000000001</v>
       </c>
       <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>211</v>
+        <v>628</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -5524,10 +7063,11 @@
         <v>3.4449999999999998</v>
       </c>
       <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>212</v>
+        <v>629</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -5548,10 +7088,11 @@
         <v>3.3919999999999999</v>
       </c>
       <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>213</v>
+        <v>630</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -5572,10 +7113,11 @@
         <v>3.399</v>
       </c>
       <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>214</v>
+        <v>631</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -5598,10 +7140,11 @@
       <c r="N42" s="0">
         <v>3.1840000000000002</v>
       </c>
+      <c r="O42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>215</v>
+        <v>632</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -5622,10 +7165,11 @@
       <c r="N43" s="0">
         <v>2.7189999999999999</v>
       </c>
+      <c r="O43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>216</v>
+        <v>633</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -5646,10 +7190,11 @@
       <c r="N44" s="0">
         <v>2.798</v>
       </c>
+      <c r="O44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>217</v>
+        <v>634</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -5670,6 +7215,34 @@
       <c r="N45" s="0">
         <v>2.77</v>
       </c>
+      <c r="O45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0">
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="M46" s="0">
+        <v>2.7679999999999998</v>
+      </c>
+      <c r="N46" s="0">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="O46" s="0">
+        <v>2.306</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -5677,7 +7250,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:N46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5693,60 +7266,64 @@
     <col min="11" max="11" width="6.3125" customWidth="true"/>
     <col min="12" max="12" width="7.01171875" customWidth="true"/>
     <col min="13" max="13" width="6.8125" customWidth="true"/>
+    <col min="14" max="14" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>291</v>
+        <v>712</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>292</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>290</v>
+        <v>711</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>278</v>
+        <v>698</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>279</v>
+        <v>699</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>281</v>
+        <v>701</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>282</v>
+        <v>702</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>283</v>
+        <v>703</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>284</v>
+        <v>704</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>285</v>
+        <v>705</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>286</v>
+        <v>706</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>287</v>
+        <v>707</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>288</v>
+        <v>708</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>289</v>
+        <v>709</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>235</v>
+        <v>654</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -5766,10 +7343,11 @@
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>236</v>
+        <v>655</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017999999999999999</v>
@@ -5789,10 +7367,11 @@
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>237</v>
+        <v>656</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -5812,10 +7391,11 @@
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>238</v>
+        <v>657</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -5835,10 +7415,11 @@
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>239</v>
+        <v>658</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5858,10 +7439,11 @@
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>240</v>
+        <v>659</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5881,10 +7463,11 @@
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>241</v>
+        <v>660</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -5904,10 +7487,11 @@
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>242</v>
+        <v>661</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -5927,10 +7511,11 @@
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>243</v>
+        <v>662</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -5952,10 +7537,11 @@
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>244</v>
+        <v>663</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5975,10 +7561,11 @@
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>245</v>
+        <v>664</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5998,10 +7585,11 @@
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>246</v>
+        <v>665</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6021,10 +7609,11 @@
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>247</v>
+        <v>666</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6044,10 +7633,11 @@
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>248</v>
+        <v>667</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6067,10 +7657,11 @@
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>249</v>
+        <v>668</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6090,10 +7681,11 @@
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>250</v>
+        <v>669</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6113,10 +7705,11 @@
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>251</v>
+        <v>670</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -6136,10 +7729,11 @@
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>252</v>
+        <v>671</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -6159,10 +7753,11 @@
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>253</v>
+        <v>672</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6182,10 +7777,11 @@
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>254</v>
+        <v>673</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6205,10 +7801,11 @@
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>255</v>
+        <v>674</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6228,10 +7825,11 @@
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>256</v>
+        <v>675</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -6253,10 +7851,11 @@
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>257</v>
+        <v>676</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -6276,10 +7875,11 @@
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>258</v>
+        <v>677</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -6299,10 +7899,11 @@
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>259</v>
+        <v>678</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -6322,10 +7923,11 @@
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>260</v>
+        <v>679</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -6345,10 +7947,11 @@
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>261</v>
+        <v>680</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -6368,10 +7971,11 @@
       <c r="K29" s="0"/>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>262</v>
+        <v>681</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -6391,10 +7995,11 @@
       <c r="K30" s="0"/>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>263</v>
+        <v>682</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -6414,10 +8019,11 @@
       <c r="K31" s="0"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>264</v>
+        <v>683</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -6437,10 +8043,11 @@
       <c r="K32" s="0"/>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>265</v>
+        <v>684</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -6460,10 +8067,11 @@
       </c>
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>266</v>
+        <v>685</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -6483,10 +8091,11 @@
       </c>
       <c r="L34" s="0"/>
       <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>267</v>
+        <v>686</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -6506,10 +8115,11 @@
       </c>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>268</v>
+        <v>687</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -6529,10 +8139,11 @@
       </c>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>269</v>
+        <v>688</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -6552,10 +8163,11 @@
       </c>
       <c r="L37" s="0"/>
       <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>270</v>
+        <v>689</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -6575,10 +8187,11 @@
         <v>0.036999999999999998</v>
       </c>
       <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>271</v>
+        <v>690</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -6598,10 +8211,11 @@
         <v>0.025000000000000001</v>
       </c>
       <c r="M39" s="0"/>
+      <c r="N39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>272</v>
+        <v>691</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -6621,10 +8235,11 @@
         <v>0.032000000000000001</v>
       </c>
       <c r="M40" s="0"/>
+      <c r="N40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>273</v>
+        <v>692</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -6644,10 +8259,11 @@
         <v>0.029000000000000001</v>
       </c>
       <c r="M41" s="0"/>
+      <c r="N41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>274</v>
+        <v>693</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -6667,10 +8283,11 @@
       <c r="M42" s="0">
         <v>0.025000000000000001</v>
       </c>
+      <c r="N42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>275</v>
+        <v>694</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -6690,10 +8307,11 @@
       <c r="M43" s="0">
         <v>0.033000000000000002</v>
       </c>
+      <c r="N43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>276</v>
+        <v>695</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -6713,10 +8331,11 @@
       <c r="M44" s="0">
         <v>0.019</v>
       </c>
+      <c r="N44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>277</v>
+        <v>696</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -6736,6 +8355,31 @@
       <c r="M45" s="0">
         <v>0.019</v>
       </c>
+      <c r="N45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="M46" s="0">
+        <v>0.017000000000000001</v>
+      </c>
+      <c r="N46" s="0">
+        <v>-0.0050000000000000001</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -6743,7 +8387,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:N46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6759,60 +8403,64 @@
     <col min="11" max="11" width="6.01171875" customWidth="true"/>
     <col min="12" max="12" width="7.01171875" customWidth="true"/>
     <col min="13" max="13" width="6.8125" customWidth="true"/>
+    <col min="14" max="14" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>350</v>
+        <v>773</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>351</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>349</v>
+        <v>772</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>337</v>
+        <v>759</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>338</v>
+        <v>760</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>339</v>
+        <v>761</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>340</v>
+        <v>762</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>341</v>
+        <v>763</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>342</v>
+        <v>764</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>343</v>
+        <v>765</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>344</v>
+        <v>766</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>345</v>
+        <v>767</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>346</v>
+        <v>768</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>347</v>
+        <v>769</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>348</v>
+        <v>770</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>294</v>
+        <v>715</v>
       </c>
       <c r="B3" s="0">
         <v>0.125</v>
@@ -6832,10 +8480,11 @@
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>295</v>
+        <v>716</v>
       </c>
       <c r="B4" s="0">
         <v>0.12</v>
@@ -6855,10 +8504,11 @@
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>296</v>
+        <v>717</v>
       </c>
       <c r="B5" s="0">
         <v>0.084000000000000005</v>
@@ -6878,10 +8528,11 @@
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>297</v>
+        <v>718</v>
       </c>
       <c r="B6" s="0">
         <v>0.080000000000000002</v>
@@ -6901,10 +8552,11 @@
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>298</v>
+        <v>719</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6924,10 +8576,11 @@
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>299</v>
+        <v>720</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6947,10 +8600,11 @@
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -6970,10 +8624,11 @@
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>301</v>
+        <v>722</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -6993,10 +8648,11 @@
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>302</v>
+        <v>723</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -7018,10 +8674,11 @@
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>303</v>
+        <v>724</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7041,10 +8698,11 @@
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>304</v>
+        <v>725</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7064,10 +8722,11 @@
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>305</v>
+        <v>726</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7087,10 +8746,11 @@
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>306</v>
+        <v>727</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7110,10 +8770,11 @@
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>307</v>
+        <v>728</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7133,10 +8794,11 @@
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>308</v>
+        <v>729</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -7156,10 +8818,11 @@
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>309</v>
+        <v>730</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -7179,10 +8842,11 @@
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>310</v>
+        <v>731</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -7202,10 +8866,11 @@
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>311</v>
+        <v>732</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -7225,10 +8890,11 @@
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>312</v>
+        <v>733</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -7248,10 +8914,11 @@
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>313</v>
+        <v>734</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7271,10 +8938,11 @@
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>314</v>
+        <v>735</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7294,10 +8962,11 @@
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>315</v>
+        <v>736</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -7319,10 +8988,11 @@
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>316</v>
+        <v>737</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -7342,10 +9012,11 @@
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>317</v>
+        <v>738</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -7365,10 +9036,11 @@
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>318</v>
+        <v>739</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -7388,10 +9060,11 @@
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>319</v>
+        <v>740</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -7411,10 +9084,11 @@
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>320</v>
+        <v>741</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -7434,10 +9108,11 @@
       <c r="K29" s="0"/>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>321</v>
+        <v>742</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -7457,10 +9132,11 @@
       <c r="K30" s="0"/>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>322</v>
+        <v>743</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -7480,10 +9156,11 @@
       <c r="K31" s="0"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>323</v>
+        <v>744</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -7503,10 +9180,11 @@
       <c r="K32" s="0"/>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>324</v>
+        <v>745</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -7526,10 +9204,11 @@
       </c>
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>325</v>
+        <v>746</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -7549,10 +9228,11 @@
       </c>
       <c r="L34" s="0"/>
       <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>326</v>
+        <v>747</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -7572,10 +9252,11 @@
       </c>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>327</v>
+        <v>748</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -7595,10 +9276,11 @@
       </c>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>328</v>
+        <v>749</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -7618,10 +9300,11 @@
       </c>
       <c r="L37" s="0"/>
       <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>329</v>
+        <v>750</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -7641,10 +9324,11 @@
         <v>0.053999999999999999</v>
       </c>
       <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>330</v>
+        <v>751</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -7664,10 +9348,11 @@
         <v>0.073999999999999996</v>
       </c>
       <c r="M39" s="0"/>
+      <c r="N39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>331</v>
+        <v>752</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -7687,10 +9372,11 @@
         <v>0.070000000000000007</v>
       </c>
       <c r="M40" s="0"/>
+      <c r="N40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>332</v>
+        <v>753</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -7710,10 +9396,11 @@
         <v>0.071999999999999995</v>
       </c>
       <c r="M41" s="0"/>
+      <c r="N41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>333</v>
+        <v>754</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -7733,10 +9420,11 @@
       <c r="M42" s="0">
         <v>0.086999999999999994</v>
       </c>
+      <c r="N42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>334</v>
+        <v>755</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -7756,10 +9444,11 @@
       <c r="M43" s="0">
         <v>0.086999999999999994</v>
       </c>
+      <c r="N43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>335</v>
+        <v>756</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -7779,10 +9468,11 @@
       <c r="M44" s="0">
         <v>0.050000000000000003</v>
       </c>
+      <c r="N44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>336</v>
+        <v>757</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -7802,6 +9492,31 @@
       <c r="M45" s="0">
         <v>0.050000000000000003</v>
       </c>
+      <c r="N45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0">
+        <v>0.058999999999999997</v>
+      </c>
+      <c r="M46" s="0">
+        <v>0.043999999999999997</v>
+      </c>
+      <c r="N46" s="0">
+        <v>0.087999999999999995</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -7809,7 +9524,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:O46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7826,63 +9541,67 @@
     <col min="12" max="12" width="6.7109375" customWidth="true"/>
     <col min="13" max="13" width="7.01171875" customWidth="true"/>
     <col min="14" max="14" width="6.8125" customWidth="true"/>
+    <col min="15" max="15" width="6.61328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>410</v>
+        <v>835</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>411</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>409</v>
+        <v>834</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>396</v>
+        <v>820</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>397</v>
+        <v>821</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>398</v>
+        <v>822</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>399</v>
+        <v>823</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>400</v>
+        <v>824</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>401</v>
+        <v>825</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>402</v>
+        <v>826</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>403</v>
+        <v>827</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>404</v>
+        <v>828</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>405</v>
+        <v>829</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>406</v>
+        <v>830</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>407</v>
+        <v>831</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>408</v>
+        <v>832</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>353</v>
+        <v>776</v>
       </c>
       <c r="B3" s="0">
         <v>2.4239999999999999</v>
@@ -7905,10 +9624,11 @@
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>354</v>
+        <v>777</v>
       </c>
       <c r="B4" s="0">
         <v>-0.034000000000000002</v>
@@ -7931,10 +9651,11 @@
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>355</v>
+        <v>778</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7955,10 +9676,11 @@
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>356</v>
+        <v>779</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7979,10 +9701,11 @@
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>357</v>
+        <v>780</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8005,10 +9728,11 @@
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>358</v>
+        <v>781</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8031,10 +9755,11 @@
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>359</v>
+        <v>782</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -8055,10 +9780,11 @@
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>360</v>
+        <v>783</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -8079,10 +9805,11 @@
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>361</v>
+        <v>784</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -8105,10 +9832,11 @@
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>362</v>
+        <v>785</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -8131,10 +9859,11 @@
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>363</v>
+        <v>786</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8155,10 +9884,11 @@
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>364</v>
+        <v>787</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8179,10 +9909,11 @@
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>365</v>
+        <v>788</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8203,10 +9934,11 @@
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>366</v>
+        <v>789</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8229,10 +9961,11 @@
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>367</v>
+        <v>790</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -8255,10 +9988,11 @@
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>368</v>
+        <v>791</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -8279,10 +10013,11 @@
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>369</v>
+        <v>792</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8303,10 +10038,11 @@
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>370</v>
+        <v>793</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8329,10 +10065,11 @@
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>371</v>
+        <v>794</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8355,10 +10092,11 @@
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>372</v>
+        <v>795</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -8379,10 +10117,11 @@
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>373</v>
+        <v>796</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8403,10 +10142,11 @@
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>374</v>
+        <v>797</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8429,10 +10169,11 @@
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>375</v>
+        <v>798</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -8455,10 +10196,11 @@
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>376</v>
+        <v>799</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -8479,10 +10221,11 @@
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>377</v>
+        <v>800</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -8503,10 +10246,11 @@
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>378</v>
+        <v>801</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -8527,10 +10271,11 @@
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>379</v>
+        <v>802</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -8553,10 +10298,11 @@
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>380</v>
+        <v>803</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -8579,10 +10325,11 @@
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>381</v>
+        <v>804</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -8603,10 +10350,11 @@
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>382</v>
+        <v>805</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -8627,10 +10375,11 @@
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>383</v>
+        <v>806</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -8653,10 +10402,11 @@
       </c>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>384</v>
+        <v>807</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -8679,10 +10429,11 @@
       </c>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>385</v>
+        <v>808</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -8703,10 +10454,11 @@
       </c>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>386</v>
+        <v>809</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -8727,10 +10479,11 @@
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>387</v>
+        <v>810</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -8751,10 +10504,11 @@
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>388</v>
+        <v>811</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -8777,10 +10531,11 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>389</v>
+        <v>812</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -8803,10 +10558,11 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>390</v>
+        <v>813</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -8827,10 +10583,11 @@
         <v>2.3239999999999998</v>
       </c>
       <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>391</v>
+        <v>814</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -8851,10 +10608,11 @@
         <v>2.3119999999999998</v>
       </c>
       <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>392</v>
+        <v>815</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -8877,10 +10635,11 @@
       <c r="N42" s="0">
         <v>2.3100000000000001</v>
       </c>
+      <c r="O42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>393</v>
+        <v>816</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -8903,10 +10662,11 @@
       <c r="N43" s="0">
         <v>2.3100000000000001</v>
       </c>
+      <c r="O43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>394</v>
+        <v>817</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -8927,10 +10687,11 @@
       <c r="N44" s="0">
         <v>2.3340000000000001</v>
       </c>
+      <c r="O44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>395</v>
+        <v>818</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -8951,6 +10712,34 @@
       <c r="N45" s="0">
         <v>2.3340000000000001</v>
       </c>
+      <c r="O45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0">
+        <v>-9.0459999999999994</v>
+      </c>
+      <c r="M46" s="0">
+        <v>2.827</v>
+      </c>
+      <c r="N46" s="0">
+        <v>-1.698</v>
+      </c>
+      <c r="O46" s="0">
+        <v>2.3319999999999999</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1269">
   <si>
     <t>Row</t>
   </si>
@@ -2480,6 +2480,1302 @@
   </si>
   <si>
     <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -2551,7 +3847,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -2615,11 +3911,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2677,6 +4001,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2686,7 +4038,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -2701,41 +4053,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>465</v>
+        <v>891</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>466</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>464</v>
+        <v>890</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>457</v>
+        <v>883</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>458</v>
+        <v>884</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>459</v>
+        <v>885</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>460</v>
+        <v>886</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>461</v>
+        <v>887</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>462</v>
+        <v>888</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>463</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>413</v>
+        <v>838</v>
       </c>
       <c r="B3" s="0">
         <v>1.599</v>
@@ -2755,7 +4107,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>414</v>
+        <v>839</v>
       </c>
       <c r="B4" s="0">
         <v>1.3109999999999999</v>
@@ -2775,7 +4127,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>415</v>
+        <v>840</v>
       </c>
       <c r="B5" s="0">
         <v>3.6320000000000001</v>
@@ -2795,7 +4147,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>416</v>
+        <v>841</v>
       </c>
       <c r="B6" s="0">
         <v>5.5919999999999996</v>
@@ -2815,7 +4167,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>417</v>
+        <v>842</v>
       </c>
       <c r="B7" s="0">
         <v>2.8439999999999999</v>
@@ -2835,7 +4187,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>418</v>
+        <v>843</v>
       </c>
       <c r="B8" s="0">
         <v>2.7589999999999999</v>
@@ -2855,7 +4207,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>419</v>
+        <v>844</v>
       </c>
       <c r="B9" s="0">
         <v>4.4939999999999998</v>
@@ -2875,7 +4227,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>420</v>
+        <v>845</v>
       </c>
       <c r="B10" s="0">
         <v>4.5359999999999996</v>
@@ -2895,7 +4247,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>421</v>
+        <v>846</v>
       </c>
       <c r="B11" s="0">
         <v>4.3780000000000001</v>
@@ -2915,7 +4267,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>422</v>
+        <v>847</v>
       </c>
       <c r="B12" s="0">
         <v>3.516</v>
@@ -2935,7 +4287,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>423</v>
+        <v>848</v>
       </c>
       <c r="B13" s="0">
         <v>3.4630000000000001</v>
@@ -2955,7 +4307,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>424</v>
+        <v>849</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -2973,7 +4325,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>425</v>
+        <v>850</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -2991,7 +4343,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>426</v>
+        <v>851</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -3011,7 +4363,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>427</v>
+        <v>852</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -3031,7 +4383,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>428</v>
+        <v>853</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -3051,7 +4403,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>429</v>
+        <v>854</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -3071,7 +4423,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>430</v>
+        <v>855</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -3091,7 +4443,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>431</v>
+        <v>856</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -3111,7 +4463,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>432</v>
+        <v>857</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -3131,7 +4483,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>433</v>
+        <v>858</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -3151,7 +4503,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>434</v>
+        <v>859</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -3171,7 +4523,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>435</v>
+        <v>860</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -3191,7 +4543,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>436</v>
+        <v>861</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -3211,7 +4563,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>437</v>
+        <v>862</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -3231,7 +4583,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>438</v>
+        <v>863</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -3249,7 +4601,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>439</v>
+        <v>864</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -3269,7 +4621,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>440</v>
+        <v>865</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -3289,7 +4641,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>441</v>
+        <v>866</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -3309,7 +4661,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>442</v>
+        <v>867</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -3329,7 +4681,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>443</v>
+        <v>868</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -3349,7 +4701,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>444</v>
+        <v>869</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -3369,7 +4721,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>445</v>
+        <v>870</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -3389,7 +4741,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>446</v>
+        <v>871</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -3409,7 +4761,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>447</v>
+        <v>872</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -3429,7 +4781,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>448</v>
+        <v>873</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -3449,7 +4801,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>449</v>
+        <v>874</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -3469,7 +4821,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>450</v>
+        <v>875</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -3489,7 +4841,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>451</v>
+        <v>876</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -3507,7 +4859,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>452</v>
+        <v>877</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -3527,7 +4879,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>453</v>
+        <v>878</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -3547,7 +4899,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>454</v>
+        <v>879</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -3567,7 +4919,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>455</v>
+        <v>880</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -3587,7 +4939,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>456</v>
+        <v>881</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -3603,6 +4955,26 @@
       </c>
       <c r="H46" s="0">
         <v>2.4380000000000002</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="F47" s="0">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G47" s="0">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="H47" s="0">
+        <v>2.6520000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3611,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -3633,62 +5005,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>527</v>
+        <v>954</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>528</v>
+        <v>955</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>526</v>
+        <v>953</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>512</v>
+        <v>939</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>513</v>
+        <v>940</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>514</v>
+        <v>941</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>515</v>
+        <v>942</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>516</v>
+        <v>943</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>517</v>
+        <v>944</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>518</v>
+        <v>945</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>519</v>
+        <v>946</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>520</v>
+        <v>947</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>521</v>
+        <v>948</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>522</v>
+        <v>949</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>523</v>
+        <v>950</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>524</v>
+        <v>951</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>525</v>
+        <v>952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>468</v>
+        <v>894</v>
       </c>
       <c r="B3" s="0">
         <v>4.8330000000000002</v>
@@ -3715,7 +5087,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>469</v>
+        <v>895</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -3740,7 +5112,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>470</v>
+        <v>896</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -3765,7 +5137,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>471</v>
+        <v>897</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -3790,7 +5162,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>472</v>
+        <v>898</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3817,7 +5189,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>473</v>
+        <v>899</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3844,7 +5216,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>474</v>
+        <v>900</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -3869,7 +5241,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>475</v>
+        <v>901</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -3894,7 +5266,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>476</v>
+        <v>902</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -3921,7 +5293,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>477</v>
+        <v>903</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -3948,7 +5320,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>478</v>
+        <v>904</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -3973,7 +5345,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>479</v>
+        <v>905</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -3998,7 +5370,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>480</v>
+        <v>906</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4023,7 +5395,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>481</v>
+        <v>907</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4050,7 +5422,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>482</v>
+        <v>908</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -4075,7 +5447,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>483</v>
+        <v>909</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -4100,7 +5472,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>484</v>
+        <v>910</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -4125,7 +5497,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>485</v>
+        <v>911</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -4152,7 +5524,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>486</v>
+        <v>912</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -4179,7 +5551,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>487</v>
+        <v>913</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -4204,7 +5576,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>488</v>
+        <v>914</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -4229,7 +5601,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>489</v>
+        <v>915</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -4256,7 +5628,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>490</v>
+        <v>916</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -4283,7 +5655,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>491</v>
+        <v>917</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -4308,7 +5680,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>492</v>
+        <v>918</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -4333,7 +5705,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>493</v>
+        <v>919</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -4358,7 +5730,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>494</v>
+        <v>920</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -4385,7 +5757,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>495</v>
+        <v>921</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -4410,7 +5782,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>496</v>
+        <v>922</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -4435,7 +5807,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>497</v>
+        <v>923</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -4460,7 +5832,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>498</v>
+        <v>924</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -4487,7 +5859,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>499</v>
+        <v>925</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -4514,7 +5886,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>500</v>
+        <v>926</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -4539,7 +5911,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>501</v>
+        <v>927</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -4564,7 +5936,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>502</v>
+        <v>928</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -4589,7 +5961,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>503</v>
+        <v>929</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -4616,7 +5988,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>504</v>
+        <v>930</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -4641,7 +6013,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>505</v>
+        <v>931</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -4666,7 +6038,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>506</v>
+        <v>932</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -4691,7 +6063,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>507</v>
+        <v>933</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -4718,7 +6090,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>508</v>
+        <v>934</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -4743,7 +6115,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>509</v>
+        <v>935</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -4768,7 +6140,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>510</v>
+        <v>936</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -4793,7 +6165,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>511</v>
+        <v>937</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -4818,13 +6190,40 @@
         <v>2.6200000000000001</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0">
+        <v>5.532</v>
+      </c>
+      <c r="M47" s="0">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="N47" s="0">
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="O47" s="0">
+        <v>2.6200000000000001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4846,62 +6245,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>589</v>
+        <v>1017</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>590</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>588</v>
+        <v>1016</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>574</v>
+        <v>1002</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>575</v>
+        <v>1003</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>576</v>
+        <v>1004</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>577</v>
+        <v>1005</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>578</v>
+        <v>1006</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>579</v>
+        <v>1007</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>580</v>
+        <v>1008</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>581</v>
+        <v>1009</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>582</v>
+        <v>1010</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>583</v>
+        <v>1011</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>584</v>
+        <v>1012</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>585</v>
+        <v>1013</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>586</v>
+        <v>1014</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>587</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>530</v>
+        <v>957</v>
       </c>
       <c r="B3" s="0">
         <v>3.8290000000000002</v>
@@ -4928,7 +6327,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>531</v>
+        <v>958</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -4953,7 +6352,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>532</v>
+        <v>959</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -4978,7 +6377,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>533</v>
+        <v>960</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -5003,7 +6402,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>534</v>
+        <v>961</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5030,7 +6429,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>535</v>
+        <v>962</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5057,7 +6456,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>536</v>
+        <v>963</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -5082,7 +6481,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>537</v>
+        <v>964</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -5107,7 +6506,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>538</v>
+        <v>965</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5134,7 +6533,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>539</v>
+        <v>966</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5161,7 +6560,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>540</v>
+        <v>967</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5186,7 +6585,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>541</v>
+        <v>968</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5211,7 +6610,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>542</v>
+        <v>969</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5236,7 +6635,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>543</v>
+        <v>970</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5263,7 +6662,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>544</v>
+        <v>971</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -5288,7 +6687,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>545</v>
+        <v>972</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -5313,7 +6712,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>546</v>
+        <v>973</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -5338,7 +6737,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>547</v>
+        <v>974</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -5365,7 +6764,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>548</v>
+        <v>975</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -5392,7 +6791,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>549</v>
+        <v>976</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -5417,7 +6816,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>550</v>
+        <v>977</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -5442,7 +6841,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>551</v>
+        <v>978</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -5469,7 +6868,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>552</v>
+        <v>979</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -5496,7 +6895,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>553</v>
+        <v>980</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -5521,7 +6920,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>554</v>
+        <v>981</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -5546,7 +6945,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>555</v>
+        <v>982</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -5571,7 +6970,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>556</v>
+        <v>983</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -5598,7 +6997,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>557</v>
+        <v>984</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -5623,7 +7022,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>558</v>
+        <v>985</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -5648,7 +7047,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>559</v>
+        <v>986</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -5673,7 +7072,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>560</v>
+        <v>987</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -5700,7 +7099,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>561</v>
+        <v>988</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -5727,7 +7126,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>562</v>
+        <v>989</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -5752,7 +7151,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>563</v>
+        <v>990</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -5777,7 +7176,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>564</v>
+        <v>991</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -5802,7 +7201,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>565</v>
+        <v>992</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -5829,7 +7228,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>566</v>
+        <v>993</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -5854,7 +7253,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>567</v>
+        <v>994</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -5879,7 +7278,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>568</v>
+        <v>995</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -5904,7 +7303,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>569</v>
+        <v>996</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -5931,7 +7330,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>570</v>
+        <v>997</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -5956,7 +7355,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>571</v>
+        <v>998</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -5981,7 +7380,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>572</v>
+        <v>999</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -6006,7 +7405,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>573</v>
+        <v>1000</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -6031,13 +7430,40 @@
         <v>2.8879999999999999</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0">
+        <v>3.2810000000000001</v>
+      </c>
+      <c r="M47" s="0">
+        <v>3.04</v>
+      </c>
+      <c r="N47" s="0">
+        <v>2.669</v>
+      </c>
+      <c r="O47" s="0">
+        <v>2.8759999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6059,62 +7485,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>651</v>
+        <v>1080</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>652</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>650</v>
+        <v>1079</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>636</v>
+        <v>1065</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>637</v>
+        <v>1066</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>638</v>
+        <v>1067</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>639</v>
+        <v>1068</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>640</v>
+        <v>1069</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>641</v>
+        <v>1070</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>642</v>
+        <v>1071</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>643</v>
+        <v>1072</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>644</v>
+        <v>1073</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>645</v>
+        <v>1074</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>646</v>
+        <v>1075</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>647</v>
+        <v>1076</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>648</v>
+        <v>1077</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>649</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>592</v>
+        <v>1020</v>
       </c>
       <c r="B3" s="0">
         <v>4.1399999999999997</v>
@@ -6141,7 +7567,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>593</v>
+        <v>1021</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -6166,7 +7592,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>594</v>
+        <v>1022</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6191,7 +7617,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>595</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6216,7 +7642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>596</v>
+        <v>1024</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6243,7 +7669,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>597</v>
+        <v>1025</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6270,7 +7696,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>598</v>
+        <v>1026</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6295,7 +7721,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>599</v>
+        <v>1027</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6320,7 +7746,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>600</v>
+        <v>1028</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6347,7 +7773,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>601</v>
+        <v>1029</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6374,7 +7800,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>602</v>
+        <v>1030</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6399,7 +7825,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>603</v>
+        <v>1031</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6424,7 +7850,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>604</v>
+        <v>1032</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6449,7 +7875,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>605</v>
+        <v>1033</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6476,7 +7902,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>606</v>
+        <v>1034</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6501,7 +7927,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>607</v>
+        <v>1035</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6526,7 +7952,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>608</v>
+        <v>1036</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -6551,7 +7977,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>609</v>
+        <v>1037</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -6578,7 +8004,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>610</v>
+        <v>1038</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6605,7 +8031,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>611</v>
+        <v>1039</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6630,7 +8056,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>612</v>
+        <v>1040</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6655,7 +8081,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>613</v>
+        <v>1041</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -6682,7 +8108,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>614</v>
+        <v>1042</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -6709,7 +8135,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>615</v>
+        <v>1043</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -6734,7 +8160,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>616</v>
+        <v>1044</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -6759,7 +8185,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>617</v>
+        <v>1045</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -6784,7 +8210,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>618</v>
+        <v>1046</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -6811,7 +8237,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>619</v>
+        <v>1047</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -6836,7 +8262,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>620</v>
+        <v>1048</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -6861,7 +8287,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>621</v>
+        <v>1049</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -6886,7 +8312,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>622</v>
+        <v>1050</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -6913,7 +8339,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>623</v>
+        <v>1051</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -6940,7 +8366,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>624</v>
+        <v>1052</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -6965,7 +8391,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>625</v>
+        <v>1053</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -6990,7 +8416,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>626</v>
+        <v>1054</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -7015,7 +8441,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>627</v>
+        <v>1055</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -7042,7 +8468,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>628</v>
+        <v>1056</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -7067,7 +8493,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>629</v>
+        <v>1057</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -7092,7 +8518,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>630</v>
+        <v>1058</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -7117,7 +8543,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>631</v>
+        <v>1059</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -7144,7 +8570,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>632</v>
+        <v>1060</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -7169,7 +8595,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>633</v>
+        <v>1061</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -7194,7 +8620,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>634</v>
+        <v>1062</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -7219,7 +8645,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>635</v>
+        <v>1063</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -7244,13 +8670,40 @@
         <v>2.306</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="M47" s="0">
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="N47" s="0">
+        <v>2.6360000000000001</v>
+      </c>
+      <c r="O47" s="0">
+        <v>2.141</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7271,59 +8724,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>712</v>
+        <v>1142</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>713</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>711</v>
+        <v>1141</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>698</v>
+        <v>1128</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>699</v>
+        <v>1129</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>700</v>
+        <v>1130</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>701</v>
+        <v>1131</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>702</v>
+        <v>1132</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>703</v>
+        <v>1133</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>704</v>
+        <v>1134</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>705</v>
+        <v>1135</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>706</v>
+        <v>1136</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>707</v>
+        <v>1137</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>708</v>
+        <v>1138</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>709</v>
+        <v>1139</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>710</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>654</v>
+        <v>1083</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -7347,7 +8800,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>655</v>
+        <v>1084</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017999999999999999</v>
@@ -7371,7 +8824,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>656</v>
+        <v>1085</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -7395,7 +8848,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>657</v>
+        <v>1086</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -7419,7 +8872,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>658</v>
+        <v>1087</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7443,7 +8896,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>659</v>
+        <v>1088</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7467,7 +8920,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>660</v>
+        <v>1089</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -7491,7 +8944,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>661</v>
+        <v>1090</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -7515,7 +8968,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>662</v>
+        <v>1091</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -7541,7 +8994,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>663</v>
+        <v>1092</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7565,7 +9018,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>664</v>
+        <v>1093</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7589,7 +9042,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>665</v>
+        <v>1094</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7613,7 +9066,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>666</v>
+        <v>1095</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7637,7 +9090,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>667</v>
+        <v>1096</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7661,7 +9114,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>668</v>
+        <v>1097</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -7685,7 +9138,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>669</v>
+        <v>1098</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -7709,7 +9162,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>670</v>
+        <v>1099</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -7733,7 +9186,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>671</v>
+        <v>1100</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -7757,7 +9210,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>672</v>
+        <v>1101</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -7781,7 +9234,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>673</v>
+        <v>1102</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7805,7 +9258,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>674</v>
+        <v>1103</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7829,7 +9282,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>675</v>
+        <v>1104</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -7855,7 +9308,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>676</v>
+        <v>1105</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -7879,7 +9332,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>677</v>
+        <v>1106</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -7903,7 +9356,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>678</v>
+        <v>1107</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -7927,7 +9380,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>679</v>
+        <v>1108</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -7951,7 +9404,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>680</v>
+        <v>1109</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -7975,7 +9428,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>681</v>
+        <v>1110</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -7999,7 +9452,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>682</v>
+        <v>1111</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -8023,7 +9476,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>683</v>
+        <v>1112</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -8047,7 +9500,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>684</v>
+        <v>1113</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -8071,7 +9524,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>685</v>
+        <v>1114</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -8095,7 +9548,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>686</v>
+        <v>1115</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -8119,7 +9572,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>687</v>
+        <v>1116</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -8143,7 +9596,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>688</v>
+        <v>1117</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -8167,7 +9620,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>689</v>
+        <v>1118</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -8191,7 +9644,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>690</v>
+        <v>1119</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -8215,7 +9668,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>691</v>
+        <v>1120</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -8239,7 +9692,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>692</v>
+        <v>1121</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -8263,7 +9716,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>693</v>
+        <v>1122</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -8287,7 +9740,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>694</v>
+        <v>1123</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -8311,7 +9764,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>695</v>
+        <v>1124</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -8335,7 +9788,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>696</v>
+        <v>1125</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -8359,7 +9812,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>697</v>
+        <v>1126</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -8381,13 +9834,37 @@
         <v>-0.0050000000000000001</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="M47" s="0">
+        <v>0.033000000000000002</v>
+      </c>
+      <c r="N47" s="0">
+        <v>0.0080000000000000002</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -8408,59 +9885,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>773</v>
+        <v>1204</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>774</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>772</v>
+        <v>1203</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>759</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>760</v>
+        <v>1191</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>761</v>
+        <v>1192</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>762</v>
+        <v>1193</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>763</v>
+        <v>1194</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>764</v>
+        <v>1195</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>765</v>
+        <v>1196</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>766</v>
+        <v>1197</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>767</v>
+        <v>1198</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>768</v>
+        <v>1199</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>769</v>
+        <v>1200</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>770</v>
+        <v>1201</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>771</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>715</v>
+        <v>1145</v>
       </c>
       <c r="B3" s="0">
         <v>0.125</v>
@@ -8484,7 +9961,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>716</v>
+        <v>1146</v>
       </c>
       <c r="B4" s="0">
         <v>0.12</v>
@@ -8508,7 +9985,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>717</v>
+        <v>1147</v>
       </c>
       <c r="B5" s="0">
         <v>0.084000000000000005</v>
@@ -8532,7 +10009,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>718</v>
+        <v>1148</v>
       </c>
       <c r="B6" s="0">
         <v>0.080000000000000002</v>
@@ -8556,7 +10033,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>719</v>
+        <v>1149</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8580,7 +10057,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>720</v>
+        <v>1150</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8604,7 +10081,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>721</v>
+        <v>1151</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -8628,7 +10105,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>722</v>
+        <v>1152</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -8652,7 +10129,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>723</v>
+        <v>1153</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -8678,7 +10155,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>724</v>
+        <v>1154</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -8702,7 +10179,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>725</v>
+        <v>1155</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8726,7 +10203,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>726</v>
+        <v>1156</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8750,7 +10227,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>727</v>
+        <v>1157</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8774,7 +10251,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>728</v>
+        <v>1158</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8798,7 +10275,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>729</v>
+        <v>1159</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -8822,7 +10299,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>730</v>
+        <v>1160</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -8846,7 +10323,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>731</v>
+        <v>1161</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8870,7 +10347,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>732</v>
+        <v>1162</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8894,7 +10371,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>733</v>
+        <v>1163</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8918,7 +10395,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>734</v>
+        <v>1164</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -8942,7 +10419,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>735</v>
+        <v>1165</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8966,7 +10443,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>736</v>
+        <v>1166</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8992,7 +10469,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>737</v>
+        <v>1167</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -9016,7 +10493,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>738</v>
+        <v>1168</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -9040,7 +10517,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>739</v>
+        <v>1169</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -9064,7 +10541,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>740</v>
+        <v>1170</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -9088,7 +10565,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>741</v>
+        <v>1171</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -9112,7 +10589,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>742</v>
+        <v>1172</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -9136,7 +10613,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>743</v>
+        <v>1173</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -9160,7 +10637,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>744</v>
+        <v>1174</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -9184,7 +10661,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>745</v>
+        <v>1175</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9208,7 +10685,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>746</v>
+        <v>1176</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -9232,7 +10709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>747</v>
+        <v>1177</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -9256,7 +10733,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>748</v>
+        <v>1178</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -9280,7 +10757,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>749</v>
+        <v>1179</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -9304,7 +10781,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>750</v>
+        <v>1180</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -9328,7 +10805,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>751</v>
+        <v>1181</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -9352,7 +10829,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>752</v>
+        <v>1182</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -9376,7 +10853,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>753</v>
+        <v>1183</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -9400,7 +10877,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>754</v>
+        <v>1184</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -9424,7 +10901,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>755</v>
+        <v>1185</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -9448,7 +10925,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>756</v>
+        <v>1186</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -9472,7 +10949,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>757</v>
+        <v>1187</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -9496,7 +10973,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>758</v>
+        <v>1188</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -9518,13 +10995,37 @@
         <v>0.087999999999999995</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0">
+        <v>0.041000000000000002</v>
+      </c>
+      <c r="M47" s="0">
+        <v>0.019</v>
+      </c>
+      <c r="N47" s="0">
+        <v>0.072999999999999995</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -9546,62 +11047,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>835</v>
+        <v>1267</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>836</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>834</v>
+        <v>1266</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>820</v>
+        <v>1252</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>821</v>
+        <v>1253</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>822</v>
+        <v>1254</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>823</v>
+        <v>1255</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>824</v>
+        <v>1256</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>825</v>
+        <v>1257</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>826</v>
+        <v>1258</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>827</v>
+        <v>1259</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>828</v>
+        <v>1260</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>829</v>
+        <v>1261</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>830</v>
+        <v>1262</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>831</v>
+        <v>1263</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>832</v>
+        <v>1264</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>833</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>776</v>
+        <v>1207</v>
       </c>
       <c r="B3" s="0">
         <v>2.4239999999999999</v>
@@ -9628,7 +11129,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>777</v>
+        <v>1208</v>
       </c>
       <c r="B4" s="0">
         <v>-0.034000000000000002</v>
@@ -9655,7 +11156,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>778</v>
+        <v>1209</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -9680,7 +11181,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>779</v>
+        <v>1210</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -9705,7 +11206,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>780</v>
+        <v>1211</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -9732,7 +11233,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>781</v>
+        <v>1212</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -9759,7 +11260,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>782</v>
+        <v>1213</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -9784,7 +11285,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>783</v>
+        <v>1214</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -9809,7 +11310,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>784</v>
+        <v>1215</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -9836,7 +11337,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>785</v>
+        <v>1216</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9863,7 +11364,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>786</v>
+        <v>1217</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -9888,7 +11389,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>787</v>
+        <v>1218</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -9913,7 +11414,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>788</v>
+        <v>1219</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -9938,7 +11439,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>789</v>
+        <v>1220</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9965,7 +11466,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>790</v>
+        <v>1221</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -9992,7 +11493,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>791</v>
+        <v>1222</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -10017,7 +11518,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>792</v>
+        <v>1223</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10042,7 +11543,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>793</v>
+        <v>1224</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -10069,7 +11570,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>794</v>
+        <v>1225</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10096,7 +11597,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>795</v>
+        <v>1226</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -10121,7 +11622,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>796</v>
+        <v>1227</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10146,7 +11647,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>797</v>
+        <v>1228</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -10173,7 +11674,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>798</v>
+        <v>1229</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -10200,7 +11701,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>799</v>
+        <v>1230</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -10225,7 +11726,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>800</v>
+        <v>1231</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -10250,7 +11751,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>801</v>
+        <v>1232</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10275,7 +11776,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>802</v>
+        <v>1233</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -10302,7 +11803,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>803</v>
+        <v>1234</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -10329,7 +11830,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>804</v>
+        <v>1235</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -10354,7 +11855,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>805</v>
+        <v>1236</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -10379,7 +11880,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>806</v>
+        <v>1237</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -10406,7 +11907,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>807</v>
+        <v>1238</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -10433,7 +11934,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>808</v>
+        <v>1239</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -10458,7 +11959,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>809</v>
+        <v>1240</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -10483,7 +11984,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>810</v>
+        <v>1241</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -10508,7 +12009,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>811</v>
+        <v>1242</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -10535,7 +12036,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>812</v>
+        <v>1243</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -10562,7 +12063,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>813</v>
+        <v>1244</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -10587,7 +12088,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>814</v>
+        <v>1245</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -10612,7 +12113,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>815</v>
+        <v>1246</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -10639,7 +12140,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>816</v>
+        <v>1247</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -10666,7 +12167,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>817</v>
+        <v>1248</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -10691,7 +12192,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>818</v>
+        <v>1249</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -10716,7 +12217,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>819</v>
+        <v>1250</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -10741,6 +12242,33 @@
         <v>2.3319999999999999</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0">
+        <v>-8.4169999999999998</v>
+      </c>
+      <c r="M47" s="0">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="N47" s="0">
+        <v>-6.133</v>
+      </c>
+      <c r="O47" s="0">
+        <v>2.3319999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1708">
   <si>
     <t>Row</t>
   </si>
@@ -3776,6 +3776,1323 @@
   </si>
   <si>
     <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -3847,7 +5164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="113">
     <border>
       <left/>
       <right/>
@@ -3939,11 +5256,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -4029,6 +5374,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4038,7 +5411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4053,41 +5426,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>891</v>
+        <v>1324</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>892</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>890</v>
+        <v>1323</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>883</v>
+        <v>1316</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>884</v>
+        <v>1317</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>885</v>
+        <v>1318</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>886</v>
+        <v>1319</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>887</v>
+        <v>1320</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>888</v>
+        <v>1321</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>889</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>838</v>
+        <v>1270</v>
       </c>
       <c r="B3" s="0">
         <v>1.599</v>
@@ -4107,7 +5480,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>839</v>
+        <v>1271</v>
       </c>
       <c r="B4" s="0">
         <v>1.3109999999999999</v>
@@ -4127,7 +5500,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>840</v>
+        <v>1272</v>
       </c>
       <c r="B5" s="0">
         <v>3.6320000000000001</v>
@@ -4147,7 +5520,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>841</v>
+        <v>1273</v>
       </c>
       <c r="B6" s="0">
         <v>5.5919999999999996</v>
@@ -4167,7 +5540,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>842</v>
+        <v>1274</v>
       </c>
       <c r="B7" s="0">
         <v>2.8439999999999999</v>
@@ -4187,7 +5560,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>843</v>
+        <v>1275</v>
       </c>
       <c r="B8" s="0">
         <v>2.7589999999999999</v>
@@ -4207,7 +5580,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>844</v>
+        <v>1276</v>
       </c>
       <c r="B9" s="0">
         <v>4.4939999999999998</v>
@@ -4227,7 +5600,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>845</v>
+        <v>1277</v>
       </c>
       <c r="B10" s="0">
         <v>4.5359999999999996</v>
@@ -4247,7 +5620,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>846</v>
+        <v>1278</v>
       </c>
       <c r="B11" s="0">
         <v>4.3780000000000001</v>
@@ -4267,7 +5640,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>847</v>
+        <v>1279</v>
       </c>
       <c r="B12" s="0">
         <v>3.516</v>
@@ -4287,7 +5660,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>848</v>
+        <v>1280</v>
       </c>
       <c r="B13" s="0">
         <v>3.4630000000000001</v>
@@ -4307,7 +5680,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>849</v>
+        <v>1281</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -4325,7 +5698,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>850</v>
+        <v>1282</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -4343,7 +5716,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>851</v>
+        <v>1283</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -4363,7 +5736,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>852</v>
+        <v>1284</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -4383,7 +5756,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>853</v>
+        <v>1285</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -4403,7 +5776,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>854</v>
+        <v>1286</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -4423,7 +5796,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>855</v>
+        <v>1287</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -4443,7 +5816,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>856</v>
+        <v>1288</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -4463,7 +5836,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>857</v>
+        <v>1289</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -4483,7 +5856,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>858</v>
+        <v>1290</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -4503,7 +5876,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>859</v>
+        <v>1291</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -4523,7 +5896,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>860</v>
+        <v>1292</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -4543,7 +5916,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>861</v>
+        <v>1293</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -4563,7 +5936,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>862</v>
+        <v>1294</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -4583,7 +5956,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>863</v>
+        <v>1295</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -4601,7 +5974,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>864</v>
+        <v>1296</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -4621,7 +5994,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>865</v>
+        <v>1297</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -4641,7 +6014,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>866</v>
+        <v>1298</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -4661,7 +6034,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>867</v>
+        <v>1299</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -4681,7 +6054,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>868</v>
+        <v>1300</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -4701,7 +6074,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>869</v>
+        <v>1301</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -4721,7 +6094,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>870</v>
+        <v>1302</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -4741,7 +6114,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>871</v>
+        <v>1303</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -4761,7 +6134,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>872</v>
+        <v>1304</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -4781,7 +6154,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>873</v>
+        <v>1305</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -4801,7 +6174,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>874</v>
+        <v>1306</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -4821,7 +6194,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>875</v>
+        <v>1307</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -4841,7 +6214,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>876</v>
+        <v>1308</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -4859,7 +6232,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>877</v>
+        <v>1309</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -4879,7 +6252,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>878</v>
+        <v>1310</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -4899,7 +6272,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>879</v>
+        <v>1311</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -4919,7 +6292,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>880</v>
+        <v>1312</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -4939,7 +6312,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>881</v>
+        <v>1313</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -4959,7 +6332,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>882</v>
+        <v>1314</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -4974,6 +6347,26 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="H47" s="0">
+        <v>2.6520000000000001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0">
+        <v>3.2519999999999998</v>
+      </c>
+      <c r="F48" s="0">
+        <v>4.319</v>
+      </c>
+      <c r="G48" s="0">
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="H48" s="0">
         <v>2.6520000000000001</v>
       </c>
     </row>
@@ -4983,7 +6376,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5005,62 +6398,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>954</v>
+        <v>1388</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>955</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>953</v>
+        <v>1387</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>939</v>
+        <v>1373</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>940</v>
+        <v>1374</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>941</v>
+        <v>1375</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>942</v>
+        <v>1376</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>943</v>
+        <v>1377</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>944</v>
+        <v>1378</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>945</v>
+        <v>1379</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>946</v>
+        <v>1380</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>947</v>
+        <v>1381</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>948</v>
+        <v>1382</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>949</v>
+        <v>1383</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>950</v>
+        <v>1384</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>951</v>
+        <v>1385</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>952</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>894</v>
+        <v>1327</v>
       </c>
       <c r="B3" s="0">
         <v>4.8330000000000002</v>
@@ -5087,7 +6480,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>895</v>
+        <v>1328</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -5112,7 +6505,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>896</v>
+        <v>1329</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -5137,7 +6530,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>897</v>
+        <v>1330</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -5162,7 +6555,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>898</v>
+        <v>1331</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5189,7 +6582,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>899</v>
+        <v>1332</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5216,7 +6609,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>900</v>
+        <v>1333</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -5241,7 +6634,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>901</v>
+        <v>1334</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -5266,7 +6659,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>902</v>
+        <v>1335</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5293,7 +6686,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>903</v>
+        <v>1336</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5320,7 +6713,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>904</v>
+        <v>1337</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5345,7 +6738,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>905</v>
+        <v>1338</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5370,7 +6763,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>906</v>
+        <v>1339</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5395,7 +6788,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>907</v>
+        <v>1340</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5422,7 +6815,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>908</v>
+        <v>1341</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -5447,7 +6840,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>909</v>
+        <v>1342</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -5472,7 +6865,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>910</v>
+        <v>1343</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -5497,7 +6890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>911</v>
+        <v>1344</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -5524,7 +6917,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>912</v>
+        <v>1345</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -5551,7 +6944,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>913</v>
+        <v>1346</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -5576,7 +6969,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>914</v>
+        <v>1347</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -5601,7 +6994,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>915</v>
+        <v>1348</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -5628,7 +7021,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>916</v>
+        <v>1349</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -5655,7 +7048,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>917</v>
+        <v>1350</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -5680,7 +7073,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>918</v>
+        <v>1351</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -5705,7 +7098,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>919</v>
+        <v>1352</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -5730,7 +7123,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>920</v>
+        <v>1353</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -5757,7 +7150,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>921</v>
+        <v>1354</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -5782,7 +7175,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>922</v>
+        <v>1355</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -5807,7 +7200,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>923</v>
+        <v>1356</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -5832,7 +7225,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>924</v>
+        <v>1357</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -5859,7 +7252,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>925</v>
+        <v>1358</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -5886,7 +7279,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>926</v>
+        <v>1359</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -5911,7 +7304,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>927</v>
+        <v>1360</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -5936,7 +7329,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>928</v>
+        <v>1361</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -5961,7 +7354,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>929</v>
+        <v>1362</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -5988,7 +7381,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>930</v>
+        <v>1363</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -6013,7 +7406,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>931</v>
+        <v>1364</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -6038,7 +7431,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>932</v>
+        <v>1365</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -6063,7 +7456,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>933</v>
+        <v>1366</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -6090,7 +7483,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>934</v>
+        <v>1367</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -6115,7 +7508,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>935</v>
+        <v>1368</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -6140,7 +7533,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>936</v>
+        <v>1369</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -6165,7 +7558,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>937</v>
+        <v>1370</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -6192,7 +7585,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>938</v>
+        <v>1371</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -6217,13 +7610,38 @@
         <v>2.6200000000000001</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0">
+        <v>2.948</v>
+      </c>
+      <c r="N48" s="0">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="O48" s="0">
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6245,62 +7663,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1017</v>
+        <v>1452</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1018</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1016</v>
+        <v>1451</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1002</v>
+        <v>1437</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1003</v>
+        <v>1438</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1004</v>
+        <v>1439</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1005</v>
+        <v>1440</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1006</v>
+        <v>1441</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1007</v>
+        <v>1442</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1008</v>
+        <v>1443</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1009</v>
+        <v>1444</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1010</v>
+        <v>1445</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1011</v>
+        <v>1446</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1012</v>
+        <v>1447</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1013</v>
+        <v>1448</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>1014</v>
+        <v>1449</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>1015</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>957</v>
+        <v>1391</v>
       </c>
       <c r="B3" s="0">
         <v>3.8290000000000002</v>
@@ -6327,7 +7745,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>958</v>
+        <v>1392</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -6352,7 +7770,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>959</v>
+        <v>1393</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6377,7 +7795,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>960</v>
+        <v>1394</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6402,7 +7820,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>961</v>
+        <v>1395</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6429,7 +7847,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>962</v>
+        <v>1396</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6456,7 +7874,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>963</v>
+        <v>1397</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6481,7 +7899,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>964</v>
+        <v>1398</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6506,7 +7924,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>965</v>
+        <v>1399</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6533,7 +7951,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>966</v>
+        <v>1400</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6560,7 +7978,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>967</v>
+        <v>1401</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6585,7 +8003,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>968</v>
+        <v>1402</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6610,7 +8028,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>969</v>
+        <v>1403</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6635,7 +8053,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>970</v>
+        <v>1404</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6662,7 +8080,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>971</v>
+        <v>1405</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6687,7 +8105,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>972</v>
+        <v>1406</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6712,7 +8130,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>973</v>
+        <v>1407</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -6737,7 +8155,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>974</v>
+        <v>1408</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -6764,7 +8182,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>975</v>
+        <v>1409</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6791,7 +8209,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>976</v>
+        <v>1410</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6816,7 +8234,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>977</v>
+        <v>1411</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6841,7 +8259,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>978</v>
+        <v>1412</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -6868,7 +8286,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>979</v>
+        <v>1413</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -6895,7 +8313,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>980</v>
+        <v>1414</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -6920,7 +8338,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>981</v>
+        <v>1415</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -6945,7 +8363,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>982</v>
+        <v>1416</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -6970,7 +8388,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>983</v>
+        <v>1417</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -6997,7 +8415,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>984</v>
+        <v>1418</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -7022,7 +8440,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>985</v>
+        <v>1419</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -7047,7 +8465,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>986</v>
+        <v>1420</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -7072,7 +8490,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>987</v>
+        <v>1421</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -7099,7 +8517,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>988</v>
+        <v>1422</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -7126,7 +8544,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>989</v>
+        <v>1423</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -7151,7 +8569,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>990</v>
+        <v>1424</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -7176,7 +8594,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>991</v>
+        <v>1425</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -7201,7 +8619,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>992</v>
+        <v>1426</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -7228,7 +8646,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>993</v>
+        <v>1427</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -7253,7 +8671,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>994</v>
+        <v>1428</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -7278,7 +8696,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>995</v>
+        <v>1429</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -7303,7 +8721,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>996</v>
+        <v>1430</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -7330,7 +8748,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>997</v>
+        <v>1431</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -7355,7 +8773,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>998</v>
+        <v>1432</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -7380,7 +8798,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>999</v>
+        <v>1433</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -7405,7 +8823,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1000</v>
+        <v>1434</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -7432,7 +8850,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1001</v>
+        <v>1435</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -7457,13 +8875,38 @@
         <v>2.8759999999999999</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="N48" s="0">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="O48" s="0">
+        <v>2.407</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7485,62 +8928,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1080</v>
+        <v>1516</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1081</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1079</v>
+        <v>1515</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1065</v>
+        <v>1501</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1066</v>
+        <v>1502</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1067</v>
+        <v>1503</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1068</v>
+        <v>1504</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1069</v>
+        <v>1505</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1070</v>
+        <v>1506</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1071</v>
+        <v>1507</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1072</v>
+        <v>1508</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1073</v>
+        <v>1509</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1074</v>
+        <v>1510</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1075</v>
+        <v>1511</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1076</v>
+        <v>1512</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>1077</v>
+        <v>1513</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>1078</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1020</v>
+        <v>1455</v>
       </c>
       <c r="B3" s="0">
         <v>4.1399999999999997</v>
@@ -7567,7 +9010,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1021</v>
+        <v>1456</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -7592,7 +9035,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1022</v>
+        <v>1457</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7617,7 +9060,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1023</v>
+        <v>1458</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7642,7 +9085,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1024</v>
+        <v>1459</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7669,7 +9112,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1025</v>
+        <v>1460</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7696,7 +9139,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1026</v>
+        <v>1461</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -7721,7 +9164,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1027</v>
+        <v>1462</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -7746,7 +9189,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1028</v>
+        <v>1463</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -7773,7 +9216,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1029</v>
+        <v>1464</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7800,7 +9243,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1030</v>
+        <v>1465</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7825,7 +9268,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1031</v>
+        <v>1466</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7850,7 +9293,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1032</v>
+        <v>1467</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7875,7 +9318,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1033</v>
+        <v>1468</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7902,7 +9345,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1034</v>
+        <v>1469</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -7927,7 +9370,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1035</v>
+        <v>1470</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -7952,7 +9395,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1036</v>
+        <v>1471</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -7977,7 +9420,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1037</v>
+        <v>1472</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8004,7 +9447,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1038</v>
+        <v>1473</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8031,7 +9474,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1039</v>
+        <v>1474</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -8056,7 +9499,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1040</v>
+        <v>1475</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8081,7 +9524,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1041</v>
+        <v>1476</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8108,7 +9551,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1042</v>
+        <v>1477</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -8135,7 +9578,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1043</v>
+        <v>1478</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -8160,7 +9603,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1044</v>
+        <v>1479</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -8185,7 +9628,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1045</v>
+        <v>1480</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -8210,7 +9653,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1046</v>
+        <v>1481</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -8237,7 +9680,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1047</v>
+        <v>1482</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -8262,7 +9705,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1048</v>
+        <v>1483</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -8287,7 +9730,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1049</v>
+        <v>1484</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -8312,7 +9755,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1050</v>
+        <v>1485</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -8339,7 +9782,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1051</v>
+        <v>1486</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -8366,7 +9809,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1052</v>
+        <v>1487</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -8391,7 +9834,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1053</v>
+        <v>1488</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -8416,7 +9859,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1054</v>
+        <v>1489</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -8441,7 +9884,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1055</v>
+        <v>1490</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -8468,7 +9911,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1056</v>
+        <v>1491</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -8493,7 +9936,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1057</v>
+        <v>1492</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -8518,7 +9961,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1058</v>
+        <v>1493</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -8543,7 +9986,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1059</v>
+        <v>1494</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -8570,7 +10013,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1060</v>
+        <v>1495</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -8595,7 +10038,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1061</v>
+        <v>1496</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -8620,7 +10063,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1062</v>
+        <v>1497</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -8645,7 +10088,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1063</v>
+        <v>1498</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -8672,7 +10115,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1064</v>
+        <v>1499</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -8697,13 +10140,38 @@
         <v>2.141</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0">
+        <v>3.222</v>
+      </c>
+      <c r="N48" s="0">
+        <v>2.8599999999999999</v>
+      </c>
+      <c r="O48" s="0">
+        <v>2.528</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -8724,59 +10192,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1142</v>
+        <v>1579</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1143</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1141</v>
+        <v>1578</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1128</v>
+        <v>1565</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1129</v>
+        <v>1566</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1130</v>
+        <v>1567</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1131</v>
+        <v>1568</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1132</v>
+        <v>1569</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1133</v>
+        <v>1570</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1134</v>
+        <v>1571</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1135</v>
+        <v>1572</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1136</v>
+        <v>1573</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1137</v>
+        <v>1574</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1138</v>
+        <v>1575</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1139</v>
+        <v>1576</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>1140</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1083</v>
+        <v>1519</v>
       </c>
       <c r="B3" s="0">
         <v>-0.016</v>
@@ -8800,7 +10268,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1084</v>
+        <v>1520</v>
       </c>
       <c r="B4" s="0">
         <v>-0.017999999999999999</v>
@@ -8824,7 +10292,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1085</v>
+        <v>1521</v>
       </c>
       <c r="B5" s="0">
         <v>-0.017000000000000001</v>
@@ -8848,7 +10316,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1086</v>
+        <v>1522</v>
       </c>
       <c r="B6" s="0">
         <v>-0.017000000000000001</v>
@@ -8872,7 +10340,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1087</v>
+        <v>1523</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -8896,7 +10364,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1088</v>
+        <v>1524</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -8920,7 +10388,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1089</v>
+        <v>1525</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -8944,7 +10412,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1090</v>
+        <v>1526</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -8968,7 +10436,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1091</v>
+        <v>1527</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -8994,7 +10462,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1092</v>
+        <v>1528</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -9018,7 +10486,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1093</v>
+        <v>1529</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -9042,7 +10510,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1094</v>
+        <v>1530</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -9066,7 +10534,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1095</v>
+        <v>1531</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -9090,7 +10558,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1096</v>
+        <v>1532</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -9114,7 +10582,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1097</v>
+        <v>1533</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -9138,7 +10606,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1098</v>
+        <v>1534</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -9162,7 +10630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1099</v>
+        <v>1535</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -9186,7 +10654,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1100</v>
+        <v>1536</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -9210,7 +10678,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1101</v>
+        <v>1537</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -9234,7 +10702,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1102</v>
+        <v>1538</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -9258,7 +10726,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1103</v>
+        <v>1539</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -9282,7 +10750,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1104</v>
+        <v>1540</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -9308,7 +10776,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1105</v>
+        <v>1541</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -9332,7 +10800,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1106</v>
+        <v>1542</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -9356,7 +10824,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1107</v>
+        <v>1543</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -9380,7 +10848,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1108</v>
+        <v>1544</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -9404,7 +10872,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1109</v>
+        <v>1545</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -9428,7 +10896,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1110</v>
+        <v>1546</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -9452,7 +10920,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1111</v>
+        <v>1547</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -9476,7 +10944,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1112</v>
+        <v>1548</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -9500,7 +10968,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1113</v>
+        <v>1549</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9524,7 +10992,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1114</v>
+        <v>1550</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -9548,7 +11016,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1115</v>
+        <v>1551</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -9572,7 +11040,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1116</v>
+        <v>1552</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -9596,7 +11064,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1117</v>
+        <v>1553</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -9620,7 +11088,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1118</v>
+        <v>1554</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -9644,7 +11112,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1119</v>
+        <v>1555</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -9668,7 +11136,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1120</v>
+        <v>1556</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -9692,7 +11160,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1121</v>
+        <v>1557</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -9716,7 +11184,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1122</v>
+        <v>1558</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -9740,7 +11208,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1123</v>
+        <v>1559</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -9764,7 +11232,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1124</v>
+        <v>1560</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -9788,7 +11256,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1125</v>
+        <v>1561</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -9812,7 +11280,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1126</v>
+        <v>1562</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -9836,7 +11304,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1127</v>
+        <v>1563</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -9858,13 +11326,37 @@
         <v>0.0080000000000000002</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0">
+        <v>0.0089999999999999993</v>
+      </c>
+      <c r="M48" s="0">
+        <v>0.021000000000000001</v>
+      </c>
+      <c r="N48" s="0">
+        <v>0.0089999999999999993</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -9885,59 +11377,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1204</v>
+        <v>1642</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1205</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1203</v>
+        <v>1641</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1190</v>
+        <v>1628</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1191</v>
+        <v>1629</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1192</v>
+        <v>1630</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1193</v>
+        <v>1631</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1194</v>
+        <v>1632</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1195</v>
+        <v>1633</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1196</v>
+        <v>1634</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1197</v>
+        <v>1635</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1198</v>
+        <v>1636</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1199</v>
+        <v>1637</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1200</v>
+        <v>1638</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1201</v>
+        <v>1639</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>1202</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1145</v>
+        <v>1582</v>
       </c>
       <c r="B3" s="0">
         <v>0.125</v>
@@ -9961,7 +11453,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1146</v>
+        <v>1583</v>
       </c>
       <c r="B4" s="0">
         <v>0.12</v>
@@ -9985,7 +11477,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1147</v>
+        <v>1584</v>
       </c>
       <c r="B5" s="0">
         <v>0.084000000000000005</v>
@@ -10009,7 +11501,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1148</v>
+        <v>1585</v>
       </c>
       <c r="B6" s="0">
         <v>0.080000000000000002</v>
@@ -10033,7 +11525,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1149</v>
+        <v>1586</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -10057,7 +11549,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1150</v>
+        <v>1587</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -10081,7 +11573,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1151</v>
+        <v>1588</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -10105,7 +11597,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1152</v>
+        <v>1589</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -10129,7 +11621,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1153</v>
+        <v>1590</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -10155,7 +11647,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1154</v>
+        <v>1591</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -10179,7 +11671,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1155</v>
+        <v>1592</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -10203,7 +11695,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1156</v>
+        <v>1593</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -10227,7 +11719,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1157</v>
+        <v>1594</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -10251,7 +11743,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1158</v>
+        <v>1595</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -10275,7 +11767,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1159</v>
+        <v>1596</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -10299,7 +11791,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1160</v>
+        <v>1597</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -10323,7 +11815,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1161</v>
+        <v>1598</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -10347,7 +11839,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1162</v>
+        <v>1599</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -10371,7 +11863,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1163</v>
+        <v>1600</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -10395,7 +11887,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1164</v>
+        <v>1601</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -10419,7 +11911,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1165</v>
+        <v>1602</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -10443,7 +11935,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1166</v>
+        <v>1603</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -10469,7 +11961,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1167</v>
+        <v>1604</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -10493,7 +11985,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1168</v>
+        <v>1605</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -10517,7 +12009,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1169</v>
+        <v>1606</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -10541,7 +12033,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1170</v>
+        <v>1607</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -10565,7 +12057,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1171</v>
+        <v>1608</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -10589,7 +12081,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1172</v>
+        <v>1609</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -10613,7 +12105,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1173</v>
+        <v>1610</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -10637,7 +12129,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1174</v>
+        <v>1611</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -10661,7 +12153,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1175</v>
+        <v>1612</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -10685,7 +12177,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1176</v>
+        <v>1613</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -10709,7 +12201,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1177</v>
+        <v>1614</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -10733,7 +12225,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1178</v>
+        <v>1615</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -10757,7 +12249,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1179</v>
+        <v>1616</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -10781,7 +12273,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1180</v>
+        <v>1617</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -10805,7 +12297,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1181</v>
+        <v>1618</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -10829,7 +12321,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1182</v>
+        <v>1619</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -10853,7 +12345,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1183</v>
+        <v>1620</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -10877,7 +12369,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1184</v>
+        <v>1621</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -10901,7 +12393,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1185</v>
+        <v>1622</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -10925,7 +12417,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1186</v>
+        <v>1623</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -10949,7 +12441,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1187</v>
+        <v>1624</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -10973,7 +12465,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1188</v>
+        <v>1625</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -10997,7 +12489,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1189</v>
+        <v>1626</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -11019,13 +12511,37 @@
         <v>0.072999999999999995</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0">
+        <v>0.043999999999999997</v>
+      </c>
+      <c r="M48" s="0">
+        <v>0.024</v>
+      </c>
+      <c r="N48" s="0">
+        <v>0.085999999999999993</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -11047,62 +12563,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1267</v>
+        <v>1706</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1268</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1266</v>
+        <v>1705</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1252</v>
+        <v>1691</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1253</v>
+        <v>1692</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1254</v>
+        <v>1693</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1255</v>
+        <v>1694</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1256</v>
+        <v>1695</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1257</v>
+        <v>1696</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1258</v>
+        <v>1697</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1259</v>
+        <v>1698</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1260</v>
+        <v>1699</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1261</v>
+        <v>1700</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1262</v>
+        <v>1701</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1263</v>
+        <v>1702</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>1264</v>
+        <v>1703</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>1265</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1207</v>
+        <v>1645</v>
       </c>
       <c r="B3" s="0">
         <v>2.4239999999999999</v>
@@ -11129,7 +12645,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1208</v>
+        <v>1646</v>
       </c>
       <c r="B4" s="0">
         <v>-0.034000000000000002</v>
@@ -11156,7 +12672,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1209</v>
+        <v>1647</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -11181,7 +12697,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1210</v>
+        <v>1648</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -11206,7 +12722,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1211</v>
+        <v>1649</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -11233,7 +12749,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1212</v>
+        <v>1650</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -11260,7 +12776,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1213</v>
+        <v>1651</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -11285,7 +12801,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1214</v>
+        <v>1652</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -11310,7 +12826,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1215</v>
+        <v>1653</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -11337,7 +12853,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1216</v>
+        <v>1654</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -11364,7 +12880,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1217</v>
+        <v>1655</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -11389,7 +12905,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1218</v>
+        <v>1656</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -11414,7 +12930,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1219</v>
+        <v>1657</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -11439,7 +12955,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1220</v>
+        <v>1658</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -11466,7 +12982,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1221</v>
+        <v>1659</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -11493,7 +13009,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1222</v>
+        <v>1660</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -11518,7 +13034,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1223</v>
+        <v>1661</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -11543,7 +13059,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1224</v>
+        <v>1662</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -11570,7 +13086,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1225</v>
+        <v>1663</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -11597,7 +13113,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1226</v>
+        <v>1664</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -11622,7 +13138,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1227</v>
+        <v>1665</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -11647,7 +13163,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1228</v>
+        <v>1666</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -11674,7 +13190,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1229</v>
+        <v>1667</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -11701,7 +13217,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1230</v>
+        <v>1668</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -11726,7 +13242,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1231</v>
+        <v>1669</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -11751,7 +13267,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1232</v>
+        <v>1670</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -11776,7 +13292,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1233</v>
+        <v>1671</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -11803,7 +13319,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1234</v>
+        <v>1672</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -11830,7 +13346,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1235</v>
+        <v>1673</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -11855,7 +13371,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1236</v>
+        <v>1674</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -11880,7 +13396,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1237</v>
+        <v>1675</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -11907,7 +13423,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1238</v>
+        <v>1676</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -11934,7 +13450,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1239</v>
+        <v>1677</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -11959,7 +13475,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1240</v>
+        <v>1678</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -11984,7 +13500,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1241</v>
+        <v>1679</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -12009,7 +13525,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1242</v>
+        <v>1680</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -12036,7 +13552,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1243</v>
+        <v>1681</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -12063,7 +13579,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1244</v>
+        <v>1682</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -12088,7 +13604,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1245</v>
+        <v>1683</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -12113,7 +13629,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1246</v>
+        <v>1684</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -12140,7 +13656,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1247</v>
+        <v>1685</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -12167,7 +13683,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1248</v>
+        <v>1686</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -12192,7 +13708,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1249</v>
+        <v>1687</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -12217,7 +13733,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1250</v>
+        <v>1688</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -12244,7 +13760,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1251</v>
+        <v>1689</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -12269,6 +13785,31 @@
         <v>2.3319999999999999</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0">
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="N48" s="0">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="O48" s="0">
+        <v>2.2970000000000002</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/uploads/US_d0.xlsx
+++ b/uploads/US_d0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="2154">
   <si>
     <t>Row</t>
   </si>
@@ -5093,6 +5093,1344 @@
   </si>
   <si>
     <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
   </si>
   <si>
     <t>Sep-23</t>
@@ -5164,7 +6502,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="113">
+  <borders count="141">
     <border>
       <left/>
       <right/>
@@ -5284,11 +6622,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -5402,6 +6768,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5411,7 +6805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5426,41 +6820,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1324</v>
+        <v>1764</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1325</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1323</v>
+        <v>1763</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1316</v>
+        <v>1756</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1317</v>
+        <v>1757</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1318</v>
+        <v>1758</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1319</v>
+        <v>1759</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1320</v>
+        <v>1760</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1321</v>
+        <v>1761</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1322</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1270</v>
+        <v>1709</v>
       </c>
       <c r="B3" s="0">
         <v>1.599</v>
@@ -5480,7 +6874,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1271</v>
+        <v>1710</v>
       </c>
       <c r="B4" s="0">
         <v>1.3109999999999999</v>
@@ -5500,7 +6894,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1272</v>
+        <v>1711</v>
       </c>
       <c r="B5" s="0">
         <v>3.6320000000000001</v>
@@ -5520,7 +6914,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1273</v>
+        <v>1712</v>
       </c>
       <c r="B6" s="0">
         <v>5.5919999999999996</v>
@@ -5540,7 +6934,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1274</v>
+        <v>1713</v>
       </c>
       <c r="B7" s="0">
         <v>2.8439999999999999</v>
@@ -5560,7 +6954,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1275</v>
+        <v>1714</v>
       </c>
       <c r="B8" s="0">
         <v>2.7589999999999999</v>
@@ -5580,7 +6974,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1276</v>
+        <v>1715</v>
       </c>
       <c r="B9" s="0">
         <v>4.4939999999999998</v>
@@ -5600,7 +6994,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1277</v>
+        <v>1716</v>
       </c>
       <c r="B10" s="0">
         <v>4.5359999999999996</v>
@@ -5620,7 +7014,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1278</v>
+        <v>1717</v>
       </c>
       <c r="B11" s="0">
         <v>4.3780000000000001</v>
@@ -5640,7 +7034,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1279</v>
+        <v>1718</v>
       </c>
       <c r="B12" s="0">
         <v>3.516</v>
@@ -5660,7 +7054,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1280</v>
+        <v>1719</v>
       </c>
       <c r="B13" s="0">
         <v>3.4630000000000001</v>
@@ -5680,7 +7074,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1281</v>
+        <v>1720</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -5698,7 +7092,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1282</v>
+        <v>1721</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -5716,7 +7110,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1283</v>
+        <v>1722</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -5736,7 +7130,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1284</v>
+        <v>1723</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0">
@@ -5756,7 +7150,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1285</v>
+        <v>1724</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0">
@@ -5776,7 +7170,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1286</v>
+        <v>1725</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0">
@@ -5796,7 +7190,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1287</v>
+        <v>1726</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0">
@@ -5816,7 +7210,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1288</v>
+        <v>1727</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0">
@@ -5836,7 +7230,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1289</v>
+        <v>1728</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0">
@@ -5856,7 +7250,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1290</v>
+        <v>1729</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0">
@@ -5876,7 +7270,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1291</v>
+        <v>1730</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0">
@@ -5896,7 +7290,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1292</v>
+        <v>1731</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0">
@@ -5916,7 +7310,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1293</v>
+        <v>1732</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0">
@@ -5936,7 +7330,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1294</v>
+        <v>1733</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0">
@@ -5956,7 +7350,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1295</v>
+        <v>1734</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -5974,7 +7368,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1296</v>
+        <v>1735</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -5994,7 +7388,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1297</v>
+        <v>1736</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -6014,7 +7408,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1298</v>
+        <v>1737</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -6034,7 +7428,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1299</v>
+        <v>1738</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -6054,7 +7448,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1300</v>
+        <v>1739</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -6074,7 +7468,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1301</v>
+        <v>1740</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -6094,7 +7488,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1302</v>
+        <v>1741</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -6114,7 +7508,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1303</v>
+        <v>1742</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -6134,7 +7528,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1304</v>
+        <v>1743</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -6154,7 +7548,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1305</v>
+        <v>1744</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -6174,7 +7568,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1306</v>
+        <v>1745</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -6194,7 +7588,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1307</v>
+        <v>1746</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -6214,7 +7608,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1308</v>
+        <v>1747</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -6232,7 +7626,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1309</v>
+        <v>1748</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -6252,7 +7646,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1310</v>
+        <v>1749</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -6272,7 +7666,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1311</v>
+        <v>1750</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -6292,7 +7686,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1312</v>
+        <v>1751</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -6312,7 +7706,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1313</v>
+        <v>1752</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -6332,7 +7726,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1314</v>
+        <v>1753</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -6352,7 +7746,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1315</v>
+        <v>1754</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
@@ -6367,6 +7761,26 @@
         <v>2.5800000000000001</v>
       </c>
       <c r="H48" s="0">
+        <v>2.6520000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0">
+        <v>3.2519999999999998</v>
+      </c>
+      <c r="F49" s="0">
+        <v>4.2809999999999997</v>
+      </c>
+      <c r="G49" s="0">
+        <v>2.581</v>
+      </c>
+      <c r="H49" s="0">
         <v>2.6520000000000001</v>
       </c>
     </row>
@@ -6376,7 +7790,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6398,62 +7812,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1388</v>
+        <v>1829</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1389</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1387</v>
+        <v>1828</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1373</v>
+        <v>1814</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1374</v>
+        <v>1815</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1375</v>
+        <v>1816</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1376</v>
+        <v>1817</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1377</v>
+        <v>1818</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1378</v>
+        <v>1819</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1379</v>
+        <v>1820</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1380</v>
+        <v>1821</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1381</v>
+        <v>1822</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1382</v>
+        <v>1823</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1383</v>
+        <v>1824</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1384</v>
+        <v>1825</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>1385</v>
+        <v>1826</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>1386</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1327</v>
+        <v>1767</v>
       </c>
       <c r="B3" s="0">
         <v>4.8330000000000002</v>
@@ -6480,7 +7894,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1328</v>
+        <v>1768</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -6505,7 +7919,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1329</v>
+        <v>1769</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6530,7 +7944,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1330</v>
+        <v>1770</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6555,7 +7969,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1331</v>
+        <v>1771</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6582,7 +7996,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1332</v>
+        <v>1772</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6609,7 +8023,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1333</v>
+        <v>1773</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6634,7 +8048,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1334</v>
+        <v>1774</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6659,7 +8073,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1335</v>
+        <v>1775</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6686,7 +8100,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1336</v>
+        <v>1776</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6713,7 +8127,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1337</v>
+        <v>1777</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6738,7 +8152,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1338</v>
+        <v>1778</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6763,7 +8177,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1339</v>
+        <v>1779</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6788,7 +8202,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1340</v>
+        <v>1780</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6815,7 +8229,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1341</v>
+        <v>1781</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6840,7 +8254,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1342</v>
+        <v>1782</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6865,7 +8279,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1343</v>
+        <v>1783</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -6890,7 +8304,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1344</v>
+        <v>1784</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -6917,7 +8331,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1345</v>
+        <v>1785</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -6944,7 +8358,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1346</v>
+        <v>1786</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -6969,7 +8383,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1347</v>
+        <v>1787</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -6994,7 +8408,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1348</v>
+        <v>1788</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -7021,7 +8435,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1349</v>
+        <v>1789</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -7048,7 +8462,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1350</v>
+        <v>1790</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -7073,7 +8487,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1351</v>
+        <v>1791</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -7098,7 +8512,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1352</v>
+        <v>1792</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -7123,7 +8537,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1353</v>
+        <v>1793</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -7150,7 +8564,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1354</v>
+        <v>1794</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -7175,7 +8589,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1355</v>
+        <v>1795</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -7200,7 +8614,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1356</v>
+        <v>1796</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -7225,7 +8639,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1357</v>
+        <v>1797</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -7252,7 +8666,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1358</v>
+        <v>1798</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -7279,7 +8693,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1359</v>
+        <v>1799</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -7304,7 +8718,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1360</v>
+        <v>1800</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -7329,7 +8743,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1361</v>
+        <v>1801</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -7354,7 +8768,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1362</v>
+        <v>1802</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -7381,7 +8795,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1363</v>
+        <v>1803</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -7406,7 +8820,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1364</v>
+        <v>1804</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -7431,7 +8845,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1365</v>
+        <v>1805</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -7456,7 +8870,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1366</v>
+        <v>1806</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -7483,7 +8897,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1367</v>
+        <v>1807</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -7508,7 +8922,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1368</v>
+        <v>1808</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -7533,7 +8947,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1369</v>
+        <v>1809</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -7558,7 +8972,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1370</v>
+        <v>1810</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -7585,7 +8999,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1371</v>
+        <v>1811</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -7612,7 +9026,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1372</v>
+        <v>1812</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
@@ -7635,13 +9049,38 @@
         <v>2.6179999999999999</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0">
+        <v>2.819</v>
+      </c>
+      <c r="N49" s="0">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="O49" s="0">
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7663,62 +9102,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1452</v>
+        <v>1894</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1453</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1451</v>
+        <v>1893</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1437</v>
+        <v>1879</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1438</v>
+        <v>1880</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1439</v>
+        <v>1881</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1440</v>
+        <v>1882</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1441</v>
+        <v>1883</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1442</v>
+        <v>1884</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1443</v>
+        <v>1885</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1444</v>
+        <v>1886</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1445</v>
+        <v>1887</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1446</v>
+        <v>1888</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1447</v>
+        <v>1889</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1448</v>
+        <v>1890</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>1449</v>
+        <v>1891</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>1450</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1391</v>
+        <v>1832</v>
       </c>
       <c r="B3" s="0">
         <v>3.8290000000000002</v>
@@ -7745,7 +9184,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1392</v>
+        <v>1833</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -7770,7 +9209,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1393</v>
+        <v>1834</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7795,7 +9234,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1394</v>
+        <v>1835</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7820,7 +9259,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1395</v>
+        <v>1836</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7847,7 +9286,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1396</v>
+        <v>1837</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7874,7 +9313,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1397</v>
+        <v>1838</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -7899,7 +9338,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1398</v>
+        <v>1839</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -7924,7 +9363,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1399</v>
+        <v>1840</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -7951,7 +9390,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1400</v>
+        <v>1841</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7978,7 +9417,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1401</v>
+        <v>1842</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8003,7 +9442,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1402</v>
+        <v>1843</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8028,7 +9467,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1403</v>
+        <v>1844</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8053,7 +9492,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1404</v>
+        <v>1845</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8080,7 +9519,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1405</v>
+        <v>1846</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -8105,7 +9544,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1406</v>
+        <v>1847</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -8130,7 +9569,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1407</v>
+        <v>1848</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -8155,7 +9594,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1408</v>
+        <v>1849</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -8182,7 +9621,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1409</v>
+        <v>1850</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -8209,7 +9648,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1410</v>
+        <v>1851</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -8234,7 +9673,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1411</v>
+        <v>1852</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8259,7 +9698,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1412</v>
+        <v>1853</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8286,7 +9725,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1413</v>
+        <v>1854</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -8313,7 +9752,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1414</v>
+        <v>1855</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -8338,7 +9777,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1415</v>
+        <v>1856</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -8363,7 +9802,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1416</v>
+        <v>1857</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -8388,7 +9827,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1417</v>
+        <v>1858</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -8415,7 +9854,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1418</v>
+        <v>1859</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -8440,7 +9879,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1419</v>
+        <v>1860</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -8465,7 +9904,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1420</v>
+        <v>1861</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -8490,7 +9929,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1421</v>
+        <v>1862</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -8517,7 +9956,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1422</v>
+        <v>1863</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -8544,7 +9983,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1423</v>
+        <v>1864</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -8569,7 +10008,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1424</v>
+        <v>1865</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -8594,7 +10033,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1425</v>
+        <v>1866</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -8619,7 +10058,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1426</v>
+        <v>1867</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -8646,7 +10085,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1427</v>
+        <v>1868</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -8671,7 +10110,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1428</v>
+        <v>1869</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -8696,7 +10135,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1429</v>
+        <v>1870</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -8721,7 +10160,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1430</v>
+        <v>1871</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -8748,7 +10187,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1431</v>
+        <v>1872</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -8773,7 +10212,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1432</v>
+        <v>1873</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -8798,7 +10237,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1433</v>
+        <v>1874</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -8823,7 +10262,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1434</v>
+        <v>1875</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -8850,7 +10289,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1435</v>
+        <v>1876</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -8877,7 +10316,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1436</v>
+        <v>1877</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
@@ -8900,13 +10339,38 @@
         <v>2.407</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0">
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="N49" s="0">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="O49" s="0">
+        <v>2.4649999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -8928,62 +10392,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1516</v>
+        <v>1959</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1517</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1515</v>
+        <v>1958</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1501</v>
+        <v>1944</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1502</v>
+        <v>1945</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1503</v>
+        <v>1946</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1504</v>
+        <v>1947</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1505</v>
+        <v>1948</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1506</v>
+        <v>1949</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1507</v>
+        <v>1950</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1508</v>
+        <v>1951</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1509</v>
+        <v>1952</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1510</v>
+        <v>1953</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1511</v>
+        <v>1954</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1512</v>
+        <v